--- a/doc/API_Design/API_Spec/BLOG_API_Spec.xlsx
+++ b/doc/API_Design/API_Spec/BLOG_API_Spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="927" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="927" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="474">
   <si>
     <t>Description</t>
   </si>
@@ -2423,7 +2423,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2912,45 +2912,48 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="411" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2982,16 +2985,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3019,21 +3012,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3046,41 +3024,62 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3112,17 +3111,14 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3139,6 +3135,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="411" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3153,13 +3152,18 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3171,16 +3175,22 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3188,17 +3198,6 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -17398,13 +17397,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>61686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1445079</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17876,13 +17875,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>56696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18142,13 +18141,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1581150</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23231,77 +23230,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="253" t="s">
+      <c r="B1" s="219"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="258" t="s">
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="259"/>
-      <c r="M1" s="260"/>
-      <c r="N1" s="240" t="s">
+      <c r="L1" s="224"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="241"/>
-      <c r="P1" s="241"/>
-      <c r="Q1" s="241"/>
-      <c r="R1" s="241"/>
-      <c r="S1" s="241"/>
-      <c r="T1" s="241"/>
-      <c r="U1" s="242"/>
-      <c r="V1" s="261" t="s">
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
+      <c r="S1" s="227"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="229" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="262"/>
-      <c r="X1" s="262"/>
-      <c r="Y1" s="262"/>
-      <c r="Z1" s="262"/>
-      <c r="AA1" s="262"/>
-      <c r="AB1" s="262"/>
-      <c r="AC1" s="262"/>
-      <c r="AD1" s="263"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="230"/>
+      <c r="Y1" s="230"/>
+      <c r="Z1" s="230"/>
+      <c r="AA1" s="230"/>
+      <c r="AB1" s="230"/>
+      <c r="AC1" s="230"/>
+      <c r="AD1" s="231"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="218" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="253" t="s">
+      <c r="B2" s="219"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="221" t="s">
         <v>445</v>
       </c>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
       <c r="K2" s="235" t="s">
         <v>33</v>
       </c>
       <c r="L2" s="236"/>
       <c r="M2" s="237"/>
-      <c r="N2" s="255" t="s">
+      <c r="N2" s="247" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="256"/>
-      <c r="P2" s="256"/>
-      <c r="Q2" s="256"/>
-      <c r="R2" s="256"/>
-      <c r="S2" s="256"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="257"/>
+      <c r="O2" s="248"/>
+      <c r="P2" s="248"/>
+      <c r="Q2" s="248"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="248"/>
+      <c r="T2" s="248"/>
+      <c r="U2" s="249"/>
       <c r="V2" s="232" t="s">
         <v>150</v>
       </c>
@@ -23338,196 +23337,196 @@
       </c>
       <c r="L3" s="236"/>
       <c r="M3" s="237"/>
-      <c r="N3" s="240" t="s">
+      <c r="N3" s="226" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="241"/>
-      <c r="P3" s="241"/>
-      <c r="Q3" s="241"/>
-      <c r="R3" s="241"/>
-      <c r="S3" s="241"/>
-      <c r="T3" s="241"/>
-      <c r="U3" s="242"/>
-      <c r="V3" s="243" t="s">
+      <c r="O3" s="227"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="W3" s="244"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="246">
+      <c r="W3" s="241"/>
+      <c r="X3" s="242"/>
+      <c r="Y3" s="243">
         <v>41961</v>
       </c>
-      <c r="Z3" s="247"/>
-      <c r="AA3" s="248"/>
-      <c r="AB3" s="249">
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="245"/>
+      <c r="AB3" s="246">
         <v>41967</v>
       </c>
-      <c r="AC3" s="247"/>
-      <c r="AD3" s="248"/>
+      <c r="AC3" s="244"/>
+      <c r="AD3" s="245"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230" t="s">
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230" t="s">
+      <c r="G8" s="262"/>
+      <c r="H8" s="262" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="230"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="230" t="s">
+      <c r="I8" s="262"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="230"/>
-      <c r="M8" s="230"/>
-      <c r="N8" s="230"/>
-      <c r="O8" s="230"/>
-      <c r="P8" s="230"/>
-      <c r="Q8" s="230"/>
-      <c r="R8" s="230"/>
-      <c r="S8" s="230"/>
-      <c r="T8" s="230"/>
-      <c r="U8" s="230"/>
-      <c r="V8" s="230"/>
-      <c r="W8" s="230"/>
-      <c r="X8" s="230" t="s">
+      <c r="L8" s="262"/>
+      <c r="M8" s="262"/>
+      <c r="N8" s="262"/>
+      <c r="O8" s="262"/>
+      <c r="P8" s="262"/>
+      <c r="Q8" s="262"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="262"/>
+      <c r="T8" s="262"/>
+      <c r="U8" s="262"/>
+      <c r="V8" s="262"/>
+      <c r="W8" s="262"/>
+      <c r="X8" s="262" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="230"/>
-      <c r="Z8" s="230"/>
-      <c r="AA8" s="230"/>
-      <c r="AB8" s="230"/>
-      <c r="AC8" s="230"/>
+      <c r="Y8" s="262"/>
+      <c r="Z8" s="262"/>
+      <c r="AA8" s="262"/>
+      <c r="AB8" s="262"/>
+      <c r="AC8" s="262"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="231">
+      <c r="B9" s="250">
         <v>41961</v>
       </c>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="222" t="s">
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="252"/>
+      <c r="F9" s="253" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="223"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="221"/>
-      <c r="K9" s="224"/>
-      <c r="L9" s="225"/>
-      <c r="M9" s="225"/>
-      <c r="N9" s="225"/>
-      <c r="O9" s="225"/>
-      <c r="P9" s="225"/>
-      <c r="Q9" s="225"/>
-      <c r="R9" s="225"/>
-      <c r="S9" s="225"/>
-      <c r="T9" s="225"/>
-      <c r="U9" s="225"/>
-      <c r="V9" s="225"/>
-      <c r="W9" s="226"/>
-      <c r="X9" s="227"/>
-      <c r="Y9" s="228"/>
-      <c r="Z9" s="228"/>
-      <c r="AA9" s="228"/>
-      <c r="AB9" s="228"/>
-      <c r="AC9" s="229"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="255"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="256"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="257"/>
+      <c r="P9" s="257"/>
+      <c r="Q9" s="257"/>
+      <c r="R9" s="257"/>
+      <c r="S9" s="257"/>
+      <c r="T9" s="257"/>
+      <c r="U9" s="257"/>
+      <c r="V9" s="257"/>
+      <c r="W9" s="258"/>
+      <c r="X9" s="259"/>
+      <c r="Y9" s="260"/>
+      <c r="Z9" s="260"/>
+      <c r="AA9" s="260"/>
+      <c r="AB9" s="260"/>
+      <c r="AC9" s="261"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="219"/>
-      <c r="C10" s="220"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="220"/>
-      <c r="J10" s="221"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="225"/>
-      <c r="M10" s="225"/>
-      <c r="N10" s="225"/>
-      <c r="O10" s="225"/>
-      <c r="P10" s="225"/>
-      <c r="Q10" s="225"/>
-      <c r="R10" s="225"/>
-      <c r="S10" s="225"/>
-      <c r="T10" s="225"/>
-      <c r="U10" s="225"/>
-      <c r="V10" s="225"/>
-      <c r="W10" s="226"/>
-      <c r="X10" s="227"/>
-      <c r="Y10" s="228"/>
-      <c r="Z10" s="228"/>
-      <c r="AA10" s="228"/>
-      <c r="AB10" s="228"/>
-      <c r="AC10" s="229"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="255"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="256"/>
+      <c r="L10" s="257"/>
+      <c r="M10" s="257"/>
+      <c r="N10" s="257"/>
+      <c r="O10" s="257"/>
+      <c r="P10" s="257"/>
+      <c r="Q10" s="257"/>
+      <c r="R10" s="257"/>
+      <c r="S10" s="257"/>
+      <c r="T10" s="257"/>
+      <c r="U10" s="257"/>
+      <c r="V10" s="257"/>
+      <c r="W10" s="258"/>
+      <c r="X10" s="259"/>
+      <c r="Y10" s="260"/>
+      <c r="Z10" s="260"/>
+      <c r="AA10" s="260"/>
+      <c r="AB10" s="260"/>
+      <c r="AC10" s="261"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="219"/>
-      <c r="C11" s="220"/>
-      <c r="D11" s="220"/>
-      <c r="E11" s="221"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="220"/>
-      <c r="J11" s="221"/>
-      <c r="K11" s="224"/>
-      <c r="L11" s="225"/>
-      <c r="M11" s="225"/>
-      <c r="N11" s="225"/>
-      <c r="O11" s="225"/>
-      <c r="P11" s="225"/>
-      <c r="Q11" s="225"/>
-      <c r="R11" s="225"/>
-      <c r="S11" s="225"/>
-      <c r="T11" s="225"/>
-      <c r="U11" s="225"/>
-      <c r="V11" s="225"/>
-      <c r="W11" s="226"/>
-      <c r="X11" s="227"/>
-      <c r="Y11" s="228"/>
-      <c r="Z11" s="228"/>
-      <c r="AA11" s="228"/>
-      <c r="AB11" s="228"/>
-      <c r="AC11" s="229"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="255"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="256"/>
+      <c r="L11" s="257"/>
+      <c r="M11" s="257"/>
+      <c r="N11" s="257"/>
+      <c r="O11" s="257"/>
+      <c r="P11" s="257"/>
+      <c r="Q11" s="257"/>
+      <c r="R11" s="257"/>
+      <c r="S11" s="257"/>
+      <c r="T11" s="257"/>
+      <c r="U11" s="257"/>
+      <c r="V11" s="257"/>
+      <c r="W11" s="258"/>
+      <c r="X11" s="259"/>
+      <c r="Y11" s="260"/>
+      <c r="Z11" s="260"/>
+      <c r="AA11" s="260"/>
+      <c r="AB11" s="260"/>
+      <c r="AC11" s="261"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="219"/>
-      <c r="C12" s="220"/>
-      <c r="D12" s="220"/>
-      <c r="E12" s="221"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="220"/>
-      <c r="J12" s="221"/>
-      <c r="K12" s="224"/>
-      <c r="L12" s="225"/>
-      <c r="M12" s="225"/>
-      <c r="N12" s="225"/>
-      <c r="O12" s="225"/>
-      <c r="P12" s="225"/>
-      <c r="Q12" s="225"/>
-      <c r="R12" s="225"/>
-      <c r="S12" s="225"/>
-      <c r="T12" s="225"/>
-      <c r="U12" s="225"/>
-      <c r="V12" s="225"/>
-      <c r="W12" s="226"/>
-      <c r="X12" s="227"/>
-      <c r="Y12" s="228"/>
-      <c r="Z12" s="228"/>
-      <c r="AA12" s="228"/>
-      <c r="AB12" s="228"/>
-      <c r="AC12" s="229"/>
+      <c r="B12" s="255"/>
+      <c r="C12" s="251"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="255"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="252"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="257"/>
+      <c r="M12" s="257"/>
+      <c r="N12" s="257"/>
+      <c r="O12" s="257"/>
+      <c r="P12" s="257"/>
+      <c r="Q12" s="257"/>
+      <c r="R12" s="257"/>
+      <c r="S12" s="257"/>
+      <c r="T12" s="257"/>
+      <c r="U12" s="257"/>
+      <c r="V12" s="257"/>
+      <c r="W12" s="258"/>
+      <c r="X12" s="259"/>
+      <c r="Y12" s="260"/>
+      <c r="Z12" s="260"/>
+      <c r="AA12" s="260"/>
+      <c r="AB12" s="260"/>
+      <c r="AC12" s="261"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -23557,11 +23556,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -23576,31 +23595,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23617,7 +23616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:L15"/>
     </sheetView>
   </sheetViews>
@@ -23703,11 +23702,11 @@
       <c r="C4" s="280" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="281"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
@@ -23722,11 +23721,11 @@
         <v>123</v>
       </c>
       <c r="C5" s="280"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="281"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
@@ -23764,11 +23763,11 @@
       <c r="C7" s="280" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="281"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
@@ -23806,11 +23805,11 @@
       <c r="C9" s="280" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="281"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
@@ -23874,19 +23873,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="282" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="284"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -23915,11 +23914,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="283" t="s">
+      <c r="J14" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="283"/>
-      <c r="L14" s="283"/>
+      <c r="K14" s="279"/>
+      <c r="L14" s="279"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -23944,11 +23943,11 @@
       <c r="I15" s="130" t="s">
         <v>446</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="288" t="s">
         <v>372</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="288"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -24093,11 +24092,11 @@
     </row>
     <row r="24" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="179"/>
-      <c r="B24" s="294" t="s">
+      <c r="B24" s="293" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="294"/>
-      <c r="D24" s="294"/>
+      <c r="C24" s="293"/>
+      <c r="D24" s="293"/>
       <c r="E24" s="180"/>
       <c r="F24" s="181"/>
       <c r="G24" s="180"/>
@@ -24112,12 +24111,12 @@
     </row>
     <row r="25" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="174"/>
-      <c r="B25" s="287" t="s">
+      <c r="B25" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="288"/>
-      <c r="D25" s="288"/>
-      <c r="E25" s="289"/>
+      <c r="C25" s="286"/>
+      <c r="D25" s="286"/>
+      <c r="E25" s="287"/>
       <c r="F25" s="175" t="s">
         <v>125</v>
       </c>
@@ -24631,11 +24630,11 @@
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="154"/>
-      <c r="B50" s="291" t="s">
+      <c r="B50" s="290" t="s">
         <v>334</v>
       </c>
-      <c r="C50" s="291"/>
-      <c r="D50" s="291"/>
+      <c r="C50" s="290"/>
+      <c r="D50" s="290"/>
       <c r="E50" s="154"/>
       <c r="F50" s="154"/>
       <c r="G50" s="154"/>
@@ -24652,12 +24651,12 @@
     </row>
     <row r="51" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="174"/>
-      <c r="B51" s="287" t="s">
+      <c r="B51" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="288"/>
-      <c r="D51" s="288"/>
-      <c r="E51" s="289"/>
+      <c r="C51" s="286"/>
+      <c r="D51" s="286"/>
+      <c r="E51" s="287"/>
       <c r="F51" s="175" t="s">
         <v>125</v>
       </c>
@@ -24815,7 +24814,7 @@
       <c r="A56" s="154"/>
       <c r="B56" s="168"/>
       <c r="C56" s="172"/>
-      <c r="D56" s="295" t="s">
+      <c r="D56" s="294" t="s">
         <v>195</v>
       </c>
       <c r="E56" s="281"/>
@@ -25303,13 +25302,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="D54:E54"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="D28:E28"/>
@@ -25321,6 +25313,13 @@
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -25420,11 +25419,11 @@
       <c r="C4" s="280" t="s">
         <v>387</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="281"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
@@ -25441,11 +25440,11 @@
       <c r="C5" s="280" t="s">
         <v>386</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="281"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
@@ -25483,11 +25482,11 @@
       <c r="C7" s="280" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="281"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
@@ -25525,11 +25524,11 @@
       <c r="C9" s="280" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="281"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
@@ -25593,19 +25592,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="282" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="284"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -25634,11 +25633,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="283" t="s">
+      <c r="J14" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="283"/>
-      <c r="L14" s="283"/>
+      <c r="K14" s="279"/>
+      <c r="L14" s="279"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -25663,11 +25662,11 @@
       <c r="I15" s="196" t="s">
         <v>384</v>
       </c>
-      <c r="J15" s="296" t="s">
+      <c r="J15" s="295" t="s">
         <v>383</v>
       </c>
-      <c r="K15" s="296"/>
-      <c r="L15" s="296"/>
+      <c r="K15" s="295"/>
+      <c r="L15" s="295"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -25829,11 +25828,11 @@
     </row>
     <row r="25" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="179"/>
-      <c r="B25" s="294" t="s">
+      <c r="B25" s="293" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="180"/>
       <c r="F25" s="181"/>
       <c r="G25" s="180"/>
@@ -25848,12 +25847,12 @@
     </row>
     <row r="26" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="287" t="s">
+      <c r="B26" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="288"/>
-      <c r="D26" s="288"/>
-      <c r="E26" s="289"/>
+      <c r="C26" s="286"/>
+      <c r="D26" s="286"/>
+      <c r="E26" s="287"/>
       <c r="F26" s="175" t="s">
         <v>125</v>
       </c>
@@ -26077,10 +26076,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="292" t="s">
+      <c r="D33" s="291" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="293"/>
+      <c r="E33" s="292"/>
       <c r="F33" s="162" t="s">
         <v>348</v>
       </c>
@@ -27173,6 +27172,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D32:E32"/>
@@ -27182,11 +27186,6 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -27881,15 +27880,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="298" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="305"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -27902,15 +27901,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="298" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -27944,15 +27943,15 @@
       <c r="B7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="306" t="s">
+      <c r="C7" s="296" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -27986,15 +27985,15 @@
       <c r="B9" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="304"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="305"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -28057,19 +28056,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="308"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="309"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -28098,11 +28097,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="310" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -28127,11 +28126,11 @@
       <c r="I15" s="130" t="s">
         <v>282</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="307" t="s">
         <v>283</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -28160,9 +28159,9 @@
       <c r="I16" s="130" t="s">
         <v>288</v>
       </c>
-      <c r="J16" s="298"/>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -28353,11 +28352,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="299" t="s">
+      <c r="B27" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -28372,12 +28371,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="301"/>
-      <c r="D28" s="301"/>
-      <c r="E28" s="302"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -28469,10 +28468,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="305"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -28502,10 +28501,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="305"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>174</v>
       </c>
@@ -28568,10 +28567,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="303" t="s">
+      <c r="D34" s="298" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="305"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="105" t="s">
         <v>274</v>
       </c>
@@ -28601,10 +28600,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="311" t="s">
+      <c r="D35" s="299" t="s">
         <v>284</v>
       </c>
-      <c r="E35" s="312"/>
+      <c r="E35" s="300"/>
       <c r="F35" s="105" t="s">
         <v>285</v>
       </c>
@@ -28994,11 +28993,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="313" t="s">
+      <c r="B56" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="313"/>
-      <c r="D56" s="313"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="301"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -29015,12 +29014,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="300" t="s">
+      <c r="B57" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="301"/>
-      <c r="D57" s="301"/>
-      <c r="E57" s="302"/>
+      <c r="C57" s="303"/>
+      <c r="D57" s="303"/>
+      <c r="E57" s="304"/>
       <c r="F57" s="115" t="s">
         <v>125</v>
       </c>
@@ -29112,10 +29111,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="303" t="s">
+      <c r="D60" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E60" s="305"/>
+      <c r="E60" s="297"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -29145,10 +29144,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="303" t="s">
+      <c r="D61" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="314"/>
+      <c r="E61" s="305"/>
       <c r="F61" s="105" t="s">
         <v>190</v>
       </c>
@@ -29178,10 +29177,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="315" t="s">
+      <c r="D62" s="306" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="314"/>
+      <c r="E62" s="305"/>
       <c r="F62" s="105" t="s">
         <v>193</v>
       </c>
@@ -29275,8 +29274,8 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="92"/>
-      <c r="D65" s="306"/>
-      <c r="E65" s="305"/>
+      <c r="D65" s="296"/>
+      <c r="E65" s="297"/>
       <c r="F65" s="74"/>
       <c r="G65" s="76"/>
       <c r="H65" s="76"/>
@@ -29666,6 +29665,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
@@ -29676,16 +29685,6 @@
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -29783,15 +29782,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="298" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="305"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -29804,15 +29803,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="298" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -29846,15 +29845,15 @@
       <c r="B7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="303" t="s">
+      <c r="C7" s="298" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -29888,15 +29887,15 @@
       <c r="B9" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="304"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="305"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -29959,19 +29958,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="308"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="309"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -30000,11 +29999,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="310" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -30029,11 +30028,11 @@
       <c r="I15" s="130" t="s">
         <v>277</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="307" t="s">
         <v>298</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -30058,9 +30057,9 @@
       <c r="I16" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="297"/>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -30222,11 +30221,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="299" t="s">
+      <c r="B26" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="309"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -30241,12 +30240,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="300" t="s">
+      <c r="B27" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="301"/>
-      <c r="D27" s="301"/>
-      <c r="E27" s="302"/>
+      <c r="C27" s="303"/>
+      <c r="D27" s="303"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -30338,10 +30337,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="306" t="s">
+      <c r="D30" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="305"/>
+      <c r="E30" s="297"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -30371,10 +30370,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="305"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>174</v>
       </c>
@@ -30437,10 +30436,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="306" t="s">
+      <c r="D33" s="296" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="305"/>
+      <c r="E33" s="297"/>
       <c r="F33" s="74" t="s">
         <v>141</v>
       </c>
@@ -30470,10 +30469,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="303" t="s">
+      <c r="D34" s="298" t="s">
         <v>297</v>
       </c>
-      <c r="E34" s="305"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="105" t="s">
         <v>274</v>
       </c>
@@ -30557,10 +30556,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="317" t="s">
+      <c r="D37" s="316" t="s">
         <v>306</v>
       </c>
-      <c r="E37" s="318"/>
+      <c r="E37" s="317"/>
       <c r="F37" s="139" t="s">
         <v>305</v>
       </c>
@@ -30892,11 +30891,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="313" t="s">
+      <c r="B56" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="313"/>
-      <c r="D56" s="313"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="301"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -30913,12 +30912,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="300" t="s">
+      <c r="B57" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="301"/>
-      <c r="D57" s="301"/>
-      <c r="E57" s="302"/>
+      <c r="C57" s="303"/>
+      <c r="D57" s="303"/>
+      <c r="E57" s="304"/>
       <c r="F57" s="115" t="s">
         <v>125</v>
       </c>
@@ -31010,10 +31009,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="303" t="s">
+      <c r="D60" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E60" s="305"/>
+      <c r="E60" s="297"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -31043,10 +31042,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="303" t="s">
+      <c r="D61" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="314"/>
+      <c r="E61" s="305"/>
       <c r="F61" s="105" t="s">
         <v>190</v>
       </c>
@@ -31076,10 +31075,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="315" t="s">
+      <c r="D62" s="306" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="314"/>
+      <c r="E62" s="305"/>
       <c r="F62" s="105" t="s">
         <v>193</v>
       </c>
@@ -31144,8 +31143,8 @@
       <c r="C64" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="D64" s="316"/>
-      <c r="E64" s="316"/>
+      <c r="D64" s="315"/>
+      <c r="E64" s="315"/>
       <c r="F64" s="74" t="s">
         <v>169</v>
       </c>
@@ -31173,10 +31172,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="77"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="306" t="s">
+      <c r="D65" s="296" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="305"/>
+      <c r="E65" s="297"/>
       <c r="F65" s="74" t="s">
         <v>141</v>
       </c>
@@ -31206,10 +31205,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="77"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="303" t="s">
+      <c r="D66" s="298" t="s">
         <v>297</v>
       </c>
-      <c r="E66" s="305"/>
+      <c r="E66" s="297"/>
       <c r="F66" s="105" t="s">
         <v>274</v>
       </c>
@@ -31293,10 +31292,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="77"/>
       <c r="C69" s="86"/>
-      <c r="D69" s="317" t="s">
+      <c r="D69" s="316" t="s">
         <v>306</v>
       </c>
-      <c r="E69" s="318"/>
+      <c r="E69" s="317"/>
       <c r="F69" s="139" t="s">
         <v>305</v>
       </c>
@@ -31679,6 +31678,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D69:E69"/>
@@ -31693,16 +31702,6 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B56:D56"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -31800,15 +31799,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="298" t="s">
         <v>300</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="305"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31821,15 +31820,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="298" t="s">
         <v>301</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31863,15 +31862,15 @@
       <c r="B7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="303" t="s">
+      <c r="C7" s="298" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31905,15 +31904,15 @@
       <c r="B9" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="304"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="305"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31976,19 +31975,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="308"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="309"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -32017,11 +32016,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="310" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -32046,11 +32045,11 @@
       <c r="I15" s="130" t="s">
         <v>277</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="307" t="s">
         <v>303</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -32075,9 +32074,9 @@
       <c r="I16" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="297"/>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -32239,11 +32238,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="299" t="s">
+      <c r="B26" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="309"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -32258,12 +32257,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="300" t="s">
+      <c r="B27" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="301"/>
-      <c r="D27" s="301"/>
-      <c r="E27" s="302"/>
+      <c r="C27" s="303"/>
+      <c r="D27" s="303"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -32355,10 +32354,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="306" t="s">
+      <c r="D30" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="305"/>
+      <c r="E30" s="297"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -32388,10 +32387,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="305"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>174</v>
       </c>
@@ -32454,10 +32453,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="306" t="s">
+      <c r="D33" s="296" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="305"/>
+      <c r="E33" s="297"/>
       <c r="F33" s="74" t="s">
         <v>141</v>
       </c>
@@ -32487,10 +32486,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="303" t="s">
+      <c r="D34" s="298" t="s">
         <v>297</v>
       </c>
-      <c r="E34" s="305"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="105" t="s">
         <v>274</v>
       </c>
@@ -32574,10 +32573,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="317" t="s">
+      <c r="D37" s="316" t="s">
         <v>306</v>
       </c>
-      <c r="E37" s="318"/>
+      <c r="E37" s="317"/>
       <c r="F37" s="137" t="s">
         <v>305</v>
       </c>
@@ -32909,11 +32908,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="313" t="s">
+      <c r="B56" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="313"/>
-      <c r="D56" s="313"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="301"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -32930,12 +32929,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="300" t="s">
+      <c r="B57" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="301"/>
-      <c r="D57" s="301"/>
-      <c r="E57" s="302"/>
+      <c r="C57" s="303"/>
+      <c r="D57" s="303"/>
+      <c r="E57" s="304"/>
       <c r="F57" s="151" t="s">
         <v>125</v>
       </c>
@@ -33027,10 +33026,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="303" t="s">
+      <c r="D60" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E60" s="305"/>
+      <c r="E60" s="297"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -33060,10 +33059,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="303" t="s">
+      <c r="D61" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="314"/>
+      <c r="E61" s="305"/>
       <c r="F61" s="105" t="s">
         <v>190</v>
       </c>
@@ -33093,10 +33092,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="315" t="s">
+      <c r="D62" s="306" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="314"/>
+      <c r="E62" s="305"/>
       <c r="F62" s="105" t="s">
         <v>193</v>
       </c>
@@ -33161,8 +33160,8 @@
       <c r="C64" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="D64" s="316"/>
-      <c r="E64" s="316"/>
+      <c r="D64" s="315"/>
+      <c r="E64" s="315"/>
       <c r="F64" s="74" t="s">
         <v>169</v>
       </c>
@@ -33190,10 +33189,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="77"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="306" t="s">
+      <c r="D65" s="296" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="305"/>
+      <c r="E65" s="297"/>
       <c r="F65" s="74" t="s">
         <v>141</v>
       </c>
@@ -33223,10 +33222,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="77"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="303" t="s">
+      <c r="D66" s="298" t="s">
         <v>297</v>
       </c>
-      <c r="E66" s="305"/>
+      <c r="E66" s="297"/>
       <c r="F66" s="105" t="s">
         <v>274</v>
       </c>
@@ -33310,10 +33309,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="77"/>
       <c r="C69" s="86"/>
-      <c r="D69" s="317" t="s">
+      <c r="D69" s="316" t="s">
         <v>306</v>
       </c>
-      <c r="E69" s="318"/>
+      <c r="E69" s="317"/>
       <c r="F69" s="139" t="s">
         <v>305</v>
       </c>
@@ -33670,17 +33669,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D37:E37"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
@@ -33694,6 +33682,17 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -33791,15 +33790,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="298" t="s">
         <v>316</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="305"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33812,15 +33811,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="298" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -33854,15 +33853,15 @@
       <c r="B7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="303" t="s">
+      <c r="C7" s="298" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -33896,15 +33895,15 @@
       <c r="B9" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="304"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="305"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -33967,19 +33966,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="308"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="309"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -34008,11 +34007,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="310" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -34037,11 +34036,11 @@
       <c r="I15" s="130" t="s">
         <v>282</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="307" t="s">
         <v>319</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -34066,9 +34065,9 @@
       <c r="I16" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="298"/>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -34286,11 +34285,11 @@
     </row>
     <row r="28" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="69"/>
-      <c r="B28" s="299" t="s">
+      <c r="B28" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="C28" s="299"/>
-      <c r="D28" s="299"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="G28" s="80"/>
@@ -34305,12 +34304,12 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="83"/>
-      <c r="B29" s="300" t="s">
+      <c r="B29" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="301"/>
-      <c r="D29" s="301"/>
-      <c r="E29" s="302"/>
+      <c r="C29" s="303"/>
+      <c r="D29" s="303"/>
+      <c r="E29" s="304"/>
       <c r="F29" s="115" t="s">
         <v>125</v>
       </c>
@@ -34402,10 +34401,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="90"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="305"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>139</v>
       </c>
@@ -34435,10 +34434,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="306" t="s">
+      <c r="D33" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="305"/>
+      <c r="E33" s="297"/>
       <c r="F33" s="74" t="s">
         <v>174</v>
       </c>
@@ -34501,10 +34500,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="303" t="s">
+      <c r="D35" s="298" t="s">
         <v>291</v>
       </c>
-      <c r="E35" s="305"/>
+      <c r="E35" s="297"/>
       <c r="F35" s="105" t="s">
         <v>274</v>
       </c>
@@ -34534,10 +34533,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="311" t="s">
+      <c r="D36" s="299" t="s">
         <v>284</v>
       </c>
-      <c r="E36" s="312"/>
+      <c r="E36" s="300"/>
       <c r="F36" s="105" t="s">
         <v>285</v>
       </c>
@@ -34621,10 +34620,10 @@
       <c r="A39" s="66"/>
       <c r="B39" s="85"/>
       <c r="C39" s="95"/>
-      <c r="D39" s="317" t="s">
+      <c r="D39" s="316" t="s">
         <v>286</v>
       </c>
-      <c r="E39" s="318"/>
+      <c r="E39" s="317"/>
       <c r="F39" s="137" t="s">
         <v>287</v>
       </c>
@@ -34956,11 +34955,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="313" t="s">
+      <c r="B58" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="313"/>
-      <c r="D58" s="313"/>
+      <c r="C58" s="301"/>
+      <c r="D58" s="301"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -34977,12 +34976,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="300" t="s">
+      <c r="B59" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="301"/>
-      <c r="D59" s="301"/>
-      <c r="E59" s="302"/>
+      <c r="C59" s="303"/>
+      <c r="D59" s="303"/>
+      <c r="E59" s="304"/>
       <c r="F59" s="115" t="s">
         <v>125</v>
       </c>
@@ -35074,10 +35073,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="303" t="s">
+      <c r="D62" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E62" s="305"/>
+      <c r="E62" s="297"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -35107,10 +35106,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="303" t="s">
+      <c r="D63" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="314"/>
+      <c r="E63" s="305"/>
       <c r="F63" s="105" t="s">
         <v>190</v>
       </c>
@@ -35140,10 +35139,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="315" t="s">
+      <c r="D64" s="306" t="s">
         <v>195</v>
       </c>
-      <c r="E64" s="314"/>
+      <c r="E64" s="305"/>
       <c r="F64" s="105" t="s">
         <v>193</v>
       </c>
@@ -35237,10 +35236,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="93"/>
       <c r="C67" s="86"/>
-      <c r="D67" s="303" t="s">
+      <c r="D67" s="298" t="s">
         <v>291</v>
       </c>
-      <c r="E67" s="305"/>
+      <c r="E67" s="297"/>
       <c r="F67" s="105" t="s">
         <v>274</v>
       </c>
@@ -35270,10 +35269,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="93"/>
       <c r="C68" s="86"/>
-      <c r="D68" s="311" t="s">
+      <c r="D68" s="299" t="s">
         <v>284</v>
       </c>
-      <c r="E68" s="312"/>
+      <c r="E68" s="300"/>
       <c r="F68" s="105" t="s">
         <v>285</v>
       </c>
@@ -35357,10 +35356,10 @@
       <c r="A71" s="66"/>
       <c r="B71" s="66"/>
       <c r="C71" s="66"/>
-      <c r="D71" s="317" t="s">
+      <c r="D71" s="316" t="s">
         <v>286</v>
       </c>
-      <c r="E71" s="318"/>
+      <c r="E71" s="317"/>
       <c r="F71" s="137" t="s">
         <v>287</v>
       </c>
@@ -35388,8 +35387,8 @@
         <v>180</v>
       </c>
       <c r="C72" s="66"/>
-      <c r="D72" s="319"/>
-      <c r="E72" s="320"/>
+      <c r="D72" s="318"/>
+      <c r="E72" s="319"/>
       <c r="F72" s="75"/>
       <c r="G72" s="75"/>
       <c r="H72" s="75"/>
@@ -35692,17 +35691,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
@@ -35716,6 +35704,17 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D39:E39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -35813,15 +35812,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="298" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="305"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35834,15 +35833,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="298" t="s">
         <v>328</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35876,15 +35875,15 @@
       <c r="B7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="303" t="s">
+      <c r="C7" s="298" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -35918,15 +35917,15 @@
       <c r="B9" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="304"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="305"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -35989,19 +35988,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="308"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="309"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -36030,11 +36029,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="310" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -36059,11 +36058,11 @@
       <c r="I15" s="130" t="s">
         <v>277</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="307" t="s">
         <v>329</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -36088,9 +36087,9 @@
       <c r="I16" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="297"/>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -36252,11 +36251,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="299" t="s">
+      <c r="B26" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="309"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -36271,12 +36270,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="300" t="s">
+      <c r="B27" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="301"/>
-      <c r="D27" s="301"/>
-      <c r="E27" s="302"/>
+      <c r="C27" s="303"/>
+      <c r="D27" s="303"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -36368,10 +36367,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="306" t="s">
+      <c r="D30" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="305"/>
+      <c r="E30" s="297"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -36401,10 +36400,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="305"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>174</v>
       </c>
@@ -36467,8 +36466,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="306"/>
-      <c r="E33" s="305"/>
+      <c r="D33" s="296"/>
+      <c r="E33" s="297"/>
       <c r="F33" s="74"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -36790,11 +36789,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="313" t="s">
+      <c r="B52" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="313"/>
-      <c r="D52" s="313"/>
+      <c r="C52" s="301"/>
+      <c r="D52" s="301"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -36811,12 +36810,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="300" t="s">
+      <c r="B53" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="301"/>
-      <c r="D53" s="301"/>
-      <c r="E53" s="302"/>
+      <c r="C53" s="303"/>
+      <c r="D53" s="303"/>
+      <c r="E53" s="304"/>
       <c r="F53" s="115" t="s">
         <v>125</v>
       </c>
@@ -36908,10 +36907,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="303" t="s">
+      <c r="D56" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E56" s="305"/>
+      <c r="E56" s="297"/>
       <c r="F56" s="74" t="s">
         <v>139</v>
       </c>
@@ -36941,10 +36940,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="303" t="s">
+      <c r="D57" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="314"/>
+      <c r="E57" s="305"/>
       <c r="F57" s="105" t="s">
         <v>190</v>
       </c>
@@ -36974,10 +36973,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="315" t="s">
+      <c r="D58" s="306" t="s">
         <v>195</v>
       </c>
-      <c r="E58" s="314"/>
+      <c r="E58" s="305"/>
       <c r="F58" s="105" t="s">
         <v>193</v>
       </c>
@@ -37437,12 +37436,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -37455,6 +37448,12 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -37552,15 +37551,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="298" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="305"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -37573,15 +37572,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -37615,15 +37614,15 @@
       <c r="B7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="303" t="s">
+      <c r="C7" s="298" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -37657,15 +37656,15 @@
       <c r="B9" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="304"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="305"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -37728,19 +37727,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="308"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="309"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -37769,11 +37768,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="310" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -37788,9 +37787,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="130"/>
-      <c r="J15" s="297"/>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="J15" s="307"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37805,9 +37804,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="298"/>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -37986,11 +37985,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="299" t="s">
+      <c r="B27" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -38005,12 +38004,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="301"/>
-      <c r="D28" s="301"/>
-      <c r="E28" s="302"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -38102,10 +38101,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="305"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -38135,10 +38134,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="305"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>174</v>
       </c>
@@ -38201,10 +38200,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="303" t="s">
+      <c r="D34" s="298" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="305"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="105" t="s">
         <v>274</v>
       </c>
@@ -38234,10 +38233,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="311" t="s">
+      <c r="D35" s="299" t="s">
         <v>284</v>
       </c>
-      <c r="E35" s="312"/>
+      <c r="E35" s="300"/>
       <c r="F35" s="105" t="s">
         <v>285</v>
       </c>
@@ -38573,11 +38572,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="313" t="s">
+      <c r="B54" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="313"/>
-      <c r="D54" s="313"/>
+      <c r="C54" s="301"/>
+      <c r="D54" s="301"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -38594,12 +38593,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="300" t="s">
+      <c r="B55" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="301"/>
-      <c r="D55" s="301"/>
-      <c r="E55" s="302"/>
+      <c r="C55" s="303"/>
+      <c r="D55" s="303"/>
+      <c r="E55" s="304"/>
       <c r="F55" s="115" t="s">
         <v>125</v>
       </c>
@@ -38691,10 +38690,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="303" t="s">
+      <c r="D58" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="305"/>
+      <c r="E58" s="297"/>
       <c r="F58" s="74" t="s">
         <v>139</v>
       </c>
@@ -38724,10 +38723,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="314"/>
+      <c r="E59" s="305"/>
       <c r="F59" s="105" t="s">
         <v>190</v>
       </c>
@@ -38757,10 +38756,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="315" t="s">
+      <c r="D60" s="306" t="s">
         <v>195</v>
       </c>
-      <c r="E60" s="314"/>
+      <c r="E60" s="305"/>
       <c r="F60" s="105" t="s">
         <v>193</v>
       </c>
@@ -38854,8 +38853,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="306"/>
-      <c r="E63" s="305"/>
+      <c r="D63" s="296"/>
+      <c r="E63" s="297"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -39245,14 +39244,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -39265,6 +39256,14 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39358,15 +39357,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="298" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="305"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -39379,13 +39378,13 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="303"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -39419,15 +39418,15 @@
       <c r="B7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="303" t="s">
+      <c r="C7" s="298" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -39461,15 +39460,15 @@
       <c r="B9" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="304"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="305"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -39532,19 +39531,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="308"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="309"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -39573,11 +39572,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="310" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -39602,11 +39601,11 @@
       <c r="I15" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="307" t="s">
         <v>313</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -39621,9 +39620,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="298"/>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -39802,11 +39801,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="299" t="s">
+      <c r="B27" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -39821,12 +39820,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="301"/>
-      <c r="D28" s="301"/>
-      <c r="E28" s="302"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -39918,10 +39917,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="305"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -39951,10 +39950,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="305"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>174</v>
       </c>
@@ -40017,10 +40016,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="303" t="s">
+      <c r="D34" s="298" t="s">
         <v>273</v>
       </c>
-      <c r="E34" s="314"/>
+      <c r="E34" s="305"/>
       <c r="F34" s="105" t="s">
         <v>176</v>
       </c>
@@ -40046,10 +40045,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="303" t="s">
+      <c r="D35" s="298" t="s">
         <v>291</v>
       </c>
-      <c r="E35" s="305"/>
+      <c r="E35" s="297"/>
       <c r="F35" s="105" t="s">
         <v>274</v>
       </c>
@@ -40079,10 +40078,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="311" t="s">
+      <c r="D36" s="299" t="s">
         <v>284</v>
       </c>
-      <c r="E36" s="312"/>
+      <c r="E36" s="300"/>
       <c r="F36" s="105" t="s">
         <v>285</v>
       </c>
@@ -40418,11 +40417,11 @@
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="313" t="s">
+      <c r="B55" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="313"/>
-      <c r="D55" s="313"/>
+      <c r="C55" s="301"/>
+      <c r="D55" s="301"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
@@ -40439,12 +40438,12 @@
     </row>
     <row r="56" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="83"/>
-      <c r="B56" s="300" t="s">
+      <c r="B56" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="301"/>
-      <c r="D56" s="301"/>
-      <c r="E56" s="302"/>
+      <c r="C56" s="303"/>
+      <c r="D56" s="303"/>
+      <c r="E56" s="304"/>
       <c r="F56" s="115" t="s">
         <v>125</v>
       </c>
@@ -40536,10 +40535,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E59" s="305"/>
+      <c r="E59" s="297"/>
       <c r="F59" s="74" t="s">
         <v>139</v>
       </c>
@@ -40569,10 +40568,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="303" t="s">
+      <c r="D60" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="314"/>
+      <c r="E60" s="305"/>
       <c r="F60" s="105" t="s">
         <v>190</v>
       </c>
@@ -40602,10 +40601,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="315" t="s">
+      <c r="D61" s="306" t="s">
         <v>195</v>
       </c>
-      <c r="E61" s="314"/>
+      <c r="E61" s="305"/>
       <c r="F61" s="105" t="s">
         <v>193</v>
       </c>
@@ -40699,8 +40698,8 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="92"/>
-      <c r="D64" s="306"/>
-      <c r="E64" s="305"/>
+      <c r="D64" s="296"/>
+      <c r="E64" s="297"/>
       <c r="F64" s="74"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
@@ -41090,15 +41089,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -41111,6 +41101,15 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41639,15 +41638,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="298" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="305"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -41660,15 +41659,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="298" t="s">
         <v>390</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -41702,15 +41701,15 @@
       <c r="B7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="306" t="s">
+      <c r="C7" s="296" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41744,15 +41743,15 @@
       <c r="B9" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="304"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="305"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -41815,19 +41814,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="308"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="309"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -41856,11 +41855,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="310" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -41885,11 +41884,11 @@
       <c r="I15" s="130" t="s">
         <v>282</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="307" t="s">
         <v>283</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -41914,9 +41913,9 @@
       <c r="I16" s="130" t="s">
         <v>393</v>
       </c>
-      <c r="J16" s="298"/>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -42107,11 +42106,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="299" t="s">
+      <c r="B27" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -42126,12 +42125,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="301"/>
-      <c r="D28" s="301"/>
-      <c r="E28" s="302"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -42223,10 +42222,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="305"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -42256,10 +42255,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="305"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>174</v>
       </c>
@@ -42351,10 +42350,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="303" t="s">
+      <c r="D35" s="298" t="s">
         <v>291</v>
       </c>
-      <c r="E35" s="305"/>
+      <c r="E35" s="297"/>
       <c r="F35" s="105" t="s">
         <v>392</v>
       </c>
@@ -42384,10 +42383,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="311" t="s">
+      <c r="D36" s="299" t="s">
         <v>395</v>
       </c>
-      <c r="E36" s="312"/>
+      <c r="E36" s="300"/>
       <c r="F36" s="105" t="s">
         <v>274</v>
       </c>
@@ -42810,11 +42809,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="313" t="s">
+      <c r="B58" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="313"/>
-      <c r="D58" s="313"/>
+      <c r="C58" s="301"/>
+      <c r="D58" s="301"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -42831,12 +42830,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="300" t="s">
+      <c r="B59" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="301"/>
-      <c r="D59" s="301"/>
-      <c r="E59" s="302"/>
+      <c r="C59" s="303"/>
+      <c r="D59" s="303"/>
+      <c r="E59" s="304"/>
       <c r="F59" s="151" t="s">
         <v>125</v>
       </c>
@@ -42928,10 +42927,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="303" t="s">
+      <c r="D62" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E62" s="305"/>
+      <c r="E62" s="297"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -42961,10 +42960,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="303" t="s">
+      <c r="D63" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="314"/>
+      <c r="E63" s="305"/>
       <c r="F63" s="105" t="s">
         <v>190</v>
       </c>
@@ -42994,10 +42993,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="315" t="s">
+      <c r="D64" s="306" t="s">
         <v>195</v>
       </c>
-      <c r="E64" s="314"/>
+      <c r="E64" s="305"/>
       <c r="F64" s="105" t="s">
         <v>193</v>
       </c>
@@ -43091,8 +43090,8 @@
       <c r="A67" s="66"/>
       <c r="B67" s="91"/>
       <c r="C67" s="92"/>
-      <c r="D67" s="306"/>
-      <c r="E67" s="305"/>
+      <c r="D67" s="296"/>
+      <c r="E67" s="297"/>
       <c r="F67" s="74"/>
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
@@ -43482,14 +43481,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -43502,6 +43493,14 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -43599,15 +43598,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="298" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="305"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -43620,15 +43619,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="298" t="s">
         <v>403</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -43662,15 +43661,15 @@
       <c r="B7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="303" t="s">
+      <c r="C7" s="298" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -43704,15 +43703,15 @@
       <c r="B9" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="304"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="305"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -43775,19 +43774,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="308"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="309"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -43816,11 +43815,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="310" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -43845,11 +43844,11 @@
       <c r="I15" s="130" t="s">
         <v>282</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="307" t="s">
         <v>283</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -44071,11 +44070,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="299" t="s">
+      <c r="B27" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -44090,12 +44089,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="301"/>
-      <c r="D28" s="301"/>
-      <c r="E28" s="302"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -44187,10 +44186,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="305"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -44220,10 +44219,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="305"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>174</v>
       </c>
@@ -44315,10 +44314,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="303" t="s">
+      <c r="D35" s="298" t="s">
         <v>291</v>
       </c>
-      <c r="E35" s="305"/>
+      <c r="E35" s="297"/>
       <c r="F35" s="105" t="s">
         <v>392</v>
       </c>
@@ -44348,10 +44347,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="311" t="s">
+      <c r="D36" s="299" t="s">
         <v>395</v>
       </c>
-      <c r="E36" s="312"/>
+      <c r="E36" s="300"/>
       <c r="F36" s="105" t="s">
         <v>274</v>
       </c>
@@ -44774,11 +44773,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="313" t="s">
+      <c r="B58" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="313"/>
-      <c r="D58" s="313"/>
+      <c r="C58" s="301"/>
+      <c r="D58" s="301"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -44795,12 +44794,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="300" t="s">
+      <c r="B59" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="301"/>
-      <c r="D59" s="301"/>
-      <c r="E59" s="302"/>
+      <c r="C59" s="303"/>
+      <c r="D59" s="303"/>
+      <c r="E59" s="304"/>
       <c r="F59" s="151" t="s">
         <v>125</v>
       </c>
@@ -44892,10 +44891,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="303" t="s">
+      <c r="D62" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E62" s="305"/>
+      <c r="E62" s="297"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -44925,10 +44924,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="303" t="s">
+      <c r="D63" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="314"/>
+      <c r="E63" s="305"/>
       <c r="F63" s="105" t="s">
         <v>190</v>
       </c>
@@ -44958,10 +44957,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="315" t="s">
+      <c r="D64" s="306" t="s">
         <v>195</v>
       </c>
-      <c r="E64" s="314"/>
+      <c r="E64" s="305"/>
       <c r="F64" s="105" t="s">
         <v>193</v>
       </c>
@@ -45084,10 +45083,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="85"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="303" t="s">
+      <c r="D68" s="298" t="s">
         <v>291</v>
       </c>
-      <c r="E68" s="305"/>
+      <c r="E68" s="297"/>
       <c r="F68" s="105" t="s">
         <v>392</v>
       </c>
@@ -45117,10 +45116,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="85"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="311" t="s">
+      <c r="D69" s="299" t="s">
         <v>395</v>
       </c>
-      <c r="E69" s="312"/>
+      <c r="E69" s="300"/>
       <c r="F69" s="105" t="s">
         <v>274</v>
       </c>
@@ -45573,15 +45572,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -45593,6 +45583,15 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -45689,15 +45688,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="298" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="305"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -45710,15 +45709,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="298" t="s">
         <v>408</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -45752,15 +45751,15 @@
       <c r="B7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="303" t="s">
+      <c r="C7" s="298" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -45794,15 +45793,15 @@
       <c r="B9" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="304"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="305"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -45865,19 +45864,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="308"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="309"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45906,11 +45905,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="310" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45935,11 +45934,11 @@
       <c r="I15" s="130" t="s">
         <v>282</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="307" t="s">
         <v>283</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -46130,11 +46129,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="299" t="s">
+      <c r="B26" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="309"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -46149,12 +46148,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="300" t="s">
+      <c r="B27" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="301"/>
-      <c r="D27" s="301"/>
-      <c r="E27" s="302"/>
+      <c r="C27" s="303"/>
+      <c r="D27" s="303"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="151" t="s">
         <v>125</v>
       </c>
@@ -46246,10 +46245,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="306" t="s">
+      <c r="D30" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="305"/>
+      <c r="E30" s="297"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -46279,10 +46278,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="305"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>174</v>
       </c>
@@ -46345,8 +46344,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="321"/>
-      <c r="E33" s="321"/>
+      <c r="D33" s="320"/>
+      <c r="E33" s="320"/>
       <c r="F33" s="105"/>
       <c r="G33" s="106"/>
       <c r="H33" s="76"/>
@@ -46668,11 +46667,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="313" t="s">
+      <c r="B52" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="313"/>
-      <c r="D52" s="313"/>
+      <c r="C52" s="301"/>
+      <c r="D52" s="301"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -46689,12 +46688,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="300" t="s">
+      <c r="B53" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="301"/>
-      <c r="D53" s="301"/>
-      <c r="E53" s="302"/>
+      <c r="C53" s="303"/>
+      <c r="D53" s="303"/>
+      <c r="E53" s="304"/>
       <c r="F53" s="151" t="s">
         <v>125</v>
       </c>
@@ -46786,10 +46785,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="303" t="s">
+      <c r="D56" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E56" s="305"/>
+      <c r="E56" s="297"/>
       <c r="F56" s="74" t="s">
         <v>139</v>
       </c>
@@ -46819,10 +46818,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="303" t="s">
+      <c r="D57" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="314"/>
+      <c r="E57" s="305"/>
       <c r="F57" s="105" t="s">
         <v>190</v>
       </c>
@@ -46852,10 +46851,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="315" t="s">
+      <c r="D58" s="306" t="s">
         <v>195</v>
       </c>
-      <c r="E58" s="314"/>
+      <c r="E58" s="305"/>
       <c r="F58" s="105" t="s">
         <v>193</v>
       </c>
@@ -46949,8 +46948,8 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="92"/>
-      <c r="D61" s="306"/>
-      <c r="E61" s="305"/>
+      <c r="D61" s="296"/>
+      <c r="E61" s="297"/>
       <c r="F61" s="74"/>
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
@@ -47340,6 +47339,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D33:E33"/>
@@ -47347,17 +47357,6 @@
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -47454,15 +47453,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="298" t="s">
         <v>410</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="305"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -47475,15 +47474,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="298" t="s">
         <v>411</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -47517,15 +47516,15 @@
       <c r="B7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="303" t="s">
+      <c r="C7" s="298" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -47559,15 +47558,15 @@
       <c r="B9" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="304"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="305"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -47630,19 +47629,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="308"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="309"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -47671,11 +47670,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="310" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -47700,11 +47699,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="307" t="s">
         <v>292</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -47719,9 +47718,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="298"/>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -47900,11 +47899,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="299" t="s">
+      <c r="B27" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -47919,12 +47918,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="301"/>
-      <c r="D28" s="301"/>
-      <c r="E28" s="302"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -48016,10 +48015,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="305"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -48049,10 +48048,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="305"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>174</v>
       </c>
@@ -48115,10 +48114,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="303" t="s">
+      <c r="D34" s="298" t="s">
         <v>395</v>
       </c>
-      <c r="E34" s="305"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="105" t="s">
         <v>274</v>
       </c>
@@ -48148,10 +48147,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="311" t="s">
+      <c r="D35" s="299" t="s">
         <v>286</v>
       </c>
-      <c r="E35" s="312"/>
+      <c r="E35" s="300"/>
       <c r="F35" s="105" t="s">
         <v>287</v>
       </c>
@@ -48487,11 +48486,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="313" t="s">
+      <c r="B54" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="313"/>
-      <c r="D54" s="313"/>
+      <c r="C54" s="301"/>
+      <c r="D54" s="301"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -48508,12 +48507,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="300" t="s">
+      <c r="B55" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="301"/>
-      <c r="D55" s="301"/>
-      <c r="E55" s="302"/>
+      <c r="C55" s="303"/>
+      <c r="D55" s="303"/>
+      <c r="E55" s="304"/>
       <c r="F55" s="151" t="s">
         <v>125</v>
       </c>
@@ -48605,10 +48604,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="303" t="s">
+      <c r="D58" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="305"/>
+      <c r="E58" s="297"/>
       <c r="F58" s="74" t="s">
         <v>139</v>
       </c>
@@ -48638,10 +48637,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="314"/>
+      <c r="E59" s="305"/>
       <c r="F59" s="105" t="s">
         <v>190</v>
       </c>
@@ -48671,10 +48670,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="315" t="s">
+      <c r="D60" s="306" t="s">
         <v>195</v>
       </c>
-      <c r="E60" s="314"/>
+      <c r="E60" s="305"/>
       <c r="F60" s="105" t="s">
         <v>193</v>
       </c>
@@ -48768,8 +48767,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="306"/>
-      <c r="E63" s="305"/>
+      <c r="D63" s="296"/>
+      <c r="E63" s="297"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -49159,14 +49158,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -49179,6 +49170,14 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -49272,15 +49271,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="298" t="s">
         <v>413</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="305"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -49293,15 +49292,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="298" t="s">
         <v>414</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -49335,15 +49334,15 @@
       <c r="B7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="303" t="s">
+      <c r="C7" s="298" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -49377,15 +49376,15 @@
       <c r="B9" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="304"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="305"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -49448,19 +49447,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="308"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="309"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -49489,11 +49488,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="310" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -49518,11 +49517,11 @@
       <c r="I15" s="130" t="s">
         <v>416</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="307" t="s">
         <v>417</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -49547,11 +49546,11 @@
       <c r="I16" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="297" t="s">
+      <c r="J16" s="307" t="s">
         <v>418</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -49730,11 +49729,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="299" t="s">
+      <c r="B27" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -49749,12 +49748,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="301"/>
-      <c r="D28" s="301"/>
-      <c r="E28" s="302"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -49846,10 +49845,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="305"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -49879,10 +49878,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="305"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>174</v>
       </c>
@@ -49974,10 +49973,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="303" t="s">
+      <c r="D35" s="298" t="s">
         <v>395</v>
       </c>
-      <c r="E35" s="305"/>
+      <c r="E35" s="297"/>
       <c r="F35" s="105" t="s">
         <v>274</v>
       </c>
@@ -50007,10 +50006,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="311" t="s">
+      <c r="D36" s="299" t="s">
         <v>286</v>
       </c>
-      <c r="E36" s="312"/>
+      <c r="E36" s="300"/>
       <c r="F36" s="105" t="s">
         <v>287</v>
       </c>
@@ -50356,11 +50355,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="313" t="s">
+      <c r="B57" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="313"/>
-      <c r="D57" s="313"/>
+      <c r="C57" s="301"/>
+      <c r="D57" s="301"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -50377,12 +50376,12 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="300" t="s">
+      <c r="B58" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="301"/>
-      <c r="D58" s="301"/>
-      <c r="E58" s="302"/>
+      <c r="C58" s="303"/>
+      <c r="D58" s="303"/>
+      <c r="E58" s="304"/>
       <c r="F58" s="151" t="s">
         <v>125</v>
       </c>
@@ -50994,22 +50993,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -51020,7 +51019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
@@ -51054,10 +51053,10 @@
       <c r="C4" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="264" t="s">
+      <c r="D4" s="266" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="264"/>
+      <c r="E4" s="266"/>
       <c r="F4" s="111" t="s">
         <v>186</v>
       </c>
@@ -51142,10 +51141,10 @@
       <c r="C10" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="264" t="s">
+      <c r="D10" s="266" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="264"/>
+      <c r="E10" s="266"/>
       <c r="F10" s="111" t="s">
         <v>186</v>
       </c>
@@ -51238,10 +51237,10 @@
       <c r="C18" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="264" t="s">
+      <c r="D18" s="266" t="s">
         <v>189</v>
       </c>
-      <c r="E18" s="264"/>
+      <c r="E18" s="266"/>
       <c r="F18" s="111" t="s">
         <v>186</v>
       </c>
@@ -51350,10 +51349,10 @@
       <c r="C27" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="264" t="s">
+      <c r="D27" s="266" t="s">
         <v>189</v>
       </c>
-      <c r="E27" s="264"/>
+      <c r="E27" s="266"/>
       <c r="F27" s="111" t="s">
         <v>186</v>
       </c>
@@ -51445,10 +51444,10 @@
       <c r="C36" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="D36" s="264" t="s">
+      <c r="D36" s="266" t="s">
         <v>189</v>
       </c>
-      <c r="E36" s="264"/>
+      <c r="E36" s="266"/>
       <c r="F36" s="111" t="s">
         <v>186</v>
       </c>
@@ -51460,10 +51459,10 @@
       <c r="C37" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="266" t="s">
+      <c r="D37" s="267" t="s">
         <v>250</v>
       </c>
-      <c r="E37" s="267"/>
+      <c r="E37" s="268"/>
       <c r="F37" s="126"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1">
@@ -51473,10 +51472,10 @@
       <c r="C38" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="266" t="s">
+      <c r="D38" s="267" t="s">
         <v>251</v>
       </c>
-      <c r="E38" s="267"/>
+      <c r="E38" s="268"/>
       <c r="F38" s="126"/>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1">
@@ -51486,10 +51485,10 @@
       <c r="C39" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="266" t="s">
+      <c r="D39" s="267" t="s">
         <v>252</v>
       </c>
-      <c r="E39" s="267"/>
+      <c r="E39" s="268"/>
       <c r="F39" s="126"/>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1">
@@ -51499,10 +51498,10 @@
       <c r="C40" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="266" t="s">
+      <c r="D40" s="267" t="s">
         <v>253</v>
       </c>
-      <c r="E40" s="267"/>
+      <c r="E40" s="268"/>
       <c r="F40" s="126"/>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1">
@@ -51512,10 +51511,10 @@
       <c r="C41" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="266" t="s">
+      <c r="D41" s="267" t="s">
         <v>254</v>
       </c>
-      <c r="E41" s="267"/>
+      <c r="E41" s="268"/>
       <c r="F41" s="126"/>
     </row>
     <row r="42" spans="2:6">
@@ -51525,10 +51524,10 @@
       <c r="C42" s="127">
         <v>2506</v>
       </c>
-      <c r="D42" s="268" t="s">
+      <c r="D42" s="263" t="s">
         <v>256</v>
       </c>
-      <c r="E42" s="269"/>
+      <c r="E42" s="264"/>
       <c r="F42" s="128"/>
     </row>
     <row r="43" spans="2:6">
@@ -51538,10 +51537,10 @@
       <c r="C43" s="127">
         <v>2507</v>
       </c>
-      <c r="D43" s="268" t="s">
+      <c r="D43" s="263" t="s">
         <v>315</v>
       </c>
-      <c r="E43" s="269"/>
+      <c r="E43" s="264"/>
       <c r="F43" s="129"/>
     </row>
     <row r="45" spans="2:6" ht="15.75">
@@ -51556,10 +51555,10 @@
       <c r="C46" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="264" t="s">
+      <c r="D46" s="266" t="s">
         <v>189</v>
       </c>
-      <c r="E46" s="264"/>
+      <c r="E46" s="266"/>
       <c r="F46" s="111" t="s">
         <v>186</v>
       </c>
@@ -51647,19 +51646,16 @@
     <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -51676,16 +51672,19 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -51765,10 +51764,10 @@
       <c r="D4" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="270" t="s">
+      <c r="E4" s="269" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="271"/>
+      <c r="F4" s="270"/>
       <c r="G4" s="142" t="s">
         <v>157</v>
       </c>
@@ -51783,7 +51782,7 @@
       <c r="C5" s="118" t="s">
         <v>450</v>
       </c>
-      <c r="D5" s="272" t="s">
+      <c r="D5" s="271" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="202" t="s">
@@ -51808,7 +51807,7 @@
       <c r="C6" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="273"/>
+      <c r="D6" s="272"/>
       <c r="E6" s="203" t="s">
         <v>156</v>
       </c>
@@ -51831,7 +51830,7 @@
       <c r="C7" s="118" t="s">
         <v>433</v>
       </c>
-      <c r="D7" s="273"/>
+      <c r="D7" s="272"/>
       <c r="E7" s="202" t="s">
         <v>205</v>
       </c>
@@ -51854,7 +51853,7 @@
       <c r="C8" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="273"/>
+      <c r="D8" s="272"/>
       <c r="E8" s="202" t="s">
         <v>206</v>
       </c>
@@ -51877,7 +51876,7 @@
       <c r="C9" s="118" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="273"/>
+      <c r="D9" s="272"/>
       <c r="E9" s="202" t="s">
         <v>205</v>
       </c>
@@ -51900,7 +51899,7 @@
       <c r="C10" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="D10" s="273"/>
+      <c r="D10" s="272"/>
       <c r="E10" s="202" t="s">
         <v>205</v>
       </c>
@@ -51923,7 +51922,7 @@
       <c r="C11" s="118" t="s">
         <v>204</v>
       </c>
-      <c r="D11" s="274"/>
+      <c r="D11" s="273"/>
       <c r="E11" s="202" t="s">
         <v>206</v>
       </c>
@@ -51946,7 +51945,7 @@
       <c r="C12" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="275" t="s">
+      <c r="D12" s="274" t="s">
         <v>255</v>
       </c>
       <c r="E12" s="202" t="s">
@@ -51971,7 +51970,7 @@
       <c r="C13" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="276"/>
+      <c r="D13" s="275"/>
       <c r="E13" s="202" t="s">
         <v>205</v>
       </c>
@@ -51994,7 +51993,7 @@
       <c r="C14" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="D14" s="276"/>
+      <c r="D14" s="275"/>
       <c r="E14" s="202" t="s">
         <v>205</v>
       </c>
@@ -52017,7 +52016,7 @@
       <c r="C15" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="276"/>
+      <c r="D15" s="275"/>
       <c r="E15" s="202" t="s">
         <v>205</v>
       </c>
@@ -52040,7 +52039,7 @@
       <c r="C16" s="118" t="s">
         <v>217</v>
       </c>
-      <c r="D16" s="276"/>
+      <c r="D16" s="275"/>
       <c r="E16" s="202" t="s">
         <v>224</v>
       </c>
@@ -52063,7 +52062,7 @@
       <c r="C17" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="D17" s="276"/>
+      <c r="D17" s="275"/>
       <c r="E17" s="202" t="s">
         <v>206</v>
       </c>
@@ -52086,7 +52085,7 @@
       <c r="C18" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="D18" s="276"/>
+      <c r="D18" s="275"/>
       <c r="E18" s="202" t="s">
         <v>206</v>
       </c>
@@ -52109,7 +52108,7 @@
       <c r="C19" s="118" t="s">
         <v>228</v>
       </c>
-      <c r="D19" s="277" t="s">
+      <c r="D19" s="276" t="s">
         <v>155</v>
       </c>
       <c r="E19" s="202" t="s">
@@ -52134,7 +52133,7 @@
       <c r="C20" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="278"/>
+      <c r="D20" s="277"/>
       <c r="E20" s="202" t="s">
         <v>205</v>
       </c>
@@ -52157,7 +52156,7 @@
       <c r="C21" s="118" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="278"/>
+      <c r="D21" s="277"/>
       <c r="E21" s="202" t="s">
         <v>224</v>
       </c>
@@ -52180,7 +52179,7 @@
       <c r="C22" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="278"/>
+      <c r="D22" s="277"/>
       <c r="E22" s="202" t="s">
         <v>206</v>
       </c>
@@ -52203,7 +52202,7 @@
       <c r="C23" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="279"/>
+      <c r="D23" s="278"/>
       <c r="E23" s="202" t="s">
         <v>206</v>
       </c>
@@ -52360,11 +52359,11 @@
       <c r="C4" s="280" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="281"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
@@ -52381,11 +52380,11 @@
       <c r="C5" s="280" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="281"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
@@ -52423,11 +52422,11 @@
       <c r="C7" s="280" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="281"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
@@ -52465,11 +52464,11 @@
       <c r="C9" s="280" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="281"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
@@ -52533,19 +52532,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="282" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="284"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -52574,11 +52573,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="283" t="s">
+      <c r="J14" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="283"/>
-      <c r="L14" s="283"/>
+      <c r="K14" s="279"/>
+      <c r="L14" s="279"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -52607,11 +52606,11 @@
       <c r="I15" s="130" t="s">
         <v>364</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="288" t="s">
         <v>363</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="288"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -52640,11 +52639,11 @@
       <c r="I16" s="130" t="s">
         <v>360</v>
       </c>
-      <c r="J16" s="290" t="s">
+      <c r="J16" s="288" t="s">
         <v>359</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="288"/>
+      <c r="L16" s="288"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -52709,7 +52708,7 @@
       <c r="J18" s="280" t="s">
         <v>355</v>
       </c>
-      <c r="K18" s="282"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="281"/>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
@@ -52742,7 +52741,7 @@
       <c r="J19" s="280" t="s">
         <v>353</v>
       </c>
-      <c r="K19" s="282"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="281"/>
       <c r="M19" s="154"/>
       <c r="N19" s="154"/>
@@ -52905,11 +52904,11 @@
     </row>
     <row r="29" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="179"/>
-      <c r="B29" s="294" t="s">
+      <c r="B29" s="293" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="294"/>
-      <c r="D29" s="294"/>
+      <c r="C29" s="293"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="180"/>
       <c r="F29" s="181"/>
       <c r="G29" s="180"/>
@@ -52924,12 +52923,12 @@
     </row>
     <row r="30" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="174"/>
-      <c r="B30" s="287" t="s">
+      <c r="B30" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="288"/>
-      <c r="D30" s="288"/>
-      <c r="E30" s="289"/>
+      <c r="C30" s="286"/>
+      <c r="D30" s="286"/>
+      <c r="E30" s="287"/>
       <c r="F30" s="175" t="s">
         <v>125</v>
       </c>
@@ -53153,10 +53152,10 @@
       <c r="A37" s="154"/>
       <c r="B37" s="168"/>
       <c r="C37" s="171"/>
-      <c r="D37" s="292" t="s">
+      <c r="D37" s="291" t="s">
         <v>349</v>
       </c>
-      <c r="E37" s="293"/>
+      <c r="E37" s="292"/>
       <c r="F37" s="162" t="s">
         <v>348</v>
       </c>
@@ -53678,11 +53677,11 @@
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="154"/>
-      <c r="B62" s="291" t="s">
+      <c r="B62" s="290" t="s">
         <v>334</v>
       </c>
-      <c r="C62" s="291"/>
-      <c r="D62" s="291"/>
+      <c r="C62" s="290"/>
+      <c r="D62" s="290"/>
       <c r="E62" s="154"/>
       <c r="F62" s="154"/>
       <c r="G62" s="154"/>
@@ -53699,12 +53698,12 @@
     </row>
     <row r="63" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="174"/>
-      <c r="B63" s="287" t="s">
+      <c r="B63" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="288"/>
-      <c r="D63" s="288"/>
-      <c r="E63" s="289"/>
+      <c r="C63" s="286"/>
+      <c r="D63" s="286"/>
+      <c r="E63" s="287"/>
       <c r="F63" s="175" t="s">
         <v>125</v>
       </c>
@@ -53862,7 +53861,7 @@
       <c r="A68" s="154"/>
       <c r="B68" s="168"/>
       <c r="C68" s="172"/>
-      <c r="D68" s="295" t="s">
+      <c r="D68" s="294" t="s">
         <v>195</v>
       </c>
       <c r="E68" s="281"/>
@@ -54350,6 +54349,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="B13:L13"/>
@@ -54366,14 +54373,6 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -54476,11 +54475,11 @@
       <c r="C4" s="280" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="281"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
@@ -54497,11 +54496,11 @@
       <c r="C5" s="280" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="281"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
@@ -54539,11 +54538,11 @@
       <c r="C7" s="280" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="281"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
@@ -54581,11 +54580,11 @@
       <c r="C9" s="280" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="281"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
@@ -54649,19 +54648,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="282" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="284"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -54690,11 +54689,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="283" t="s">
+      <c r="J14" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="283"/>
-      <c r="L14" s="283"/>
+      <c r="K14" s="279"/>
+      <c r="L14" s="279"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -54719,11 +54718,11 @@
       <c r="I15" s="130" t="s">
         <v>364</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="288" t="s">
         <v>363</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="288"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -54748,11 +54747,11 @@
       <c r="I16" s="130" t="s">
         <v>360</v>
       </c>
-      <c r="J16" s="290" t="s">
+      <c r="J16" s="288" t="s">
         <v>369</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="288"/>
+      <c r="L16" s="288"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -54914,11 +54913,11 @@
     </row>
     <row r="26" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="179"/>
-      <c r="B26" s="294" t="s">
+      <c r="B26" s="293" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
+      <c r="C26" s="293"/>
+      <c r="D26" s="293"/>
       <c r="E26" s="180"/>
       <c r="F26" s="181"/>
       <c r="G26" s="180"/>
@@ -54933,12 +54932,12 @@
     </row>
     <row r="27" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="287" t="s">
+      <c r="B27" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="288"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="289"/>
+      <c r="C27" s="286"/>
+      <c r="D27" s="286"/>
+      <c r="E27" s="287"/>
       <c r="F27" s="175" t="s">
         <v>125</v>
       </c>
@@ -55162,10 +55161,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="171"/>
-      <c r="D34" s="292" t="s">
+      <c r="D34" s="291" t="s">
         <v>349</v>
       </c>
-      <c r="E34" s="293"/>
+      <c r="E34" s="292"/>
       <c r="F34" s="162" t="s">
         <v>348</v>
       </c>
@@ -55633,11 +55632,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="154"/>
-      <c r="B57" s="291" t="s">
+      <c r="B57" s="290" t="s">
         <v>334</v>
       </c>
-      <c r="C57" s="291"/>
-      <c r="D57" s="291"/>
+      <c r="C57" s="290"/>
+      <c r="D57" s="290"/>
       <c r="E57" s="154"/>
       <c r="F57" s="154"/>
       <c r="G57" s="154"/>
@@ -55654,12 +55653,12 @@
     </row>
     <row r="58" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="174"/>
-      <c r="B58" s="287" t="s">
+      <c r="B58" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="288"/>
-      <c r="D58" s="288"/>
-      <c r="E58" s="289"/>
+      <c r="C58" s="286"/>
+      <c r="D58" s="286"/>
+      <c r="E58" s="287"/>
       <c r="F58" s="175" t="s">
         <v>125</v>
       </c>
@@ -55817,7 +55816,7 @@
       <c r="A63" s="154"/>
       <c r="B63" s="168"/>
       <c r="C63" s="172"/>
-      <c r="D63" s="295" t="s">
+      <c r="D63" s="294" t="s">
         <v>195</v>
       </c>
       <c r="E63" s="281"/>
@@ -56305,28 +56304,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -56339,10 +56338,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -56427,11 +56426,11 @@
       <c r="C4" s="280" t="s">
         <v>433</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="281"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
@@ -56448,11 +56447,11 @@
       <c r="C5" s="280" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="281"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
@@ -56490,11 +56489,11 @@
       <c r="C7" s="280" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="281"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
@@ -56532,11 +56531,11 @@
       <c r="C9" s="280" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="281"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
@@ -56600,19 +56599,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="282" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="284"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -56641,11 +56640,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="283" t="s">
+      <c r="J14" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="283"/>
-      <c r="L14" s="283"/>
+      <c r="K14" s="279"/>
+      <c r="L14" s="279"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -56670,11 +56669,11 @@
       <c r="I15" s="130" t="s">
         <v>446</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="288" t="s">
         <v>372</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="288"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -56739,7 +56738,7 @@
       <c r="J17" s="280" t="s">
         <v>355</v>
       </c>
-      <c r="K17" s="282"/>
+      <c r="K17" s="289"/>
       <c r="L17" s="281"/>
       <c r="M17" s="154"/>
       <c r="N17" s="154"/>
@@ -56772,7 +56771,7 @@
       <c r="J18" s="280" t="s">
         <v>353</v>
       </c>
-      <c r="K18" s="282"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="281"/>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
@@ -56935,11 +56934,11 @@
     </row>
     <row r="28" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="179"/>
-      <c r="B28" s="294" t="s">
+      <c r="B28" s="293" t="s">
         <v>166</v>
       </c>
-      <c r="C28" s="294"/>
-      <c r="D28" s="294"/>
+      <c r="C28" s="293"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="180"/>
       <c r="F28" s="181"/>
       <c r="G28" s="180"/>
@@ -56954,12 +56953,12 @@
     </row>
     <row r="29" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="174"/>
-      <c r="B29" s="287" t="s">
+      <c r="B29" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="288"/>
-      <c r="D29" s="288"/>
-      <c r="E29" s="289"/>
+      <c r="C29" s="286"/>
+      <c r="D29" s="286"/>
+      <c r="E29" s="287"/>
       <c r="F29" s="175" t="s">
         <v>125</v>
       </c>
@@ -57131,7 +57130,7 @@
         <v>167</v>
       </c>
       <c r="I34" s="161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="161" t="s">
         <v>330</v>
@@ -57139,201 +57138,111 @@
       <c r="K34" s="161" t="s">
         <v>330</v>
       </c>
-      <c r="L34" s="160" t="s">
-        <v>178</v>
-      </c>
+      <c r="L34" s="160"/>
       <c r="M34" s="154"/>
       <c r="N34" s="154"/>
       <c r="O34" s="154"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="154"/>
-      <c r="B35" s="168"/>
-      <c r="C35" s="171"/>
-      <c r="D35" s="280" t="s">
-        <v>352</v>
-      </c>
-      <c r="E35" s="281"/>
-      <c r="F35" s="162" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" s="161" t="s">
-        <v>351</v>
-      </c>
-      <c r="H35" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I35" s="161">
-        <v>1</v>
-      </c>
-      <c r="J35" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="K35" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="L35" s="160" t="s">
-        <v>350</v>
-      </c>
+      <c r="B35" s="155" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="159"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="156"/>
       <c r="M35" s="154"/>
       <c r="N35" s="154"/>
       <c r="O35" s="154"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="154"/>
-      <c r="B36" s="168"/>
-      <c r="C36" s="171"/>
-      <c r="D36" s="292" t="s">
-        <v>349</v>
-      </c>
-      <c r="E36" s="293"/>
-      <c r="F36" s="162" t="s">
-        <v>348</v>
-      </c>
-      <c r="G36" s="161" t="s">
-        <v>162</v>
-      </c>
-      <c r="H36" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I36" s="161">
-        <v>1</v>
-      </c>
-      <c r="J36" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="K36" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="L36" s="160" t="s">
-        <v>347</v>
-      </c>
+      <c r="B36" s="156"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="156"/>
       <c r="M36" s="154"/>
       <c r="N36" s="154"/>
       <c r="O36" s="154"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="154"/>
-      <c r="B37" s="168"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="280" t="s">
-        <v>346</v>
-      </c>
-      <c r="E37" s="281"/>
-      <c r="F37" s="162" t="s">
-        <v>345</v>
-      </c>
-      <c r="G37" s="161" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I37" s="161">
-        <v>1</v>
-      </c>
-      <c r="J37" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="K37" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="L37" s="160" t="s">
-        <v>344</v>
-      </c>
+      <c r="B37" s="156"/>
+      <c r="C37" s="159"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="156"/>
       <c r="M37" s="154"/>
       <c r="N37" s="154"/>
       <c r="O37" s="154"/>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="154"/>
-      <c r="B38" s="168"/>
-      <c r="C38" s="172"/>
-      <c r="D38" s="177" t="s">
-        <v>343</v>
-      </c>
-      <c r="E38" s="176"/>
-      <c r="F38" s="162" t="s">
-        <v>342</v>
-      </c>
-      <c r="G38" s="161" t="s">
-        <v>162</v>
-      </c>
-      <c r="H38" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I38" s="161">
-        <v>1</v>
-      </c>
-      <c r="J38" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="K38" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="L38" s="160" t="s">
-        <v>341</v>
-      </c>
+      <c r="B38" s="156"/>
+      <c r="C38" s="159"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="156"/>
       <c r="M38" s="154"/>
       <c r="N38" s="154"/>
       <c r="O38" s="154"/>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="154"/>
-      <c r="B39" s="168"/>
-      <c r="C39" s="172"/>
-      <c r="D39" s="177" t="s">
-        <v>340</v>
-      </c>
-      <c r="E39" s="176"/>
-      <c r="F39" s="162" t="s">
-        <v>339</v>
-      </c>
-      <c r="G39" s="161" t="s">
-        <v>162</v>
-      </c>
-      <c r="H39" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I39" s="161">
-        <v>1</v>
-      </c>
-      <c r="J39" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="K39" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="L39" s="160" t="s">
-        <v>338</v>
-      </c>
+      <c r="B39" s="156"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="156"/>
       <c r="M39" s="154"/>
       <c r="N39" s="154"/>
       <c r="O39" s="154"/>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="154"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="215" t="s">
-        <v>322</v>
-      </c>
-      <c r="E40" s="216"/>
-      <c r="F40" s="105" t="s">
-        <v>323</v>
-      </c>
-      <c r="G40" s="217" t="s">
-        <v>324</v>
-      </c>
-      <c r="H40" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="I40" s="76">
-        <v>1</v>
-      </c>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="160"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="156"/>
       <c r="M40" s="154"/>
       <c r="N40" s="154"/>
       <c r="O40" s="154"/>
@@ -57342,34 +57251,22 @@
       <c r="A41" s="154"/>
       <c r="B41" s="156"/>
       <c r="C41" s="159"/>
-      <c r="D41" s="215" t="s">
-        <v>325</v>
-      </c>
-      <c r="E41" s="216"/>
-      <c r="F41" s="105" t="s">
-        <v>326</v>
-      </c>
-      <c r="G41" s="217" t="s">
-        <v>324</v>
-      </c>
-      <c r="H41" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="I41" s="76">
-        <v>1</v>
-      </c>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="218"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="157"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="157"/>
+      <c r="K41" s="157"/>
+      <c r="L41" s="156"/>
       <c r="M41" s="154"/>
       <c r="N41" s="154"/>
       <c r="O41" s="154"/>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="154"/>
-      <c r="B42" s="155" t="s">
-        <v>184</v>
-      </c>
+      <c r="B42" s="156"/>
       <c r="C42" s="159"/>
       <c r="D42" s="158"/>
       <c r="E42" s="158"/>
@@ -57522,643 +57419,543 @@
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="154"/>
-      <c r="B51" s="156"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="158"/>
-      <c r="F51" s="156"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="157"/>
-      <c r="K51" s="157"/>
-      <c r="L51" s="156"/>
+      <c r="B51" s="154"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
+      <c r="K51" s="154"/>
+      <c r="L51" s="154"/>
       <c r="M51" s="154"/>
       <c r="N51" s="154"/>
       <c r="O51" s="154"/>
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="154"/>
-      <c r="B52" s="156"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="158"/>
-      <c r="F52" s="156"/>
-      <c r="G52" s="157"/>
-      <c r="H52" s="157"/>
-      <c r="I52" s="157"/>
-      <c r="J52" s="157"/>
-      <c r="K52" s="157"/>
-      <c r="L52" s="156"/>
+      <c r="B52" s="290" t="s">
+        <v>334</v>
+      </c>
+      <c r="C52" s="290"/>
+      <c r="D52" s="290"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="154" t="s">
+        <v>330</v>
+      </c>
+      <c r="K52" s="154"/>
+      <c r="L52" s="154"/>
       <c r="M52" s="154"/>
       <c r="N52" s="154"/>
       <c r="O52" s="154"/>
     </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="154"/>
-      <c r="B53" s="156"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="158"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="157"/>
-      <c r="K53" s="157"/>
-      <c r="L53" s="156"/>
-      <c r="M53" s="154"/>
-      <c r="N53" s="154"/>
-      <c r="O53" s="154"/>
+    <row r="53" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="174"/>
+      <c r="B53" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="286"/>
+      <c r="D53" s="286"/>
+      <c r="E53" s="287"/>
+      <c r="F53" s="175" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" s="175" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="175" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" s="175" t="s">
+        <v>333</v>
+      </c>
+      <c r="J53" s="175" t="s">
+        <v>129</v>
+      </c>
+      <c r="K53" s="175" t="s">
+        <v>130</v>
+      </c>
+      <c r="L53" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="174"/>
+      <c r="N53" s="174"/>
+      <c r="O53" s="174"/>
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="154"/>
-      <c r="B54" s="156"/>
+      <c r="B54" s="168" t="s">
+        <v>332</v>
+      </c>
       <c r="C54" s="159"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="158"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="157"/>
-      <c r="L54" s="156"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="165"/>
+      <c r="F54" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="G54" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="H54" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="I54" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="J54" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="K54" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="L54" s="160"/>
       <c r="M54" s="154"/>
       <c r="N54" s="154"/>
       <c r="O54" s="154"/>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="154"/>
-      <c r="B55" s="156"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="158"/>
-      <c r="F55" s="156"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="157"/>
-      <c r="K55" s="157"/>
-      <c r="L55" s="156"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="167" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="166"/>
+      <c r="E55" s="165"/>
+      <c r="F55" s="162" t="s">
+        <v>168</v>
+      </c>
+      <c r="G55" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="H55" s="161" t="s">
+        <v>167</v>
+      </c>
+      <c r="I55" s="161">
+        <v>1</v>
+      </c>
+      <c r="J55" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="K55" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="L55" s="160"/>
       <c r="M55" s="154"/>
       <c r="N55" s="154"/>
       <c r="O55" s="154"/>
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="154"/>
-      <c r="B56" s="156"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="158"/>
-      <c r="E56" s="158"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="157"/>
-      <c r="I56" s="157"/>
-      <c r="J56" s="157"/>
-      <c r="K56" s="157"/>
-      <c r="L56" s="156"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="172"/>
+      <c r="D56" s="280" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="281"/>
+      <c r="F56" s="162" t="s">
+        <v>331</v>
+      </c>
+      <c r="G56" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="161" t="s">
+        <v>167</v>
+      </c>
+      <c r="I56" s="161">
+        <v>1</v>
+      </c>
+      <c r="J56" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="K56" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="L56" s="160" t="s">
+        <v>192</v>
+      </c>
       <c r="M56" s="154"/>
       <c r="N56" s="154"/>
       <c r="O56" s="154"/>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="154"/>
-      <c r="B57" s="156"/>
-      <c r="C57" s="159"/>
-      <c r="D57" s="158"/>
-      <c r="E57" s="158"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="157"/>
-      <c r="L57" s="156"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="172"/>
+      <c r="D57" s="280" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="281"/>
+      <c r="F57" s="162" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" s="161" t="s">
+        <v>162</v>
+      </c>
+      <c r="H57" s="161" t="s">
+        <v>167</v>
+      </c>
+      <c r="I57" s="161">
+        <v>1</v>
+      </c>
+      <c r="J57" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="K57" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="L57" s="160" t="s">
+        <v>191</v>
+      </c>
       <c r="M57" s="154"/>
       <c r="N57" s="154"/>
       <c r="O57" s="154"/>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="154"/>
-      <c r="B58" s="154"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="154"/>
-      <c r="G58" s="154"/>
-      <c r="H58" s="154"/>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="154"/>
-      <c r="L58" s="154"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="294" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" s="281"/>
+      <c r="F58" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="G58" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="H58" s="161" t="s">
+        <v>167</v>
+      </c>
+      <c r="I58" s="161">
+        <v>1</v>
+      </c>
+      <c r="J58" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="K58" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="L58" s="160" t="s">
+        <v>198</v>
+      </c>
       <c r="M58" s="154"/>
       <c r="N58" s="154"/>
       <c r="O58" s="154"/>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="154"/>
-      <c r="B59" s="291" t="s">
-        <v>334</v>
-      </c>
-      <c r="C59" s="291"/>
-      <c r="D59" s="291"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154"/>
-      <c r="G59" s="154"/>
-      <c r="H59" s="154"/>
-      <c r="I59" s="154"/>
-      <c r="J59" s="154" t="s">
-        <v>330</v>
-      </c>
-      <c r="K59" s="154"/>
-      <c r="L59" s="154"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="171"/>
+      <c r="D59" s="170"/>
+      <c r="E59" s="169" t="s">
+        <v>196</v>
+      </c>
+      <c r="F59" s="162" t="s">
+        <v>174</v>
+      </c>
+      <c r="G59" s="161" t="s">
+        <v>162</v>
+      </c>
+      <c r="H59" s="161" t="s">
+        <v>167</v>
+      </c>
+      <c r="I59" s="161">
+        <v>1</v>
+      </c>
+      <c r="J59" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="K59" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="L59" s="160" t="s">
+        <v>197</v>
+      </c>
       <c r="M59" s="154"/>
       <c r="N59" s="154"/>
       <c r="O59" s="154"/>
     </row>
-    <row r="60" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="174"/>
-      <c r="B60" s="287" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="288"/>
-      <c r="D60" s="288"/>
-      <c r="E60" s="289"/>
-      <c r="F60" s="175" t="s">
-        <v>125</v>
-      </c>
-      <c r="G60" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="H60" s="175" t="s">
-        <v>128</v>
-      </c>
-      <c r="I60" s="175" t="s">
-        <v>333</v>
-      </c>
-      <c r="J60" s="175" t="s">
-        <v>129</v>
-      </c>
-      <c r="K60" s="175" t="s">
-        <v>130</v>
-      </c>
-      <c r="L60" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="M60" s="174"/>
-      <c r="N60" s="174"/>
-      <c r="O60" s="174"/>
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="154"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="167" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="166"/>
+      <c r="E60" s="165"/>
+      <c r="F60" s="162" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="H60" s="161" t="s">
+        <v>167</v>
+      </c>
+      <c r="I60" s="161">
+        <v>1</v>
+      </c>
+      <c r="J60" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="K60" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="L60" s="160"/>
+      <c r="M60" s="154"/>
+      <c r="N60" s="154"/>
+      <c r="O60" s="154"/>
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="154"/>
-      <c r="B61" s="168" t="s">
-        <v>332</v>
-      </c>
-      <c r="C61" s="159"/>
-      <c r="D61" s="159"/>
-      <c r="E61" s="165"/>
-      <c r="F61" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="G61" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="H61" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="I61" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="J61" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="K61" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="L61" s="160"/>
+      <c r="B61" s="155" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="154"/>
+      <c r="D61" s="154"/>
+      <c r="E61" s="154"/>
+      <c r="F61" s="154"/>
+      <c r="G61" s="154"/>
+      <c r="H61" s="154"/>
+      <c r="I61" s="154"/>
+      <c r="J61" s="154"/>
+      <c r="K61" s="154"/>
+      <c r="L61" s="154"/>
       <c r="M61" s="154"/>
       <c r="N61" s="154"/>
       <c r="O61" s="154"/>
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="154"/>
-      <c r="B62" s="168"/>
-      <c r="C62" s="167" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" s="166"/>
-      <c r="E62" s="165"/>
-      <c r="F62" s="162" t="s">
-        <v>168</v>
-      </c>
-      <c r="G62" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="H62" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I62" s="161">
-        <v>1</v>
-      </c>
-      <c r="J62" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="K62" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="L62" s="160"/>
+      <c r="B62" s="154"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="154"/>
+      <c r="E62" s="154"/>
+      <c r="F62" s="154"/>
+      <c r="G62" s="154"/>
+      <c r="H62" s="154"/>
+      <c r="I62" s="154"/>
+      <c r="J62" s="154"/>
+      <c r="K62" s="154"/>
+      <c r="L62" s="154"/>
       <c r="M62" s="154"/>
       <c r="N62" s="154"/>
       <c r="O62" s="154"/>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="154"/>
-      <c r="B63" s="168"/>
-      <c r="C63" s="172"/>
-      <c r="D63" s="280" t="s">
-        <v>172</v>
-      </c>
-      <c r="E63" s="281"/>
-      <c r="F63" s="162" t="s">
-        <v>331</v>
-      </c>
-      <c r="G63" s="161" t="s">
-        <v>133</v>
-      </c>
-      <c r="H63" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I63" s="161">
-        <v>1</v>
-      </c>
-      <c r="J63" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="K63" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="L63" s="160" t="s">
-        <v>192</v>
-      </c>
+      <c r="B63" s="154"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="154"/>
+      <c r="I63" s="154"/>
+      <c r="J63" s="154"/>
+      <c r="K63" s="154"/>
+      <c r="L63" s="154"/>
       <c r="M63" s="154"/>
       <c r="N63" s="154"/>
       <c r="O63" s="154"/>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="154"/>
-      <c r="B64" s="168"/>
-      <c r="C64" s="172"/>
-      <c r="D64" s="280" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="281"/>
-      <c r="F64" s="162" t="s">
-        <v>190</v>
-      </c>
-      <c r="G64" s="161" t="s">
-        <v>162</v>
-      </c>
-      <c r="H64" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I64" s="161">
-        <v>1</v>
-      </c>
-      <c r="J64" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="K64" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="L64" s="160" t="s">
-        <v>191</v>
-      </c>
+      <c r="B64" s="154"/>
+      <c r="C64" s="154"/>
+      <c r="D64" s="154"/>
+      <c r="E64" s="154"/>
+      <c r="F64" s="154"/>
+      <c r="G64" s="154"/>
+      <c r="H64" s="154"/>
+      <c r="I64" s="154"/>
+      <c r="J64" s="154"/>
+      <c r="K64" s="154"/>
+      <c r="L64" s="154"/>
       <c r="M64" s="154"/>
       <c r="N64" s="154"/>
       <c r="O64" s="154"/>
     </row>
     <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="154"/>
-      <c r="B65" s="168"/>
-      <c r="C65" s="172"/>
-      <c r="D65" s="295" t="s">
-        <v>195</v>
-      </c>
-      <c r="E65" s="281"/>
-      <c r="F65" s="162" t="s">
-        <v>193</v>
-      </c>
-      <c r="G65" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="H65" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I65" s="161">
-        <v>1</v>
-      </c>
-      <c r="J65" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="K65" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="L65" s="160" t="s">
-        <v>198</v>
-      </c>
+      <c r="B65" s="154"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="154"/>
+      <c r="E65" s="154"/>
+      <c r="F65" s="154"/>
+      <c r="G65" s="154"/>
+      <c r="H65" s="154"/>
+      <c r="I65" s="154"/>
+      <c r="J65" s="154"/>
+      <c r="K65" s="154"/>
+      <c r="L65" s="154"/>
       <c r="M65" s="154"/>
       <c r="N65" s="154"/>
       <c r="O65" s="154"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="154"/>
-      <c r="B66" s="168"/>
-      <c r="C66" s="171"/>
-      <c r="D66" s="170"/>
-      <c r="E66" s="169" t="s">
-        <v>196</v>
-      </c>
-      <c r="F66" s="162" t="s">
-        <v>174</v>
-      </c>
-      <c r="G66" s="161" t="s">
-        <v>162</v>
-      </c>
-      <c r="H66" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I66" s="161">
-        <v>1</v>
-      </c>
-      <c r="J66" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="K66" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="L66" s="160" t="s">
-        <v>197</v>
-      </c>
+      <c r="B66" s="154"/>
+      <c r="C66" s="154"/>
+      <c r="D66" s="154"/>
+      <c r="E66" s="154"/>
+      <c r="F66" s="154"/>
+      <c r="G66" s="154"/>
+      <c r="H66" s="154"/>
+      <c r="I66" s="154"/>
+      <c r="J66" s="154"/>
+      <c r="K66" s="154"/>
+      <c r="L66" s="154"/>
       <c r="M66" s="154"/>
       <c r="N66" s="154"/>
       <c r="O66" s="154"/>
     </row>
     <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="154"/>
-      <c r="B67" s="168"/>
-      <c r="C67" s="167" t="s">
-        <v>171</v>
-      </c>
-      <c r="D67" s="166"/>
-      <c r="E67" s="165"/>
-      <c r="F67" s="162" t="s">
-        <v>169</v>
-      </c>
-      <c r="G67" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="H67" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I67" s="161">
-        <v>1</v>
-      </c>
-      <c r="J67" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="K67" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="L67" s="160"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="154"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="154"/>
+      <c r="F67" s="154"/>
+      <c r="G67" s="154"/>
+      <c r="H67" s="154"/>
+      <c r="I67" s="154"/>
+      <c r="J67" s="154"/>
+      <c r="K67" s="154"/>
+      <c r="L67" s="154"/>
       <c r="M67" s="154"/>
       <c r="N67" s="154"/>
       <c r="O67" s="154"/>
     </row>
     <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="154"/>
-      <c r="B68" s="168"/>
-      <c r="C68" s="171"/>
-      <c r="D68" s="280" t="s">
-        <v>352</v>
-      </c>
-      <c r="E68" s="281"/>
-      <c r="F68" s="162" t="s">
-        <v>176</v>
-      </c>
-      <c r="G68" s="161" t="s">
-        <v>351</v>
-      </c>
-      <c r="H68" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I68" s="161">
-        <v>1</v>
-      </c>
-      <c r="J68" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="K68" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="L68" s="160" t="s">
-        <v>350</v>
-      </c>
+      <c r="B68" s="154"/>
+      <c r="C68" s="154"/>
+      <c r="D68" s="154"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="154"/>
+      <c r="G68" s="154"/>
+      <c r="H68" s="154"/>
+      <c r="I68" s="154"/>
+      <c r="J68" s="154"/>
+      <c r="K68" s="154"/>
+      <c r="L68" s="154"/>
       <c r="M68" s="154"/>
       <c r="N68" s="154"/>
       <c r="O68" s="154"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="154"/>
-      <c r="B69" s="168"/>
-      <c r="C69" s="171"/>
-      <c r="D69" s="292" t="s">
-        <v>349</v>
-      </c>
-      <c r="E69" s="293"/>
-      <c r="F69" s="162" t="s">
-        <v>348</v>
-      </c>
-      <c r="G69" s="161" t="s">
-        <v>162</v>
-      </c>
-      <c r="H69" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I69" s="161">
-        <v>1</v>
-      </c>
-      <c r="J69" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="K69" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="L69" s="160" t="s">
-        <v>347</v>
-      </c>
+      <c r="B69" s="154"/>
+      <c r="C69" s="154"/>
+      <c r="D69" s="154"/>
+      <c r="E69" s="154"/>
+      <c r="F69" s="154"/>
+      <c r="G69" s="154"/>
+      <c r="H69" s="154"/>
+      <c r="I69" s="154"/>
+      <c r="J69" s="154"/>
+      <c r="K69" s="154"/>
+      <c r="L69" s="154"/>
       <c r="M69" s="154"/>
       <c r="N69" s="154"/>
       <c r="O69" s="154"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="154"/>
-      <c r="B70" s="168"/>
-      <c r="C70" s="171"/>
-      <c r="D70" s="280" t="s">
-        <v>346</v>
-      </c>
-      <c r="E70" s="281"/>
-      <c r="F70" s="162" t="s">
-        <v>345</v>
-      </c>
-      <c r="G70" s="161" t="s">
-        <v>162</v>
-      </c>
-      <c r="H70" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I70" s="161">
-        <v>1</v>
-      </c>
-      <c r="J70" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="K70" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="L70" s="160" t="s">
-        <v>344</v>
-      </c>
+      <c r="B70" s="154"/>
+      <c r="C70" s="154"/>
+      <c r="D70" s="154"/>
+      <c r="E70" s="154"/>
+      <c r="F70" s="154"/>
+      <c r="G70" s="154"/>
+      <c r="H70" s="154"/>
+      <c r="I70" s="154"/>
+      <c r="J70" s="154"/>
+      <c r="K70" s="154"/>
+      <c r="L70" s="154"/>
       <c r="M70" s="154"/>
       <c r="N70" s="154"/>
       <c r="O70" s="154"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="154"/>
-      <c r="B71" s="168"/>
-      <c r="C71" s="171"/>
-      <c r="D71" s="177" t="s">
-        <v>343</v>
-      </c>
-      <c r="E71" s="176"/>
-      <c r="F71" s="162" t="s">
-        <v>342</v>
-      </c>
-      <c r="G71" s="161" t="s">
-        <v>162</v>
-      </c>
-      <c r="H71" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I71" s="161">
-        <v>1</v>
-      </c>
-      <c r="J71" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="K71" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="L71" s="160" t="s">
-        <v>341</v>
-      </c>
+      <c r="B71" s="154"/>
+      <c r="C71" s="154"/>
+      <c r="D71" s="154"/>
+      <c r="E71" s="154"/>
+      <c r="F71" s="154"/>
+      <c r="G71" s="154"/>
+      <c r="H71" s="154"/>
+      <c r="I71" s="154"/>
+      <c r="J71" s="154"/>
+      <c r="K71" s="154"/>
+      <c r="L71" s="154"/>
       <c r="M71" s="154"/>
       <c r="N71" s="154"/>
       <c r="O71" s="154"/>
     </row>
     <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="154"/>
-      <c r="B72" s="168"/>
-      <c r="C72" s="171"/>
-      <c r="D72" s="177" t="s">
-        <v>340</v>
-      </c>
-      <c r="E72" s="176"/>
-      <c r="F72" s="162" t="s">
-        <v>339</v>
-      </c>
-      <c r="G72" s="161" t="s">
-        <v>162</v>
-      </c>
-      <c r="H72" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="I72" s="161">
-        <v>1</v>
-      </c>
-      <c r="J72" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="K72" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="L72" s="160" t="s">
-        <v>338</v>
-      </c>
+      <c r="B72" s="154"/>
+      <c r="C72" s="154"/>
+      <c r="D72" s="154"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="154"/>
+      <c r="G72" s="154"/>
+      <c r="H72" s="154"/>
+      <c r="I72" s="154"/>
+      <c r="J72" s="154"/>
+      <c r="K72" s="154"/>
+      <c r="L72" s="154"/>
       <c r="M72" s="154"/>
       <c r="N72" s="154"/>
       <c r="O72" s="154"/>
     </row>
     <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="154"/>
-      <c r="B73" s="164"/>
-      <c r="C73" s="163"/>
-      <c r="D73" s="215" t="s">
-        <v>322</v>
-      </c>
-      <c r="E73" s="216"/>
-      <c r="F73" s="105" t="s">
-        <v>323</v>
-      </c>
-      <c r="G73" s="217" t="s">
-        <v>324</v>
-      </c>
-      <c r="H73" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="I73" s="76">
-        <v>1</v>
-      </c>
-      <c r="J73" s="76"/>
-      <c r="K73" s="76"/>
-      <c r="L73" s="160"/>
+      <c r="B73" s="154"/>
+      <c r="C73" s="154"/>
+      <c r="D73" s="154"/>
+      <c r="E73" s="154"/>
+      <c r="F73" s="154"/>
+      <c r="G73" s="154"/>
+      <c r="H73" s="154"/>
+      <c r="I73" s="154"/>
+      <c r="J73" s="154"/>
+      <c r="K73" s="154"/>
+      <c r="L73" s="154"/>
       <c r="M73" s="154"/>
       <c r="N73" s="154"/>
       <c r="O73" s="154"/>
     </row>
     <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="154"/>
-      <c r="B74" s="156"/>
-      <c r="C74" s="159"/>
-      <c r="D74" s="215" t="s">
-        <v>325</v>
-      </c>
-      <c r="E74" s="216"/>
-      <c r="F74" s="105" t="s">
-        <v>326</v>
-      </c>
-      <c r="G74" s="217" t="s">
-        <v>324</v>
-      </c>
-      <c r="H74" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="I74" s="76">
-        <v>1</v>
-      </c>
-      <c r="J74" s="76"/>
-      <c r="K74" s="76"/>
-      <c r="L74" s="218"/>
+      <c r="B74" s="154"/>
+      <c r="C74" s="154"/>
+      <c r="D74" s="154"/>
+      <c r="E74" s="154"/>
+      <c r="F74" s="154"/>
+      <c r="G74" s="154"/>
+      <c r="H74" s="154"/>
+      <c r="I74" s="154"/>
+      <c r="J74" s="154"/>
+      <c r="K74" s="154"/>
+      <c r="L74" s="154"/>
       <c r="M74" s="154"/>
       <c r="N74" s="154"/>
       <c r="O74" s="154"/>
     </row>
     <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="154"/>
-      <c r="B75" s="155" t="s">
-        <v>180</v>
-      </c>
+      <c r="B75" s="154"/>
       <c r="C75" s="154"/>
       <c r="D75" s="154"/>
       <c r="E75" s="154"/>
@@ -58259,286 +58056,42 @@
       <c r="O80" s="154"/>
     </row>
     <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="154"/>
-      <c r="B81" s="154"/>
-      <c r="C81" s="154"/>
-      <c r="D81" s="154"/>
-      <c r="E81" s="154"/>
-      <c r="F81" s="154"/>
-      <c r="G81" s="154"/>
-      <c r="H81" s="154"/>
-      <c r="I81" s="154"/>
-      <c r="J81" s="154"/>
-      <c r="K81" s="154"/>
-      <c r="L81" s="154"/>
-      <c r="M81" s="154"/>
-      <c r="N81" s="154"/>
-      <c r="O81" s="154"/>
-    </row>
-    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="154"/>
-      <c r="B82" s="154"/>
-      <c r="C82" s="154"/>
-      <c r="D82" s="154"/>
-      <c r="E82" s="154"/>
-      <c r="F82" s="154"/>
-      <c r="G82" s="154"/>
-      <c r="H82" s="154"/>
-      <c r="I82" s="154"/>
-      <c r="J82" s="154"/>
-      <c r="K82" s="154"/>
-      <c r="L82" s="154"/>
-      <c r="M82" s="154"/>
-      <c r="N82" s="154"/>
-      <c r="O82" s="154"/>
-    </row>
-    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="154"/>
-      <c r="B83" s="154"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="154"/>
-      <c r="F83" s="154"/>
-      <c r="G83" s="154"/>
-      <c r="H83" s="154"/>
-      <c r="I83" s="154"/>
-      <c r="J83" s="154"/>
-      <c r="K83" s="154"/>
-      <c r="L83" s="154"/>
-      <c r="M83" s="154"/>
-      <c r="N83" s="154"/>
-      <c r="O83" s="154"/>
-    </row>
-    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="154"/>
-      <c r="B84" s="154"/>
-      <c r="C84" s="154"/>
-      <c r="D84" s="154"/>
-      <c r="E84" s="154"/>
-      <c r="F84" s="154"/>
-      <c r="G84" s="154"/>
-      <c r="H84" s="154"/>
-      <c r="I84" s="154"/>
-      <c r="J84" s="154"/>
-      <c r="K84" s="154"/>
-      <c r="L84" s="154"/>
-      <c r="M84" s="154"/>
-      <c r="N84" s="154"/>
-      <c r="O84" s="154"/>
-    </row>
-    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="154"/>
-      <c r="B85" s="154"/>
-      <c r="C85" s="154"/>
-      <c r="D85" s="154"/>
-      <c r="E85" s="154"/>
-      <c r="F85" s="154"/>
-      <c r="G85" s="154"/>
-      <c r="H85" s="154"/>
-      <c r="I85" s="154"/>
-      <c r="J85" s="154"/>
-      <c r="K85" s="154"/>
-      <c r="L85" s="154"/>
-      <c r="M85" s="154"/>
-      <c r="N85" s="154"/>
-      <c r="O85" s="154"/>
-    </row>
-    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="154"/>
-      <c r="B86" s="154"/>
-      <c r="C86" s="154"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="154"/>
-      <c r="F86" s="154"/>
-      <c r="G86" s="154"/>
-      <c r="H86" s="154"/>
-      <c r="I86" s="154"/>
-      <c r="J86" s="154"/>
-      <c r="K86" s="154"/>
-      <c r="L86" s="154"/>
-      <c r="M86" s="154"/>
-      <c r="N86" s="154"/>
-      <c r="O86" s="154"/>
-    </row>
-    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="154"/>
-      <c r="B87" s="154"/>
-      <c r="C87" s="154"/>
-      <c r="D87" s="154"/>
-      <c r="E87" s="154"/>
-      <c r="F87" s="154"/>
-      <c r="G87" s="154"/>
-      <c r="H87" s="154"/>
-      <c r="I87" s="154"/>
-      <c r="J87" s="154"/>
-      <c r="K87" s="154"/>
-      <c r="L87" s="154"/>
-      <c r="M87" s="154"/>
-      <c r="N87" s="154"/>
-      <c r="O87" s="154"/>
-    </row>
-    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="154"/>
-      <c r="B88" s="154"/>
-      <c r="C88" s="154"/>
-      <c r="D88" s="154"/>
-      <c r="E88" s="154"/>
-      <c r="F88" s="154"/>
-      <c r="G88" s="154"/>
-      <c r="H88" s="154"/>
-      <c r="I88" s="154"/>
-      <c r="J88" s="154"/>
-      <c r="K88" s="154"/>
-      <c r="L88" s="154"/>
-      <c r="M88" s="154"/>
-      <c r="N88" s="154"/>
-      <c r="O88" s="154"/>
-    </row>
-    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="154"/>
-      <c r="B89" s="154"/>
-      <c r="C89" s="154"/>
-      <c r="D89" s="154"/>
-      <c r="E89" s="154"/>
-      <c r="F89" s="154"/>
-      <c r="G89" s="154"/>
-      <c r="H89" s="154"/>
-      <c r="I89" s="154"/>
-      <c r="J89" s="154"/>
-      <c r="K89" s="154"/>
-      <c r="L89" s="154"/>
-      <c r="M89" s="154"/>
-      <c r="N89" s="154"/>
-      <c r="O89" s="154"/>
-    </row>
-    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="154"/>
-      <c r="B90" s="154"/>
-      <c r="C90" s="154"/>
-      <c r="D90" s="154"/>
-      <c r="E90" s="154"/>
-      <c r="F90" s="154"/>
-      <c r="G90" s="154"/>
-      <c r="H90" s="154"/>
-      <c r="I90" s="154"/>
-      <c r="J90" s="154"/>
-      <c r="K90" s="154"/>
-      <c r="L90" s="154"/>
-      <c r="M90" s="154"/>
-      <c r="N90" s="154"/>
-      <c r="O90" s="154"/>
-    </row>
-    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="154"/>
-      <c r="B91" s="154"/>
-      <c r="C91" s="154"/>
-      <c r="D91" s="154"/>
-      <c r="E91" s="154"/>
-      <c r="F91" s="154"/>
-      <c r="G91" s="154"/>
-      <c r="H91" s="154"/>
-      <c r="I91" s="154"/>
-      <c r="J91" s="154"/>
-      <c r="K91" s="154"/>
-      <c r="L91" s="154"/>
-      <c r="M91" s="154"/>
-      <c r="N91" s="154"/>
-      <c r="O91" s="154"/>
-    </row>
-    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="154"/>
-      <c r="B92" s="154"/>
-      <c r="C92" s="154"/>
-      <c r="D92" s="154"/>
-      <c r="E92" s="154"/>
-      <c r="F92" s="154"/>
-      <c r="G92" s="154"/>
-      <c r="H92" s="154"/>
-      <c r="I92" s="154"/>
-      <c r="J92" s="154"/>
-      <c r="K92" s="154"/>
-      <c r="L92" s="154"/>
-      <c r="M92" s="154"/>
-      <c r="N92" s="154"/>
-      <c r="O92" s="154"/>
-    </row>
-    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="154"/>
-      <c r="B93" s="154"/>
-      <c r="C93" s="154"/>
-      <c r="D93" s="154"/>
-      <c r="E93" s="154"/>
-      <c r="F93" s="154"/>
-      <c r="G93" s="154"/>
-      <c r="H93" s="154"/>
-      <c r="I93" s="154"/>
-      <c r="J93" s="154"/>
-      <c r="K93" s="154"/>
-      <c r="L93" s="154"/>
-      <c r="M93" s="154"/>
-      <c r="N93" s="154"/>
-      <c r="O93" s="154"/>
-    </row>
-    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="154"/>
-      <c r="B94" s="154"/>
-      <c r="C94" s="154"/>
-      <c r="D94" s="154"/>
-      <c r="E94" s="154"/>
-      <c r="F94" s="154"/>
-      <c r="G94" s="154"/>
-      <c r="H94" s="154"/>
-      <c r="I94" s="154"/>
-      <c r="J94" s="154"/>
-      <c r="K94" s="154"/>
-      <c r="L94" s="154"/>
-      <c r="M94" s="154"/>
-      <c r="N94" s="154"/>
-      <c r="O94" s="154"/>
-    </row>
-    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="153"/>
-      <c r="B95" s="153"/>
-      <c r="C95" s="153"/>
-      <c r="D95" s="153"/>
-      <c r="E95" s="153"/>
-      <c r="F95" s="153"/>
-      <c r="G95" s="153"/>
-      <c r="H95" s="153"/>
-      <c r="I95" s="153"/>
-      <c r="J95" s="153"/>
-      <c r="K95" s="153"/>
-      <c r="L95" s="153"/>
-      <c r="M95" s="153"/>
-      <c r="N95" s="153"/>
-      <c r="O95" s="153"/>
+      <c r="A81" s="153"/>
+      <c r="B81" s="153"/>
+      <c r="C81" s="153"/>
+      <c r="D81" s="153"/>
+      <c r="E81" s="153"/>
+      <c r="F81" s="153"/>
+      <c r="G81" s="153"/>
+      <c r="H81" s="153"/>
+      <c r="I81" s="153"/>
+      <c r="J81" s="153"/>
+      <c r="K81" s="153"/>
+      <c r="L81" s="153"/>
+      <c r="M81" s="153"/>
+      <c r="N81" s="153"/>
+      <c r="O81" s="153"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D70:E70"/>
+  <mergeCells count="18">
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -58639,11 +58192,11 @@
       <c r="C4" s="280" t="s">
         <v>377</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="281"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
@@ -58660,11 +58213,11 @@
       <c r="C5" s="280" t="s">
         <v>376</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="281"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
@@ -58702,11 +58255,11 @@
       <c r="C7" s="280" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="281"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
@@ -58744,11 +58297,11 @@
       <c r="C9" s="280" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="281"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
@@ -58812,19 +58365,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="282" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="284"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -58853,11 +58406,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="283" t="s">
+      <c r="J14" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="283"/>
-      <c r="L14" s="283"/>
+      <c r="K14" s="279"/>
+      <c r="L14" s="279"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -58882,11 +58435,11 @@
       <c r="I15" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="288" t="s">
         <v>374</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="288"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -59048,11 +58601,11 @@
     </row>
     <row r="25" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="179"/>
-      <c r="B25" s="294" t="s">
+      <c r="B25" s="293" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="180"/>
       <c r="F25" s="181"/>
       <c r="G25" s="180"/>
@@ -59067,12 +58620,12 @@
     </row>
     <row r="26" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="287" t="s">
+      <c r="B26" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="288"/>
-      <c r="D26" s="288"/>
-      <c r="E26" s="289"/>
+      <c r="C26" s="286"/>
+      <c r="D26" s="286"/>
+      <c r="E26" s="287"/>
       <c r="F26" s="175" t="s">
         <v>125</v>
       </c>
@@ -59296,10 +58849,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="292" t="s">
+      <c r="D33" s="291" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="293"/>
+      <c r="E33" s="292"/>
       <c r="F33" s="162" t="s">
         <v>348</v>
       </c>
@@ -59734,11 +59287,11 @@
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="154"/>
-      <c r="B55" s="291" t="s">
+      <c r="B55" s="290" t="s">
         <v>334</v>
       </c>
-      <c r="C55" s="291"/>
-      <c r="D55" s="291"/>
+      <c r="C55" s="290"/>
+      <c r="D55" s="290"/>
       <c r="E55" s="154"/>
       <c r="F55" s="154"/>
       <c r="G55" s="154"/>
@@ -59755,12 +59308,12 @@
     </row>
     <row r="56" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="174"/>
-      <c r="B56" s="287" t="s">
+      <c r="B56" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="288"/>
-      <c r="D56" s="288"/>
-      <c r="E56" s="289"/>
+      <c r="C56" s="286"/>
+      <c r="D56" s="286"/>
+      <c r="E56" s="287"/>
       <c r="F56" s="175" t="s">
         <v>125</v>
       </c>
@@ -59918,7 +59471,7 @@
       <c r="A61" s="154"/>
       <c r="B61" s="168"/>
       <c r="C61" s="172"/>
-      <c r="D61" s="295" t="s">
+      <c r="D61" s="294" t="s">
         <v>195</v>
       </c>
       <c r="E61" s="281"/>
@@ -60406,6 +59959,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D60:E60"/>
@@ -60421,11 +59979,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:E56"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -60525,11 +60078,11 @@
       <c r="C4" s="280" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="281"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
@@ -60546,11 +60099,11 @@
       <c r="C5" s="280" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="281"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
@@ -60588,11 +60141,11 @@
       <c r="C7" s="280" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="281"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
@@ -60630,11 +60183,11 @@
       <c r="C9" s="280" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="281"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
@@ -60698,19 +60251,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="282" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="284"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -60739,11 +60292,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="283" t="s">
+      <c r="J14" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="283"/>
-      <c r="L14" s="283"/>
+      <c r="K14" s="279"/>
+      <c r="L14" s="279"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -60768,11 +60321,11 @@
       <c r="I15" s="130" t="s">
         <v>277</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="288" t="s">
         <v>372</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="288"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -60801,11 +60354,11 @@
       <c r="I16" s="130" t="s">
         <v>360</v>
       </c>
-      <c r="J16" s="290" t="s">
+      <c r="J16" s="288" t="s">
         <v>379</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="288"/>
+      <c r="L16" s="288"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -60967,11 +60520,11 @@
     </row>
     <row r="26" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="179"/>
-      <c r="B26" s="294" t="s">
+      <c r="B26" s="293" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
+      <c r="C26" s="293"/>
+      <c r="D26" s="293"/>
       <c r="E26" s="180"/>
       <c r="F26" s="181"/>
       <c r="G26" s="180"/>
@@ -60986,12 +60539,12 @@
     </row>
     <row r="27" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="287" t="s">
+      <c r="B27" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="288"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="289"/>
+      <c r="C27" s="286"/>
+      <c r="D27" s="286"/>
+      <c r="E27" s="287"/>
       <c r="F27" s="175" t="s">
         <v>125</v>
       </c>
@@ -61505,11 +61058,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="154"/>
-      <c r="B52" s="291" t="s">
+      <c r="B52" s="290" t="s">
         <v>334</v>
       </c>
-      <c r="C52" s="291"/>
-      <c r="D52" s="291"/>
+      <c r="C52" s="290"/>
+      <c r="D52" s="290"/>
       <c r="E52" s="154"/>
       <c r="F52" s="154"/>
       <c r="G52" s="154"/>
@@ -61526,12 +61079,12 @@
     </row>
     <row r="53" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="287" t="s">
+      <c r="B53" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="288"/>
-      <c r="D53" s="288"/>
-      <c r="E53" s="289"/>
+      <c r="C53" s="286"/>
+      <c r="D53" s="286"/>
+      <c r="E53" s="287"/>
       <c r="F53" s="175" t="s">
         <v>125</v>
       </c>
@@ -61689,7 +61242,7 @@
       <c r="A58" s="154"/>
       <c r="B58" s="168"/>
       <c r="C58" s="172"/>
-      <c r="D58" s="295" t="s">
+      <c r="D58" s="294" t="s">
         <v>195</v>
       </c>
       <c r="E58" s="281"/>
@@ -62177,6 +61730,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D57:E57"/>
@@ -62186,16 +61749,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>

--- a/doc/API_Design/API_Spec/BLOG_API_Spec.xlsx
+++ b/doc/API_Design/API_Spec/BLOG_API_Spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="927" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="927" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="478">
   <si>
     <t>Description</t>
   </si>
@@ -1529,6 +1529,21 @@
   <si>
     <t>PUT /v1/users/{user_id}</t>
   </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>Created date time</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Date time account created</t>
+  </si>
+  <si>
+    <t>Date time account modified</t>
+  </si>
 </sst>
 </file>
 
@@ -2420,7 +2435,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2909,44 +2924,54 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2978,16 +3003,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3015,21 +3030,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3042,41 +3042,62 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3108,17 +3129,14 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3135,6 +3153,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="411" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3149,13 +3170,18 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3167,16 +3193,22 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3184,17 +3216,6 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3214,6 +3235,16 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="411" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="411" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="411" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="411" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="411" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="411" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="412">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -18818,13 +18849,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>61686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1445079</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19158,10 +19189,13 @@
             </a:rPr>
             <a:t>@mulodo.com"</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -19182,6 +19216,62 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "created_at" :"1823849",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "modified_at" :"19823478"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -19224,13 +19314,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>56696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19432,269 +19522,6 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>Get information of user failed</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>."</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  },</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "data":null</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>142421</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1419224</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="590550" y="15191921"/>
-          <a:ext cx="6867524" cy="2362654"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>HTTP/1.1 200</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> OK</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Content-Type: application/json</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{ </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "meta":</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "code":2002,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "description":"Token is invalid.",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "messages": </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>	message:"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Update information of user not success</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
@@ -23227,123 +23054,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="252" t="s">
+      <c r="B1" s="221"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="257" t="s">
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="258"/>
-      <c r="M1" s="259"/>
-      <c r="N1" s="239" t="s">
+      <c r="L1" s="226"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="240"/>
-      <c r="P1" s="240"/>
-      <c r="Q1" s="240"/>
-      <c r="R1" s="240"/>
-      <c r="S1" s="240"/>
-      <c r="T1" s="240"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="260" t="s">
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="261"/>
-      <c r="X1" s="261"/>
-      <c r="Y1" s="261"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="261"/>
-      <c r="AB1" s="261"/>
-      <c r="AC1" s="261"/>
-      <c r="AD1" s="262"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="232"/>
+      <c r="AA1" s="232"/>
+      <c r="AB1" s="232"/>
+      <c r="AC1" s="232"/>
+      <c r="AD1" s="233"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="250"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="252" t="s">
+      <c r="B2" s="221"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223" t="s">
         <v>444</v>
       </c>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253"/>
-      <c r="J2" s="253"/>
-      <c r="K2" s="234" t="s">
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="237" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="235"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="254" t="s">
+      <c r="L2" s="238"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="249" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="255"/>
-      <c r="P2" s="255"/>
-      <c r="Q2" s="255"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="255"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="231" t="s">
+      <c r="O2" s="250"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="250"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="250"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="234" t="s">
         <v>150</v>
       </c>
-      <c r="W2" s="232"/>
-      <c r="X2" s="233"/>
-      <c r="Y2" s="231" t="s">
+      <c r="W2" s="235"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="232"/>
-      <c r="AA2" s="233"/>
-      <c r="AB2" s="231" t="s">
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="236"/>
+      <c r="AB2" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="232"/>
-      <c r="AD2" s="233"/>
+      <c r="AC2" s="235"/>
+      <c r="AD2" s="236"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237" t="s">
+      <c r="B3" s="238"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="240" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="234" t="s">
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="235"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="239" t="s">
+      <c r="L3" s="238"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="228" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="240"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="241"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="229"/>
+      <c r="R3" s="229"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="230"/>
       <c r="V3" s="242" t="s">
         <v>237</v>
       </c>
@@ -23362,168 +23189,168 @@
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="229" t="s">
+      <c r="B8" s="264" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229" t="s">
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229" t="s">
+      <c r="G8" s="264"/>
+      <c r="H8" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="229"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="229" t="s">
+      <c r="I8" s="264"/>
+      <c r="J8" s="264"/>
+      <c r="K8" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="229"/>
-      <c r="M8" s="229"/>
-      <c r="N8" s="229"/>
-      <c r="O8" s="229"/>
-      <c r="P8" s="229"/>
-      <c r="Q8" s="229"/>
-      <c r="R8" s="229"/>
-      <c r="S8" s="229"/>
-      <c r="T8" s="229"/>
-      <c r="U8" s="229"/>
-      <c r="V8" s="229"/>
-      <c r="W8" s="229"/>
-      <c r="X8" s="229" t="s">
+      <c r="L8" s="264"/>
+      <c r="M8" s="264"/>
+      <c r="N8" s="264"/>
+      <c r="O8" s="264"/>
+      <c r="P8" s="264"/>
+      <c r="Q8" s="264"/>
+      <c r="R8" s="264"/>
+      <c r="S8" s="264"/>
+      <c r="T8" s="264"/>
+      <c r="U8" s="264"/>
+      <c r="V8" s="264"/>
+      <c r="W8" s="264"/>
+      <c r="X8" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="229"/>
-      <c r="Z8" s="229"/>
-      <c r="AA8" s="229"/>
-      <c r="AB8" s="229"/>
-      <c r="AC8" s="229"/>
+      <c r="Y8" s="264"/>
+      <c r="Z8" s="264"/>
+      <c r="AA8" s="264"/>
+      <c r="AB8" s="264"/>
+      <c r="AC8" s="264"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="230">
+      <c r="B9" s="252">
         <v>41961</v>
       </c>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="221" t="s">
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="255" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="222"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="219"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="223"/>
-      <c r="L9" s="224"/>
-      <c r="M9" s="224"/>
-      <c r="N9" s="224"/>
-      <c r="O9" s="224"/>
-      <c r="P9" s="224"/>
-      <c r="Q9" s="224"/>
-      <c r="R9" s="224"/>
-      <c r="S9" s="224"/>
-      <c r="T9" s="224"/>
-      <c r="U9" s="224"/>
-      <c r="V9" s="224"/>
-      <c r="W9" s="225"/>
-      <c r="X9" s="226"/>
-      <c r="Y9" s="227"/>
-      <c r="Z9" s="227"/>
-      <c r="AA9" s="227"/>
-      <c r="AB9" s="227"/>
-      <c r="AC9" s="228"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="257"/>
+      <c r="I9" s="253"/>
+      <c r="J9" s="254"/>
+      <c r="K9" s="258"/>
+      <c r="L9" s="259"/>
+      <c r="M9" s="259"/>
+      <c r="N9" s="259"/>
+      <c r="O9" s="259"/>
+      <c r="P9" s="259"/>
+      <c r="Q9" s="259"/>
+      <c r="R9" s="259"/>
+      <c r="S9" s="259"/>
+      <c r="T9" s="259"/>
+      <c r="U9" s="259"/>
+      <c r="V9" s="259"/>
+      <c r="W9" s="260"/>
+      <c r="X9" s="261"/>
+      <c r="Y9" s="262"/>
+      <c r="Z9" s="262"/>
+      <c r="AA9" s="262"/>
+      <c r="AB9" s="262"/>
+      <c r="AC9" s="263"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="218"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="223"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="224"/>
-      <c r="N10" s="224"/>
-      <c r="O10" s="224"/>
-      <c r="P10" s="224"/>
-      <c r="Q10" s="224"/>
-      <c r="R10" s="224"/>
-      <c r="S10" s="224"/>
-      <c r="T10" s="224"/>
-      <c r="U10" s="224"/>
-      <c r="V10" s="224"/>
-      <c r="W10" s="225"/>
-      <c r="X10" s="226"/>
-      <c r="Y10" s="227"/>
-      <c r="Z10" s="227"/>
-      <c r="AA10" s="227"/>
-      <c r="AB10" s="227"/>
-      <c r="AC10" s="228"/>
+      <c r="B10" s="257"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="257"/>
+      <c r="I10" s="253"/>
+      <c r="J10" s="254"/>
+      <c r="K10" s="258"/>
+      <c r="L10" s="259"/>
+      <c r="M10" s="259"/>
+      <c r="N10" s="259"/>
+      <c r="O10" s="259"/>
+      <c r="P10" s="259"/>
+      <c r="Q10" s="259"/>
+      <c r="R10" s="259"/>
+      <c r="S10" s="259"/>
+      <c r="T10" s="259"/>
+      <c r="U10" s="259"/>
+      <c r="V10" s="259"/>
+      <c r="W10" s="260"/>
+      <c r="X10" s="261"/>
+      <c r="Y10" s="262"/>
+      <c r="Z10" s="262"/>
+      <c r="AA10" s="262"/>
+      <c r="AB10" s="262"/>
+      <c r="AC10" s="263"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="218"/>
-      <c r="C11" s="219"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="220"/>
-      <c r="F11" s="221"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="223"/>
-      <c r="L11" s="224"/>
-      <c r="M11" s="224"/>
-      <c r="N11" s="224"/>
-      <c r="O11" s="224"/>
-      <c r="P11" s="224"/>
-      <c r="Q11" s="224"/>
-      <c r="R11" s="224"/>
-      <c r="S11" s="224"/>
-      <c r="T11" s="224"/>
-      <c r="U11" s="224"/>
-      <c r="V11" s="224"/>
-      <c r="W11" s="225"/>
-      <c r="X11" s="226"/>
-      <c r="Y11" s="227"/>
-      <c r="Z11" s="227"/>
-      <c r="AA11" s="227"/>
-      <c r="AB11" s="227"/>
-      <c r="AC11" s="228"/>
+      <c r="B11" s="257"/>
+      <c r="C11" s="253"/>
+      <c r="D11" s="253"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="255"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="257"/>
+      <c r="I11" s="253"/>
+      <c r="J11" s="254"/>
+      <c r="K11" s="258"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="259"/>
+      <c r="N11" s="259"/>
+      <c r="O11" s="259"/>
+      <c r="P11" s="259"/>
+      <c r="Q11" s="259"/>
+      <c r="R11" s="259"/>
+      <c r="S11" s="259"/>
+      <c r="T11" s="259"/>
+      <c r="U11" s="259"/>
+      <c r="V11" s="259"/>
+      <c r="W11" s="260"/>
+      <c r="X11" s="261"/>
+      <c r="Y11" s="262"/>
+      <c r="Z11" s="262"/>
+      <c r="AA11" s="262"/>
+      <c r="AB11" s="262"/>
+      <c r="AC11" s="263"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="218"/>
-      <c r="C12" s="219"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="221"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="219"/>
-      <c r="J12" s="220"/>
-      <c r="K12" s="223"/>
-      <c r="L12" s="224"/>
-      <c r="M12" s="224"/>
-      <c r="N12" s="224"/>
-      <c r="O12" s="224"/>
-      <c r="P12" s="224"/>
-      <c r="Q12" s="224"/>
-      <c r="R12" s="224"/>
-      <c r="S12" s="224"/>
-      <c r="T12" s="224"/>
-      <c r="U12" s="224"/>
-      <c r="V12" s="224"/>
-      <c r="W12" s="225"/>
-      <c r="X12" s="226"/>
-      <c r="Y12" s="227"/>
-      <c r="Z12" s="227"/>
-      <c r="AA12" s="227"/>
-      <c r="AB12" s="227"/>
-      <c r="AC12" s="228"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="253"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="254"/>
+      <c r="F12" s="255"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="257"/>
+      <c r="I12" s="253"/>
+      <c r="J12" s="254"/>
+      <c r="K12" s="258"/>
+      <c r="L12" s="259"/>
+      <c r="M12" s="259"/>
+      <c r="N12" s="259"/>
+      <c r="O12" s="259"/>
+      <c r="P12" s="259"/>
+      <c r="Q12" s="259"/>
+      <c r="R12" s="259"/>
+      <c r="S12" s="259"/>
+      <c r="T12" s="259"/>
+      <c r="U12" s="259"/>
+      <c r="V12" s="259"/>
+      <c r="W12" s="260"/>
+      <c r="X12" s="261"/>
+      <c r="Y12" s="262"/>
+      <c r="Z12" s="262"/>
+      <c r="AA12" s="262"/>
+      <c r="AB12" s="262"/>
+      <c r="AC12" s="263"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -23553,11 +23380,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -23572,31 +23419,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23696,15 +23523,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="279" t="s">
+      <c r="C4" s="282" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="280"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="283"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -23717,13 +23544,13 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="279"/>
-      <c r="D5" s="281"/>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="280"/>
+      <c r="C5" s="282"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="283"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -23757,15 +23584,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="279" t="s">
+      <c r="C7" s="282" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="281"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="280"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="283"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -23799,15 +23626,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="279" t="s">
+      <c r="C9" s="282" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="281"/>
-      <c r="G9" s="281"/>
-      <c r="H9" s="281"/>
-      <c r="I9" s="280"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="283"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -23870,19 +23697,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="283" t="s">
+      <c r="B13" s="284" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="284"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="284"/>
-      <c r="F13" s="284"/>
-      <c r="G13" s="284"/>
-      <c r="H13" s="284"/>
-      <c r="I13" s="284"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="284"/>
-      <c r="L13" s="285"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -23911,11 +23738,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="282" t="s">
+      <c r="J14" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="282"/>
-      <c r="L14" s="282"/>
+      <c r="K14" s="281"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -23940,11 +23767,11 @@
       <c r="I15" s="130" t="s">
         <v>445</v>
       </c>
-      <c r="J15" s="289" t="s">
+      <c r="J15" s="290" t="s">
         <v>371</v>
       </c>
-      <c r="K15" s="289"/>
-      <c r="L15" s="289"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -24089,11 +23916,11 @@
     </row>
     <row r="24" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="179"/>
-      <c r="B24" s="293" t="s">
+      <c r="B24" s="295" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="293"/>
-      <c r="D24" s="293"/>
+      <c r="C24" s="295"/>
+      <c r="D24" s="295"/>
       <c r="E24" s="180"/>
       <c r="F24" s="181"/>
       <c r="G24" s="180"/>
@@ -24108,12 +23935,12 @@
     </row>
     <row r="25" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="174"/>
-      <c r="B25" s="286" t="s">
+      <c r="B25" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="287"/>
-      <c r="D25" s="287"/>
-      <c r="E25" s="288"/>
+      <c r="C25" s="288"/>
+      <c r="D25" s="288"/>
+      <c r="E25" s="289"/>
       <c r="F25" s="175" t="s">
         <v>125</v>
       </c>
@@ -24205,10 +24032,10 @@
       <c r="A28" s="154"/>
       <c r="B28" s="168"/>
       <c r="C28" s="172"/>
-      <c r="D28" s="279" t="s">
+      <c r="D28" s="282" t="s">
         <v>171</v>
       </c>
-      <c r="E28" s="280"/>
+      <c r="E28" s="283"/>
       <c r="F28" s="162" t="s">
         <v>330</v>
       </c>
@@ -24238,10 +24065,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="163"/>
-      <c r="D29" s="279" t="s">
+      <c r="D29" s="282" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="280"/>
+      <c r="E29" s="283"/>
       <c r="F29" s="162" t="s">
         <v>173</v>
       </c>
@@ -24304,8 +24131,8 @@
       <c r="A31" s="154"/>
       <c r="B31" s="164"/>
       <c r="C31" s="163"/>
-      <c r="D31" s="279"/>
-      <c r="E31" s="280"/>
+      <c r="D31" s="282"/>
+      <c r="E31" s="283"/>
       <c r="F31" s="162"/>
       <c r="G31" s="161"/>
       <c r="H31" s="161"/>
@@ -24627,11 +24454,11 @@
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="154"/>
-      <c r="B50" s="290" t="s">
+      <c r="B50" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="C50" s="290"/>
-      <c r="D50" s="290"/>
+      <c r="C50" s="292"/>
+      <c r="D50" s="292"/>
       <c r="E50" s="154"/>
       <c r="F50" s="154"/>
       <c r="G50" s="154"/>
@@ -24648,12 +24475,12 @@
     </row>
     <row r="51" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="174"/>
-      <c r="B51" s="286" t="s">
+      <c r="B51" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="287"/>
-      <c r="D51" s="287"/>
-      <c r="E51" s="288"/>
+      <c r="C51" s="288"/>
+      <c r="D51" s="288"/>
+      <c r="E51" s="289"/>
       <c r="F51" s="175" t="s">
         <v>125</v>
       </c>
@@ -24745,10 +24572,10 @@
       <c r="A54" s="154"/>
       <c r="B54" s="168"/>
       <c r="C54" s="172"/>
-      <c r="D54" s="279" t="s">
+      <c r="D54" s="282" t="s">
         <v>171</v>
       </c>
-      <c r="E54" s="280"/>
+      <c r="E54" s="283"/>
       <c r="F54" s="162" t="s">
         <v>330</v>
       </c>
@@ -24778,10 +24605,10 @@
       <c r="A55" s="154"/>
       <c r="B55" s="168"/>
       <c r="C55" s="172"/>
-      <c r="D55" s="279" t="s">
+      <c r="D55" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="280"/>
+      <c r="E55" s="283"/>
       <c r="F55" s="162" t="s">
         <v>189</v>
       </c>
@@ -24811,10 +24638,10 @@
       <c r="A56" s="154"/>
       <c r="B56" s="168"/>
       <c r="C56" s="172"/>
-      <c r="D56" s="294" t="s">
+      <c r="D56" s="296" t="s">
         <v>194</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="283"/>
       <c r="F56" s="162" t="s">
         <v>192</v>
       </c>
@@ -24908,8 +24735,8 @@
       <c r="A59" s="154"/>
       <c r="B59" s="164"/>
       <c r="C59" s="163"/>
-      <c r="D59" s="279"/>
-      <c r="E59" s="280"/>
+      <c r="D59" s="282"/>
+      <c r="E59" s="283"/>
       <c r="F59" s="162"/>
       <c r="G59" s="161"/>
       <c r="H59" s="161"/>
@@ -25299,13 +25126,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="D54:E54"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="D28:E28"/>
@@ -25317,6 +25137,13 @@
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -25413,15 +25240,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="279" t="s">
+      <c r="C4" s="282" t="s">
         <v>386</v>
       </c>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="280"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="283"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -25434,15 +25261,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="279" t="s">
+      <c r="C5" s="282" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="281"/>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="280"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="283"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -25476,15 +25303,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="279" t="s">
+      <c r="C7" s="282" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="281"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="280"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="283"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -25518,15 +25345,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="279" t="s">
+      <c r="C9" s="282" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="281"/>
-      <c r="G9" s="281"/>
-      <c r="H9" s="281"/>
-      <c r="I9" s="280"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="283"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -25589,19 +25416,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="283" t="s">
+      <c r="B13" s="284" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="284"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="284"/>
-      <c r="F13" s="284"/>
-      <c r="G13" s="284"/>
-      <c r="H13" s="284"/>
-      <c r="I13" s="284"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="284"/>
-      <c r="L13" s="285"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -25630,11 +25457,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="282" t="s">
+      <c r="J14" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="282"/>
-      <c r="L14" s="282"/>
+      <c r="K14" s="281"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -25659,11 +25486,11 @@
       <c r="I15" s="196" t="s">
         <v>383</v>
       </c>
-      <c r="J15" s="295" t="s">
+      <c r="J15" s="297" t="s">
         <v>382</v>
       </c>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
+      <c r="K15" s="297"/>
+      <c r="L15" s="297"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -25825,11 +25652,11 @@
     </row>
     <row r="25" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="179"/>
-      <c r="B25" s="293" t="s">
+      <c r="B25" s="295" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="295"/>
+      <c r="D25" s="295"/>
       <c r="E25" s="180"/>
       <c r="F25" s="181"/>
       <c r="G25" s="180"/>
@@ -25844,12 +25671,12 @@
     </row>
     <row r="26" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="286" t="s">
+      <c r="B26" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="287"/>
-      <c r="D26" s="287"/>
-      <c r="E26" s="288"/>
+      <c r="C26" s="288"/>
+      <c r="D26" s="288"/>
+      <c r="E26" s="289"/>
       <c r="F26" s="175" t="s">
         <v>125</v>
       </c>
@@ -25941,10 +25768,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="172"/>
-      <c r="D29" s="279" t="s">
+      <c r="D29" s="282" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="280"/>
+      <c r="E29" s="283"/>
       <c r="F29" s="162" t="s">
         <v>330</v>
       </c>
@@ -25974,10 +25801,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="163"/>
-      <c r="D30" s="279" t="s">
+      <c r="D30" s="282" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="280"/>
+      <c r="E30" s="283"/>
       <c r="F30" s="162" t="s">
         <v>173</v>
       </c>
@@ -26040,10 +25867,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="171"/>
-      <c r="D32" s="279" t="s">
+      <c r="D32" s="282" t="s">
         <v>351</v>
       </c>
-      <c r="E32" s="280"/>
+      <c r="E32" s="283"/>
       <c r="F32" s="162" t="s">
         <v>175</v>
       </c>
@@ -26073,10 +25900,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="291" t="s">
+      <c r="D33" s="293" t="s">
         <v>348</v>
       </c>
-      <c r="E33" s="292"/>
+      <c r="E33" s="294"/>
       <c r="F33" s="162" t="s">
         <v>347</v>
       </c>
@@ -26106,10 +25933,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="172"/>
-      <c r="D34" s="279" t="s">
+      <c r="D34" s="282" t="s">
         <v>345</v>
       </c>
-      <c r="E34" s="280"/>
+      <c r="E34" s="283"/>
       <c r="F34" s="162" t="s">
         <v>344</v>
       </c>
@@ -27169,6 +26996,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D32:E32"/>
@@ -27178,11 +27010,6 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -27877,15 +27704,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="300" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="299"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -27898,15 +27725,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="302" t="s">
+      <c r="C5" s="300" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="304"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="299"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -27940,15 +27767,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="305" t="s">
+      <c r="C7" s="298" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="304"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="299"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -27982,15 +27809,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="304"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="299"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -28053,19 +27880,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="306" t="s">
+      <c r="B13" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="307"/>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="308"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="314"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="315"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -28094,11 +27921,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="316"/>
+      <c r="L14" s="316"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -28123,11 +27950,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="296" t="s">
+      <c r="J15" s="309" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -28156,9 +27983,9 @@
       <c r="I16" s="130" t="s">
         <v>287</v>
       </c>
-      <c r="J16" s="297"/>
-      <c r="K16" s="297"/>
-      <c r="L16" s="297"/>
+      <c r="J16" s="310"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="310"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -28349,11 +28176,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="311" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="298"/>
+      <c r="C27" s="311"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -28368,12 +28195,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="299" t="s">
+      <c r="B28" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="300"/>
-      <c r="D28" s="300"/>
-      <c r="E28" s="301"/>
+      <c r="C28" s="305"/>
+      <c r="D28" s="305"/>
+      <c r="E28" s="306"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -28465,10 +28292,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="305" t="s">
+      <c r="D31" s="298" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="304"/>
+      <c r="E31" s="299"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -28498,10 +28325,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="305" t="s">
+      <c r="D32" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="304"/>
+      <c r="E32" s="299"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -28564,10 +28391,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="302" t="s">
+      <c r="D34" s="300" t="s">
         <v>290</v>
       </c>
-      <c r="E34" s="304"/>
+      <c r="E34" s="299"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -28597,10 +28424,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="310" t="s">
+      <c r="D35" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="311"/>
+      <c r="E35" s="302"/>
       <c r="F35" s="105" t="s">
         <v>284</v>
       </c>
@@ -28990,11 +28817,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="312" t="s">
+      <c r="B56" s="303" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="312"/>
-      <c r="D56" s="312"/>
+      <c r="C56" s="303"/>
+      <c r="D56" s="303"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -29011,12 +28838,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="299" t="s">
+      <c r="B57" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="300"/>
-      <c r="D57" s="300"/>
-      <c r="E57" s="301"/>
+      <c r="C57" s="305"/>
+      <c r="D57" s="305"/>
+      <c r="E57" s="306"/>
       <c r="F57" s="115" t="s">
         <v>125</v>
       </c>
@@ -29108,10 +28935,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="302" t="s">
+      <c r="D60" s="300" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="304"/>
+      <c r="E60" s="299"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -29141,10 +28968,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="302" t="s">
+      <c r="D61" s="300" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="313"/>
+      <c r="E61" s="307"/>
       <c r="F61" s="105" t="s">
         <v>189</v>
       </c>
@@ -29174,10 +29001,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="314" t="s">
+      <c r="D62" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="313"/>
+      <c r="E62" s="307"/>
       <c r="F62" s="105" t="s">
         <v>192</v>
       </c>
@@ -29271,8 +29098,8 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="92"/>
-      <c r="D65" s="305"/>
-      <c r="E65" s="304"/>
+      <c r="D65" s="298"/>
+      <c r="E65" s="299"/>
       <c r="F65" s="74"/>
       <c r="G65" s="76"/>
       <c r="H65" s="76"/>
@@ -29662,6 +29489,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
@@ -29672,16 +29509,6 @@
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -29779,15 +29606,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="300" t="s">
         <v>293</v>
       </c>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="299"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -29800,15 +29627,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="302" t="s">
+      <c r="C5" s="300" t="s">
         <v>294</v>
       </c>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="304"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="299"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -29842,15 +29669,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="302" t="s">
+      <c r="C7" s="300" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="304"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="299"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -29884,15 +29711,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="304"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="299"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -29955,19 +29782,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="306" t="s">
+      <c r="B13" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="307"/>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="308"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="314"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="315"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29996,11 +29823,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="316"/>
+      <c r="L14" s="316"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -30025,11 +29852,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="296" t="s">
+      <c r="J15" s="309" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -30054,9 +29881,9 @@
       <c r="I16" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="296"/>
-      <c r="K16" s="297"/>
-      <c r="L16" s="297"/>
+      <c r="J16" s="309"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="310"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -30218,11 +30045,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="298" t="s">
+      <c r="B26" s="311" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="298"/>
-      <c r="D26" s="298"/>
+      <c r="C26" s="311"/>
+      <c r="D26" s="311"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -30237,12 +30064,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="299" t="s">
+      <c r="B27" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="300"/>
-      <c r="D27" s="300"/>
-      <c r="E27" s="301"/>
+      <c r="C27" s="305"/>
+      <c r="D27" s="305"/>
+      <c r="E27" s="306"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -30334,10 +30161,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="305" t="s">
+      <c r="D30" s="298" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="304"/>
+      <c r="E30" s="299"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -30367,10 +30194,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="305" t="s">
+      <c r="D31" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="304"/>
+      <c r="E31" s="299"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -30433,10 +30260,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="305" t="s">
+      <c r="D33" s="298" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="304"/>
+      <c r="E33" s="299"/>
       <c r="F33" s="74" t="s">
         <v>141</v>
       </c>
@@ -30466,10 +30293,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="302" t="s">
+      <c r="D34" s="300" t="s">
         <v>296</v>
       </c>
-      <c r="E34" s="304"/>
+      <c r="E34" s="299"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -30553,10 +30380,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="316" t="s">
+      <c r="D37" s="318" t="s">
         <v>305</v>
       </c>
-      <c r="E37" s="317"/>
+      <c r="E37" s="319"/>
       <c r="F37" s="139" t="s">
         <v>304</v>
       </c>
@@ -30888,11 +30715,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="312" t="s">
+      <c r="B56" s="303" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="312"/>
-      <c r="D56" s="312"/>
+      <c r="C56" s="303"/>
+      <c r="D56" s="303"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -30909,12 +30736,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="299" t="s">
+      <c r="B57" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="300"/>
-      <c r="D57" s="300"/>
-      <c r="E57" s="301"/>
+      <c r="C57" s="305"/>
+      <c r="D57" s="305"/>
+      <c r="E57" s="306"/>
       <c r="F57" s="115" t="s">
         <v>125</v>
       </c>
@@ -31006,10 +30833,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="302" t="s">
+      <c r="D60" s="300" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="304"/>
+      <c r="E60" s="299"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -31039,10 +30866,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="302" t="s">
+      <c r="D61" s="300" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="313"/>
+      <c r="E61" s="307"/>
       <c r="F61" s="105" t="s">
         <v>189</v>
       </c>
@@ -31072,10 +30899,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="314" t="s">
+      <c r="D62" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="313"/>
+      <c r="E62" s="307"/>
       <c r="F62" s="105" t="s">
         <v>192</v>
       </c>
@@ -31140,8 +30967,8 @@
       <c r="C64" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="D64" s="315"/>
-      <c r="E64" s="315"/>
+      <c r="D64" s="317"/>
+      <c r="E64" s="317"/>
       <c r="F64" s="74" t="s">
         <v>168</v>
       </c>
@@ -31169,10 +30996,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="77"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="305" t="s">
+      <c r="D65" s="298" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="304"/>
+      <c r="E65" s="299"/>
       <c r="F65" s="74" t="s">
         <v>141</v>
       </c>
@@ -31202,10 +31029,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="77"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="302" t="s">
+      <c r="D66" s="300" t="s">
         <v>296</v>
       </c>
-      <c r="E66" s="304"/>
+      <c r="E66" s="299"/>
       <c r="F66" s="105" t="s">
         <v>273</v>
       </c>
@@ -31289,10 +31116,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="77"/>
       <c r="C69" s="86"/>
-      <c r="D69" s="316" t="s">
+      <c r="D69" s="318" t="s">
         <v>305</v>
       </c>
-      <c r="E69" s="317"/>
+      <c r="E69" s="319"/>
       <c r="F69" s="139" t="s">
         <v>304</v>
       </c>
@@ -31675,6 +31502,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D69:E69"/>
@@ -31689,16 +31526,6 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B56:D56"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -31796,15 +31623,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="300" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="299"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31817,15 +31644,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="302" t="s">
+      <c r="C5" s="300" t="s">
         <v>300</v>
       </c>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="304"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="299"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31859,15 +31686,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="302" t="s">
+      <c r="C7" s="300" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="304"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="299"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31901,15 +31728,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="304"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="299"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31972,19 +31799,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="306" t="s">
+      <c r="B13" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="307"/>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="308"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="314"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="315"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -32013,11 +31840,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="316"/>
+      <c r="L14" s="316"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -32042,11 +31869,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="296" t="s">
+      <c r="J15" s="309" t="s">
         <v>302</v>
       </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -32071,9 +31898,9 @@
       <c r="I16" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="296"/>
-      <c r="K16" s="297"/>
-      <c r="L16" s="297"/>
+      <c r="J16" s="309"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="310"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -32235,11 +32062,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="298" t="s">
+      <c r="B26" s="311" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="298"/>
-      <c r="D26" s="298"/>
+      <c r="C26" s="311"/>
+      <c r="D26" s="311"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -32254,12 +32081,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="299" t="s">
+      <c r="B27" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="300"/>
-      <c r="D27" s="300"/>
-      <c r="E27" s="301"/>
+      <c r="C27" s="305"/>
+      <c r="D27" s="305"/>
+      <c r="E27" s="306"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -32351,10 +32178,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="305" t="s">
+      <c r="D30" s="298" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="304"/>
+      <c r="E30" s="299"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -32384,10 +32211,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="305" t="s">
+      <c r="D31" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="304"/>
+      <c r="E31" s="299"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -32450,10 +32277,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="305" t="s">
+      <c r="D33" s="298" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="304"/>
+      <c r="E33" s="299"/>
       <c r="F33" s="74" t="s">
         <v>141</v>
       </c>
@@ -32483,10 +32310,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="302" t="s">
+      <c r="D34" s="300" t="s">
         <v>296</v>
       </c>
-      <c r="E34" s="304"/>
+      <c r="E34" s="299"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -32570,10 +32397,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="316" t="s">
+      <c r="D37" s="318" t="s">
         <v>305</v>
       </c>
-      <c r="E37" s="317"/>
+      <c r="E37" s="319"/>
       <c r="F37" s="137" t="s">
         <v>304</v>
       </c>
@@ -32905,11 +32732,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="312" t="s">
+      <c r="B56" s="303" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="312"/>
-      <c r="D56" s="312"/>
+      <c r="C56" s="303"/>
+      <c r="D56" s="303"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -32926,12 +32753,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="299" t="s">
+      <c r="B57" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="300"/>
-      <c r="D57" s="300"/>
-      <c r="E57" s="301"/>
+      <c r="C57" s="305"/>
+      <c r="D57" s="305"/>
+      <c r="E57" s="306"/>
       <c r="F57" s="151" t="s">
         <v>125</v>
       </c>
@@ -33023,10 +32850,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="302" t="s">
+      <c r="D60" s="300" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="304"/>
+      <c r="E60" s="299"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -33056,10 +32883,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="302" t="s">
+      <c r="D61" s="300" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="313"/>
+      <c r="E61" s="307"/>
       <c r="F61" s="105" t="s">
         <v>189</v>
       </c>
@@ -33089,10 +32916,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="314" t="s">
+      <c r="D62" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="313"/>
+      <c r="E62" s="307"/>
       <c r="F62" s="105" t="s">
         <v>192</v>
       </c>
@@ -33157,8 +32984,8 @@
       <c r="C64" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="D64" s="315"/>
-      <c r="E64" s="315"/>
+      <c r="D64" s="317"/>
+      <c r="E64" s="317"/>
       <c r="F64" s="74" t="s">
         <v>168</v>
       </c>
@@ -33186,10 +33013,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="77"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="305" t="s">
+      <c r="D65" s="298" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="304"/>
+      <c r="E65" s="299"/>
       <c r="F65" s="74" t="s">
         <v>141</v>
       </c>
@@ -33219,10 +33046,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="77"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="302" t="s">
+      <c r="D66" s="300" t="s">
         <v>296</v>
       </c>
-      <c r="E66" s="304"/>
+      <c r="E66" s="299"/>
       <c r="F66" s="105" t="s">
         <v>273</v>
       </c>
@@ -33306,10 +33133,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="77"/>
       <c r="C69" s="86"/>
-      <c r="D69" s="316" t="s">
+      <c r="D69" s="318" t="s">
         <v>305</v>
       </c>
-      <c r="E69" s="317"/>
+      <c r="E69" s="319"/>
       <c r="F69" s="139" t="s">
         <v>304</v>
       </c>
@@ -33666,17 +33493,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D37:E37"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
@@ -33690,6 +33506,17 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -33787,15 +33614,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="300" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="299"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33808,15 +33635,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="302" t="s">
+      <c r="C5" s="300" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="304"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="299"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -33850,15 +33677,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="302" t="s">
+      <c r="C7" s="300" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="304"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="299"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -33892,15 +33719,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="304"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="299"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -33963,19 +33790,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="306" t="s">
+      <c r="B13" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="307"/>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="308"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="314"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="315"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -34004,11 +33831,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="316"/>
+      <c r="L14" s="316"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -34033,11 +33860,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="296" t="s">
+      <c r="J15" s="309" t="s">
         <v>318</v>
       </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -34062,9 +33889,9 @@
       <c r="I16" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="297"/>
-      <c r="K16" s="297"/>
-      <c r="L16" s="297"/>
+      <c r="J16" s="310"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="310"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -34282,11 +34109,11 @@
     </row>
     <row r="28" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="69"/>
-      <c r="B28" s="298" t="s">
+      <c r="B28" s="311" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="298"/>
-      <c r="D28" s="298"/>
+      <c r="C28" s="311"/>
+      <c r="D28" s="311"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="G28" s="80"/>
@@ -34301,12 +34128,12 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="83"/>
-      <c r="B29" s="299" t="s">
+      <c r="B29" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="300"/>
-      <c r="D29" s="300"/>
-      <c r="E29" s="301"/>
+      <c r="C29" s="305"/>
+      <c r="D29" s="305"/>
+      <c r="E29" s="306"/>
       <c r="F29" s="115" t="s">
         <v>125</v>
       </c>
@@ -34398,10 +34225,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="90"/>
-      <c r="D32" s="305" t="s">
+      <c r="D32" s="298" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="304"/>
+      <c r="E32" s="299"/>
       <c r="F32" s="74" t="s">
         <v>139</v>
       </c>
@@ -34431,10 +34258,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="305" t="s">
+      <c r="D33" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="304"/>
+      <c r="E33" s="299"/>
       <c r="F33" s="74" t="s">
         <v>173</v>
       </c>
@@ -34497,10 +34324,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="302" t="s">
+      <c r="D35" s="300" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="304"/>
+      <c r="E35" s="299"/>
       <c r="F35" s="105" t="s">
         <v>273</v>
       </c>
@@ -34530,10 +34357,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="310" t="s">
+      <c r="D36" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="311"/>
+      <c r="E36" s="302"/>
       <c r="F36" s="105" t="s">
         <v>284</v>
       </c>
@@ -34617,10 +34444,10 @@
       <c r="A39" s="66"/>
       <c r="B39" s="85"/>
       <c r="C39" s="95"/>
-      <c r="D39" s="316" t="s">
+      <c r="D39" s="318" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="317"/>
+      <c r="E39" s="319"/>
       <c r="F39" s="137" t="s">
         <v>286</v>
       </c>
@@ -34952,11 +34779,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="312" t="s">
+      <c r="B58" s="303" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="312"/>
-      <c r="D58" s="312"/>
+      <c r="C58" s="303"/>
+      <c r="D58" s="303"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -34973,12 +34800,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="299" t="s">
+      <c r="B59" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="300"/>
-      <c r="D59" s="300"/>
-      <c r="E59" s="301"/>
+      <c r="C59" s="305"/>
+      <c r="D59" s="305"/>
+      <c r="E59" s="306"/>
       <c r="F59" s="115" t="s">
         <v>125</v>
       </c>
@@ -35070,10 +34897,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="302" t="s">
+      <c r="D62" s="300" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="304"/>
+      <c r="E62" s="299"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -35103,10 +34930,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="302" t="s">
+      <c r="D63" s="300" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="313"/>
+      <c r="E63" s="307"/>
       <c r="F63" s="105" t="s">
         <v>189</v>
       </c>
@@ -35136,10 +34963,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="314" t="s">
+      <c r="D64" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="313"/>
+      <c r="E64" s="307"/>
       <c r="F64" s="105" t="s">
         <v>192</v>
       </c>
@@ -35233,10 +35060,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="93"/>
       <c r="C67" s="86"/>
-      <c r="D67" s="302" t="s">
+      <c r="D67" s="300" t="s">
         <v>290</v>
       </c>
-      <c r="E67" s="304"/>
+      <c r="E67" s="299"/>
       <c r="F67" s="105" t="s">
         <v>273</v>
       </c>
@@ -35266,10 +35093,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="93"/>
       <c r="C68" s="86"/>
-      <c r="D68" s="310" t="s">
+      <c r="D68" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="E68" s="311"/>
+      <c r="E68" s="302"/>
       <c r="F68" s="105" t="s">
         <v>284</v>
       </c>
@@ -35353,10 +35180,10 @@
       <c r="A71" s="66"/>
       <c r="B71" s="66"/>
       <c r="C71" s="66"/>
-      <c r="D71" s="316" t="s">
+      <c r="D71" s="318" t="s">
         <v>285</v>
       </c>
-      <c r="E71" s="317"/>
+      <c r="E71" s="319"/>
       <c r="F71" s="137" t="s">
         <v>286</v>
       </c>
@@ -35384,8 +35211,8 @@
         <v>179</v>
       </c>
       <c r="C72" s="66"/>
-      <c r="D72" s="318"/>
-      <c r="E72" s="319"/>
+      <c r="D72" s="320"/>
+      <c r="E72" s="321"/>
       <c r="F72" s="75"/>
       <c r="G72" s="75"/>
       <c r="H72" s="75"/>
@@ -35688,17 +35515,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
@@ -35712,6 +35528,17 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D39:E39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -35809,15 +35636,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="300" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="299"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35830,15 +35657,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="302" t="s">
+      <c r="C5" s="300" t="s">
         <v>327</v>
       </c>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="304"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="299"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35872,15 +35699,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="302" t="s">
+      <c r="C7" s="300" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="304"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="299"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -35914,15 +35741,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="304"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="299"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -35985,19 +35812,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="306" t="s">
+      <c r="B13" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="307"/>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="308"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="314"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="315"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -36026,11 +35853,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="316"/>
+      <c r="L14" s="316"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -36055,11 +35882,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="296" t="s">
+      <c r="J15" s="309" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -36084,9 +35911,9 @@
       <c r="I16" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="296"/>
-      <c r="K16" s="297"/>
-      <c r="L16" s="297"/>
+      <c r="J16" s="309"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="310"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -36248,11 +36075,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="298" t="s">
+      <c r="B26" s="311" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="298"/>
-      <c r="D26" s="298"/>
+      <c r="C26" s="311"/>
+      <c r="D26" s="311"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -36267,12 +36094,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="299" t="s">
+      <c r="B27" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="300"/>
-      <c r="D27" s="300"/>
-      <c r="E27" s="301"/>
+      <c r="C27" s="305"/>
+      <c r="D27" s="305"/>
+      <c r="E27" s="306"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -36364,10 +36191,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="305" t="s">
+      <c r="D30" s="298" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="304"/>
+      <c r="E30" s="299"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -36397,10 +36224,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="305" t="s">
+      <c r="D31" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="304"/>
+      <c r="E31" s="299"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -36463,8 +36290,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="305"/>
-      <c r="E33" s="304"/>
+      <c r="D33" s="298"/>
+      <c r="E33" s="299"/>
       <c r="F33" s="74"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -36786,11 +36613,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="312" t="s">
+      <c r="B52" s="303" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="312"/>
-      <c r="D52" s="312"/>
+      <c r="C52" s="303"/>
+      <c r="D52" s="303"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -36807,12 +36634,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="299" t="s">
+      <c r="B53" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="300"/>
-      <c r="D53" s="300"/>
-      <c r="E53" s="301"/>
+      <c r="C53" s="305"/>
+      <c r="D53" s="305"/>
+      <c r="E53" s="306"/>
       <c r="F53" s="115" t="s">
         <v>125</v>
       </c>
@@ -36904,10 +36731,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="302" t="s">
+      <c r="D56" s="300" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="304"/>
+      <c r="E56" s="299"/>
       <c r="F56" s="74" t="s">
         <v>139</v>
       </c>
@@ -36937,10 +36764,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="302" t="s">
+      <c r="D57" s="300" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="313"/>
+      <c r="E57" s="307"/>
       <c r="F57" s="105" t="s">
         <v>189</v>
       </c>
@@ -36970,10 +36797,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="314" t="s">
+      <c r="D58" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="313"/>
+      <c r="E58" s="307"/>
       <c r="F58" s="105" t="s">
         <v>192</v>
       </c>
@@ -37433,12 +37260,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -37451,6 +37272,12 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -37548,15 +37375,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="300" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="299"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -37569,15 +37396,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="302" t="s">
+      <c r="C5" s="300" t="s">
         <v>307</v>
       </c>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="304"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="299"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -37611,15 +37438,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="302" t="s">
+      <c r="C7" s="300" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="304"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="299"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -37653,15 +37480,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="304"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="299"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -37724,19 +37551,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="306" t="s">
+      <c r="B13" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="307"/>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="308"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="314"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="315"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -37765,11 +37592,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="316"/>
+      <c r="L14" s="316"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -37784,9 +37611,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="130"/>
-      <c r="J15" s="296"/>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="J15" s="309"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37801,9 +37628,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="297"/>
-      <c r="K16" s="297"/>
-      <c r="L16" s="297"/>
+      <c r="J16" s="310"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="310"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -37982,11 +37809,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="311" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="298"/>
+      <c r="C27" s="311"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -38001,12 +37828,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="299" t="s">
+      <c r="B28" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="300"/>
-      <c r="D28" s="300"/>
-      <c r="E28" s="301"/>
+      <c r="C28" s="305"/>
+      <c r="D28" s="305"/>
+      <c r="E28" s="306"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -38098,10 +37925,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="305" t="s">
+      <c r="D31" s="298" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="304"/>
+      <c r="E31" s="299"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -38131,10 +37958,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="305" t="s">
+      <c r="D32" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="304"/>
+      <c r="E32" s="299"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -38197,10 +38024,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="302" t="s">
+      <c r="D34" s="300" t="s">
         <v>290</v>
       </c>
-      <c r="E34" s="304"/>
+      <c r="E34" s="299"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -38230,10 +38057,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="310" t="s">
+      <c r="D35" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="311"/>
+      <c r="E35" s="302"/>
       <c r="F35" s="105" t="s">
         <v>284</v>
       </c>
@@ -38569,11 +38396,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="312" t="s">
+      <c r="B54" s="303" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="312"/>
-      <c r="D54" s="312"/>
+      <c r="C54" s="303"/>
+      <c r="D54" s="303"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -38590,12 +38417,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="299" t="s">
+      <c r="B55" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="300"/>
-      <c r="D55" s="300"/>
-      <c r="E55" s="301"/>
+      <c r="C55" s="305"/>
+      <c r="D55" s="305"/>
+      <c r="E55" s="306"/>
       <c r="F55" s="115" t="s">
         <v>125</v>
       </c>
@@ -38687,10 +38514,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="302" t="s">
+      <c r="D58" s="300" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="304"/>
+      <c r="E58" s="299"/>
       <c r="F58" s="74" t="s">
         <v>139</v>
       </c>
@@ -38720,10 +38547,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="302" t="s">
+      <c r="D59" s="300" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="313"/>
+      <c r="E59" s="307"/>
       <c r="F59" s="105" t="s">
         <v>189</v>
       </c>
@@ -38753,10 +38580,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="314" t="s">
+      <c r="D60" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="E60" s="313"/>
+      <c r="E60" s="307"/>
       <c r="F60" s="105" t="s">
         <v>192</v>
       </c>
@@ -38850,8 +38677,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="305"/>
-      <c r="E63" s="304"/>
+      <c r="D63" s="298"/>
+      <c r="E63" s="299"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -39241,14 +39068,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -39261,6 +39080,14 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39354,15 +39181,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="300" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="299"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -39375,13 +39202,13 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="302"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="304"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="299"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -39415,15 +39242,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="302" t="s">
+      <c r="C7" s="300" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="304"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="299"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -39457,15 +39284,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="304"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="299"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -39528,19 +39355,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="306" t="s">
+      <c r="B13" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="307"/>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="308"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="314"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="315"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -39569,11 +39396,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="316"/>
+      <c r="L14" s="316"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -39598,11 +39425,11 @@
       <c r="I15" s="131" t="s">
         <v>274</v>
       </c>
-      <c r="J15" s="296" t="s">
+      <c r="J15" s="309" t="s">
         <v>312</v>
       </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -39617,9 +39444,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="297"/>
-      <c r="K16" s="297"/>
-      <c r="L16" s="297"/>
+      <c r="J16" s="310"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="310"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -39798,11 +39625,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="311" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="298"/>
+      <c r="C27" s="311"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -39817,12 +39644,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="299" t="s">
+      <c r="B28" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="300"/>
-      <c r="D28" s="300"/>
-      <c r="E28" s="301"/>
+      <c r="C28" s="305"/>
+      <c r="D28" s="305"/>
+      <c r="E28" s="306"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -39914,10 +39741,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="305" t="s">
+      <c r="D31" s="298" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="304"/>
+      <c r="E31" s="299"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -39947,10 +39774,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="305" t="s">
+      <c r="D32" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="304"/>
+      <c r="E32" s="299"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -40013,10 +39840,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="302" t="s">
+      <c r="D34" s="300" t="s">
         <v>272</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="307"/>
       <c r="F34" s="105" t="s">
         <v>175</v>
       </c>
@@ -40042,10 +39869,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="302" t="s">
+      <c r="D35" s="300" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="304"/>
+      <c r="E35" s="299"/>
       <c r="F35" s="105" t="s">
         <v>273</v>
       </c>
@@ -40075,10 +39902,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="310" t="s">
+      <c r="D36" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="311"/>
+      <c r="E36" s="302"/>
       <c r="F36" s="105" t="s">
         <v>284</v>
       </c>
@@ -40414,11 +40241,11 @@
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="312" t="s">
+      <c r="B55" s="303" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="312"/>
-      <c r="D55" s="312"/>
+      <c r="C55" s="303"/>
+      <c r="D55" s="303"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
@@ -40435,12 +40262,12 @@
     </row>
     <row r="56" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="83"/>
-      <c r="B56" s="299" t="s">
+      <c r="B56" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="300"/>
-      <c r="D56" s="300"/>
-      <c r="E56" s="301"/>
+      <c r="C56" s="305"/>
+      <c r="D56" s="305"/>
+      <c r="E56" s="306"/>
       <c r="F56" s="115" t="s">
         <v>125</v>
       </c>
@@ -40532,10 +40359,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="302" t="s">
+      <c r="D59" s="300" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="304"/>
+      <c r="E59" s="299"/>
       <c r="F59" s="74" t="s">
         <v>139</v>
       </c>
@@ -40565,10 +40392,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="302" t="s">
+      <c r="D60" s="300" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="313"/>
+      <c r="E60" s="307"/>
       <c r="F60" s="105" t="s">
         <v>189</v>
       </c>
@@ -40598,10 +40425,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="314" t="s">
+      <c r="D61" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="313"/>
+      <c r="E61" s="307"/>
       <c r="F61" s="105" t="s">
         <v>192</v>
       </c>
@@ -40695,8 +40522,8 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="92"/>
-      <c r="D64" s="305"/>
-      <c r="E64" s="304"/>
+      <c r="D64" s="298"/>
+      <c r="E64" s="299"/>
       <c r="F64" s="74"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
@@ -41086,15 +40913,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -41107,6 +40925,15 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41635,15 +41462,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="300" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="299"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -41656,15 +41483,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="302" t="s">
+      <c r="C5" s="300" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="304"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="299"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -41698,15 +41525,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="305" t="s">
+      <c r="C7" s="298" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="304"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="299"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41740,15 +41567,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="304"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="299"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -41811,19 +41638,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="306" t="s">
+      <c r="B13" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="307"/>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="308"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="314"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="315"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -41852,11 +41679,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="316"/>
+      <c r="L14" s="316"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -41881,11 +41708,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="296" t="s">
+      <c r="J15" s="309" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -41910,9 +41737,9 @@
       <c r="I16" s="130" t="s">
         <v>392</v>
       </c>
-      <c r="J16" s="297"/>
-      <c r="K16" s="297"/>
-      <c r="L16" s="297"/>
+      <c r="J16" s="310"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="310"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -42103,11 +41930,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="311" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="298"/>
+      <c r="C27" s="311"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -42122,12 +41949,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="299" t="s">
+      <c r="B28" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="300"/>
-      <c r="D28" s="300"/>
-      <c r="E28" s="301"/>
+      <c r="C28" s="305"/>
+      <c r="D28" s="305"/>
+      <c r="E28" s="306"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -42219,10 +42046,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="305" t="s">
+      <c r="D31" s="298" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="304"/>
+      <c r="E31" s="299"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -42252,10 +42079,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="305" t="s">
+      <c r="D32" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="304"/>
+      <c r="E32" s="299"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -42347,10 +42174,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="302" t="s">
+      <c r="D35" s="300" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="304"/>
+      <c r="E35" s="299"/>
       <c r="F35" s="105" t="s">
         <v>391</v>
       </c>
@@ -42380,10 +42207,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="310" t="s">
+      <c r="D36" s="301" t="s">
         <v>394</v>
       </c>
-      <c r="E36" s="311"/>
+      <c r="E36" s="302"/>
       <c r="F36" s="105" t="s">
         <v>273</v>
       </c>
@@ -42806,11 +42633,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="312" t="s">
+      <c r="B58" s="303" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="312"/>
-      <c r="D58" s="312"/>
+      <c r="C58" s="303"/>
+      <c r="D58" s="303"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -42827,12 +42654,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="299" t="s">
+      <c r="B59" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="300"/>
-      <c r="D59" s="300"/>
-      <c r="E59" s="301"/>
+      <c r="C59" s="305"/>
+      <c r="D59" s="305"/>
+      <c r="E59" s="306"/>
       <c r="F59" s="151" t="s">
         <v>125</v>
       </c>
@@ -42924,10 +42751,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="302" t="s">
+      <c r="D62" s="300" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="304"/>
+      <c r="E62" s="299"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -42957,10 +42784,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="302" t="s">
+      <c r="D63" s="300" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="313"/>
+      <c r="E63" s="307"/>
       <c r="F63" s="105" t="s">
         <v>189</v>
       </c>
@@ -42990,10 +42817,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="314" t="s">
+      <c r="D64" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="313"/>
+      <c r="E64" s="307"/>
       <c r="F64" s="105" t="s">
         <v>192</v>
       </c>
@@ -43087,8 +42914,8 @@
       <c r="A67" s="66"/>
       <c r="B67" s="91"/>
       <c r="C67" s="92"/>
-      <c r="D67" s="305"/>
-      <c r="E67" s="304"/>
+      <c r="D67" s="298"/>
+      <c r="E67" s="299"/>
       <c r="F67" s="74"/>
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
@@ -43478,14 +43305,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -43498,6 +43317,14 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -43595,15 +43422,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="300" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="299"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -43616,15 +43443,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="302" t="s">
+      <c r="C5" s="300" t="s">
         <v>402</v>
       </c>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="304"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="299"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -43658,15 +43485,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="302" t="s">
+      <c r="C7" s="300" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="304"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="299"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -43700,15 +43527,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="304"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="299"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -43771,19 +43598,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="306" t="s">
+      <c r="B13" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="307"/>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="308"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="314"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="315"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -43812,11 +43639,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="316"/>
+      <c r="L14" s="316"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -43841,11 +43668,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="296" t="s">
+      <c r="J15" s="309" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -44067,11 +43894,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="311" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="298"/>
+      <c r="C27" s="311"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -44086,12 +43913,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="299" t="s">
+      <c r="B28" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="300"/>
-      <c r="D28" s="300"/>
-      <c r="E28" s="301"/>
+      <c r="C28" s="305"/>
+      <c r="D28" s="305"/>
+      <c r="E28" s="306"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -44183,10 +44010,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="305" t="s">
+      <c r="D31" s="298" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="304"/>
+      <c r="E31" s="299"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -44216,10 +44043,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="305" t="s">
+      <c r="D32" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="304"/>
+      <c r="E32" s="299"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -44311,10 +44138,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="302" t="s">
+      <c r="D35" s="300" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="304"/>
+      <c r="E35" s="299"/>
       <c r="F35" s="105" t="s">
         <v>391</v>
       </c>
@@ -44344,10 +44171,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="310" t="s">
+      <c r="D36" s="301" t="s">
         <v>394</v>
       </c>
-      <c r="E36" s="311"/>
+      <c r="E36" s="302"/>
       <c r="F36" s="105" t="s">
         <v>273</v>
       </c>
@@ -44770,11 +44597,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="312" t="s">
+      <c r="B58" s="303" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="312"/>
-      <c r="D58" s="312"/>
+      <c r="C58" s="303"/>
+      <c r="D58" s="303"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -44791,12 +44618,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="299" t="s">
+      <c r="B59" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="300"/>
-      <c r="D59" s="300"/>
-      <c r="E59" s="301"/>
+      <c r="C59" s="305"/>
+      <c r="D59" s="305"/>
+      <c r="E59" s="306"/>
       <c r="F59" s="151" t="s">
         <v>125</v>
       </c>
@@ -44888,10 +44715,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="302" t="s">
+      <c r="D62" s="300" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="304"/>
+      <c r="E62" s="299"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -44921,10 +44748,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="302" t="s">
+      <c r="D63" s="300" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="313"/>
+      <c r="E63" s="307"/>
       <c r="F63" s="105" t="s">
         <v>189</v>
       </c>
@@ -44954,10 +44781,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="314" t="s">
+      <c r="D64" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="313"/>
+      <c r="E64" s="307"/>
       <c r="F64" s="105" t="s">
         <v>192</v>
       </c>
@@ -45080,10 +44907,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="85"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="302" t="s">
+      <c r="D68" s="300" t="s">
         <v>290</v>
       </c>
-      <c r="E68" s="304"/>
+      <c r="E68" s="299"/>
       <c r="F68" s="105" t="s">
         <v>391</v>
       </c>
@@ -45113,10 +44940,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="85"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="310" t="s">
+      <c r="D69" s="301" t="s">
         <v>394</v>
       </c>
-      <c r="E69" s="311"/>
+      <c r="E69" s="302"/>
       <c r="F69" s="105" t="s">
         <v>273</v>
       </c>
@@ -45569,15 +45396,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -45589,6 +45407,15 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -45685,15 +45512,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="300" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="299"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -45706,15 +45533,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="302" t="s">
+      <c r="C5" s="300" t="s">
         <v>407</v>
       </c>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="304"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="299"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -45748,15 +45575,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="302" t="s">
+      <c r="C7" s="300" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="304"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="299"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -45790,15 +45617,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="304"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="299"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -45861,19 +45688,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="306" t="s">
+      <c r="B13" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="307"/>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="308"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="314"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="315"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45902,11 +45729,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="316"/>
+      <c r="L14" s="316"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45931,11 +45758,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="296" t="s">
+      <c r="J15" s="309" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -46126,11 +45953,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="298" t="s">
+      <c r="B26" s="311" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="298"/>
-      <c r="D26" s="298"/>
+      <c r="C26" s="311"/>
+      <c r="D26" s="311"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -46145,12 +45972,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="299" t="s">
+      <c r="B27" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="300"/>
-      <c r="D27" s="300"/>
-      <c r="E27" s="301"/>
+      <c r="C27" s="305"/>
+      <c r="D27" s="305"/>
+      <c r="E27" s="306"/>
       <c r="F27" s="151" t="s">
         <v>125</v>
       </c>
@@ -46242,10 +46069,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="305" t="s">
+      <c r="D30" s="298" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="304"/>
+      <c r="E30" s="299"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -46275,10 +46102,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="305" t="s">
+      <c r="D31" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="304"/>
+      <c r="E31" s="299"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -46341,8 +46168,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="320"/>
-      <c r="E33" s="320"/>
+      <c r="D33" s="322"/>
+      <c r="E33" s="322"/>
       <c r="F33" s="105"/>
       <c r="G33" s="106"/>
       <c r="H33" s="76"/>
@@ -46664,11 +46491,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="312" t="s">
+      <c r="B52" s="303" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="312"/>
-      <c r="D52" s="312"/>
+      <c r="C52" s="303"/>
+      <c r="D52" s="303"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -46685,12 +46512,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="299" t="s">
+      <c r="B53" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="300"/>
-      <c r="D53" s="300"/>
-      <c r="E53" s="301"/>
+      <c r="C53" s="305"/>
+      <c r="D53" s="305"/>
+      <c r="E53" s="306"/>
       <c r="F53" s="151" t="s">
         <v>125</v>
       </c>
@@ -46782,10 +46609,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="302" t="s">
+      <c r="D56" s="300" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="304"/>
+      <c r="E56" s="299"/>
       <c r="F56" s="74" t="s">
         <v>139</v>
       </c>
@@ -46815,10 +46642,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="302" t="s">
+      <c r="D57" s="300" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="313"/>
+      <c r="E57" s="307"/>
       <c r="F57" s="105" t="s">
         <v>189</v>
       </c>
@@ -46848,10 +46675,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="314" t="s">
+      <c r="D58" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="313"/>
+      <c r="E58" s="307"/>
       <c r="F58" s="105" t="s">
         <v>192</v>
       </c>
@@ -46945,8 +46772,8 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="92"/>
-      <c r="D61" s="305"/>
-      <c r="E61" s="304"/>
+      <c r="D61" s="298"/>
+      <c r="E61" s="299"/>
       <c r="F61" s="74"/>
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
@@ -47336,6 +47163,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D33:E33"/>
@@ -47343,17 +47181,6 @@
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -47450,15 +47277,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="300" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="299"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -47471,15 +47298,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="302" t="s">
+      <c r="C5" s="300" t="s">
         <v>410</v>
       </c>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="304"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="299"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -47513,15 +47340,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="302" t="s">
+      <c r="C7" s="300" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="304"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="299"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -47555,15 +47382,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="304"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="299"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -47626,19 +47453,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="306" t="s">
+      <c r="B13" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="307"/>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="308"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="314"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="315"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -47667,11 +47494,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="316"/>
+      <c r="L14" s="316"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -47696,11 +47523,11 @@
       <c r="I15" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="J15" s="296" t="s">
+      <c r="J15" s="309" t="s">
         <v>291</v>
       </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -47715,9 +47542,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="297"/>
-      <c r="K16" s="297"/>
-      <c r="L16" s="297"/>
+      <c r="J16" s="310"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="310"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -47896,11 +47723,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="311" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="298"/>
+      <c r="C27" s="311"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -47915,12 +47742,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="299" t="s">
+      <c r="B28" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="300"/>
-      <c r="D28" s="300"/>
-      <c r="E28" s="301"/>
+      <c r="C28" s="305"/>
+      <c r="D28" s="305"/>
+      <c r="E28" s="306"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -48012,10 +47839,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="305" t="s">
+      <c r="D31" s="298" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="304"/>
+      <c r="E31" s="299"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -48045,10 +47872,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="305" t="s">
+      <c r="D32" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="304"/>
+      <c r="E32" s="299"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -48111,10 +47938,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="302" t="s">
+      <c r="D34" s="300" t="s">
         <v>394</v>
       </c>
-      <c r="E34" s="304"/>
+      <c r="E34" s="299"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -48144,10 +47971,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="310" t="s">
+      <c r="D35" s="301" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="311"/>
+      <c r="E35" s="302"/>
       <c r="F35" s="105" t="s">
         <v>286</v>
       </c>
@@ -48483,11 +48310,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="312" t="s">
+      <c r="B54" s="303" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="312"/>
-      <c r="D54" s="312"/>
+      <c r="C54" s="303"/>
+      <c r="D54" s="303"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -48504,12 +48331,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="299" t="s">
+      <c r="B55" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="300"/>
-      <c r="D55" s="300"/>
-      <c r="E55" s="301"/>
+      <c r="C55" s="305"/>
+      <c r="D55" s="305"/>
+      <c r="E55" s="306"/>
       <c r="F55" s="151" t="s">
         <v>125</v>
       </c>
@@ -48601,10 +48428,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="302" t="s">
+      <c r="D58" s="300" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="304"/>
+      <c r="E58" s="299"/>
       <c r="F58" s="74" t="s">
         <v>139</v>
       </c>
@@ -48634,10 +48461,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="302" t="s">
+      <c r="D59" s="300" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="313"/>
+      <c r="E59" s="307"/>
       <c r="F59" s="105" t="s">
         <v>189</v>
       </c>
@@ -48667,10 +48494,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="314" t="s">
+      <c r="D60" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="E60" s="313"/>
+      <c r="E60" s="307"/>
       <c r="F60" s="105" t="s">
         <v>192</v>
       </c>
@@ -48764,8 +48591,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="305"/>
-      <c r="E63" s="304"/>
+      <c r="D63" s="298"/>
+      <c r="E63" s="299"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -49155,14 +48982,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -49175,6 +48994,14 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -49268,15 +49095,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="300" t="s">
         <v>412</v>
       </c>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="299"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -49289,15 +49116,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="302" t="s">
+      <c r="C5" s="300" t="s">
         <v>413</v>
       </c>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="304"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="299"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -49331,15 +49158,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="302" t="s">
+      <c r="C7" s="300" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="304"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="299"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -49373,15 +49200,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="304"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="299"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -49444,19 +49271,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="306" t="s">
+      <c r="B13" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="307"/>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="308"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="314"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="315"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -49485,11 +49312,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="309" t="s">
+      <c r="J14" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
+      <c r="K14" s="316"/>
+      <c r="L14" s="316"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -49514,11 +49341,11 @@
       <c r="I15" s="130" t="s">
         <v>415</v>
       </c>
-      <c r="J15" s="296" t="s">
+      <c r="J15" s="309" t="s">
         <v>416</v>
       </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -49543,11 +49370,11 @@
       <c r="I16" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="296" t="s">
+      <c r="J16" s="309" t="s">
         <v>417</v>
       </c>
-      <c r="K16" s="297"/>
-      <c r="L16" s="297"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="310"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -49726,11 +49553,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="311" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="298"/>
+      <c r="C27" s="311"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -49745,12 +49572,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="299" t="s">
+      <c r="B28" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="300"/>
-      <c r="D28" s="300"/>
-      <c r="E28" s="301"/>
+      <c r="C28" s="305"/>
+      <c r="D28" s="305"/>
+      <c r="E28" s="306"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -49842,10 +49669,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="305" t="s">
+      <c r="D31" s="298" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="304"/>
+      <c r="E31" s="299"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -49875,10 +49702,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="305" t="s">
+      <c r="D32" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="304"/>
+      <c r="E32" s="299"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -49970,10 +49797,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="302" t="s">
+      <c r="D35" s="300" t="s">
         <v>394</v>
       </c>
-      <c r="E35" s="304"/>
+      <c r="E35" s="299"/>
       <c r="F35" s="105" t="s">
         <v>273</v>
       </c>
@@ -50003,10 +49830,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="310" t="s">
+      <c r="D36" s="301" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="311"/>
+      <c r="E36" s="302"/>
       <c r="F36" s="105" t="s">
         <v>286</v>
       </c>
@@ -50352,11 +50179,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="312" t="s">
+      <c r="B57" s="303" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="312"/>
-      <c r="D57" s="312"/>
+      <c r="C57" s="303"/>
+      <c r="D57" s="303"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -50373,12 +50200,12 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="299" t="s">
+      <c r="B58" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="300"/>
-      <c r="D58" s="300"/>
-      <c r="E58" s="301"/>
+      <c r="C58" s="305"/>
+      <c r="D58" s="305"/>
+      <c r="E58" s="306"/>
       <c r="F58" s="151" t="s">
         <v>125</v>
       </c>
@@ -50990,22 +50817,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -51050,10 +50877,10 @@
       <c r="C4" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="263" t="s">
+      <c r="D4" s="268" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="263"/>
+      <c r="E4" s="268"/>
       <c r="F4" s="111" t="s">
         <v>185</v>
       </c>
@@ -51066,10 +50893,10 @@
       <c r="C5" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="264" t="s">
+      <c r="D5" s="267" t="s">
         <v>450</v>
       </c>
-      <c r="E5" s="264"/>
+      <c r="E5" s="267"/>
       <c r="F5" s="120" t="s">
         <v>238</v>
       </c>
@@ -51083,10 +50910,10 @@
       <c r="C6" s="119" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="264" t="s">
+      <c r="D6" s="267" t="s">
         <v>289</v>
       </c>
-      <c r="E6" s="264"/>
+      <c r="E6" s="267"/>
       <c r="F6" s="120" t="s">
         <v>267</v>
       </c>
@@ -51099,10 +50926,10 @@
       <c r="C7" s="119" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="264" t="s">
+      <c r="D7" s="267" t="s">
         <v>266</v>
       </c>
-      <c r="E7" s="264"/>
+      <c r="E7" s="267"/>
       <c r="F7" s="120" t="s">
         <v>268</v>
       </c>
@@ -51115,10 +50942,10 @@
       <c r="C8" s="119" t="s">
         <v>277</v>
       </c>
-      <c r="D8" s="264" t="s">
+      <c r="D8" s="267" t="s">
         <v>279</v>
       </c>
-      <c r="E8" s="264"/>
+      <c r="E8" s="267"/>
       <c r="F8" s="120" t="s">
         <v>278</v>
       </c>
@@ -51138,10 +50965,10 @@
       <c r="C10" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="263" t="s">
+      <c r="D10" s="268" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="263"/>
+      <c r="E10" s="268"/>
       <c r="F10" s="111" t="s">
         <v>185</v>
       </c>
@@ -51153,10 +50980,10 @@
       <c r="C11" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="264" t="s">
+      <c r="D11" s="267" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="264"/>
+      <c r="E11" s="267"/>
       <c r="F11" s="100"/>
       <c r="H11" s="100"/>
     </row>
@@ -51167,10 +50994,10 @@
       <c r="C12" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="264" t="s">
+      <c r="D12" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="264"/>
+      <c r="E12" s="267"/>
       <c r="F12" s="120"/>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
@@ -51182,10 +51009,10 @@
       <c r="C13" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="264" t="s">
+      <c r="D13" s="267" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="264"/>
+      <c r="E13" s="267"/>
       <c r="F13" s="120"/>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
@@ -51197,10 +51024,10 @@
       <c r="C14" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="264" t="s">
+      <c r="D14" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="264"/>
+      <c r="E14" s="267"/>
       <c r="F14" s="120"/>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
@@ -51212,10 +51039,10 @@
       <c r="C15" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="264" t="s">
+      <c r="D15" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="264"/>
+      <c r="E15" s="267"/>
       <c r="F15" s="120"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -51234,10 +51061,10 @@
       <c r="C18" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="263" t="s">
+      <c r="D18" s="268" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="263"/>
+      <c r="E18" s="268"/>
       <c r="F18" s="111" t="s">
         <v>185</v>
       </c>
@@ -51249,10 +51076,10 @@
       <c r="C19" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="D19" s="264" t="s">
+      <c r="D19" s="267" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="264"/>
+      <c r="E19" s="267"/>
       <c r="F19" s="122"/>
       <c r="G19" s="100"/>
       <c r="H19" s="100"/>
@@ -51264,10 +51091,10 @@
       <c r="C20" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="264" t="s">
+      <c r="D20" s="267" t="s">
         <v>470</v>
       </c>
-      <c r="E20" s="264"/>
+      <c r="E20" s="267"/>
       <c r="F20" s="122"/>
       <c r="G20" s="100"/>
       <c r="H20" s="100"/>
@@ -51279,10 +51106,10 @@
       <c r="C21" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="264" t="s">
+      <c r="D21" s="267" t="s">
         <v>451</v>
       </c>
-      <c r="E21" s="264"/>
+      <c r="E21" s="267"/>
       <c r="F21" s="122"/>
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
@@ -51294,10 +51121,10 @@
       <c r="C22" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="D22" s="264" t="s">
+      <c r="D22" s="267" t="s">
         <v>446</v>
       </c>
-      <c r="E22" s="264"/>
+      <c r="E22" s="267"/>
       <c r="F22" s="122"/>
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
@@ -51309,10 +51136,10 @@
       <c r="C23" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="D23" s="264" t="s">
+      <c r="D23" s="267" t="s">
         <v>471</v>
       </c>
-      <c r="E23" s="264"/>
+      <c r="E23" s="267"/>
       <c r="F23" s="122"/>
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
@@ -51324,10 +51151,10 @@
       <c r="C24" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="264" t="s">
+      <c r="D24" s="267" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="264"/>
+      <c r="E24" s="267"/>
       <c r="F24" s="122"/>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
@@ -51346,10 +51173,10 @@
       <c r="C27" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="263" t="s">
+      <c r="D27" s="268" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="263"/>
+      <c r="E27" s="268"/>
       <c r="F27" s="111" t="s">
         <v>185</v>
       </c>
@@ -51361,10 +51188,10 @@
       <c r="C28" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="264" t="s">
+      <c r="D28" s="267" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="264"/>
+      <c r="E28" s="267"/>
       <c r="F28" s="122"/>
       <c r="G28" s="100"/>
       <c r="H28" s="100"/>
@@ -51376,10 +51203,10 @@
       <c r="C29" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="264" t="s">
+      <c r="D29" s="267" t="s">
         <v>256</v>
       </c>
-      <c r="E29" s="264"/>
+      <c r="E29" s="267"/>
       <c r="F29" s="122"/>
       <c r="G29" s="100"/>
       <c r="H29" s="100"/>
@@ -51391,10 +51218,10 @@
       <c r="C30" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="264" t="s">
+      <c r="D30" s="267" t="s">
         <v>441</v>
       </c>
-      <c r="E30" s="264"/>
+      <c r="E30" s="267"/>
       <c r="F30" s="122"/>
       <c r="G30" s="100"/>
       <c r="H30" s="100"/>
@@ -51406,10 +51233,10 @@
       <c r="C31" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="264" t="s">
+      <c r="D31" s="267" t="s">
         <v>245</v>
       </c>
-      <c r="E31" s="264"/>
+      <c r="E31" s="267"/>
       <c r="F31" s="122"/>
       <c r="G31" s="100"/>
       <c r="H31" s="100"/>
@@ -51421,10 +51248,10 @@
       <c r="C32" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="264" t="s">
+      <c r="D32" s="267" t="s">
         <v>246</v>
       </c>
-      <c r="E32" s="264"/>
+      <c r="E32" s="267"/>
       <c r="F32" s="122"/>
       <c r="G32" s="100"/>
       <c r="H32" s="100"/>
@@ -51441,10 +51268,10 @@
       <c r="C36" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="263" t="s">
+      <c r="D36" s="268" t="s">
         <v>188</v>
       </c>
-      <c r="E36" s="263"/>
+      <c r="E36" s="268"/>
       <c r="F36" s="111" t="s">
         <v>185</v>
       </c>
@@ -51456,10 +51283,10 @@
       <c r="C37" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="265" t="s">
+      <c r="D37" s="269" t="s">
         <v>249</v>
       </c>
-      <c r="E37" s="266"/>
+      <c r="E37" s="270"/>
       <c r="F37" s="126"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1">
@@ -51469,10 +51296,10 @@
       <c r="C38" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="265" t="s">
+      <c r="D38" s="269" t="s">
         <v>250</v>
       </c>
-      <c r="E38" s="266"/>
+      <c r="E38" s="270"/>
       <c r="F38" s="126"/>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1">
@@ -51482,10 +51309,10 @@
       <c r="C39" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="265" t="s">
+      <c r="D39" s="269" t="s">
         <v>251</v>
       </c>
-      <c r="E39" s="266"/>
+      <c r="E39" s="270"/>
       <c r="F39" s="126"/>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1">
@@ -51495,10 +51322,10 @@
       <c r="C40" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="265" t="s">
+      <c r="D40" s="269" t="s">
         <v>252</v>
       </c>
-      <c r="E40" s="266"/>
+      <c r="E40" s="270"/>
       <c r="F40" s="126"/>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1">
@@ -51508,10 +51335,10 @@
       <c r="C41" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="265" t="s">
+      <c r="D41" s="269" t="s">
         <v>253</v>
       </c>
-      <c r="E41" s="266"/>
+      <c r="E41" s="270"/>
       <c r="F41" s="126"/>
     </row>
     <row r="42" spans="2:6">
@@ -51521,10 +51348,10 @@
       <c r="C42" s="127">
         <v>2506</v>
       </c>
-      <c r="D42" s="267" t="s">
+      <c r="D42" s="265" t="s">
         <v>255</v>
       </c>
-      <c r="E42" s="268"/>
+      <c r="E42" s="266"/>
       <c r="F42" s="128"/>
     </row>
     <row r="43" spans="2:6">
@@ -51534,10 +51361,10 @@
       <c r="C43" s="127">
         <v>2507</v>
       </c>
-      <c r="D43" s="267" t="s">
+      <c r="D43" s="265" t="s">
         <v>314</v>
       </c>
-      <c r="E43" s="268"/>
+      <c r="E43" s="266"/>
       <c r="F43" s="129"/>
     </row>
     <row r="45" spans="2:6" ht="15.75">
@@ -51552,10 +51379,10 @@
       <c r="C46" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="263" t="s">
+      <c r="D46" s="268" t="s">
         <v>188</v>
       </c>
-      <c r="E46" s="263"/>
+      <c r="E46" s="268"/>
       <c r="F46" s="111" t="s">
         <v>185</v>
       </c>
@@ -51567,10 +51394,10 @@
       <c r="C47" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="264" t="s">
+      <c r="D47" s="267" t="s">
         <v>258</v>
       </c>
-      <c r="E47" s="264"/>
+      <c r="E47" s="267"/>
       <c r="F47" s="122"/>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51580,10 +51407,10 @@
       <c r="C48" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="264" t="s">
+      <c r="D48" s="267" t="s">
         <v>259</v>
       </c>
-      <c r="E48" s="264"/>
+      <c r="E48" s="267"/>
       <c r="F48" s="122"/>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51593,10 +51420,10 @@
       <c r="C49" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="264" t="s">
+      <c r="D49" s="267" t="s">
         <v>260</v>
       </c>
-      <c r="E49" s="264"/>
+      <c r="E49" s="267"/>
       <c r="F49" s="122"/>
     </row>
     <row r="50" spans="2:6" ht="32.25" customHeight="1">
@@ -51606,10 +51433,10 @@
       <c r="C50" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="264" t="s">
+      <c r="D50" s="267" t="s">
         <v>261</v>
       </c>
-      <c r="E50" s="264"/>
+      <c r="E50" s="267"/>
       <c r="F50" s="122" t="s">
         <v>440</v>
       </c>
@@ -51621,10 +51448,10 @@
       <c r="C51" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="264" t="s">
+      <c r="D51" s="267" t="s">
         <v>262</v>
       </c>
-      <c r="E51" s="264"/>
+      <c r="E51" s="267"/>
       <c r="F51" s="122"/>
     </row>
     <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51634,28 +51461,25 @@
       <c r="C52" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="264" t="s">
+      <c r="D52" s="267" t="s">
         <v>263</v>
       </c>
-      <c r="E52" s="264"/>
+      <c r="E52" s="267"/>
       <c r="F52" s="122"/>
     </row>
     <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -51672,16 +51496,19 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -51761,10 +51588,10 @@
       <c r="D4" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="269" t="s">
+      <c r="E4" s="271" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="270"/>
+      <c r="F4" s="272"/>
       <c r="G4" s="142" t="s">
         <v>157</v>
       </c>
@@ -51779,7 +51606,7 @@
       <c r="C5" s="118" t="s">
         <v>449</v>
       </c>
-      <c r="D5" s="271" t="s">
+      <c r="D5" s="273" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="202" t="s">
@@ -51804,7 +51631,7 @@
       <c r="C6" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="272"/>
+      <c r="D6" s="274"/>
       <c r="E6" s="203" t="s">
         <v>156</v>
       </c>
@@ -51827,7 +51654,7 @@
       <c r="C7" s="118" t="s">
         <v>432</v>
       </c>
-      <c r="D7" s="272"/>
+      <c r="D7" s="274"/>
       <c r="E7" s="202" t="s">
         <v>204</v>
       </c>
@@ -51850,7 +51677,7 @@
       <c r="C8" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="272"/>
+      <c r="D8" s="274"/>
       <c r="E8" s="202" t="s">
         <v>205</v>
       </c>
@@ -51873,7 +51700,7 @@
       <c r="C9" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="272"/>
+      <c r="D9" s="274"/>
       <c r="E9" s="202" t="s">
         <v>204</v>
       </c>
@@ -51896,7 +51723,7 @@
       <c r="C10" s="118" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="272"/>
+      <c r="D10" s="274"/>
       <c r="E10" s="202" t="s">
         <v>204</v>
       </c>
@@ -51919,7 +51746,7 @@
       <c r="C11" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="273"/>
+      <c r="D11" s="275"/>
       <c r="E11" s="202" t="s">
         <v>205</v>
       </c>
@@ -51942,7 +51769,7 @@
       <c r="C12" s="118" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="274" t="s">
+      <c r="D12" s="276" t="s">
         <v>254</v>
       </c>
       <c r="E12" s="202" t="s">
@@ -51967,7 +51794,7 @@
       <c r="C13" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="D13" s="275"/>
+      <c r="D13" s="277"/>
       <c r="E13" s="202" t="s">
         <v>204</v>
       </c>
@@ -51990,7 +51817,7 @@
       <c r="C14" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="275"/>
+      <c r="D14" s="277"/>
       <c r="E14" s="202" t="s">
         <v>204</v>
       </c>
@@ -52013,7 +51840,7 @@
       <c r="C15" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="275"/>
+      <c r="D15" s="277"/>
       <c r="E15" s="202" t="s">
         <v>204</v>
       </c>
@@ -52036,7 +51863,7 @@
       <c r="C16" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="275"/>
+      <c r="D16" s="277"/>
       <c r="E16" s="202" t="s">
         <v>223</v>
       </c>
@@ -52059,7 +51886,7 @@
       <c r="C17" s="118" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="275"/>
+      <c r="D17" s="277"/>
       <c r="E17" s="202" t="s">
         <v>205</v>
       </c>
@@ -52082,7 +51909,7 @@
       <c r="C18" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="275"/>
+      <c r="D18" s="277"/>
       <c r="E18" s="202" t="s">
         <v>205</v>
       </c>
@@ -52105,7 +51932,7 @@
       <c r="C19" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="D19" s="276" t="s">
+      <c r="D19" s="278" t="s">
         <v>155</v>
       </c>
       <c r="E19" s="202" t="s">
@@ -52130,7 +51957,7 @@
       <c r="C20" s="118" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="277"/>
+      <c r="D20" s="279"/>
       <c r="E20" s="202" t="s">
         <v>204</v>
       </c>
@@ -52153,7 +51980,7 @@
       <c r="C21" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="277"/>
+      <c r="D21" s="279"/>
       <c r="E21" s="202" t="s">
         <v>223</v>
       </c>
@@ -52176,7 +52003,7 @@
       <c r="C22" s="118" t="s">
         <v>230</v>
       </c>
-      <c r="D22" s="277"/>
+      <c r="D22" s="279"/>
       <c r="E22" s="202" t="s">
         <v>205</v>
       </c>
@@ -52199,7 +52026,7 @@
       <c r="C23" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="278"/>
+      <c r="D23" s="280"/>
       <c r="E23" s="202" t="s">
         <v>205</v>
       </c>
@@ -52353,15 +52180,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="279" t="s">
+      <c r="C4" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="280"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="283"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -52374,15 +52201,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="279" t="s">
+      <c r="C5" s="282" t="s">
         <v>365</v>
       </c>
-      <c r="D5" s="281"/>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="280"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="283"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -52416,15 +52243,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="279" t="s">
+      <c r="C7" s="282" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="281"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="280"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="283"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -52458,15 +52285,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="279" t="s">
+      <c r="C9" s="282" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="281"/>
-      <c r="G9" s="281"/>
-      <c r="H9" s="281"/>
-      <c r="I9" s="280"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="283"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -52529,19 +52356,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="283" t="s">
+      <c r="B13" s="284" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="284"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="284"/>
-      <c r="F13" s="284"/>
-      <c r="G13" s="284"/>
-      <c r="H13" s="284"/>
-      <c r="I13" s="284"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="284"/>
-      <c r="L13" s="285"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -52570,11 +52397,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="282" t="s">
+      <c r="J14" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="282"/>
-      <c r="L14" s="282"/>
+      <c r="K14" s="281"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -52603,11 +52430,11 @@
       <c r="I15" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="J15" s="289" t="s">
+      <c r="J15" s="290" t="s">
         <v>362</v>
       </c>
-      <c r="K15" s="289"/>
-      <c r="L15" s="289"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -52636,11 +52463,11 @@
       <c r="I16" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="J16" s="289" t="s">
+      <c r="J16" s="290" t="s">
         <v>358</v>
       </c>
-      <c r="K16" s="289"/>
-      <c r="L16" s="289"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -52702,11 +52529,11 @@
       <c r="I18" s="160" t="s">
         <v>355</v>
       </c>
-      <c r="J18" s="279" t="s">
+      <c r="J18" s="282" t="s">
         <v>354</v>
       </c>
-      <c r="K18" s="281"/>
-      <c r="L18" s="280"/>
+      <c r="K18" s="291"/>
+      <c r="L18" s="283"/>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
       <c r="O18" s="154"/>
@@ -52735,11 +52562,11 @@
       <c r="I19" s="183" t="s">
         <v>353</v>
       </c>
-      <c r="J19" s="279" t="s">
+      <c r="J19" s="282" t="s">
         <v>352</v>
       </c>
-      <c r="K19" s="281"/>
-      <c r="L19" s="280"/>
+      <c r="K19" s="291"/>
+      <c r="L19" s="283"/>
       <c r="M19" s="154"/>
       <c r="N19" s="154"/>
       <c r="O19" s="154"/>
@@ -52901,11 +52728,11 @@
     </row>
     <row r="29" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="179"/>
-      <c r="B29" s="293" t="s">
+      <c r="B29" s="295" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
+      <c r="C29" s="295"/>
+      <c r="D29" s="295"/>
       <c r="E29" s="180"/>
       <c r="F29" s="181"/>
       <c r="G29" s="180"/>
@@ -52920,12 +52747,12 @@
     </row>
     <row r="30" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="174"/>
-      <c r="B30" s="286" t="s">
+      <c r="B30" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="287"/>
-      <c r="D30" s="287"/>
-      <c r="E30" s="288"/>
+      <c r="C30" s="288"/>
+      <c r="D30" s="288"/>
+      <c r="E30" s="289"/>
       <c r="F30" s="175" t="s">
         <v>125</v>
       </c>
@@ -53017,10 +52844,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="172"/>
-      <c r="D33" s="279" t="s">
+      <c r="D33" s="282" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="280"/>
+      <c r="E33" s="283"/>
       <c r="F33" s="162" t="s">
         <v>330</v>
       </c>
@@ -53050,10 +52877,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="163"/>
-      <c r="D34" s="279" t="s">
+      <c r="D34" s="282" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="280"/>
+      <c r="E34" s="283"/>
       <c r="F34" s="162" t="s">
         <v>173</v>
       </c>
@@ -53116,10 +52943,10 @@
       <c r="A36" s="154"/>
       <c r="B36" s="168"/>
       <c r="C36" s="171"/>
-      <c r="D36" s="279" t="s">
+      <c r="D36" s="282" t="s">
         <v>351</v>
       </c>
-      <c r="E36" s="280"/>
+      <c r="E36" s="283"/>
       <c r="F36" s="162" t="s">
         <v>175</v>
       </c>
@@ -53149,10 +52976,10 @@
       <c r="A37" s="154"/>
       <c r="B37" s="168"/>
       <c r="C37" s="171"/>
-      <c r="D37" s="291" t="s">
+      <c r="D37" s="293" t="s">
         <v>348</v>
       </c>
-      <c r="E37" s="292"/>
+      <c r="E37" s="294"/>
       <c r="F37" s="162" t="s">
         <v>347</v>
       </c>
@@ -53182,10 +53009,10 @@
       <c r="A38" s="154"/>
       <c r="B38" s="168"/>
       <c r="C38" s="172"/>
-      <c r="D38" s="279" t="s">
+      <c r="D38" s="282" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="280"/>
+      <c r="E38" s="283"/>
       <c r="F38" s="162" t="s">
         <v>344</v>
       </c>
@@ -53335,10 +53162,10 @@
       <c r="A43" s="154"/>
       <c r="B43" s="164"/>
       <c r="C43" s="163"/>
-      <c r="D43" s="279" t="s">
+      <c r="D43" s="282" t="s">
         <v>336</v>
       </c>
-      <c r="E43" s="280"/>
+      <c r="E43" s="283"/>
       <c r="F43" s="162" t="s">
         <v>335</v>
       </c>
@@ -53674,11 +53501,11 @@
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="154"/>
-      <c r="B62" s="290" t="s">
+      <c r="B62" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="C62" s="290"/>
-      <c r="D62" s="290"/>
+      <c r="C62" s="292"/>
+      <c r="D62" s="292"/>
       <c r="E62" s="154"/>
       <c r="F62" s="154"/>
       <c r="G62" s="154"/>
@@ -53695,12 +53522,12 @@
     </row>
     <row r="63" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="174"/>
-      <c r="B63" s="286" t="s">
+      <c r="B63" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="287"/>
-      <c r="D63" s="287"/>
-      <c r="E63" s="288"/>
+      <c r="C63" s="288"/>
+      <c r="D63" s="288"/>
+      <c r="E63" s="289"/>
       <c r="F63" s="175" t="s">
         <v>125</v>
       </c>
@@ -53792,10 +53619,10 @@
       <c r="A66" s="154"/>
       <c r="B66" s="168"/>
       <c r="C66" s="172"/>
-      <c r="D66" s="279" t="s">
+      <c r="D66" s="282" t="s">
         <v>171</v>
       </c>
-      <c r="E66" s="280"/>
+      <c r="E66" s="283"/>
       <c r="F66" s="162" t="s">
         <v>330</v>
       </c>
@@ -53825,10 +53652,10 @@
       <c r="A67" s="154"/>
       <c r="B67" s="168"/>
       <c r="C67" s="172"/>
-      <c r="D67" s="279" t="s">
+      <c r="D67" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="280"/>
+      <c r="E67" s="283"/>
       <c r="F67" s="162" t="s">
         <v>189</v>
       </c>
@@ -53858,10 +53685,10 @@
       <c r="A68" s="154"/>
       <c r="B68" s="168"/>
       <c r="C68" s="172"/>
-      <c r="D68" s="294" t="s">
+      <c r="D68" s="296" t="s">
         <v>194</v>
       </c>
-      <c r="E68" s="280"/>
+      <c r="E68" s="283"/>
       <c r="F68" s="162" t="s">
         <v>192</v>
       </c>
@@ -53955,8 +53782,8 @@
       <c r="A71" s="154"/>
       <c r="B71" s="164"/>
       <c r="C71" s="163"/>
-      <c r="D71" s="279"/>
-      <c r="E71" s="280"/>
+      <c r="D71" s="282"/>
+      <c r="E71" s="283"/>
       <c r="F71" s="162"/>
       <c r="G71" s="161"/>
       <c r="H71" s="161"/>
@@ -54346,6 +54173,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="B13:L13"/>
@@ -54362,14 +54197,6 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -54469,15 +54296,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="279" t="s">
+      <c r="C4" s="282" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="280"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="283"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -54490,15 +54317,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="279" t="s">
+      <c r="C5" s="282" t="s">
         <v>370</v>
       </c>
-      <c r="D5" s="281"/>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="280"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="283"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -54532,15 +54359,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="279" t="s">
+      <c r="C7" s="282" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="281"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="280"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="283"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -54574,15 +54401,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="279" t="s">
+      <c r="C9" s="282" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="281"/>
-      <c r="G9" s="281"/>
-      <c r="H9" s="281"/>
-      <c r="I9" s="280"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="283"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -54645,19 +54472,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="283" t="s">
+      <c r="B13" s="284" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="284"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="284"/>
-      <c r="F13" s="284"/>
-      <c r="G13" s="284"/>
-      <c r="H13" s="284"/>
-      <c r="I13" s="284"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="284"/>
-      <c r="L13" s="285"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -54686,11 +54513,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="282" t="s">
+      <c r="J14" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="282"/>
-      <c r="L14" s="282"/>
+      <c r="K14" s="281"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -54715,11 +54542,11 @@
       <c r="I15" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="J15" s="289" t="s">
+      <c r="J15" s="290" t="s">
         <v>362</v>
       </c>
-      <c r="K15" s="289"/>
-      <c r="L15" s="289"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -54744,11 +54571,11 @@
       <c r="I16" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="J16" s="289" t="s">
+      <c r="J16" s="290" t="s">
         <v>368</v>
       </c>
-      <c r="K16" s="289"/>
-      <c r="L16" s="289"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -54910,11 +54737,11 @@
     </row>
     <row r="26" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="179"/>
-      <c r="B26" s="293" t="s">
+      <c r="B26" s="295" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="293"/>
-      <c r="D26" s="293"/>
+      <c r="C26" s="295"/>
+      <c r="D26" s="295"/>
       <c r="E26" s="180"/>
       <c r="F26" s="181"/>
       <c r="G26" s="180"/>
@@ -54929,12 +54756,12 @@
     </row>
     <row r="27" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="286" t="s">
+      <c r="B27" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="287"/>
-      <c r="D27" s="287"/>
-      <c r="E27" s="288"/>
+      <c r="C27" s="288"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="289"/>
       <c r="F27" s="175" t="s">
         <v>125</v>
       </c>
@@ -55026,10 +54853,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="172"/>
-      <c r="D30" s="279" t="s">
+      <c r="D30" s="282" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="280"/>
+      <c r="E30" s="283"/>
       <c r="F30" s="162" t="s">
         <v>330</v>
       </c>
@@ -55059,10 +54886,10 @@
       <c r="A31" s="154"/>
       <c r="B31" s="168"/>
       <c r="C31" s="163"/>
-      <c r="D31" s="279" t="s">
+      <c r="D31" s="282" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="280"/>
+      <c r="E31" s="283"/>
       <c r="F31" s="162" t="s">
         <v>173</v>
       </c>
@@ -55125,10 +54952,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="279" t="s">
+      <c r="D33" s="282" t="s">
         <v>351</v>
       </c>
-      <c r="E33" s="280"/>
+      <c r="E33" s="283"/>
       <c r="F33" s="162" t="s">
         <v>175</v>
       </c>
@@ -55158,10 +54985,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="171"/>
-      <c r="D34" s="291" t="s">
+      <c r="D34" s="293" t="s">
         <v>348</v>
       </c>
-      <c r="E34" s="292"/>
+      <c r="E34" s="294"/>
       <c r="F34" s="162" t="s">
         <v>347</v>
       </c>
@@ -55191,10 +55018,10 @@
       <c r="A35" s="154"/>
       <c r="B35" s="168"/>
       <c r="C35" s="171"/>
-      <c r="D35" s="279" t="s">
+      <c r="D35" s="282" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="280"/>
+      <c r="E35" s="283"/>
       <c r="F35" s="162" t="s">
         <v>344</v>
       </c>
@@ -55290,10 +55117,10 @@
       <c r="A38" s="154"/>
       <c r="B38" s="164"/>
       <c r="C38" s="163"/>
-      <c r="D38" s="279" t="s">
+      <c r="D38" s="282" t="s">
         <v>336</v>
       </c>
-      <c r="E38" s="280"/>
+      <c r="E38" s="283"/>
       <c r="F38" s="162" t="s">
         <v>335</v>
       </c>
@@ -55629,11 +55456,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="154"/>
-      <c r="B57" s="290" t="s">
+      <c r="B57" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="C57" s="290"/>
-      <c r="D57" s="290"/>
+      <c r="C57" s="292"/>
+      <c r="D57" s="292"/>
       <c r="E57" s="154"/>
       <c r="F57" s="154"/>
       <c r="G57" s="154"/>
@@ -55650,12 +55477,12 @@
     </row>
     <row r="58" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="174"/>
-      <c r="B58" s="286" t="s">
+      <c r="B58" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="287"/>
-      <c r="D58" s="287"/>
-      <c r="E58" s="288"/>
+      <c r="C58" s="288"/>
+      <c r="D58" s="288"/>
+      <c r="E58" s="289"/>
       <c r="F58" s="175" t="s">
         <v>125</v>
       </c>
@@ -55747,10 +55574,10 @@
       <c r="A61" s="154"/>
       <c r="B61" s="168"/>
       <c r="C61" s="172"/>
-      <c r="D61" s="279" t="s">
+      <c r="D61" s="282" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="280"/>
+      <c r="E61" s="283"/>
       <c r="F61" s="162" t="s">
         <v>330</v>
       </c>
@@ -55780,10 +55607,10 @@
       <c r="A62" s="154"/>
       <c r="B62" s="168"/>
       <c r="C62" s="172"/>
-      <c r="D62" s="279" t="s">
+      <c r="D62" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="280"/>
+      <c r="E62" s="283"/>
       <c r="F62" s="162" t="s">
         <v>189</v>
       </c>
@@ -55813,10 +55640,10 @@
       <c r="A63" s="154"/>
       <c r="B63" s="168"/>
       <c r="C63" s="172"/>
-      <c r="D63" s="294" t="s">
+      <c r="D63" s="296" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="280"/>
+      <c r="E63" s="283"/>
       <c r="F63" s="162" t="s">
         <v>192</v>
       </c>
@@ -55910,8 +55737,8 @@
       <c r="A66" s="154"/>
       <c r="B66" s="164"/>
       <c r="C66" s="163"/>
-      <c r="D66" s="279"/>
-      <c r="E66" s="280"/>
+      <c r="D66" s="282"/>
+      <c r="E66" s="283"/>
       <c r="F66" s="162"/>
       <c r="G66" s="161"/>
       <c r="H66" s="161"/>
@@ -56301,28 +56128,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -56337,7 +56164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -56420,15 +56247,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="279" t="s">
+      <c r="C4" s="282" t="s">
         <v>432</v>
       </c>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="280"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="283"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -56441,15 +56268,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="279" t="s">
+      <c r="C5" s="282" t="s">
         <v>439</v>
       </c>
-      <c r="D5" s="281"/>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="280"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="283"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -56483,15 +56310,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="279" t="s">
+      <c r="C7" s="282" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="281"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="280"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="283"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -56525,15 +56352,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="279" t="s">
+      <c r="C9" s="282" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="281"/>
-      <c r="G9" s="281"/>
-      <c r="H9" s="281"/>
-      <c r="I9" s="280"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="283"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -56596,19 +56423,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="283" t="s">
+      <c r="B13" s="284" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="284"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="284"/>
-      <c r="F13" s="284"/>
-      <c r="G13" s="284"/>
-      <c r="H13" s="284"/>
-      <c r="I13" s="284"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="284"/>
-      <c r="L13" s="285"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -56637,11 +56464,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="282" t="s">
+      <c r="J14" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="282"/>
-      <c r="L14" s="282"/>
+      <c r="K14" s="281"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -56666,11 +56493,11 @@
       <c r="I15" s="130" t="s">
         <v>445</v>
       </c>
-      <c r="J15" s="289" t="s">
+      <c r="J15" s="290" t="s">
         <v>371</v>
       </c>
-      <c r="K15" s="289"/>
-      <c r="L15" s="289"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -56732,11 +56559,11 @@
       <c r="I17" s="160" t="s">
         <v>355</v>
       </c>
-      <c r="J17" s="279" t="s">
+      <c r="J17" s="282" t="s">
         <v>354</v>
       </c>
-      <c r="K17" s="281"/>
-      <c r="L17" s="280"/>
+      <c r="K17" s="291"/>
+      <c r="L17" s="283"/>
       <c r="M17" s="154"/>
       <c r="N17" s="154"/>
       <c r="O17" s="154"/>
@@ -56765,11 +56592,11 @@
       <c r="I18" s="183" t="s">
         <v>353</v>
       </c>
-      <c r="J18" s="279" t="s">
+      <c r="J18" s="282" t="s">
         <v>352</v>
       </c>
-      <c r="K18" s="281"/>
-      <c r="L18" s="280"/>
+      <c r="K18" s="291"/>
+      <c r="L18" s="283"/>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
       <c r="O18" s="154"/>
@@ -56931,11 +56758,11 @@
     </row>
     <row r="28" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="179"/>
-      <c r="B28" s="293" t="s">
+      <c r="B28" s="295" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="293"/>
-      <c r="D28" s="293"/>
+      <c r="C28" s="295"/>
+      <c r="D28" s="295"/>
       <c r="E28" s="180"/>
       <c r="F28" s="181"/>
       <c r="G28" s="180"/>
@@ -56950,12 +56777,12 @@
     </row>
     <row r="29" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="174"/>
-      <c r="B29" s="286" t="s">
+      <c r="B29" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="287"/>
-      <c r="D29" s="287"/>
-      <c r="E29" s="288"/>
+      <c r="C29" s="288"/>
+      <c r="D29" s="288"/>
+      <c r="E29" s="289"/>
       <c r="F29" s="175" t="s">
         <v>125</v>
       </c>
@@ -57047,10 +56874,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="172"/>
-      <c r="D32" s="279" t="s">
+      <c r="D32" s="282" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="280"/>
+      <c r="E32" s="283"/>
       <c r="F32" s="162" t="s">
         <v>330</v>
       </c>
@@ -57080,10 +56907,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="163"/>
-      <c r="D33" s="279" t="s">
+      <c r="D33" s="282" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="280"/>
+      <c r="E33" s="283"/>
       <c r="F33" s="162" t="s">
         <v>173</v>
       </c>
@@ -57433,11 +57260,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="154"/>
-      <c r="B52" s="290" t="s">
+      <c r="B52" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="C52" s="290"/>
-      <c r="D52" s="290"/>
+      <c r="C52" s="292"/>
+      <c r="D52" s="292"/>
       <c r="E52" s="154"/>
       <c r="F52" s="154"/>
       <c r="G52" s="154"/>
@@ -57454,12 +57281,12 @@
     </row>
     <row r="53" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="286" t="s">
+      <c r="B53" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="287"/>
-      <c r="D53" s="287"/>
-      <c r="E53" s="288"/>
+      <c r="C53" s="288"/>
+      <c r="D53" s="288"/>
+      <c r="E53" s="289"/>
       <c r="F53" s="175" t="s">
         <v>125</v>
       </c>
@@ -57551,10 +57378,10 @@
       <c r="A56" s="154"/>
       <c r="B56" s="168"/>
       <c r="C56" s="172"/>
-      <c r="D56" s="279" t="s">
+      <c r="D56" s="282" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="283"/>
       <c r="F56" s="162" t="s">
         <v>330</v>
       </c>
@@ -57584,10 +57411,10 @@
       <c r="A57" s="154"/>
       <c r="B57" s="168"/>
       <c r="C57" s="172"/>
-      <c r="D57" s="279" t="s">
+      <c r="D57" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="283"/>
       <c r="F57" s="162" t="s">
         <v>189</v>
       </c>
@@ -57617,10 +57444,10 @@
       <c r="A58" s="154"/>
       <c r="B58" s="168"/>
       <c r="C58" s="172"/>
-      <c r="D58" s="294" t="s">
+      <c r="D58" s="296" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="283"/>
       <c r="F58" s="162" t="s">
         <v>192</v>
       </c>
@@ -58071,11 +57898,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
@@ -58089,6 +57911,11 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -58101,10 +57928,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -58186,15 +58013,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="279" t="s">
+      <c r="C4" s="282" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="280"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="283"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -58207,15 +58034,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="279" t="s">
+      <c r="C5" s="282" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="281"/>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="280"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="283"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -58249,15 +58076,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="279" t="s">
+      <c r="C7" s="282" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="281"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="280"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="283"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -58291,15 +58118,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="279" t="s">
+      <c r="C9" s="282" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="281"/>
-      <c r="G9" s="281"/>
-      <c r="H9" s="281"/>
-      <c r="I9" s="280"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="283"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -58362,19 +58189,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="283" t="s">
+      <c r="B13" s="284" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="284"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="284"/>
-      <c r="F13" s="284"/>
-      <c r="G13" s="284"/>
-      <c r="H13" s="284"/>
-      <c r="I13" s="284"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="284"/>
-      <c r="L13" s="285"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -58403,11 +58230,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="282" t="s">
+      <c r="J14" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="282"/>
-      <c r="L14" s="282"/>
+      <c r="K14" s="281"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -58432,11 +58259,11 @@
       <c r="I15" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J15" s="289" t="s">
+      <c r="J15" s="290" t="s">
         <v>373</v>
       </c>
-      <c r="K15" s="289"/>
-      <c r="L15" s="289"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -58598,11 +58425,11 @@
     </row>
     <row r="25" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="179"/>
-      <c r="B25" s="293" t="s">
+      <c r="B25" s="295" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="295"/>
+      <c r="D25" s="295"/>
       <c r="E25" s="180"/>
       <c r="F25" s="181"/>
       <c r="G25" s="180"/>
@@ -58617,12 +58444,12 @@
     </row>
     <row r="26" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="286" t="s">
+      <c r="B26" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="287"/>
-      <c r="D26" s="287"/>
-      <c r="E26" s="288"/>
+      <c r="C26" s="288"/>
+      <c r="D26" s="288"/>
+      <c r="E26" s="289"/>
       <c r="F26" s="175" t="s">
         <v>125</v>
       </c>
@@ -58714,10 +58541,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="172"/>
-      <c r="D29" s="279" t="s">
+      <c r="D29" s="282" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="280"/>
+      <c r="E29" s="283"/>
       <c r="F29" s="162" t="s">
         <v>330</v>
       </c>
@@ -58747,10 +58574,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="163"/>
-      <c r="D30" s="279" t="s">
+      <c r="D30" s="282" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="280"/>
+      <c r="E30" s="283"/>
       <c r="F30" s="162" t="s">
         <v>173</v>
       </c>
@@ -58813,10 +58640,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="171"/>
-      <c r="D32" s="279" t="s">
+      <c r="D32" s="282" t="s">
         <v>351</v>
       </c>
-      <c r="E32" s="280"/>
+      <c r="E32" s="283"/>
       <c r="F32" s="162" t="s">
         <v>175</v>
       </c>
@@ -58846,10 +58673,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="291" t="s">
+      <c r="D33" s="293" t="s">
         <v>348</v>
       </c>
-      <c r="E33" s="292"/>
+      <c r="E33" s="294"/>
       <c r="F33" s="162" t="s">
         <v>347</v>
       </c>
@@ -58879,10 +58706,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="172"/>
-      <c r="D34" s="279" t="s">
+      <c r="D34" s="282" t="s">
         <v>345</v>
       </c>
-      <c r="E34" s="280"/>
+      <c r="E34" s="283"/>
       <c r="F34" s="162" t="s">
         <v>344</v>
       </c>
@@ -58976,36 +58803,58 @@
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="154"/>
-      <c r="B37" s="156"/>
-      <c r="C37" s="159"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="157"/>
-      <c r="K37" s="157"/>
-      <c r="L37" s="156"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="172"/>
+      <c r="D37" s="218" t="s">
+        <v>474</v>
+      </c>
+      <c r="E37" s="219"/>
+      <c r="F37" s="162" t="s">
+        <v>473</v>
+      </c>
+      <c r="G37" s="161" t="s">
+        <v>475</v>
+      </c>
+      <c r="H37" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" s="161">
+        <v>1</v>
+      </c>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="160" t="s">
+        <v>476</v>
+      </c>
       <c r="M37" s="154"/>
       <c r="N37" s="154"/>
       <c r="O37" s="154"/>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="154"/>
-      <c r="B38" s="155" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" s="159"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="157"/>
-      <c r="L38" s="156"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="323" t="s">
+        <v>324</v>
+      </c>
+      <c r="E38" s="324"/>
+      <c r="F38" s="323" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" s="325" t="s">
+        <v>475</v>
+      </c>
+      <c r="H38" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" s="327">
+        <v>1</v>
+      </c>
+      <c r="J38" s="328"/>
+      <c r="K38" s="328"/>
+      <c r="L38" s="326" t="s">
+        <v>477</v>
+      </c>
       <c r="M38" s="154"/>
       <c r="N38" s="154"/>
       <c r="O38" s="154"/>
@@ -59029,7 +58878,9 @@
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="154"/>
-      <c r="B40" s="156"/>
+      <c r="B40" s="155" t="s">
+        <v>183</v>
+      </c>
       <c r="C40" s="159"/>
       <c r="D40" s="158"/>
       <c r="E40" s="158"/>
@@ -59267,156 +59118,128 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="154"/>
-      <c r="B54" s="154"/>
-      <c r="C54" s="154"/>
-      <c r="D54" s="154"/>
-      <c r="E54" s="154"/>
-      <c r="F54" s="154"/>
-      <c r="G54" s="154"/>
-      <c r="H54" s="154"/>
-      <c r="I54" s="154"/>
-      <c r="J54" s="154"/>
-      <c r="K54" s="154"/>
-      <c r="L54" s="154"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="158"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="157"/>
+      <c r="K54" s="157"/>
+      <c r="L54" s="156"/>
       <c r="M54" s="154"/>
       <c r="N54" s="154"/>
       <c r="O54" s="154"/>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="154"/>
-      <c r="B55" s="290" t="s">
-        <v>333</v>
-      </c>
-      <c r="C55" s="290"/>
-      <c r="D55" s="290"/>
-      <c r="E55" s="154"/>
-      <c r="F55" s="154"/>
-      <c r="G55" s="154"/>
-      <c r="H55" s="154"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="154" t="s">
-        <v>329</v>
-      </c>
-      <c r="K55" s="154"/>
-      <c r="L55" s="154"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="158"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="157"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="157"/>
+      <c r="K55" s="157"/>
+      <c r="L55" s="156"/>
       <c r="M55" s="154"/>
       <c r="N55" s="154"/>
       <c r="O55" s="154"/>
     </row>
-    <row r="56" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="174"/>
-      <c r="B56" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="287"/>
-      <c r="D56" s="287"/>
-      <c r="E56" s="288"/>
-      <c r="F56" s="175" t="s">
-        <v>125</v>
-      </c>
-      <c r="G56" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="H56" s="175" t="s">
-        <v>128</v>
-      </c>
-      <c r="I56" s="175" t="s">
-        <v>332</v>
-      </c>
-      <c r="J56" s="175" t="s">
-        <v>129</v>
-      </c>
-      <c r="K56" s="175" t="s">
-        <v>130</v>
-      </c>
-      <c r="L56" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="M56" s="174"/>
-      <c r="N56" s="174"/>
-      <c r="O56" s="174"/>
+    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="154"/>
+      <c r="B56" s="154"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="154"/>
+      <c r="E56" s="154"/>
+      <c r="F56" s="154"/>
+      <c r="G56" s="154"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="154"/>
+      <c r="K56" s="154"/>
+      <c r="L56" s="154"/>
+      <c r="M56" s="154"/>
+      <c r="N56" s="154"/>
+      <c r="O56" s="154"/>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="154"/>
-      <c r="B57" s="168" t="s">
-        <v>331</v>
-      </c>
-      <c r="C57" s="159"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="161" t="s">
+      <c r="B57" s="292" t="s">
+        <v>333</v>
+      </c>
+      <c r="C57" s="292"/>
+      <c r="D57" s="292"/>
+      <c r="E57" s="154"/>
+      <c r="F57" s="154"/>
+      <c r="G57" s="154"/>
+      <c r="H57" s="154"/>
+      <c r="I57" s="154"/>
+      <c r="J57" s="154" t="s">
         <v>329</v>
       </c>
-      <c r="G57" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="H57" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="I57" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="J57" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="K57" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="L57" s="160"/>
+      <c r="K57" s="154"/>
+      <c r="L57" s="154"/>
       <c r="M57" s="154"/>
       <c r="N57" s="154"/>
       <c r="O57" s="154"/>
     </row>
-    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="154"/>
-      <c r="B58" s="168"/>
-      <c r="C58" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="166"/>
-      <c r="E58" s="165"/>
-      <c r="F58" s="162" t="s">
-        <v>167</v>
-      </c>
-      <c r="G58" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="H58" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="I58" s="161">
-        <v>1</v>
-      </c>
-      <c r="J58" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="K58" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="L58" s="160"/>
-      <c r="M58" s="154"/>
-      <c r="N58" s="154"/>
-      <c r="O58" s="154"/>
+    <row r="58" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="174"/>
+      <c r="B58" s="287" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="288"/>
+      <c r="D58" s="288"/>
+      <c r="E58" s="289"/>
+      <c r="F58" s="175" t="s">
+        <v>125</v>
+      </c>
+      <c r="G58" s="175" t="s">
+        <v>127</v>
+      </c>
+      <c r="H58" s="175" t="s">
+        <v>128</v>
+      </c>
+      <c r="I58" s="175" t="s">
+        <v>332</v>
+      </c>
+      <c r="J58" s="175" t="s">
+        <v>129</v>
+      </c>
+      <c r="K58" s="175" t="s">
+        <v>130</v>
+      </c>
+      <c r="L58" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="M58" s="174"/>
+      <c r="N58" s="174"/>
+      <c r="O58" s="174"/>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="154"/>
-      <c r="B59" s="168"/>
-      <c r="C59" s="172"/>
-      <c r="D59" s="279" t="s">
-        <v>171</v>
-      </c>
-      <c r="E59" s="280"/>
-      <c r="F59" s="162" t="s">
-        <v>330</v>
+      <c r="B59" s="168" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" s="159"/>
+      <c r="D59" s="159"/>
+      <c r="E59" s="165"/>
+      <c r="F59" s="161" t="s">
+        <v>329</v>
       </c>
       <c r="G59" s="161" t="s">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="H59" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="I59" s="161">
-        <v>1</v>
+        <v>329</v>
+      </c>
+      <c r="I59" s="161" t="s">
+        <v>329</v>
       </c>
       <c r="J59" s="161" t="s">
         <v>329</v>
@@ -59424,9 +59247,7 @@
       <c r="K59" s="161" t="s">
         <v>329</v>
       </c>
-      <c r="L59" s="160" t="s">
-        <v>191</v>
-      </c>
+      <c r="L59" s="160"/>
       <c r="M59" s="154"/>
       <c r="N59" s="154"/>
       <c r="O59" s="154"/>
@@ -59434,16 +59255,16 @@
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="154"/>
       <c r="B60" s="168"/>
-      <c r="C60" s="172"/>
-      <c r="D60" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="280"/>
+      <c r="C60" s="167" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="166"/>
+      <c r="E60" s="165"/>
       <c r="F60" s="162" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="G60" s="161" t="s">
-        <v>161</v>
+        <v>329</v>
       </c>
       <c r="H60" s="161" t="s">
         <v>166</v>
@@ -59452,14 +59273,12 @@
         <v>1</v>
       </c>
       <c r="J60" s="161" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="K60" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="L60" s="160" t="s">
-        <v>190</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="L60" s="160"/>
       <c r="M60" s="154"/>
       <c r="N60" s="154"/>
       <c r="O60" s="154"/>
@@ -59468,15 +59287,15 @@
       <c r="A61" s="154"/>
       <c r="B61" s="168"/>
       <c r="C61" s="172"/>
-      <c r="D61" s="294" t="s">
-        <v>194</v>
-      </c>
-      <c r="E61" s="280"/>
+      <c r="D61" s="282" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="283"/>
       <c r="F61" s="162" t="s">
-        <v>192</v>
+        <v>330</v>
       </c>
       <c r="G61" s="161" t="s">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="H61" s="161" t="s">
         <v>166</v>
@@ -59491,7 +59310,7 @@
         <v>329</v>
       </c>
       <c r="L61" s="160" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M61" s="154"/>
       <c r="N61" s="154"/>
@@ -59500,13 +59319,13 @@
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="154"/>
       <c r="B62" s="168"/>
-      <c r="C62" s="171"/>
-      <c r="D62" s="170"/>
-      <c r="E62" s="169" t="s">
-        <v>195</v>
-      </c>
+      <c r="C62" s="172"/>
+      <c r="D62" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="283"/>
       <c r="F62" s="162" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G62" s="161" t="s">
         <v>161</v>
@@ -59524,7 +59343,7 @@
         <v>132</v>
       </c>
       <c r="L62" s="160" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M62" s="154"/>
       <c r="N62" s="154"/>
@@ -59533,13 +59352,13 @@
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="154"/>
       <c r="B63" s="168"/>
-      <c r="C63" s="167" t="s">
-        <v>170</v>
-      </c>
-      <c r="D63" s="166"/>
-      <c r="E63" s="165"/>
+      <c r="C63" s="172"/>
+      <c r="D63" s="296" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="283"/>
       <c r="F63" s="162" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="G63" s="161" t="s">
         <v>329</v>
@@ -59556,84 +59375,116 @@
       <c r="K63" s="161" t="s">
         <v>329</v>
       </c>
-      <c r="L63" s="160"/>
+      <c r="L63" s="160" t="s">
+        <v>197</v>
+      </c>
       <c r="M63" s="154"/>
       <c r="N63" s="154"/>
       <c r="O63" s="154"/>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="154"/>
-      <c r="B64" s="164"/>
-      <c r="C64" s="163"/>
-      <c r="D64" s="279"/>
-      <c r="E64" s="280"/>
-      <c r="F64" s="162"/>
-      <c r="G64" s="161"/>
-      <c r="H64" s="161"/>
-      <c r="I64" s="161"/>
-      <c r="J64" s="161"/>
-      <c r="K64" s="161"/>
-      <c r="L64" s="160"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="171"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="169" t="s">
+        <v>195</v>
+      </c>
+      <c r="F64" s="162" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" s="161" t="s">
+        <v>161</v>
+      </c>
+      <c r="H64" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="I64" s="161">
+        <v>1</v>
+      </c>
+      <c r="J64" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="K64" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="L64" s="160" t="s">
+        <v>196</v>
+      </c>
       <c r="M64" s="154"/>
       <c r="N64" s="154"/>
       <c r="O64" s="154"/>
     </row>
     <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="154"/>
-      <c r="B65" s="156"/>
-      <c r="C65" s="159"/>
-      <c r="D65" s="158"/>
-      <c r="E65" s="158"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="157"/>
-      <c r="K65" s="157"/>
-      <c r="L65" s="156"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="167" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" s="166"/>
+      <c r="E65" s="165"/>
+      <c r="F65" s="162" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" s="161" t="s">
+        <v>329</v>
+      </c>
+      <c r="H65" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="I65" s="161">
+        <v>1</v>
+      </c>
+      <c r="J65" s="161" t="s">
+        <v>329</v>
+      </c>
+      <c r="K65" s="161" t="s">
+        <v>329</v>
+      </c>
+      <c r="L65" s="160"/>
       <c r="M65" s="154"/>
       <c r="N65" s="154"/>
       <c r="O65" s="154"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="154"/>
-      <c r="B66" s="155" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" s="154"/>
-      <c r="D66" s="154"/>
-      <c r="E66" s="154"/>
-      <c r="F66" s="154"/>
-      <c r="G66" s="154"/>
-      <c r="H66" s="154"/>
-      <c r="I66" s="154"/>
-      <c r="J66" s="154"/>
-      <c r="K66" s="154"/>
-      <c r="L66" s="154"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="282"/>
+      <c r="E66" s="283"/>
+      <c r="F66" s="162"/>
+      <c r="G66" s="161"/>
+      <c r="H66" s="161"/>
+      <c r="I66" s="161"/>
+      <c r="J66" s="161"/>
+      <c r="K66" s="161"/>
+      <c r="L66" s="160"/>
       <c r="M66" s="154"/>
       <c r="N66" s="154"/>
       <c r="O66" s="154"/>
     </row>
     <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="154"/>
-      <c r="B67" s="154"/>
-      <c r="C67" s="154"/>
-      <c r="D67" s="154"/>
-      <c r="E67" s="154"/>
-      <c r="F67" s="154"/>
-      <c r="G67" s="154"/>
-      <c r="H67" s="154"/>
-      <c r="I67" s="154"/>
-      <c r="J67" s="154"/>
-      <c r="K67" s="154"/>
-      <c r="L67" s="154"/>
+      <c r="B67" s="156"/>
+      <c r="C67" s="159"/>
+      <c r="D67" s="158"/>
+      <c r="E67" s="158"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
+      <c r="I67" s="157"/>
+      <c r="J67" s="157"/>
+      <c r="K67" s="157"/>
+      <c r="L67" s="156"/>
       <c r="M67" s="154"/>
       <c r="N67" s="154"/>
       <c r="O67" s="154"/>
     </row>
     <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="154"/>
-      <c r="B68" s="154"/>
+      <c r="B68" s="155" t="s">
+        <v>179</v>
+      </c>
       <c r="C68" s="154"/>
       <c r="D68" s="154"/>
       <c r="E68" s="154"/>
@@ -59938,29 +59789,68 @@
       <c r="O85" s="154"/>
     </row>
     <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="153"/>
-      <c r="B86" s="153"/>
-      <c r="C86" s="153"/>
-      <c r="D86" s="153"/>
-      <c r="E86" s="153"/>
-      <c r="F86" s="153"/>
-      <c r="G86" s="153"/>
-      <c r="H86" s="153"/>
-      <c r="I86" s="153"/>
-      <c r="J86" s="153"/>
-      <c r="K86" s="153"/>
-      <c r="L86" s="153"/>
-      <c r="M86" s="153"/>
-      <c r="N86" s="153"/>
-      <c r="O86" s="153"/>
+      <c r="A86" s="154"/>
+      <c r="B86" s="154"/>
+      <c r="C86" s="154"/>
+      <c r="D86" s="154"/>
+      <c r="E86" s="154"/>
+      <c r="F86" s="154"/>
+      <c r="G86" s="154"/>
+      <c r="H86" s="154"/>
+      <c r="I86" s="154"/>
+      <c r="J86" s="154"/>
+      <c r="K86" s="154"/>
+      <c r="L86" s="154"/>
+      <c r="M86" s="154"/>
+      <c r="N86" s="154"/>
+      <c r="O86" s="154"/>
+    </row>
+    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="154"/>
+      <c r="B87" s="154"/>
+      <c r="C87" s="154"/>
+      <c r="D87" s="154"/>
+      <c r="E87" s="154"/>
+      <c r="F87" s="154"/>
+      <c r="G87" s="154"/>
+      <c r="H87" s="154"/>
+      <c r="I87" s="154"/>
+      <c r="J87" s="154"/>
+      <c r="K87" s="154"/>
+      <c r="L87" s="154"/>
+      <c r="M87" s="154"/>
+      <c r="N87" s="154"/>
+      <c r="O87" s="154"/>
+    </row>
+    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="153"/>
+      <c r="B88" s="153"/>
+      <c r="C88" s="153"/>
+      <c r="D88" s="153"/>
+      <c r="E88" s="153"/>
+      <c r="F88" s="153"/>
+      <c r="G88" s="153"/>
+      <c r="H88" s="153"/>
+      <c r="I88" s="153"/>
+      <c r="J88" s="153"/>
+      <c r="K88" s="153"/>
+      <c r="L88" s="153"/>
+      <c r="M88" s="153"/>
+      <c r="N88" s="153"/>
+      <c r="O88" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D66:E66"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
@@ -59969,13 +59859,8 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:E58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -60072,15 +59957,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="279" t="s">
+      <c r="C4" s="282" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="280"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="283"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -60093,15 +59978,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="279" t="s">
+      <c r="C5" s="282" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="281"/>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="280"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="283"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -60135,15 +60020,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="279" t="s">
+      <c r="C7" s="282" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="281"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="280"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="283"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -60177,15 +60062,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="279" t="s">
+      <c r="C9" s="282" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="281"/>
-      <c r="G9" s="281"/>
-      <c r="H9" s="281"/>
-      <c r="I9" s="280"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="283"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -60248,19 +60133,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="283" t="s">
+      <c r="B13" s="284" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="284"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="284"/>
-      <c r="F13" s="284"/>
-      <c r="G13" s="284"/>
-      <c r="H13" s="284"/>
-      <c r="I13" s="284"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="284"/>
-      <c r="L13" s="285"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -60289,11 +60174,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="282" t="s">
+      <c r="J14" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="282"/>
-      <c r="L14" s="282"/>
+      <c r="K14" s="281"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -60318,11 +60203,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="289" t="s">
+      <c r="J15" s="290" t="s">
         <v>371</v>
       </c>
-      <c r="K15" s="289"/>
-      <c r="L15" s="289"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -60351,11 +60236,11 @@
       <c r="I16" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="J16" s="289" t="s">
+      <c r="J16" s="290" t="s">
         <v>378</v>
       </c>
-      <c r="K16" s="289"/>
-      <c r="L16" s="289"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -60517,11 +60402,11 @@
     </row>
     <row r="26" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="179"/>
-      <c r="B26" s="293" t="s">
+      <c r="B26" s="295" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="293"/>
-      <c r="D26" s="293"/>
+      <c r="C26" s="295"/>
+      <c r="D26" s="295"/>
       <c r="E26" s="180"/>
       <c r="F26" s="181"/>
       <c r="G26" s="180"/>
@@ -60536,12 +60421,12 @@
     </row>
     <row r="27" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="286" t="s">
+      <c r="B27" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="287"/>
-      <c r="D27" s="287"/>
-      <c r="E27" s="288"/>
+      <c r="C27" s="288"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="289"/>
       <c r="F27" s="175" t="s">
         <v>125</v>
       </c>
@@ -60633,10 +60518,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="172"/>
-      <c r="D30" s="279" t="s">
+      <c r="D30" s="282" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="280"/>
+      <c r="E30" s="283"/>
       <c r="F30" s="162" t="s">
         <v>330</v>
       </c>
@@ -60666,10 +60551,10 @@
       <c r="A31" s="154"/>
       <c r="B31" s="168"/>
       <c r="C31" s="163"/>
-      <c r="D31" s="279" t="s">
+      <c r="D31" s="282" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="280"/>
+      <c r="E31" s="283"/>
       <c r="F31" s="162" t="s">
         <v>173</v>
       </c>
@@ -60732,8 +60617,8 @@
       <c r="A33" s="154"/>
       <c r="B33" s="164"/>
       <c r="C33" s="163"/>
-      <c r="D33" s="279"/>
-      <c r="E33" s="280"/>
+      <c r="D33" s="282"/>
+      <c r="E33" s="283"/>
       <c r="F33" s="162"/>
       <c r="G33" s="161"/>
       <c r="H33" s="161"/>
@@ -61055,11 +60940,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="154"/>
-      <c r="B52" s="290" t="s">
+      <c r="B52" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="C52" s="290"/>
-      <c r="D52" s="290"/>
+      <c r="C52" s="292"/>
+      <c r="D52" s="292"/>
       <c r="E52" s="154"/>
       <c r="F52" s="154"/>
       <c r="G52" s="154"/>
@@ -61076,12 +60961,12 @@
     </row>
     <row r="53" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="286" t="s">
+      <c r="B53" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="287"/>
-      <c r="D53" s="287"/>
-      <c r="E53" s="288"/>
+      <c r="C53" s="288"/>
+      <c r="D53" s="288"/>
+      <c r="E53" s="289"/>
       <c r="F53" s="175" t="s">
         <v>125</v>
       </c>
@@ -61173,10 +61058,10 @@
       <c r="A56" s="154"/>
       <c r="B56" s="168"/>
       <c r="C56" s="172"/>
-      <c r="D56" s="279" t="s">
+      <c r="D56" s="282" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="283"/>
       <c r="F56" s="162" t="s">
         <v>330</v>
       </c>
@@ -61206,10 +61091,10 @@
       <c r="A57" s="154"/>
       <c r="B57" s="168"/>
       <c r="C57" s="172"/>
-      <c r="D57" s="279" t="s">
+      <c r="D57" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="283"/>
       <c r="F57" s="162" t="s">
         <v>189</v>
       </c>
@@ -61239,10 +61124,10 @@
       <c r="A58" s="154"/>
       <c r="B58" s="168"/>
       <c r="C58" s="172"/>
-      <c r="D58" s="294" t="s">
+      <c r="D58" s="296" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="283"/>
       <c r="F58" s="162" t="s">
         <v>192</v>
       </c>
@@ -61336,8 +61221,8 @@
       <c r="A61" s="154"/>
       <c r="B61" s="164"/>
       <c r="C61" s="163"/>
-      <c r="D61" s="279"/>
-      <c r="E61" s="280"/>
+      <c r="D61" s="282"/>
+      <c r="E61" s="283"/>
       <c r="F61" s="162"/>
       <c r="G61" s="161"/>
       <c r="H61" s="161"/>
@@ -61727,6 +61612,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D57:E57"/>
@@ -61736,16 +61631,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>

--- a/doc/API_Design/API_Spec/BLOG_API_Spec.xlsx
+++ b/doc/API_Design/API_Spec/BLOG_API_Spec.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="477">
   <si>
     <t>Description</t>
   </si>
@@ -1536,9 +1536,6 @@
     <t>Created date time</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>Date time account created</t>
   </si>
   <si>
@@ -2435,7 +2432,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2930,48 +2927,53 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="411" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="411" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="411" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="411" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="411" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3003,6 +3005,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3030,6 +3042,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3042,62 +3069,41 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3129,14 +3135,17 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3153,9 +3162,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="411" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3170,18 +3176,13 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3193,22 +3194,16 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3216,6 +3211,17 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3235,16 +3241,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="411" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="411" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="411" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="411" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="411" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="411" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="412">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -18994,7 +18991,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "message": "Success!"</a:t>
+            <a:t>      "message": "Update user's information success!"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -23054,303 +23051,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="258" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="223" t="s">
+      <c r="B1" s="259"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="261" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="225" t="s">
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="266" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="226"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="228" t="s">
+      <c r="L1" s="267"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="248" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="229"/>
-      <c r="P1" s="229"/>
-      <c r="Q1" s="229"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="229"/>
-      <c r="T1" s="229"/>
-      <c r="U1" s="230"/>
-      <c r="V1" s="231" t="s">
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="249"/>
+      <c r="T1" s="249"/>
+      <c r="U1" s="250"/>
+      <c r="V1" s="269" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="232"/>
-      <c r="X1" s="232"/>
-      <c r="Y1" s="232"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="232"/>
-      <c r="AB1" s="232"/>
-      <c r="AC1" s="232"/>
-      <c r="AD1" s="233"/>
+      <c r="W1" s="270"/>
+      <c r="X1" s="270"/>
+      <c r="Y1" s="270"/>
+      <c r="Z1" s="270"/>
+      <c r="AA1" s="270"/>
+      <c r="AB1" s="270"/>
+      <c r="AC1" s="270"/>
+      <c r="AD1" s="271"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="258" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="223" t="s">
+      <c r="B2" s="259"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="261" t="s">
         <v>444</v>
       </c>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="237" t="s">
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="238"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="249" t="s">
+      <c r="L2" s="244"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="263" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="250"/>
-      <c r="P2" s="250"/>
-      <c r="Q2" s="250"/>
-      <c r="R2" s="250"/>
-      <c r="S2" s="250"/>
-      <c r="T2" s="250"/>
-      <c r="U2" s="251"/>
-      <c r="V2" s="234" t="s">
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="264"/>
+      <c r="U2" s="265"/>
+      <c r="V2" s="240" t="s">
         <v>150</v>
       </c>
-      <c r="W2" s="235"/>
-      <c r="X2" s="236"/>
-      <c r="Y2" s="234" t="s">
+      <c r="W2" s="241"/>
+      <c r="X2" s="242"/>
+      <c r="Y2" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="236"/>
-      <c r="AB2" s="234" t="s">
+      <c r="Z2" s="241"/>
+      <c r="AA2" s="242"/>
+      <c r="AB2" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="235"/>
-      <c r="AD2" s="236"/>
+      <c r="AC2" s="241"/>
+      <c r="AD2" s="242"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="240" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="246" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="237" t="s">
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="238"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="228" t="s">
+      <c r="L3" s="244"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="248" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="229"/>
-      <c r="P3" s="229"/>
-      <c r="Q3" s="229"/>
-      <c r="R3" s="229"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="242" t="s">
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="249"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="249"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="251" t="s">
         <v>237</v>
       </c>
-      <c r="W3" s="243"/>
-      <c r="X3" s="244"/>
-      <c r="Y3" s="245">
+      <c r="W3" s="252"/>
+      <c r="X3" s="253"/>
+      <c r="Y3" s="254">
         <v>41961</v>
       </c>
-      <c r="Z3" s="246"/>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="248">
+      <c r="Z3" s="255"/>
+      <c r="AA3" s="256"/>
+      <c r="AB3" s="257">
         <v>41967</v>
       </c>
-      <c r="AC3" s="246"/>
-      <c r="AD3" s="247"/>
+      <c r="AC3" s="255"/>
+      <c r="AD3" s="256"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="264" t="s">
+      <c r="B8" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264" t="s">
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="264"/>
-      <c r="H8" s="264" t="s">
+      <c r="G8" s="238"/>
+      <c r="H8" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="264"/>
-      <c r="J8" s="264"/>
-      <c r="K8" s="264" t="s">
+      <c r="I8" s="238"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="264"/>
-      <c r="M8" s="264"/>
-      <c r="N8" s="264"/>
-      <c r="O8" s="264"/>
-      <c r="P8" s="264"/>
-      <c r="Q8" s="264"/>
-      <c r="R8" s="264"/>
-      <c r="S8" s="264"/>
-      <c r="T8" s="264"/>
-      <c r="U8" s="264"/>
-      <c r="V8" s="264"/>
-      <c r="W8" s="264"/>
-      <c r="X8" s="264" t="s">
+      <c r="L8" s="238"/>
+      <c r="M8" s="238"/>
+      <c r="N8" s="238"/>
+      <c r="O8" s="238"/>
+      <c r="P8" s="238"/>
+      <c r="Q8" s="238"/>
+      <c r="R8" s="238"/>
+      <c r="S8" s="238"/>
+      <c r="T8" s="238"/>
+      <c r="U8" s="238"/>
+      <c r="V8" s="238"/>
+      <c r="W8" s="238"/>
+      <c r="X8" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="264"/>
-      <c r="Z8" s="264"/>
-      <c r="AA8" s="264"/>
-      <c r="AB8" s="264"/>
-      <c r="AC8" s="264"/>
+      <c r="Y8" s="238"/>
+      <c r="Z8" s="238"/>
+      <c r="AA8" s="238"/>
+      <c r="AB8" s="238"/>
+      <c r="AC8" s="238"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="252">
+      <c r="B9" s="239">
         <v>41961</v>
       </c>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="255" t="s">
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="230" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="256"/>
-      <c r="H9" s="257"/>
-      <c r="I9" s="253"/>
-      <c r="J9" s="254"/>
-      <c r="K9" s="258"/>
-      <c r="L9" s="259"/>
-      <c r="M9" s="259"/>
-      <c r="N9" s="259"/>
-      <c r="O9" s="259"/>
-      <c r="P9" s="259"/>
-      <c r="Q9" s="259"/>
-      <c r="R9" s="259"/>
-      <c r="S9" s="259"/>
-      <c r="T9" s="259"/>
-      <c r="U9" s="259"/>
-      <c r="V9" s="259"/>
-      <c r="W9" s="260"/>
-      <c r="X9" s="261"/>
-      <c r="Y9" s="262"/>
-      <c r="Z9" s="262"/>
-      <c r="AA9" s="262"/>
-      <c r="AB9" s="262"/>
-      <c r="AC9" s="263"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="227"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="229"/>
+      <c r="K9" s="232"/>
+      <c r="L9" s="233"/>
+      <c r="M9" s="233"/>
+      <c r="N9" s="233"/>
+      <c r="O9" s="233"/>
+      <c r="P9" s="233"/>
+      <c r="Q9" s="233"/>
+      <c r="R9" s="233"/>
+      <c r="S9" s="233"/>
+      <c r="T9" s="233"/>
+      <c r="U9" s="233"/>
+      <c r="V9" s="233"/>
+      <c r="W9" s="234"/>
+      <c r="X9" s="235"/>
+      <c r="Y9" s="236"/>
+      <c r="Z9" s="236"/>
+      <c r="AA9" s="236"/>
+      <c r="AB9" s="236"/>
+      <c r="AC9" s="237"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="257"/>
-      <c r="C10" s="253"/>
-      <c r="D10" s="253"/>
-      <c r="E10" s="254"/>
-      <c r="F10" s="255"/>
-      <c r="G10" s="256"/>
-      <c r="H10" s="257"/>
-      <c r="I10" s="253"/>
-      <c r="J10" s="254"/>
-      <c r="K10" s="258"/>
-      <c r="L10" s="259"/>
-      <c r="M10" s="259"/>
-      <c r="N10" s="259"/>
-      <c r="O10" s="259"/>
-      <c r="P10" s="259"/>
-      <c r="Q10" s="259"/>
-      <c r="R10" s="259"/>
-      <c r="S10" s="259"/>
-      <c r="T10" s="259"/>
-      <c r="U10" s="259"/>
-      <c r="V10" s="259"/>
-      <c r="W10" s="260"/>
-      <c r="X10" s="261"/>
-      <c r="Y10" s="262"/>
-      <c r="Z10" s="262"/>
-      <c r="AA10" s="262"/>
-      <c r="AB10" s="262"/>
-      <c r="AC10" s="263"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="230"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="229"/>
+      <c r="K10" s="232"/>
+      <c r="L10" s="233"/>
+      <c r="M10" s="233"/>
+      <c r="N10" s="233"/>
+      <c r="O10" s="233"/>
+      <c r="P10" s="233"/>
+      <c r="Q10" s="233"/>
+      <c r="R10" s="233"/>
+      <c r="S10" s="233"/>
+      <c r="T10" s="233"/>
+      <c r="U10" s="233"/>
+      <c r="V10" s="233"/>
+      <c r="W10" s="234"/>
+      <c r="X10" s="235"/>
+      <c r="Y10" s="236"/>
+      <c r="Z10" s="236"/>
+      <c r="AA10" s="236"/>
+      <c r="AB10" s="236"/>
+      <c r="AC10" s="237"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="257"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="254"/>
-      <c r="F11" s="255"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="257"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="254"/>
-      <c r="K11" s="258"/>
-      <c r="L11" s="259"/>
-      <c r="M11" s="259"/>
-      <c r="N11" s="259"/>
-      <c r="O11" s="259"/>
-      <c r="P11" s="259"/>
-      <c r="Q11" s="259"/>
-      <c r="R11" s="259"/>
-      <c r="S11" s="259"/>
-      <c r="T11" s="259"/>
-      <c r="U11" s="259"/>
-      <c r="V11" s="259"/>
-      <c r="W11" s="260"/>
-      <c r="X11" s="261"/>
-      <c r="Y11" s="262"/>
-      <c r="Z11" s="262"/>
-      <c r="AA11" s="262"/>
-      <c r="AB11" s="262"/>
-      <c r="AC11" s="263"/>
+      <c r="B11" s="227"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="230"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="227"/>
+      <c r="I11" s="228"/>
+      <c r="J11" s="229"/>
+      <c r="K11" s="232"/>
+      <c r="L11" s="233"/>
+      <c r="M11" s="233"/>
+      <c r="N11" s="233"/>
+      <c r="O11" s="233"/>
+      <c r="P11" s="233"/>
+      <c r="Q11" s="233"/>
+      <c r="R11" s="233"/>
+      <c r="S11" s="233"/>
+      <c r="T11" s="233"/>
+      <c r="U11" s="233"/>
+      <c r="V11" s="233"/>
+      <c r="W11" s="234"/>
+      <c r="X11" s="235"/>
+      <c r="Y11" s="236"/>
+      <c r="Z11" s="236"/>
+      <c r="AA11" s="236"/>
+      <c r="AB11" s="236"/>
+      <c r="AC11" s="237"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="257"/>
-      <c r="C12" s="253"/>
-      <c r="D12" s="253"/>
-      <c r="E12" s="254"/>
-      <c r="F12" s="255"/>
-      <c r="G12" s="256"/>
-      <c r="H12" s="257"/>
-      <c r="I12" s="253"/>
-      <c r="J12" s="254"/>
-      <c r="K12" s="258"/>
-      <c r="L12" s="259"/>
-      <c r="M12" s="259"/>
-      <c r="N12" s="259"/>
-      <c r="O12" s="259"/>
-      <c r="P12" s="259"/>
-      <c r="Q12" s="259"/>
-      <c r="R12" s="259"/>
-      <c r="S12" s="259"/>
-      <c r="T12" s="259"/>
-      <c r="U12" s="259"/>
-      <c r="V12" s="259"/>
-      <c r="W12" s="260"/>
-      <c r="X12" s="261"/>
-      <c r="Y12" s="262"/>
-      <c r="Z12" s="262"/>
-      <c r="AA12" s="262"/>
-      <c r="AB12" s="262"/>
-      <c r="AC12" s="263"/>
+      <c r="B12" s="227"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="229"/>
+      <c r="K12" s="232"/>
+      <c r="L12" s="233"/>
+      <c r="M12" s="233"/>
+      <c r="N12" s="233"/>
+      <c r="O12" s="233"/>
+      <c r="P12" s="233"/>
+      <c r="Q12" s="233"/>
+      <c r="R12" s="233"/>
+      <c r="S12" s="233"/>
+      <c r="T12" s="233"/>
+      <c r="U12" s="233"/>
+      <c r="V12" s="233"/>
+      <c r="W12" s="234"/>
+      <c r="X12" s="235"/>
+      <c r="Y12" s="236"/>
+      <c r="Z12" s="236"/>
+      <c r="AA12" s="236"/>
+      <c r="AB12" s="236"/>
+      <c r="AC12" s="237"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -23380,31 +23377,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -23419,11 +23396,31 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23523,15 +23520,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="282" t="s">
+      <c r="C4" s="288" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="283"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="289"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -23544,13 +23541,13 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="282"/>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="283"/>
+      <c r="C5" s="288"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="289"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -23584,15 +23581,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="282" t="s">
+      <c r="C7" s="288" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="283"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="289"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -23626,15 +23623,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="282" t="s">
+      <c r="C9" s="288" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="283"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="289"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -23697,19 +23694,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="292" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="293"/>
+      <c r="D13" s="293"/>
+      <c r="E13" s="293"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="293"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="294"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -23738,11 +23735,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="281" t="s">
+      <c r="J14" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="281"/>
-      <c r="L14" s="281"/>
+      <c r="K14" s="291"/>
+      <c r="L14" s="291"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -23767,11 +23764,11 @@
       <c r="I15" s="130" t="s">
         <v>445</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="298" t="s">
         <v>371</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -23916,11 +23913,11 @@
     </row>
     <row r="24" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="179"/>
-      <c r="B24" s="295" t="s">
+      <c r="B24" s="302" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="295"/>
-      <c r="D24" s="295"/>
+      <c r="C24" s="302"/>
+      <c r="D24" s="302"/>
       <c r="E24" s="180"/>
       <c r="F24" s="181"/>
       <c r="G24" s="180"/>
@@ -23935,12 +23932,12 @@
     </row>
     <row r="25" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="174"/>
-      <c r="B25" s="287" t="s">
+      <c r="B25" s="295" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="288"/>
-      <c r="D25" s="288"/>
-      <c r="E25" s="289"/>
+      <c r="C25" s="296"/>
+      <c r="D25" s="296"/>
+      <c r="E25" s="297"/>
       <c r="F25" s="175" t="s">
         <v>125</v>
       </c>
@@ -24032,10 +24029,10 @@
       <c r="A28" s="154"/>
       <c r="B28" s="168"/>
       <c r="C28" s="172"/>
-      <c r="D28" s="282" t="s">
+      <c r="D28" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="E28" s="283"/>
+      <c r="E28" s="289"/>
       <c r="F28" s="162" t="s">
         <v>330</v>
       </c>
@@ -24065,10 +24062,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="163"/>
-      <c r="D29" s="282" t="s">
+      <c r="D29" s="288" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="283"/>
+      <c r="E29" s="289"/>
       <c r="F29" s="162" t="s">
         <v>173</v>
       </c>
@@ -24131,8 +24128,8 @@
       <c r="A31" s="154"/>
       <c r="B31" s="164"/>
       <c r="C31" s="163"/>
-      <c r="D31" s="282"/>
-      <c r="E31" s="283"/>
+      <c r="D31" s="288"/>
+      <c r="E31" s="289"/>
       <c r="F31" s="162"/>
       <c r="G31" s="161"/>
       <c r="H31" s="161"/>
@@ -24454,11 +24451,11 @@
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="154"/>
-      <c r="B50" s="292" t="s">
+      <c r="B50" s="299" t="s">
         <v>333</v>
       </c>
-      <c r="C50" s="292"/>
-      <c r="D50" s="292"/>
+      <c r="C50" s="299"/>
+      <c r="D50" s="299"/>
       <c r="E50" s="154"/>
       <c r="F50" s="154"/>
       <c r="G50" s="154"/>
@@ -24475,12 +24472,12 @@
     </row>
     <row r="51" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="174"/>
-      <c r="B51" s="287" t="s">
+      <c r="B51" s="295" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="288"/>
-      <c r="D51" s="288"/>
-      <c r="E51" s="289"/>
+      <c r="C51" s="296"/>
+      <c r="D51" s="296"/>
+      <c r="E51" s="297"/>
       <c r="F51" s="175" t="s">
         <v>125</v>
       </c>
@@ -24572,10 +24569,10 @@
       <c r="A54" s="154"/>
       <c r="B54" s="168"/>
       <c r="C54" s="172"/>
-      <c r="D54" s="282" t="s">
+      <c r="D54" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="E54" s="283"/>
+      <c r="E54" s="289"/>
       <c r="F54" s="162" t="s">
         <v>330</v>
       </c>
@@ -24605,10 +24602,10 @@
       <c r="A55" s="154"/>
       <c r="B55" s="168"/>
       <c r="C55" s="172"/>
-      <c r="D55" s="282" t="s">
+      <c r="D55" s="288" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="283"/>
+      <c r="E55" s="289"/>
       <c r="F55" s="162" t="s">
         <v>189</v>
       </c>
@@ -24638,10 +24635,10 @@
       <c r="A56" s="154"/>
       <c r="B56" s="168"/>
       <c r="C56" s="172"/>
-      <c r="D56" s="296" t="s">
+      <c r="D56" s="303" t="s">
         <v>194</v>
       </c>
-      <c r="E56" s="283"/>
+      <c r="E56" s="289"/>
       <c r="F56" s="162" t="s">
         <v>192</v>
       </c>
@@ -24735,8 +24732,8 @@
       <c r="A59" s="154"/>
       <c r="B59" s="164"/>
       <c r="C59" s="163"/>
-      <c r="D59" s="282"/>
-      <c r="E59" s="283"/>
+      <c r="D59" s="288"/>
+      <c r="E59" s="289"/>
       <c r="F59" s="162"/>
       <c r="G59" s="161"/>
       <c r="H59" s="161"/>
@@ -25126,6 +25123,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="D28:E28"/>
@@ -25137,13 +25141,6 @@
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -25240,15 +25237,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="282" t="s">
+      <c r="C4" s="288" t="s">
         <v>386</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="283"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="289"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -25261,15 +25258,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="282" t="s">
+      <c r="C5" s="288" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="283"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="289"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -25303,15 +25300,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="282" t="s">
+      <c r="C7" s="288" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="283"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="289"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -25345,15 +25342,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="282" t="s">
+      <c r="C9" s="288" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="283"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="289"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -25416,19 +25413,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="292" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="293"/>
+      <c r="D13" s="293"/>
+      <c r="E13" s="293"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="293"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="294"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -25457,11 +25454,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="281" t="s">
+      <c r="J14" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="281"/>
-      <c r="L14" s="281"/>
+      <c r="K14" s="291"/>
+      <c r="L14" s="291"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -25486,11 +25483,11 @@
       <c r="I15" s="196" t="s">
         <v>383</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="304" t="s">
         <v>382</v>
       </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="K15" s="304"/>
+      <c r="L15" s="304"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -25652,11 +25649,11 @@
     </row>
     <row r="25" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="179"/>
-      <c r="B25" s="295" t="s">
+      <c r="B25" s="302" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="295"/>
-      <c r="D25" s="295"/>
+      <c r="C25" s="302"/>
+      <c r="D25" s="302"/>
       <c r="E25" s="180"/>
       <c r="F25" s="181"/>
       <c r="G25" s="180"/>
@@ -25671,12 +25668,12 @@
     </row>
     <row r="26" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="287" t="s">
+      <c r="B26" s="295" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="288"/>
-      <c r="D26" s="288"/>
-      <c r="E26" s="289"/>
+      <c r="C26" s="296"/>
+      <c r="D26" s="296"/>
+      <c r="E26" s="297"/>
       <c r="F26" s="175" t="s">
         <v>125</v>
       </c>
@@ -25768,10 +25765,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="172"/>
-      <c r="D29" s="282" t="s">
+      <c r="D29" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="283"/>
+      <c r="E29" s="289"/>
       <c r="F29" s="162" t="s">
         <v>330</v>
       </c>
@@ -25801,10 +25798,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="163"/>
-      <c r="D30" s="282" t="s">
+      <c r="D30" s="288" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="283"/>
+      <c r="E30" s="289"/>
       <c r="F30" s="162" t="s">
         <v>173</v>
       </c>
@@ -25867,10 +25864,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="171"/>
-      <c r="D32" s="282" t="s">
+      <c r="D32" s="288" t="s">
         <v>351</v>
       </c>
-      <c r="E32" s="283"/>
+      <c r="E32" s="289"/>
       <c r="F32" s="162" t="s">
         <v>175</v>
       </c>
@@ -25900,10 +25897,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="293" t="s">
+      <c r="D33" s="300" t="s">
         <v>348</v>
       </c>
-      <c r="E33" s="294"/>
+      <c r="E33" s="301"/>
       <c r="F33" s="162" t="s">
         <v>347</v>
       </c>
@@ -25933,10 +25930,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="172"/>
-      <c r="D34" s="282" t="s">
+      <c r="D34" s="288" t="s">
         <v>345</v>
       </c>
-      <c r="E34" s="283"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="162" t="s">
         <v>344</v>
       </c>
@@ -26996,11 +26993,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D32:E32"/>
@@ -27010,6 +27002,11 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -27704,7 +27701,7 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="311" t="s">
         <v>212</v>
       </c>
       <c r="D4" s="312"/>
@@ -27712,7 +27709,7 @@
       <c r="F4" s="312"/>
       <c r="G4" s="312"/>
       <c r="H4" s="312"/>
-      <c r="I4" s="299"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -27725,7 +27722,7 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="311" t="s">
         <v>280</v>
       </c>
       <c r="D5" s="312"/>
@@ -27733,7 +27730,7 @@
       <c r="F5" s="312"/>
       <c r="G5" s="312"/>
       <c r="H5" s="312"/>
-      <c r="I5" s="299"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -27767,7 +27764,7 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="298" t="s">
+      <c r="C7" s="314" t="s">
         <v>156</v>
       </c>
       <c r="D7" s="312"/>
@@ -27775,7 +27772,7 @@
       <c r="F7" s="312"/>
       <c r="G7" s="312"/>
       <c r="H7" s="312"/>
-      <c r="I7" s="299"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -27809,7 +27806,7 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="298" t="s">
+      <c r="C9" s="314" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="312"/>
@@ -27817,7 +27814,7 @@
       <c r="F9" s="312"/>
       <c r="G9" s="312"/>
       <c r="H9" s="312"/>
-      <c r="I9" s="299"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -27880,19 +27877,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="313" t="s">
+      <c r="B13" s="315" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="314"/>
-      <c r="I13" s="314"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="316"/>
+      <c r="L13" s="317"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27921,11 +27918,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="316" t="s">
+      <c r="J14" s="318" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -27950,11 +27947,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="309" t="s">
+      <c r="J15" s="305" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="306"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -27983,9 +27980,9 @@
       <c r="I16" s="130" t="s">
         <v>287</v>
       </c>
-      <c r="J16" s="310"/>
-      <c r="K16" s="310"/>
-      <c r="L16" s="310"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="306"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -28176,11 +28173,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="311" t="s">
+      <c r="B27" s="307" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="311"/>
-      <c r="D27" s="311"/>
+      <c r="C27" s="307"/>
+      <c r="D27" s="307"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -28195,12 +28192,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="304" t="s">
+      <c r="B28" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="305"/>
-      <c r="D28" s="305"/>
-      <c r="E28" s="306"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
+      <c r="E28" s="310"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -28292,10 +28289,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="298" t="s">
+      <c r="D31" s="314" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="299"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -28325,10 +28322,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="298" t="s">
+      <c r="D32" s="314" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="299"/>
+      <c r="E32" s="313"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -28391,10 +28388,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="300" t="s">
+      <c r="D34" s="311" t="s">
         <v>290</v>
       </c>
-      <c r="E34" s="299"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -28424,10 +28421,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="301" t="s">
+      <c r="D35" s="319" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="302"/>
+      <c r="E35" s="320"/>
       <c r="F35" s="105" t="s">
         <v>284</v>
       </c>
@@ -28817,11 +28814,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="303" t="s">
+      <c r="B56" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="303"/>
-      <c r="D56" s="303"/>
+      <c r="C56" s="321"/>
+      <c r="D56" s="321"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -28838,12 +28835,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="304" t="s">
+      <c r="B57" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="305"/>
-      <c r="D57" s="305"/>
-      <c r="E57" s="306"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="309"/>
+      <c r="E57" s="310"/>
       <c r="F57" s="115" t="s">
         <v>125</v>
       </c>
@@ -28935,10 +28932,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="300" t="s">
+      <c r="D60" s="311" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="299"/>
+      <c r="E60" s="313"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -28968,10 +28965,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="300" t="s">
+      <c r="D61" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="307"/>
+      <c r="E61" s="322"/>
       <c r="F61" s="105" t="s">
         <v>189</v>
       </c>
@@ -29001,10 +28998,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="308" t="s">
+      <c r="D62" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="307"/>
+      <c r="E62" s="322"/>
       <c r="F62" s="105" t="s">
         <v>192</v>
       </c>
@@ -29098,8 +29095,8 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="92"/>
-      <c r="D65" s="298"/>
-      <c r="E65" s="299"/>
+      <c r="D65" s="314"/>
+      <c r="E65" s="313"/>
       <c r="F65" s="74"/>
       <c r="G65" s="76"/>
       <c r="H65" s="76"/>
@@ -29489,6 +29486,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B27:D27"/>
@@ -29499,16 +29506,6 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -29606,7 +29603,7 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="311" t="s">
         <v>293</v>
       </c>
       <c r="D4" s="312"/>
@@ -29614,7 +29611,7 @@
       <c r="F4" s="312"/>
       <c r="G4" s="312"/>
       <c r="H4" s="312"/>
-      <c r="I4" s="299"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -29627,7 +29624,7 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="311" t="s">
         <v>294</v>
       </c>
       <c r="D5" s="312"/>
@@ -29635,7 +29632,7 @@
       <c r="F5" s="312"/>
       <c r="G5" s="312"/>
       <c r="H5" s="312"/>
-      <c r="I5" s="299"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -29669,7 +29666,7 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="311" t="s">
         <v>204</v>
       </c>
       <c r="D7" s="312"/>
@@ -29677,7 +29674,7 @@
       <c r="F7" s="312"/>
       <c r="G7" s="312"/>
       <c r="H7" s="312"/>
-      <c r="I7" s="299"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -29711,7 +29708,7 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="298" t="s">
+      <c r="C9" s="314" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="312"/>
@@ -29719,7 +29716,7 @@
       <c r="F9" s="312"/>
       <c r="G9" s="312"/>
       <c r="H9" s="312"/>
-      <c r="I9" s="299"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -29782,19 +29779,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="313" t="s">
+      <c r="B13" s="315" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="314"/>
-      <c r="I13" s="314"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="316"/>
+      <c r="L13" s="317"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29823,11 +29820,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="316" t="s">
+      <c r="J14" s="318" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29852,11 +29849,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="309" t="s">
+      <c r="J15" s="305" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="306"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -29881,9 +29878,9 @@
       <c r="I16" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="309"/>
-      <c r="K16" s="310"/>
-      <c r="L16" s="310"/>
+      <c r="J16" s="305"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="306"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -30045,11 +30042,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="311" t="s">
+      <c r="B26" s="307" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="311"/>
-      <c r="D26" s="311"/>
+      <c r="C26" s="307"/>
+      <c r="D26" s="307"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -30064,12 +30061,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="306"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
+      <c r="E27" s="310"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -30161,10 +30158,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="298" t="s">
+      <c r="D30" s="314" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="299"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -30194,10 +30191,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="298" t="s">
+      <c r="D31" s="314" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="299"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -30260,10 +30257,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="298" t="s">
+      <c r="D33" s="314" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="299"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="74" t="s">
         <v>141</v>
       </c>
@@ -30293,10 +30290,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="300" t="s">
+      <c r="D34" s="311" t="s">
         <v>296</v>
       </c>
-      <c r="E34" s="299"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -30380,10 +30377,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="318" t="s">
+      <c r="D37" s="325" t="s">
         <v>305</v>
       </c>
-      <c r="E37" s="319"/>
+      <c r="E37" s="326"/>
       <c r="F37" s="139" t="s">
         <v>304</v>
       </c>
@@ -30715,11 +30712,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="303" t="s">
+      <c r="B56" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="303"/>
-      <c r="D56" s="303"/>
+      <c r="C56" s="321"/>
+      <c r="D56" s="321"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -30736,12 +30733,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="304" t="s">
+      <c r="B57" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="305"/>
-      <c r="D57" s="305"/>
-      <c r="E57" s="306"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="309"/>
+      <c r="E57" s="310"/>
       <c r="F57" s="115" t="s">
         <v>125</v>
       </c>
@@ -30833,10 +30830,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="300" t="s">
+      <c r="D60" s="311" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="299"/>
+      <c r="E60" s="313"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -30866,10 +30863,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="300" t="s">
+      <c r="D61" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="307"/>
+      <c r="E61" s="322"/>
       <c r="F61" s="105" t="s">
         <v>189</v>
       </c>
@@ -30899,10 +30896,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="308" t="s">
+      <c r="D62" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="307"/>
+      <c r="E62" s="322"/>
       <c r="F62" s="105" t="s">
         <v>192</v>
       </c>
@@ -30967,8 +30964,8 @@
       <c r="C64" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="D64" s="317"/>
-      <c r="E64" s="317"/>
+      <c r="D64" s="324"/>
+      <c r="E64" s="324"/>
       <c r="F64" s="74" t="s">
         <v>168</v>
       </c>
@@ -30996,10 +30993,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="77"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="298" t="s">
+      <c r="D65" s="314" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="299"/>
+      <c r="E65" s="313"/>
       <c r="F65" s="74" t="s">
         <v>141</v>
       </c>
@@ -31029,10 +31026,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="77"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="300" t="s">
+      <c r="D66" s="311" t="s">
         <v>296</v>
       </c>
-      <c r="E66" s="299"/>
+      <c r="E66" s="313"/>
       <c r="F66" s="105" t="s">
         <v>273</v>
       </c>
@@ -31116,10 +31113,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="77"/>
       <c r="C69" s="86"/>
-      <c r="D69" s="318" t="s">
+      <c r="D69" s="325" t="s">
         <v>305</v>
       </c>
-      <c r="E69" s="319"/>
+      <c r="E69" s="326"/>
       <c r="F69" s="139" t="s">
         <v>304</v>
       </c>
@@ -31502,16 +31499,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D69:E69"/>
@@ -31526,6 +31513,16 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B56:D56"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -31623,7 +31620,7 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="311" t="s">
         <v>299</v>
       </c>
       <c r="D4" s="312"/>
@@ -31631,7 +31628,7 @@
       <c r="F4" s="312"/>
       <c r="G4" s="312"/>
       <c r="H4" s="312"/>
-      <c r="I4" s="299"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31644,7 +31641,7 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="311" t="s">
         <v>300</v>
       </c>
       <c r="D5" s="312"/>
@@ -31652,7 +31649,7 @@
       <c r="F5" s="312"/>
       <c r="G5" s="312"/>
       <c r="H5" s="312"/>
-      <c r="I5" s="299"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31686,7 +31683,7 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="311" t="s">
         <v>204</v>
       </c>
       <c r="D7" s="312"/>
@@ -31694,7 +31691,7 @@
       <c r="F7" s="312"/>
       <c r="G7" s="312"/>
       <c r="H7" s="312"/>
-      <c r="I7" s="299"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31728,7 +31725,7 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="298" t="s">
+      <c r="C9" s="314" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="312"/>
@@ -31736,7 +31733,7 @@
       <c r="F9" s="312"/>
       <c r="G9" s="312"/>
       <c r="H9" s="312"/>
-      <c r="I9" s="299"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31799,19 +31796,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="313" t="s">
+      <c r="B13" s="315" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="314"/>
-      <c r="I13" s="314"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="316"/>
+      <c r="L13" s="317"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31840,11 +31837,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="316" t="s">
+      <c r="J14" s="318" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31869,11 +31866,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="309" t="s">
+      <c r="J15" s="305" t="s">
         <v>302</v>
       </c>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="306"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31898,9 +31895,9 @@
       <c r="I16" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="309"/>
-      <c r="K16" s="310"/>
-      <c r="L16" s="310"/>
+      <c r="J16" s="305"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="306"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -32062,11 +32059,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="311" t="s">
+      <c r="B26" s="307" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="311"/>
-      <c r="D26" s="311"/>
+      <c r="C26" s="307"/>
+      <c r="D26" s="307"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -32081,12 +32078,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="306"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
+      <c r="E27" s="310"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -32178,10 +32175,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="298" t="s">
+      <c r="D30" s="314" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="299"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -32211,10 +32208,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="298" t="s">
+      <c r="D31" s="314" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="299"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -32277,10 +32274,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="298" t="s">
+      <c r="D33" s="314" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="299"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="74" t="s">
         <v>141</v>
       </c>
@@ -32310,10 +32307,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="300" t="s">
+      <c r="D34" s="311" t="s">
         <v>296</v>
       </c>
-      <c r="E34" s="299"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -32397,10 +32394,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="318" t="s">
+      <c r="D37" s="325" t="s">
         <v>305</v>
       </c>
-      <c r="E37" s="319"/>
+      <c r="E37" s="326"/>
       <c r="F37" s="137" t="s">
         <v>304</v>
       </c>
@@ -32732,11 +32729,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="303" t="s">
+      <c r="B56" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="303"/>
-      <c r="D56" s="303"/>
+      <c r="C56" s="321"/>
+      <c r="D56" s="321"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -32753,12 +32750,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="304" t="s">
+      <c r="B57" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="305"/>
-      <c r="D57" s="305"/>
-      <c r="E57" s="306"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="309"/>
+      <c r="E57" s="310"/>
       <c r="F57" s="151" t="s">
         <v>125</v>
       </c>
@@ -32850,10 +32847,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="300" t="s">
+      <c r="D60" s="311" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="299"/>
+      <c r="E60" s="313"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -32883,10 +32880,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="300" t="s">
+      <c r="D61" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="307"/>
+      <c r="E61" s="322"/>
       <c r="F61" s="105" t="s">
         <v>189</v>
       </c>
@@ -32916,10 +32913,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="308" t="s">
+      <c r="D62" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="307"/>
+      <c r="E62" s="322"/>
       <c r="F62" s="105" t="s">
         <v>192</v>
       </c>
@@ -32984,8 +32981,8 @@
       <c r="C64" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="D64" s="317"/>
-      <c r="E64" s="317"/>
+      <c r="D64" s="324"/>
+      <c r="E64" s="324"/>
       <c r="F64" s="74" t="s">
         <v>168</v>
       </c>
@@ -33013,10 +33010,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="77"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="298" t="s">
+      <c r="D65" s="314" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="299"/>
+      <c r="E65" s="313"/>
       <c r="F65" s="74" t="s">
         <v>141</v>
       </c>
@@ -33046,10 +33043,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="77"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="300" t="s">
+      <c r="D66" s="311" t="s">
         <v>296</v>
       </c>
-      <c r="E66" s="299"/>
+      <c r="E66" s="313"/>
       <c r="F66" s="105" t="s">
         <v>273</v>
       </c>
@@ -33133,10 +33130,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="77"/>
       <c r="C69" s="86"/>
-      <c r="D69" s="318" t="s">
+      <c r="D69" s="325" t="s">
         <v>305</v>
       </c>
-      <c r="E69" s="319"/>
+      <c r="E69" s="326"/>
       <c r="F69" s="139" t="s">
         <v>304</v>
       </c>
@@ -33493,6 +33490,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
@@ -33506,17 +33514,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -33614,7 +33611,7 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="311" t="s">
         <v>315</v>
       </c>
       <c r="D4" s="312"/>
@@ -33622,7 +33619,7 @@
       <c r="F4" s="312"/>
       <c r="G4" s="312"/>
       <c r="H4" s="312"/>
-      <c r="I4" s="299"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33635,7 +33632,7 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="311" t="s">
         <v>316</v>
       </c>
       <c r="D5" s="312"/>
@@ -33643,7 +33640,7 @@
       <c r="F5" s="312"/>
       <c r="G5" s="312"/>
       <c r="H5" s="312"/>
-      <c r="I5" s="299"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -33677,7 +33674,7 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="311" t="s">
         <v>204</v>
       </c>
       <c r="D7" s="312"/>
@@ -33685,7 +33682,7 @@
       <c r="F7" s="312"/>
       <c r="G7" s="312"/>
       <c r="H7" s="312"/>
-      <c r="I7" s="299"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -33719,7 +33716,7 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="298" t="s">
+      <c r="C9" s="314" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="312"/>
@@ -33727,7 +33724,7 @@
       <c r="F9" s="312"/>
       <c r="G9" s="312"/>
       <c r="H9" s="312"/>
-      <c r="I9" s="299"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -33790,19 +33787,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="313" t="s">
+      <c r="B13" s="315" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="314"/>
-      <c r="I13" s="314"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="316"/>
+      <c r="L13" s="317"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33831,11 +33828,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="316" t="s">
+      <c r="J14" s="318" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -33860,11 +33857,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="309" t="s">
+      <c r="J15" s="305" t="s">
         <v>318</v>
       </c>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="306"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -33889,9 +33886,9 @@
       <c r="I16" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="310"/>
-      <c r="K16" s="310"/>
-      <c r="L16" s="310"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="306"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -34109,11 +34106,11 @@
     </row>
     <row r="28" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="69"/>
-      <c r="B28" s="311" t="s">
+      <c r="B28" s="307" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="311"/>
-      <c r="D28" s="311"/>
+      <c r="C28" s="307"/>
+      <c r="D28" s="307"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="G28" s="80"/>
@@ -34128,12 +34125,12 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="83"/>
-      <c r="B29" s="304" t="s">
+      <c r="B29" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="305"/>
-      <c r="D29" s="305"/>
-      <c r="E29" s="306"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="309"/>
+      <c r="E29" s="310"/>
       <c r="F29" s="115" t="s">
         <v>125</v>
       </c>
@@ -34225,10 +34222,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="90"/>
-      <c r="D32" s="298" t="s">
+      <c r="D32" s="314" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="299"/>
+      <c r="E32" s="313"/>
       <c r="F32" s="74" t="s">
         <v>139</v>
       </c>
@@ -34258,10 +34255,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="298" t="s">
+      <c r="D33" s="314" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="299"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="74" t="s">
         <v>173</v>
       </c>
@@ -34324,10 +34321,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="300" t="s">
+      <c r="D35" s="311" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="299"/>
+      <c r="E35" s="313"/>
       <c r="F35" s="105" t="s">
         <v>273</v>
       </c>
@@ -34357,10 +34354,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="301" t="s">
+      <c r="D36" s="319" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="302"/>
+      <c r="E36" s="320"/>
       <c r="F36" s="105" t="s">
         <v>284</v>
       </c>
@@ -34444,10 +34441,10 @@
       <c r="A39" s="66"/>
       <c r="B39" s="85"/>
       <c r="C39" s="95"/>
-      <c r="D39" s="318" t="s">
+      <c r="D39" s="325" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="319"/>
+      <c r="E39" s="326"/>
       <c r="F39" s="137" t="s">
         <v>286</v>
       </c>
@@ -34779,11 +34776,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="303" t="s">
+      <c r="B58" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="303"/>
-      <c r="D58" s="303"/>
+      <c r="C58" s="321"/>
+      <c r="D58" s="321"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -34800,12 +34797,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="304" t="s">
+      <c r="B59" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="305"/>
-      <c r="D59" s="305"/>
-      <c r="E59" s="306"/>
+      <c r="C59" s="309"/>
+      <c r="D59" s="309"/>
+      <c r="E59" s="310"/>
       <c r="F59" s="115" t="s">
         <v>125</v>
       </c>
@@ -34897,10 +34894,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="300" t="s">
+      <c r="D62" s="311" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="299"/>
+      <c r="E62" s="313"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -34930,10 +34927,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="300" t="s">
+      <c r="D63" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="307"/>
+      <c r="E63" s="322"/>
       <c r="F63" s="105" t="s">
         <v>189</v>
       </c>
@@ -34963,10 +34960,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="308" t="s">
+      <c r="D64" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="307"/>
+      <c r="E64" s="322"/>
       <c r="F64" s="105" t="s">
         <v>192</v>
       </c>
@@ -35060,10 +35057,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="93"/>
       <c r="C67" s="86"/>
-      <c r="D67" s="300" t="s">
+      <c r="D67" s="311" t="s">
         <v>290</v>
       </c>
-      <c r="E67" s="299"/>
+      <c r="E67" s="313"/>
       <c r="F67" s="105" t="s">
         <v>273</v>
       </c>
@@ -35093,10 +35090,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="93"/>
       <c r="C68" s="86"/>
-      <c r="D68" s="301" t="s">
+      <c r="D68" s="319" t="s">
         <v>283</v>
       </c>
-      <c r="E68" s="302"/>
+      <c r="E68" s="320"/>
       <c r="F68" s="105" t="s">
         <v>284</v>
       </c>
@@ -35180,10 +35177,10 @@
       <c r="A71" s="66"/>
       <c r="B71" s="66"/>
       <c r="C71" s="66"/>
-      <c r="D71" s="318" t="s">
+      <c r="D71" s="325" t="s">
         <v>285</v>
       </c>
-      <c r="E71" s="319"/>
+      <c r="E71" s="326"/>
       <c r="F71" s="137" t="s">
         <v>286</v>
       </c>
@@ -35211,8 +35208,8 @@
         <v>179</v>
       </c>
       <c r="C72" s="66"/>
-      <c r="D72" s="320"/>
-      <c r="E72" s="321"/>
+      <c r="D72" s="327"/>
+      <c r="E72" s="328"/>
       <c r="F72" s="75"/>
       <c r="G72" s="75"/>
       <c r="H72" s="75"/>
@@ -35515,6 +35512,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
@@ -35528,17 +35536,6 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D39:E39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -35636,7 +35633,7 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="311" t="s">
         <v>326</v>
       </c>
       <c r="D4" s="312"/>
@@ -35644,7 +35641,7 @@
       <c r="F4" s="312"/>
       <c r="G4" s="312"/>
       <c r="H4" s="312"/>
-      <c r="I4" s="299"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35657,7 +35654,7 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="311" t="s">
         <v>327</v>
       </c>
       <c r="D5" s="312"/>
@@ -35665,7 +35662,7 @@
       <c r="F5" s="312"/>
       <c r="G5" s="312"/>
       <c r="H5" s="312"/>
-      <c r="I5" s="299"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35699,7 +35696,7 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="311" t="s">
         <v>223</v>
       </c>
       <c r="D7" s="312"/>
@@ -35707,7 +35704,7 @@
       <c r="F7" s="312"/>
       <c r="G7" s="312"/>
       <c r="H7" s="312"/>
-      <c r="I7" s="299"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -35741,7 +35738,7 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="298" t="s">
+      <c r="C9" s="314" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="312"/>
@@ -35749,7 +35746,7 @@
       <c r="F9" s="312"/>
       <c r="G9" s="312"/>
       <c r="H9" s="312"/>
-      <c r="I9" s="299"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -35812,19 +35809,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="313" t="s">
+      <c r="B13" s="315" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="314"/>
-      <c r="I13" s="314"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="316"/>
+      <c r="L13" s="317"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -35853,11 +35850,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="316" t="s">
+      <c r="J14" s="318" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -35882,11 +35879,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="309" t="s">
+      <c r="J15" s="305" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="306"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -35911,9 +35908,9 @@
       <c r="I16" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="309"/>
-      <c r="K16" s="310"/>
-      <c r="L16" s="310"/>
+      <c r="J16" s="305"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="306"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -36075,11 +36072,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="311" t="s">
+      <c r="B26" s="307" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="311"/>
-      <c r="D26" s="311"/>
+      <c r="C26" s="307"/>
+      <c r="D26" s="307"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -36094,12 +36091,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="306"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
+      <c r="E27" s="310"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -36191,10 +36188,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="298" t="s">
+      <c r="D30" s="314" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="299"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -36224,10 +36221,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="298" t="s">
+      <c r="D31" s="314" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="299"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -36290,8 +36287,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="298"/>
-      <c r="E33" s="299"/>
+      <c r="D33" s="314"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="74"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -36613,11 +36610,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="303" t="s">
+      <c r="B52" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="303"/>
-      <c r="D52" s="303"/>
+      <c r="C52" s="321"/>
+      <c r="D52" s="321"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -36634,12 +36631,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="304" t="s">
+      <c r="B53" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="305"/>
-      <c r="D53" s="305"/>
-      <c r="E53" s="306"/>
+      <c r="C53" s="309"/>
+      <c r="D53" s="309"/>
+      <c r="E53" s="310"/>
       <c r="F53" s="115" t="s">
         <v>125</v>
       </c>
@@ -36731,10 +36728,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="300" t="s">
+      <c r="D56" s="311" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="299"/>
+      <c r="E56" s="313"/>
       <c r="F56" s="74" t="s">
         <v>139</v>
       </c>
@@ -36764,10 +36761,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="300" t="s">
+      <c r="D57" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="307"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="105" t="s">
         <v>189</v>
       </c>
@@ -36797,10 +36794,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="308" t="s">
+      <c r="D58" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="307"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="105" t="s">
         <v>192</v>
       </c>
@@ -37260,6 +37257,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -37272,12 +37275,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -37375,7 +37372,7 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="311" t="s">
         <v>217</v>
       </c>
       <c r="D4" s="312"/>
@@ -37383,7 +37380,7 @@
       <c r="F4" s="312"/>
       <c r="G4" s="312"/>
       <c r="H4" s="312"/>
-      <c r="I4" s="299"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -37396,7 +37393,7 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="311" t="s">
         <v>307</v>
       </c>
       <c r="D5" s="312"/>
@@ -37404,7 +37401,7 @@
       <c r="F5" s="312"/>
       <c r="G5" s="312"/>
       <c r="H5" s="312"/>
-      <c r="I5" s="299"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -37438,7 +37435,7 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="311" t="s">
         <v>205</v>
       </c>
       <c r="D7" s="312"/>
@@ -37446,7 +37443,7 @@
       <c r="F7" s="312"/>
       <c r="G7" s="312"/>
       <c r="H7" s="312"/>
-      <c r="I7" s="299"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -37480,7 +37477,7 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="298" t="s">
+      <c r="C9" s="314" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="312"/>
@@ -37488,7 +37485,7 @@
       <c r="F9" s="312"/>
       <c r="G9" s="312"/>
       <c r="H9" s="312"/>
-      <c r="I9" s="299"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -37551,19 +37548,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="313" t="s">
+      <c r="B13" s="315" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="314"/>
-      <c r="I13" s="314"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="316"/>
+      <c r="L13" s="317"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -37592,11 +37589,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="316" t="s">
+      <c r="J14" s="318" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -37611,9 +37608,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="130"/>
-      <c r="J15" s="309"/>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
+      <c r="J15" s="305"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="306"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37628,9 +37625,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="310"/>
-      <c r="K16" s="310"/>
-      <c r="L16" s="310"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="306"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -37809,11 +37806,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="311" t="s">
+      <c r="B27" s="307" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="311"/>
-      <c r="D27" s="311"/>
+      <c r="C27" s="307"/>
+      <c r="D27" s="307"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -37828,12 +37825,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="304" t="s">
+      <c r="B28" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="305"/>
-      <c r="D28" s="305"/>
-      <c r="E28" s="306"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
+      <c r="E28" s="310"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -37925,10 +37922,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="298" t="s">
+      <c r="D31" s="314" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="299"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -37958,10 +37955,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="298" t="s">
+      <c r="D32" s="314" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="299"/>
+      <c r="E32" s="313"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -38024,10 +38021,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="300" t="s">
+      <c r="D34" s="311" t="s">
         <v>290</v>
       </c>
-      <c r="E34" s="299"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -38057,10 +38054,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="301" t="s">
+      <c r="D35" s="319" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="302"/>
+      <c r="E35" s="320"/>
       <c r="F35" s="105" t="s">
         <v>284</v>
       </c>
@@ -38396,11 +38393,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="303" t="s">
+      <c r="B54" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="303"/>
-      <c r="D54" s="303"/>
+      <c r="C54" s="321"/>
+      <c r="D54" s="321"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -38417,12 +38414,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="304" t="s">
+      <c r="B55" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="305"/>
-      <c r="D55" s="305"/>
-      <c r="E55" s="306"/>
+      <c r="C55" s="309"/>
+      <c r="D55" s="309"/>
+      <c r="E55" s="310"/>
       <c r="F55" s="115" t="s">
         <v>125</v>
       </c>
@@ -38514,10 +38511,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="300" t="s">
+      <c r="D58" s="311" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="299"/>
+      <c r="E58" s="313"/>
       <c r="F58" s="74" t="s">
         <v>139</v>
       </c>
@@ -38547,10 +38544,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="300" t="s">
+      <c r="D59" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="307"/>
+      <c r="E59" s="322"/>
       <c r="F59" s="105" t="s">
         <v>189</v>
       </c>
@@ -38580,10 +38577,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="308" t="s">
+      <c r="D60" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="E60" s="307"/>
+      <c r="E60" s="322"/>
       <c r="F60" s="105" t="s">
         <v>192</v>
       </c>
@@ -38677,8 +38674,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="298"/>
-      <c r="E63" s="299"/>
+      <c r="D63" s="314"/>
+      <c r="E63" s="313"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -39068,6 +39065,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -39080,14 +39085,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39181,7 +39178,7 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="311" t="s">
         <v>310</v>
       </c>
       <c r="D4" s="312"/>
@@ -39189,7 +39186,7 @@
       <c r="F4" s="312"/>
       <c r="G4" s="312"/>
       <c r="H4" s="312"/>
-      <c r="I4" s="299"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -39202,13 +39199,13 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="300"/>
+      <c r="C5" s="311"/>
       <c r="D5" s="312"/>
       <c r="E5" s="312"/>
       <c r="F5" s="312"/>
       <c r="G5" s="312"/>
       <c r="H5" s="312"/>
-      <c r="I5" s="299"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -39242,7 +39239,7 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="311" t="s">
         <v>205</v>
       </c>
       <c r="D7" s="312"/>
@@ -39250,7 +39247,7 @@
       <c r="F7" s="312"/>
       <c r="G7" s="312"/>
       <c r="H7" s="312"/>
-      <c r="I7" s="299"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -39284,7 +39281,7 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="298" t="s">
+      <c r="C9" s="314" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="312"/>
@@ -39292,7 +39289,7 @@
       <c r="F9" s="312"/>
       <c r="G9" s="312"/>
       <c r="H9" s="312"/>
-      <c r="I9" s="299"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -39355,19 +39352,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="313" t="s">
+      <c r="B13" s="315" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="314"/>
-      <c r="I13" s="314"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="316"/>
+      <c r="L13" s="317"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -39396,11 +39393,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="316" t="s">
+      <c r="J14" s="318" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -39425,11 +39422,11 @@
       <c r="I15" s="131" t="s">
         <v>274</v>
       </c>
-      <c r="J15" s="309" t="s">
+      <c r="J15" s="305" t="s">
         <v>312</v>
       </c>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="306"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -39444,9 +39441,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="310"/>
-      <c r="K16" s="310"/>
-      <c r="L16" s="310"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="306"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -39625,11 +39622,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="311" t="s">
+      <c r="B27" s="307" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="311"/>
-      <c r="D27" s="311"/>
+      <c r="C27" s="307"/>
+      <c r="D27" s="307"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -39644,12 +39641,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="304" t="s">
+      <c r="B28" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="305"/>
-      <c r="D28" s="305"/>
-      <c r="E28" s="306"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
+      <c r="E28" s="310"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -39741,10 +39738,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="298" t="s">
+      <c r="D31" s="314" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="299"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -39774,10 +39771,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="298" t="s">
+      <c r="D32" s="314" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="299"/>
+      <c r="E32" s="313"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -39840,10 +39837,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="300" t="s">
+      <c r="D34" s="311" t="s">
         <v>272</v>
       </c>
-      <c r="E34" s="307"/>
+      <c r="E34" s="322"/>
       <c r="F34" s="105" t="s">
         <v>175</v>
       </c>
@@ -39869,10 +39866,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="300" t="s">
+      <c r="D35" s="311" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="299"/>
+      <c r="E35" s="313"/>
       <c r="F35" s="105" t="s">
         <v>273</v>
       </c>
@@ -39902,10 +39899,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="301" t="s">
+      <c r="D36" s="319" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="302"/>
+      <c r="E36" s="320"/>
       <c r="F36" s="105" t="s">
         <v>284</v>
       </c>
@@ -40241,11 +40238,11 @@
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="303" t="s">
+      <c r="B55" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="303"/>
-      <c r="D55" s="303"/>
+      <c r="C55" s="321"/>
+      <c r="D55" s="321"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
@@ -40262,12 +40259,12 @@
     </row>
     <row r="56" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="83"/>
-      <c r="B56" s="304" t="s">
+      <c r="B56" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="305"/>
-      <c r="D56" s="305"/>
-      <c r="E56" s="306"/>
+      <c r="C56" s="309"/>
+      <c r="D56" s="309"/>
+      <c r="E56" s="310"/>
       <c r="F56" s="115" t="s">
         <v>125</v>
       </c>
@@ -40359,10 +40356,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="300" t="s">
+      <c r="D59" s="311" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="299"/>
+      <c r="E59" s="313"/>
       <c r="F59" s="74" t="s">
         <v>139</v>
       </c>
@@ -40392,10 +40389,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="300" t="s">
+      <c r="D60" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="307"/>
+      <c r="E60" s="322"/>
       <c r="F60" s="105" t="s">
         <v>189</v>
       </c>
@@ -40425,10 +40422,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="308" t="s">
+      <c r="D61" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="307"/>
+      <c r="E61" s="322"/>
       <c r="F61" s="105" t="s">
         <v>192</v>
       </c>
@@ -40522,8 +40519,8 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="92"/>
-      <c r="D64" s="298"/>
-      <c r="E64" s="299"/>
+      <c r="D64" s="314"/>
+      <c r="E64" s="313"/>
       <c r="F64" s="74"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
@@ -40913,6 +40910,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -40925,15 +40931,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -40944,7 +40941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -41462,7 +41459,7 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="311" t="s">
         <v>227</v>
       </c>
       <c r="D4" s="312"/>
@@ -41470,7 +41467,7 @@
       <c r="F4" s="312"/>
       <c r="G4" s="312"/>
       <c r="H4" s="312"/>
-      <c r="I4" s="299"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -41483,7 +41480,7 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="311" t="s">
         <v>389</v>
       </c>
       <c r="D5" s="312"/>
@@ -41491,7 +41488,7 @@
       <c r="F5" s="312"/>
       <c r="G5" s="312"/>
       <c r="H5" s="312"/>
-      <c r="I5" s="299"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -41525,7 +41522,7 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="298" t="s">
+      <c r="C7" s="314" t="s">
         <v>156</v>
       </c>
       <c r="D7" s="312"/>
@@ -41533,7 +41530,7 @@
       <c r="F7" s="312"/>
       <c r="G7" s="312"/>
       <c r="H7" s="312"/>
-      <c r="I7" s="299"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41567,7 +41564,7 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="298" t="s">
+      <c r="C9" s="314" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="312"/>
@@ -41575,7 +41572,7 @@
       <c r="F9" s="312"/>
       <c r="G9" s="312"/>
       <c r="H9" s="312"/>
-      <c r="I9" s="299"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -41638,19 +41635,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="313" t="s">
+      <c r="B13" s="315" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="314"/>
-      <c r="I13" s="314"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="316"/>
+      <c r="L13" s="317"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -41679,11 +41676,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="316" t="s">
+      <c r="J14" s="318" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -41708,11 +41705,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="309" t="s">
+      <c r="J15" s="305" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="306"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -41737,9 +41734,9 @@
       <c r="I16" s="130" t="s">
         <v>392</v>
       </c>
-      <c r="J16" s="310"/>
-      <c r="K16" s="310"/>
-      <c r="L16" s="310"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="306"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -41930,11 +41927,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="311" t="s">
+      <c r="B27" s="307" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="311"/>
-      <c r="D27" s="311"/>
+      <c r="C27" s="307"/>
+      <c r="D27" s="307"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -41949,12 +41946,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="304" t="s">
+      <c r="B28" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="305"/>
-      <c r="D28" s="305"/>
-      <c r="E28" s="306"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
+      <c r="E28" s="310"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -42046,10 +42043,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="298" t="s">
+      <c r="D31" s="314" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="299"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -42079,10 +42076,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="298" t="s">
+      <c r="D32" s="314" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="299"/>
+      <c r="E32" s="313"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -42174,10 +42171,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="300" t="s">
+      <c r="D35" s="311" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="299"/>
+      <c r="E35" s="313"/>
       <c r="F35" s="105" t="s">
         <v>391</v>
       </c>
@@ -42207,10 +42204,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="301" t="s">
+      <c r="D36" s="319" t="s">
         <v>394</v>
       </c>
-      <c r="E36" s="302"/>
+      <c r="E36" s="320"/>
       <c r="F36" s="105" t="s">
         <v>273</v>
       </c>
@@ -42633,11 +42630,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="303" t="s">
+      <c r="B58" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="303"/>
-      <c r="D58" s="303"/>
+      <c r="C58" s="321"/>
+      <c r="D58" s="321"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -42654,12 +42651,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="304" t="s">
+      <c r="B59" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="305"/>
-      <c r="D59" s="305"/>
-      <c r="E59" s="306"/>
+      <c r="C59" s="309"/>
+      <c r="D59" s="309"/>
+      <c r="E59" s="310"/>
       <c r="F59" s="151" t="s">
         <v>125</v>
       </c>
@@ -42751,10 +42748,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="300" t="s">
+      <c r="D62" s="311" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="299"/>
+      <c r="E62" s="313"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -42784,10 +42781,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="300" t="s">
+      <c r="D63" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="307"/>
+      <c r="E63" s="322"/>
       <c r="F63" s="105" t="s">
         <v>189</v>
       </c>
@@ -42817,10 +42814,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="308" t="s">
+      <c r="D64" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="307"/>
+      <c r="E64" s="322"/>
       <c r="F64" s="105" t="s">
         <v>192</v>
       </c>
@@ -42914,8 +42911,8 @@
       <c r="A67" s="66"/>
       <c r="B67" s="91"/>
       <c r="C67" s="92"/>
-      <c r="D67" s="298"/>
-      <c r="E67" s="299"/>
+      <c r="D67" s="314"/>
+      <c r="E67" s="313"/>
       <c r="F67" s="74"/>
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
@@ -43305,6 +43302,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -43317,14 +43322,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -43422,7 +43419,7 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="311" t="s">
         <v>228</v>
       </c>
       <c r="D4" s="312"/>
@@ -43430,7 +43427,7 @@
       <c r="F4" s="312"/>
       <c r="G4" s="312"/>
       <c r="H4" s="312"/>
-      <c r="I4" s="299"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -43443,7 +43440,7 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="311" t="s">
         <v>402</v>
       </c>
       <c r="D5" s="312"/>
@@ -43451,7 +43448,7 @@
       <c r="F5" s="312"/>
       <c r="G5" s="312"/>
       <c r="H5" s="312"/>
-      <c r="I5" s="299"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -43485,7 +43482,7 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="311" t="s">
         <v>204</v>
       </c>
       <c r="D7" s="312"/>
@@ -43493,7 +43490,7 @@
       <c r="F7" s="312"/>
       <c r="G7" s="312"/>
       <c r="H7" s="312"/>
-      <c r="I7" s="299"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -43527,7 +43524,7 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="298" t="s">
+      <c r="C9" s="314" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="312"/>
@@ -43535,7 +43532,7 @@
       <c r="F9" s="312"/>
       <c r="G9" s="312"/>
       <c r="H9" s="312"/>
-      <c r="I9" s="299"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -43598,19 +43595,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="313" t="s">
+      <c r="B13" s="315" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="314"/>
-      <c r="I13" s="314"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="316"/>
+      <c r="L13" s="317"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -43639,11 +43636,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="316" t="s">
+      <c r="J14" s="318" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -43668,11 +43665,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="309" t="s">
+      <c r="J15" s="305" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="306"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -43894,11 +43891,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="311" t="s">
+      <c r="B27" s="307" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="311"/>
-      <c r="D27" s="311"/>
+      <c r="C27" s="307"/>
+      <c r="D27" s="307"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -43913,12 +43910,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="304" t="s">
+      <c r="B28" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="305"/>
-      <c r="D28" s="305"/>
-      <c r="E28" s="306"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
+      <c r="E28" s="310"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -44010,10 +44007,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="298" t="s">
+      <c r="D31" s="314" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="299"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -44043,10 +44040,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="298" t="s">
+      <c r="D32" s="314" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="299"/>
+      <c r="E32" s="313"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -44138,10 +44135,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="300" t="s">
+      <c r="D35" s="311" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="299"/>
+      <c r="E35" s="313"/>
       <c r="F35" s="105" t="s">
         <v>391</v>
       </c>
@@ -44171,10 +44168,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="301" t="s">
+      <c r="D36" s="319" t="s">
         <v>394</v>
       </c>
-      <c r="E36" s="302"/>
+      <c r="E36" s="320"/>
       <c r="F36" s="105" t="s">
         <v>273</v>
       </c>
@@ -44597,11 +44594,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="303" t="s">
+      <c r="B58" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="303"/>
-      <c r="D58" s="303"/>
+      <c r="C58" s="321"/>
+      <c r="D58" s="321"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -44618,12 +44615,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="304" t="s">
+      <c r="B59" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="305"/>
-      <c r="D59" s="305"/>
-      <c r="E59" s="306"/>
+      <c r="C59" s="309"/>
+      <c r="D59" s="309"/>
+      <c r="E59" s="310"/>
       <c r="F59" s="151" t="s">
         <v>125</v>
       </c>
@@ -44715,10 +44712,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="300" t="s">
+      <c r="D62" s="311" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="299"/>
+      <c r="E62" s="313"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -44748,10 +44745,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="300" t="s">
+      <c r="D63" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="307"/>
+      <c r="E63" s="322"/>
       <c r="F63" s="105" t="s">
         <v>189</v>
       </c>
@@ -44781,10 +44778,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="308" t="s">
+      <c r="D64" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="307"/>
+      <c r="E64" s="322"/>
       <c r="F64" s="105" t="s">
         <v>192</v>
       </c>
@@ -44907,10 +44904,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="85"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="300" t="s">
+      <c r="D68" s="311" t="s">
         <v>290</v>
       </c>
-      <c r="E68" s="299"/>
+      <c r="E68" s="313"/>
       <c r="F68" s="105" t="s">
         <v>391</v>
       </c>
@@ -44940,10 +44937,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="85"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="301" t="s">
+      <c r="D69" s="319" t="s">
         <v>394</v>
       </c>
-      <c r="E69" s="302"/>
+      <c r="E69" s="320"/>
       <c r="F69" s="105" t="s">
         <v>273</v>
       </c>
@@ -45396,6 +45393,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -45407,15 +45413,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -45512,7 +45509,7 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="311" t="s">
         <v>229</v>
       </c>
       <c r="D4" s="312"/>
@@ -45520,7 +45517,7 @@
       <c r="F4" s="312"/>
       <c r="G4" s="312"/>
       <c r="H4" s="312"/>
-      <c r="I4" s="299"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -45533,7 +45530,7 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="311" t="s">
         <v>407</v>
       </c>
       <c r="D5" s="312"/>
@@ -45541,7 +45538,7 @@
       <c r="F5" s="312"/>
       <c r="G5" s="312"/>
       <c r="H5" s="312"/>
-      <c r="I5" s="299"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -45575,7 +45572,7 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="311" t="s">
         <v>223</v>
       </c>
       <c r="D7" s="312"/>
@@ -45583,7 +45580,7 @@
       <c r="F7" s="312"/>
       <c r="G7" s="312"/>
       <c r="H7" s="312"/>
-      <c r="I7" s="299"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -45617,7 +45614,7 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="298" t="s">
+      <c r="C9" s="314" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="312"/>
@@ -45625,7 +45622,7 @@
       <c r="F9" s="312"/>
       <c r="G9" s="312"/>
       <c r="H9" s="312"/>
-      <c r="I9" s="299"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -45688,19 +45685,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="313" t="s">
+      <c r="B13" s="315" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="314"/>
-      <c r="I13" s="314"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="316"/>
+      <c r="L13" s="317"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45729,11 +45726,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="316" t="s">
+      <c r="J14" s="318" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45758,11 +45755,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="309" t="s">
+      <c r="J15" s="305" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="306"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -45953,11 +45950,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="311" t="s">
+      <c r="B26" s="307" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="311"/>
-      <c r="D26" s="311"/>
+      <c r="C26" s="307"/>
+      <c r="D26" s="307"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -45972,12 +45969,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="306"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
+      <c r="E27" s="310"/>
       <c r="F27" s="151" t="s">
         <v>125</v>
       </c>
@@ -46069,10 +46066,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="298" t="s">
+      <c r="D30" s="314" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="299"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -46102,10 +46099,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="298" t="s">
+      <c r="D31" s="314" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="299"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -46168,8 +46165,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="322"/>
-      <c r="E33" s="322"/>
+      <c r="D33" s="329"/>
+      <c r="E33" s="329"/>
       <c r="F33" s="105"/>
       <c r="G33" s="106"/>
       <c r="H33" s="76"/>
@@ -46491,11 +46488,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="303" t="s">
+      <c r="B52" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="303"/>
-      <c r="D52" s="303"/>
+      <c r="C52" s="321"/>
+      <c r="D52" s="321"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -46512,12 +46509,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="304" t="s">
+      <c r="B53" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="305"/>
-      <c r="D53" s="305"/>
-      <c r="E53" s="306"/>
+      <c r="C53" s="309"/>
+      <c r="D53" s="309"/>
+      <c r="E53" s="310"/>
       <c r="F53" s="151" t="s">
         <v>125</v>
       </c>
@@ -46609,10 +46606,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="300" t="s">
+      <c r="D56" s="311" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="299"/>
+      <c r="E56" s="313"/>
       <c r="F56" s="74" t="s">
         <v>139</v>
       </c>
@@ -46642,10 +46639,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="300" t="s">
+      <c r="D57" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="307"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="105" t="s">
         <v>189</v>
       </c>
@@ -46675,10 +46672,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="308" t="s">
+      <c r="D58" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="307"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="105" t="s">
         <v>192</v>
       </c>
@@ -46772,8 +46769,8 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="92"/>
-      <c r="D61" s="298"/>
-      <c r="E61" s="299"/>
+      <c r="D61" s="314"/>
+      <c r="E61" s="313"/>
       <c r="F61" s="74"/>
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
@@ -47163,17 +47160,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D33:E33"/>
@@ -47181,6 +47167,17 @@
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -47277,7 +47274,7 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="311" t="s">
         <v>409</v>
       </c>
       <c r="D4" s="312"/>
@@ -47285,7 +47282,7 @@
       <c r="F4" s="312"/>
       <c r="G4" s="312"/>
       <c r="H4" s="312"/>
-      <c r="I4" s="299"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -47298,7 +47295,7 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="311" t="s">
         <v>410</v>
       </c>
       <c r="D5" s="312"/>
@@ -47306,7 +47303,7 @@
       <c r="F5" s="312"/>
       <c r="G5" s="312"/>
       <c r="H5" s="312"/>
-      <c r="I5" s="299"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -47340,7 +47337,7 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="311" t="s">
         <v>205</v>
       </c>
       <c r="D7" s="312"/>
@@ -47348,7 +47345,7 @@
       <c r="F7" s="312"/>
       <c r="G7" s="312"/>
       <c r="H7" s="312"/>
-      <c r="I7" s="299"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -47382,7 +47379,7 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="298" t="s">
+      <c r="C9" s="314" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="312"/>
@@ -47390,7 +47387,7 @@
       <c r="F9" s="312"/>
       <c r="G9" s="312"/>
       <c r="H9" s="312"/>
-      <c r="I9" s="299"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -47453,19 +47450,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="313" t="s">
+      <c r="B13" s="315" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="314"/>
-      <c r="I13" s="314"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="316"/>
+      <c r="L13" s="317"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -47494,11 +47491,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="316" t="s">
+      <c r="J14" s="318" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -47523,11 +47520,11 @@
       <c r="I15" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="J15" s="309" t="s">
+      <c r="J15" s="305" t="s">
         <v>291</v>
       </c>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="306"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -47542,9 +47539,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="310"/>
-      <c r="K16" s="310"/>
-      <c r="L16" s="310"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="306"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -47723,11 +47720,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="311" t="s">
+      <c r="B27" s="307" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="311"/>
-      <c r="D27" s="311"/>
+      <c r="C27" s="307"/>
+      <c r="D27" s="307"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -47742,12 +47739,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="304" t="s">
+      <c r="B28" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="305"/>
-      <c r="D28" s="305"/>
-      <c r="E28" s="306"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
+      <c r="E28" s="310"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -47839,10 +47836,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="298" t="s">
+      <c r="D31" s="314" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="299"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -47872,10 +47869,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="298" t="s">
+      <c r="D32" s="314" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="299"/>
+      <c r="E32" s="313"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -47938,10 +47935,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="300" t="s">
+      <c r="D34" s="311" t="s">
         <v>394</v>
       </c>
-      <c r="E34" s="299"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -47971,10 +47968,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="301" t="s">
+      <c r="D35" s="319" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="302"/>
+      <c r="E35" s="320"/>
       <c r="F35" s="105" t="s">
         <v>286</v>
       </c>
@@ -48310,11 +48307,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="303" t="s">
+      <c r="B54" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="303"/>
-      <c r="D54" s="303"/>
+      <c r="C54" s="321"/>
+      <c r="D54" s="321"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -48331,12 +48328,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="304" t="s">
+      <c r="B55" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="305"/>
-      <c r="D55" s="305"/>
-      <c r="E55" s="306"/>
+      <c r="C55" s="309"/>
+      <c r="D55" s="309"/>
+      <c r="E55" s="310"/>
       <c r="F55" s="151" t="s">
         <v>125</v>
       </c>
@@ -48428,10 +48425,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="300" t="s">
+      <c r="D58" s="311" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="299"/>
+      <c r="E58" s="313"/>
       <c r="F58" s="74" t="s">
         <v>139</v>
       </c>
@@ -48461,10 +48458,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="300" t="s">
+      <c r="D59" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="307"/>
+      <c r="E59" s="322"/>
       <c r="F59" s="105" t="s">
         <v>189</v>
       </c>
@@ -48494,10 +48491,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="308" t="s">
+      <c r="D60" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="E60" s="307"/>
+      <c r="E60" s="322"/>
       <c r="F60" s="105" t="s">
         <v>192</v>
       </c>
@@ -48591,8 +48588,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="298"/>
-      <c r="E63" s="299"/>
+      <c r="D63" s="314"/>
+      <c r="E63" s="313"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -48982,6 +48979,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -48994,14 +48999,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -49095,7 +49092,7 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="311" t="s">
         <v>412</v>
       </c>
       <c r="D4" s="312"/>
@@ -49103,7 +49100,7 @@
       <c r="F4" s="312"/>
       <c r="G4" s="312"/>
       <c r="H4" s="312"/>
-      <c r="I4" s="299"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -49116,7 +49113,7 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="311" t="s">
         <v>413</v>
       </c>
       <c r="D5" s="312"/>
@@ -49124,7 +49121,7 @@
       <c r="F5" s="312"/>
       <c r="G5" s="312"/>
       <c r="H5" s="312"/>
-      <c r="I5" s="299"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -49158,7 +49155,7 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="311" t="s">
         <v>205</v>
       </c>
       <c r="D7" s="312"/>
@@ -49166,7 +49163,7 @@
       <c r="F7" s="312"/>
       <c r="G7" s="312"/>
       <c r="H7" s="312"/>
-      <c r="I7" s="299"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -49200,7 +49197,7 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="298" t="s">
+      <c r="C9" s="314" t="s">
         <v>181</v>
       </c>
       <c r="D9" s="312"/>
@@ -49208,7 +49205,7 @@
       <c r="F9" s="312"/>
       <c r="G9" s="312"/>
       <c r="H9" s="312"/>
-      <c r="I9" s="299"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -49271,19 +49268,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="313" t="s">
+      <c r="B13" s="315" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="314"/>
-      <c r="I13" s="314"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="316"/>
+      <c r="L13" s="317"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -49312,11 +49309,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="316" t="s">
+      <c r="J14" s="318" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -49341,11 +49338,11 @@
       <c r="I15" s="130" t="s">
         <v>415</v>
       </c>
-      <c r="J15" s="309" t="s">
+      <c r="J15" s="305" t="s">
         <v>416</v>
       </c>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="306"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -49370,11 +49367,11 @@
       <c r="I16" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="309" t="s">
+      <c r="J16" s="305" t="s">
         <v>417</v>
       </c>
-      <c r="K16" s="310"/>
-      <c r="L16" s="310"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="306"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -49553,11 +49550,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="311" t="s">
+      <c r="B27" s="307" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="311"/>
-      <c r="D27" s="311"/>
+      <c r="C27" s="307"/>
+      <c r="D27" s="307"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -49572,12 +49569,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="304" t="s">
+      <c r="B28" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="305"/>
-      <c r="D28" s="305"/>
-      <c r="E28" s="306"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
+      <c r="E28" s="310"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -49669,10 +49666,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="298" t="s">
+      <c r="D31" s="314" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="299"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -49702,10 +49699,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="298" t="s">
+      <c r="D32" s="314" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="299"/>
+      <c r="E32" s="313"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -49797,10 +49794,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="300" t="s">
+      <c r="D35" s="311" t="s">
         <v>394</v>
       </c>
-      <c r="E35" s="299"/>
+      <c r="E35" s="313"/>
       <c r="F35" s="105" t="s">
         <v>273</v>
       </c>
@@ -49830,10 +49827,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="301" t="s">
+      <c r="D36" s="319" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="302"/>
+      <c r="E36" s="320"/>
       <c r="F36" s="105" t="s">
         <v>286</v>
       </c>
@@ -50179,11 +50176,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="303" t="s">
+      <c r="B57" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="303"/>
-      <c r="D57" s="303"/>
+      <c r="C57" s="321"/>
+      <c r="D57" s="321"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -50200,12 +50197,12 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="304" t="s">
+      <c r="B58" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="305"/>
-      <c r="D58" s="305"/>
-      <c r="E58" s="306"/>
+      <c r="C58" s="309"/>
+      <c r="D58" s="309"/>
+      <c r="E58" s="310"/>
       <c r="F58" s="151" t="s">
         <v>125</v>
       </c>
@@ -50817,22 +50814,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -50843,7 +50840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
@@ -50877,10 +50874,10 @@
       <c r="C4" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="268" t="s">
+      <c r="D4" s="272" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="268"/>
+      <c r="E4" s="272"/>
       <c r="F4" s="111" t="s">
         <v>185</v>
       </c>
@@ -50893,10 +50890,10 @@
       <c r="C5" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="267" t="s">
+      <c r="D5" s="273" t="s">
         <v>450</v>
       </c>
-      <c r="E5" s="267"/>
+      <c r="E5" s="273"/>
       <c r="F5" s="120" t="s">
         <v>238</v>
       </c>
@@ -50910,10 +50907,10 @@
       <c r="C6" s="119" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="267" t="s">
+      <c r="D6" s="273" t="s">
         <v>289</v>
       </c>
-      <c r="E6" s="267"/>
+      <c r="E6" s="273"/>
       <c r="F6" s="120" t="s">
         <v>267</v>
       </c>
@@ -50926,10 +50923,10 @@
       <c r="C7" s="119" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="267" t="s">
+      <c r="D7" s="273" t="s">
         <v>266</v>
       </c>
-      <c r="E7" s="267"/>
+      <c r="E7" s="273"/>
       <c r="F7" s="120" t="s">
         <v>268</v>
       </c>
@@ -50942,10 +50939,10 @@
       <c r="C8" s="119" t="s">
         <v>277</v>
       </c>
-      <c r="D8" s="267" t="s">
+      <c r="D8" s="273" t="s">
         <v>279</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="273"/>
       <c r="F8" s="120" t="s">
         <v>278</v>
       </c>
@@ -50965,10 +50962,10 @@
       <c r="C10" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="268" t="s">
+      <c r="D10" s="272" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="268"/>
+      <c r="E10" s="272"/>
       <c r="F10" s="111" t="s">
         <v>185</v>
       </c>
@@ -50980,10 +50977,10 @@
       <c r="C11" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="267" t="s">
+      <c r="D11" s="273" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="267"/>
+      <c r="E11" s="273"/>
       <c r="F11" s="100"/>
       <c r="H11" s="100"/>
     </row>
@@ -50994,10 +50991,10 @@
       <c r="C12" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="267" t="s">
+      <c r="D12" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="267"/>
+      <c r="E12" s="273"/>
       <c r="F12" s="120"/>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
@@ -51009,10 +51006,10 @@
       <c r="C13" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="267" t="s">
+      <c r="D13" s="273" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="267"/>
+      <c r="E13" s="273"/>
       <c r="F13" s="120"/>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
@@ -51024,10 +51021,10 @@
       <c r="C14" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="267" t="s">
+      <c r="D14" s="273" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="267"/>
+      <c r="E14" s="273"/>
       <c r="F14" s="120"/>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
@@ -51039,10 +51036,10 @@
       <c r="C15" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="267" t="s">
+      <c r="D15" s="273" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="267"/>
+      <c r="E15" s="273"/>
       <c r="F15" s="120"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -51061,10 +51058,10 @@
       <c r="C18" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="268" t="s">
+      <c r="D18" s="272" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="268"/>
+      <c r="E18" s="272"/>
       <c r="F18" s="111" t="s">
         <v>185</v>
       </c>
@@ -51076,10 +51073,10 @@
       <c r="C19" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="D19" s="267" t="s">
+      <c r="D19" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="267"/>
+      <c r="E19" s="273"/>
       <c r="F19" s="122"/>
       <c r="G19" s="100"/>
       <c r="H19" s="100"/>
@@ -51091,10 +51088,10 @@
       <c r="C20" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="267" t="s">
+      <c r="D20" s="273" t="s">
         <v>470</v>
       </c>
-      <c r="E20" s="267"/>
+      <c r="E20" s="273"/>
       <c r="F20" s="122"/>
       <c r="G20" s="100"/>
       <c r="H20" s="100"/>
@@ -51106,10 +51103,10 @@
       <c r="C21" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="267" t="s">
+      <c r="D21" s="273" t="s">
         <v>451</v>
       </c>
-      <c r="E21" s="267"/>
+      <c r="E21" s="273"/>
       <c r="F21" s="122"/>
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
@@ -51121,10 +51118,10 @@
       <c r="C22" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="D22" s="267" t="s">
+      <c r="D22" s="273" t="s">
         <v>446</v>
       </c>
-      <c r="E22" s="267"/>
+      <c r="E22" s="273"/>
       <c r="F22" s="122"/>
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
@@ -51136,10 +51133,10 @@
       <c r="C23" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="D23" s="267" t="s">
+      <c r="D23" s="273" t="s">
         <v>471</v>
       </c>
-      <c r="E23" s="267"/>
+      <c r="E23" s="273"/>
       <c r="F23" s="122"/>
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
@@ -51151,10 +51148,10 @@
       <c r="C24" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="267" t="s">
+      <c r="D24" s="273" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="267"/>
+      <c r="E24" s="273"/>
       <c r="F24" s="122"/>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
@@ -51173,10 +51170,10 @@
       <c r="C27" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="268" t="s">
+      <c r="D27" s="272" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="268"/>
+      <c r="E27" s="272"/>
       <c r="F27" s="111" t="s">
         <v>185</v>
       </c>
@@ -51188,10 +51185,10 @@
       <c r="C28" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="267" t="s">
+      <c r="D28" s="273" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="267"/>
+      <c r="E28" s="273"/>
       <c r="F28" s="122"/>
       <c r="G28" s="100"/>
       <c r="H28" s="100"/>
@@ -51203,10 +51200,10 @@
       <c r="C29" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="267" t="s">
+      <c r="D29" s="273" t="s">
         <v>256</v>
       </c>
-      <c r="E29" s="267"/>
+      <c r="E29" s="273"/>
       <c r="F29" s="122"/>
       <c r="G29" s="100"/>
       <c r="H29" s="100"/>
@@ -51218,10 +51215,10 @@
       <c r="C30" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="267" t="s">
+      <c r="D30" s="273" t="s">
         <v>441</v>
       </c>
-      <c r="E30" s="267"/>
+      <c r="E30" s="273"/>
       <c r="F30" s="122"/>
       <c r="G30" s="100"/>
       <c r="H30" s="100"/>
@@ -51233,10 +51230,10 @@
       <c r="C31" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="267" t="s">
+      <c r="D31" s="273" t="s">
         <v>245</v>
       </c>
-      <c r="E31" s="267"/>
+      <c r="E31" s="273"/>
       <c r="F31" s="122"/>
       <c r="G31" s="100"/>
       <c r="H31" s="100"/>
@@ -51248,10 +51245,10 @@
       <c r="C32" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="267" t="s">
+      <c r="D32" s="273" t="s">
         <v>246</v>
       </c>
-      <c r="E32" s="267"/>
+      <c r="E32" s="273"/>
       <c r="F32" s="122"/>
       <c r="G32" s="100"/>
       <c r="H32" s="100"/>
@@ -51268,10 +51265,10 @@
       <c r="C36" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="268" t="s">
+      <c r="D36" s="272" t="s">
         <v>188</v>
       </c>
-      <c r="E36" s="268"/>
+      <c r="E36" s="272"/>
       <c r="F36" s="111" t="s">
         <v>185</v>
       </c>
@@ -51283,10 +51280,10 @@
       <c r="C37" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="269" t="s">
+      <c r="D37" s="274" t="s">
         <v>249</v>
       </c>
-      <c r="E37" s="270"/>
+      <c r="E37" s="275"/>
       <c r="F37" s="126"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1">
@@ -51296,10 +51293,10 @@
       <c r="C38" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="269" t="s">
+      <c r="D38" s="274" t="s">
         <v>250</v>
       </c>
-      <c r="E38" s="270"/>
+      <c r="E38" s="275"/>
       <c r="F38" s="126"/>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1">
@@ -51309,10 +51306,10 @@
       <c r="C39" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="269" t="s">
+      <c r="D39" s="274" t="s">
         <v>251</v>
       </c>
-      <c r="E39" s="270"/>
+      <c r="E39" s="275"/>
       <c r="F39" s="126"/>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1">
@@ -51322,10 +51319,10 @@
       <c r="C40" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="269" t="s">
+      <c r="D40" s="274" t="s">
         <v>252</v>
       </c>
-      <c r="E40" s="270"/>
+      <c r="E40" s="275"/>
       <c r="F40" s="126"/>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1">
@@ -51335,10 +51332,10 @@
       <c r="C41" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="269" t="s">
+      <c r="D41" s="274" t="s">
         <v>253</v>
       </c>
-      <c r="E41" s="270"/>
+      <c r="E41" s="275"/>
       <c r="F41" s="126"/>
     </row>
     <row r="42" spans="2:6">
@@ -51348,10 +51345,10 @@
       <c r="C42" s="127">
         <v>2506</v>
       </c>
-      <c r="D42" s="265" t="s">
+      <c r="D42" s="276" t="s">
         <v>255</v>
       </c>
-      <c r="E42" s="266"/>
+      <c r="E42" s="277"/>
       <c r="F42" s="128"/>
     </row>
     <row r="43" spans="2:6">
@@ -51361,10 +51358,10 @@
       <c r="C43" s="127">
         <v>2507</v>
       </c>
-      <c r="D43" s="265" t="s">
+      <c r="D43" s="276" t="s">
         <v>314</v>
       </c>
-      <c r="E43" s="266"/>
+      <c r="E43" s="277"/>
       <c r="F43" s="129"/>
     </row>
     <row r="45" spans="2:6" ht="15.75">
@@ -51379,10 +51376,10 @@
       <c r="C46" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="268" t="s">
+      <c r="D46" s="272" t="s">
         <v>188</v>
       </c>
-      <c r="E46" s="268"/>
+      <c r="E46" s="272"/>
       <c r="F46" s="111" t="s">
         <v>185</v>
       </c>
@@ -51394,10 +51391,10 @@
       <c r="C47" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="267" t="s">
+      <c r="D47" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="E47" s="267"/>
+      <c r="E47" s="273"/>
       <c r="F47" s="122"/>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51407,10 +51404,10 @@
       <c r="C48" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="267" t="s">
+      <c r="D48" s="273" t="s">
         <v>259</v>
       </c>
-      <c r="E48" s="267"/>
+      <c r="E48" s="273"/>
       <c r="F48" s="122"/>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51420,10 +51417,10 @@
       <c r="C49" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="267" t="s">
+      <c r="D49" s="273" t="s">
         <v>260</v>
       </c>
-      <c r="E49" s="267"/>
+      <c r="E49" s="273"/>
       <c r="F49" s="122"/>
     </row>
     <row r="50" spans="2:6" ht="32.25" customHeight="1">
@@ -51433,10 +51430,10 @@
       <c r="C50" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="267" t="s">
+      <c r="D50" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="E50" s="267"/>
+      <c r="E50" s="273"/>
       <c r="F50" s="122" t="s">
         <v>440</v>
       </c>
@@ -51448,10 +51445,10 @@
       <c r="C51" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="267" t="s">
+      <c r="D51" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="E51" s="267"/>
+      <c r="E51" s="273"/>
       <c r="F51" s="122"/>
     </row>
     <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51461,25 +51458,28 @@
       <c r="C52" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="267" t="s">
+      <c r="D52" s="273" t="s">
         <v>263</v>
       </c>
-      <c r="E52" s="267"/>
+      <c r="E52" s="273"/>
       <c r="F52" s="122"/>
     </row>
     <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -51496,19 +51496,16 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -51525,7 +51522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -51588,10 +51585,10 @@
       <c r="D4" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="271" t="s">
+      <c r="E4" s="278" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="272"/>
+      <c r="F4" s="279"/>
       <c r="G4" s="142" t="s">
         <v>157</v>
       </c>
@@ -51606,7 +51603,7 @@
       <c r="C5" s="118" t="s">
         <v>449</v>
       </c>
-      <c r="D5" s="273" t="s">
+      <c r="D5" s="280" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="202" t="s">
@@ -51631,7 +51628,7 @@
       <c r="C6" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="274"/>
+      <c r="D6" s="281"/>
       <c r="E6" s="203" t="s">
         <v>156</v>
       </c>
@@ -51654,7 +51651,7 @@
       <c r="C7" s="118" t="s">
         <v>432</v>
       </c>
-      <c r="D7" s="274"/>
+      <c r="D7" s="281"/>
       <c r="E7" s="202" t="s">
         <v>204</v>
       </c>
@@ -51677,7 +51674,7 @@
       <c r="C8" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="274"/>
+      <c r="D8" s="281"/>
       <c r="E8" s="202" t="s">
         <v>205</v>
       </c>
@@ -51700,7 +51697,7 @@
       <c r="C9" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="274"/>
+      <c r="D9" s="281"/>
       <c r="E9" s="202" t="s">
         <v>204</v>
       </c>
@@ -51723,7 +51720,7 @@
       <c r="C10" s="118" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="274"/>
+      <c r="D10" s="281"/>
       <c r="E10" s="202" t="s">
         <v>204</v>
       </c>
@@ -51746,7 +51743,7 @@
       <c r="C11" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="275"/>
+      <c r="D11" s="282"/>
       <c r="E11" s="202" t="s">
         <v>205</v>
       </c>
@@ -51769,7 +51766,7 @@
       <c r="C12" s="118" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="276" t="s">
+      <c r="D12" s="283" t="s">
         <v>254</v>
       </c>
       <c r="E12" s="202" t="s">
@@ -51794,7 +51791,7 @@
       <c r="C13" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="D13" s="277"/>
+      <c r="D13" s="284"/>
       <c r="E13" s="202" t="s">
         <v>204</v>
       </c>
@@ -51817,7 +51814,7 @@
       <c r="C14" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="277"/>
+      <c r="D14" s="284"/>
       <c r="E14" s="202" t="s">
         <v>204</v>
       </c>
@@ -51840,7 +51837,7 @@
       <c r="C15" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="277"/>
+      <c r="D15" s="284"/>
       <c r="E15" s="202" t="s">
         <v>204</v>
       </c>
@@ -51863,7 +51860,7 @@
       <c r="C16" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="277"/>
+      <c r="D16" s="284"/>
       <c r="E16" s="202" t="s">
         <v>223</v>
       </c>
@@ -51886,7 +51883,7 @@
       <c r="C17" s="118" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="277"/>
+      <c r="D17" s="284"/>
       <c r="E17" s="202" t="s">
         <v>205</v>
       </c>
@@ -51909,7 +51906,7 @@
       <c r="C18" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="277"/>
+      <c r="D18" s="284"/>
       <c r="E18" s="202" t="s">
         <v>205</v>
       </c>
@@ -51932,7 +51929,7 @@
       <c r="C19" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="D19" s="278" t="s">
+      <c r="D19" s="285" t="s">
         <v>155</v>
       </c>
       <c r="E19" s="202" t="s">
@@ -51957,7 +51954,7 @@
       <c r="C20" s="118" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="279"/>
+      <c r="D20" s="286"/>
       <c r="E20" s="202" t="s">
         <v>204</v>
       </c>
@@ -51980,7 +51977,7 @@
       <c r="C21" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="279"/>
+      <c r="D21" s="286"/>
       <c r="E21" s="202" t="s">
         <v>223</v>
       </c>
@@ -52003,7 +52000,7 @@
       <c r="C22" s="118" t="s">
         <v>230</v>
       </c>
-      <c r="D22" s="279"/>
+      <c r="D22" s="286"/>
       <c r="E22" s="202" t="s">
         <v>205</v>
       </c>
@@ -52026,7 +52023,7 @@
       <c r="C23" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="280"/>
+      <c r="D23" s="287"/>
       <c r="E23" s="202" t="s">
         <v>205</v>
       </c>
@@ -52097,7 +52094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
@@ -52180,15 +52177,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="282" t="s">
+      <c r="C4" s="288" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="283"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="289"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -52201,15 +52198,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="282" t="s">
+      <c r="C5" s="288" t="s">
         <v>365</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="283"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="289"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -52243,15 +52240,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="282" t="s">
+      <c r="C7" s="288" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="283"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="289"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -52285,15 +52282,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="282" t="s">
+      <c r="C9" s="288" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="283"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="289"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -52356,19 +52353,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="292" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="293"/>
+      <c r="D13" s="293"/>
+      <c r="E13" s="293"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="293"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="294"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -52397,11 +52394,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="281" t="s">
+      <c r="J14" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="281"/>
-      <c r="L14" s="281"/>
+      <c r="K14" s="291"/>
+      <c r="L14" s="291"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -52430,11 +52427,11 @@
       <c r="I15" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="298" t="s">
         <v>362</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -52463,11 +52460,11 @@
       <c r="I16" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="J16" s="290" t="s">
+      <c r="J16" s="298" t="s">
         <v>358</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -52529,11 +52526,11 @@
       <c r="I18" s="160" t="s">
         <v>355</v>
       </c>
-      <c r="J18" s="282" t="s">
+      <c r="J18" s="288" t="s">
         <v>354</v>
       </c>
-      <c r="K18" s="291"/>
-      <c r="L18" s="283"/>
+      <c r="K18" s="290"/>
+      <c r="L18" s="289"/>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
       <c r="O18" s="154"/>
@@ -52562,11 +52559,11 @@
       <c r="I19" s="183" t="s">
         <v>353</v>
       </c>
-      <c r="J19" s="282" t="s">
+      <c r="J19" s="288" t="s">
         <v>352</v>
       </c>
-      <c r="K19" s="291"/>
-      <c r="L19" s="283"/>
+      <c r="K19" s="290"/>
+      <c r="L19" s="289"/>
       <c r="M19" s="154"/>
       <c r="N19" s="154"/>
       <c r="O19" s="154"/>
@@ -52728,11 +52725,11 @@
     </row>
     <row r="29" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="179"/>
-      <c r="B29" s="295" t="s">
+      <c r="B29" s="302" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="295"/>
-      <c r="D29" s="295"/>
+      <c r="C29" s="302"/>
+      <c r="D29" s="302"/>
       <c r="E29" s="180"/>
       <c r="F29" s="181"/>
       <c r="G29" s="180"/>
@@ -52747,12 +52744,12 @@
     </row>
     <row r="30" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="174"/>
-      <c r="B30" s="287" t="s">
+      <c r="B30" s="295" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="288"/>
-      <c r="D30" s="288"/>
-      <c r="E30" s="289"/>
+      <c r="C30" s="296"/>
+      <c r="D30" s="296"/>
+      <c r="E30" s="297"/>
       <c r="F30" s="175" t="s">
         <v>125</v>
       </c>
@@ -52844,10 +52841,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="172"/>
-      <c r="D33" s="282" t="s">
+      <c r="D33" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="283"/>
+      <c r="E33" s="289"/>
       <c r="F33" s="162" t="s">
         <v>330</v>
       </c>
@@ -52877,10 +52874,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="163"/>
-      <c r="D34" s="282" t="s">
+      <c r="D34" s="288" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="283"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="162" t="s">
         <v>173</v>
       </c>
@@ -52943,10 +52940,10 @@
       <c r="A36" s="154"/>
       <c r="B36" s="168"/>
       <c r="C36" s="171"/>
-      <c r="D36" s="282" t="s">
+      <c r="D36" s="288" t="s">
         <v>351</v>
       </c>
-      <c r="E36" s="283"/>
+      <c r="E36" s="289"/>
       <c r="F36" s="162" t="s">
         <v>175</v>
       </c>
@@ -52976,10 +52973,10 @@
       <c r="A37" s="154"/>
       <c r="B37" s="168"/>
       <c r="C37" s="171"/>
-      <c r="D37" s="293" t="s">
+      <c r="D37" s="300" t="s">
         <v>348</v>
       </c>
-      <c r="E37" s="294"/>
+      <c r="E37" s="301"/>
       <c r="F37" s="162" t="s">
         <v>347</v>
       </c>
@@ -53009,10 +53006,10 @@
       <c r="A38" s="154"/>
       <c r="B38" s="168"/>
       <c r="C38" s="172"/>
-      <c r="D38" s="282" t="s">
+      <c r="D38" s="288" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="283"/>
+      <c r="E38" s="289"/>
       <c r="F38" s="162" t="s">
         <v>344</v>
       </c>
@@ -53162,10 +53159,10 @@
       <c r="A43" s="154"/>
       <c r="B43" s="164"/>
       <c r="C43" s="163"/>
-      <c r="D43" s="282" t="s">
+      <c r="D43" s="288" t="s">
         <v>336</v>
       </c>
-      <c r="E43" s="283"/>
+      <c r="E43" s="289"/>
       <c r="F43" s="162" t="s">
         <v>335</v>
       </c>
@@ -53501,11 +53498,11 @@
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="154"/>
-      <c r="B62" s="292" t="s">
+      <c r="B62" s="299" t="s">
         <v>333</v>
       </c>
-      <c r="C62" s="292"/>
-      <c r="D62" s="292"/>
+      <c r="C62" s="299"/>
+      <c r="D62" s="299"/>
       <c r="E62" s="154"/>
       <c r="F62" s="154"/>
       <c r="G62" s="154"/>
@@ -53522,12 +53519,12 @@
     </row>
     <row r="63" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="174"/>
-      <c r="B63" s="287" t="s">
+      <c r="B63" s="295" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="288"/>
-      <c r="D63" s="288"/>
-      <c r="E63" s="289"/>
+      <c r="C63" s="296"/>
+      <c r="D63" s="296"/>
+      <c r="E63" s="297"/>
       <c r="F63" s="175" t="s">
         <v>125</v>
       </c>
@@ -53619,10 +53616,10 @@
       <c r="A66" s="154"/>
       <c r="B66" s="168"/>
       <c r="C66" s="172"/>
-      <c r="D66" s="282" t="s">
+      <c r="D66" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="E66" s="283"/>
+      <c r="E66" s="289"/>
       <c r="F66" s="162" t="s">
         <v>330</v>
       </c>
@@ -53652,10 +53649,10 @@
       <c r="A67" s="154"/>
       <c r="B67" s="168"/>
       <c r="C67" s="172"/>
-      <c r="D67" s="282" t="s">
+      <c r="D67" s="288" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="283"/>
+      <c r="E67" s="289"/>
       <c r="F67" s="162" t="s">
         <v>189</v>
       </c>
@@ -53685,10 +53682,10 @@
       <c r="A68" s="154"/>
       <c r="B68" s="168"/>
       <c r="C68" s="172"/>
-      <c r="D68" s="296" t="s">
+      <c r="D68" s="303" t="s">
         <v>194</v>
       </c>
-      <c r="E68" s="283"/>
+      <c r="E68" s="289"/>
       <c r="F68" s="162" t="s">
         <v>192</v>
       </c>
@@ -53782,8 +53779,8 @@
       <c r="A71" s="154"/>
       <c r="B71" s="164"/>
       <c r="C71" s="163"/>
-      <c r="D71" s="282"/>
-      <c r="E71" s="283"/>
+      <c r="D71" s="288"/>
+      <c r="E71" s="289"/>
       <c r="F71" s="162"/>
       <c r="G71" s="161"/>
       <c r="H71" s="161"/>
@@ -54173,14 +54170,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="B13:L13"/>
@@ -54197,6 +54186,14 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -54213,7 +54210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A79" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A94" workbookViewId="0">
       <selection activeCell="J16" sqref="J16:L16"/>
     </sheetView>
   </sheetViews>
@@ -54296,15 +54293,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="282" t="s">
+      <c r="C4" s="288" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="283"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="289"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -54317,15 +54314,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="282" t="s">
+      <c r="C5" s="288" t="s">
         <v>370</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="283"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="289"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -54359,15 +54356,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="282" t="s">
+      <c r="C7" s="288" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="283"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="289"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -54401,15 +54398,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="282" t="s">
+      <c r="C9" s="288" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="283"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="289"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -54472,19 +54469,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="292" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="293"/>
+      <c r="D13" s="293"/>
+      <c r="E13" s="293"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="293"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="294"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -54513,11 +54510,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="281" t="s">
+      <c r="J14" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="281"/>
-      <c r="L14" s="281"/>
+      <c r="K14" s="291"/>
+      <c r="L14" s="291"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -54542,11 +54539,11 @@
       <c r="I15" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="298" t="s">
         <v>362</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -54571,11 +54568,11 @@
       <c r="I16" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="J16" s="290" t="s">
+      <c r="J16" s="298" t="s">
         <v>368</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -54737,11 +54734,11 @@
     </row>
     <row r="26" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="179"/>
-      <c r="B26" s="295" t="s">
+      <c r="B26" s="302" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="295"/>
-      <c r="D26" s="295"/>
+      <c r="C26" s="302"/>
+      <c r="D26" s="302"/>
       <c r="E26" s="180"/>
       <c r="F26" s="181"/>
       <c r="G26" s="180"/>
@@ -54756,12 +54753,12 @@
     </row>
     <row r="27" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="287" t="s">
+      <c r="B27" s="295" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="288"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="289"/>
+      <c r="C27" s="296"/>
+      <c r="D27" s="296"/>
+      <c r="E27" s="297"/>
       <c r="F27" s="175" t="s">
         <v>125</v>
       </c>
@@ -54853,10 +54850,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="172"/>
-      <c r="D30" s="282" t="s">
+      <c r="D30" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="283"/>
+      <c r="E30" s="289"/>
       <c r="F30" s="162" t="s">
         <v>330</v>
       </c>
@@ -54886,10 +54883,10 @@
       <c r="A31" s="154"/>
       <c r="B31" s="168"/>
       <c r="C31" s="163"/>
-      <c r="D31" s="282" t="s">
+      <c r="D31" s="288" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="283"/>
+      <c r="E31" s="289"/>
       <c r="F31" s="162" t="s">
         <v>173</v>
       </c>
@@ -54952,10 +54949,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="282" t="s">
+      <c r="D33" s="288" t="s">
         <v>351</v>
       </c>
-      <c r="E33" s="283"/>
+      <c r="E33" s="289"/>
       <c r="F33" s="162" t="s">
         <v>175</v>
       </c>
@@ -54985,10 +54982,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="171"/>
-      <c r="D34" s="293" t="s">
+      <c r="D34" s="300" t="s">
         <v>348</v>
       </c>
-      <c r="E34" s="294"/>
+      <c r="E34" s="301"/>
       <c r="F34" s="162" t="s">
         <v>347</v>
       </c>
@@ -55018,10 +55015,10 @@
       <c r="A35" s="154"/>
       <c r="B35" s="168"/>
       <c r="C35" s="171"/>
-      <c r="D35" s="282" t="s">
+      <c r="D35" s="288" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="283"/>
+      <c r="E35" s="289"/>
       <c r="F35" s="162" t="s">
         <v>344</v>
       </c>
@@ -55117,10 +55114,10 @@
       <c r="A38" s="154"/>
       <c r="B38" s="164"/>
       <c r="C38" s="163"/>
-      <c r="D38" s="282" t="s">
+      <c r="D38" s="288" t="s">
         <v>336</v>
       </c>
-      <c r="E38" s="283"/>
+      <c r="E38" s="289"/>
       <c r="F38" s="162" t="s">
         <v>335</v>
       </c>
@@ -55456,11 +55453,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="154"/>
-      <c r="B57" s="292" t="s">
+      <c r="B57" s="299" t="s">
         <v>333</v>
       </c>
-      <c r="C57" s="292"/>
-      <c r="D57" s="292"/>
+      <c r="C57" s="299"/>
+      <c r="D57" s="299"/>
       <c r="E57" s="154"/>
       <c r="F57" s="154"/>
       <c r="G57" s="154"/>
@@ -55477,12 +55474,12 @@
     </row>
     <row r="58" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="174"/>
-      <c r="B58" s="287" t="s">
+      <c r="B58" s="295" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="288"/>
-      <c r="D58" s="288"/>
-      <c r="E58" s="289"/>
+      <c r="C58" s="296"/>
+      <c r="D58" s="296"/>
+      <c r="E58" s="297"/>
       <c r="F58" s="175" t="s">
         <v>125</v>
       </c>
@@ -55574,10 +55571,10 @@
       <c r="A61" s="154"/>
       <c r="B61" s="168"/>
       <c r="C61" s="172"/>
-      <c r="D61" s="282" t="s">
+      <c r="D61" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="283"/>
+      <c r="E61" s="289"/>
       <c r="F61" s="162" t="s">
         <v>330</v>
       </c>
@@ -55607,10 +55604,10 @@
       <c r="A62" s="154"/>
       <c r="B62" s="168"/>
       <c r="C62" s="172"/>
-      <c r="D62" s="282" t="s">
+      <c r="D62" s="288" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="283"/>
+      <c r="E62" s="289"/>
       <c r="F62" s="162" t="s">
         <v>189</v>
       </c>
@@ -55640,10 +55637,10 @@
       <c r="A63" s="154"/>
       <c r="B63" s="168"/>
       <c r="C63" s="172"/>
-      <c r="D63" s="296" t="s">
+      <c r="D63" s="303" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="283"/>
+      <c r="E63" s="289"/>
       <c r="F63" s="162" t="s">
         <v>192</v>
       </c>
@@ -55737,8 +55734,8 @@
       <c r="A66" s="154"/>
       <c r="B66" s="164"/>
       <c r="C66" s="163"/>
-      <c r="D66" s="282"/>
-      <c r="E66" s="283"/>
+      <c r="D66" s="288"/>
+      <c r="E66" s="289"/>
       <c r="F66" s="162"/>
       <c r="G66" s="161"/>
       <c r="H66" s="161"/>
@@ -56128,28 +56125,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -56164,8 +56161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -56247,15 +56244,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="282" t="s">
+      <c r="C4" s="288" t="s">
         <v>432</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="283"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="289"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -56268,15 +56265,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="282" t="s">
+      <c r="C5" s="288" t="s">
         <v>439</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="283"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="289"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -56310,15 +56307,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="282" t="s">
+      <c r="C7" s="288" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="283"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="289"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -56352,15 +56349,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="282" t="s">
+      <c r="C9" s="288" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="283"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="289"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -56423,19 +56420,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="292" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="293"/>
+      <c r="D13" s="293"/>
+      <c r="E13" s="293"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="293"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="294"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -56464,11 +56461,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="281" t="s">
+      <c r="J14" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="281"/>
-      <c r="L14" s="281"/>
+      <c r="K14" s="291"/>
+      <c r="L14" s="291"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -56493,11 +56490,11 @@
       <c r="I15" s="130" t="s">
         <v>445</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="298" t="s">
         <v>371</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -56559,11 +56556,11 @@
       <c r="I17" s="160" t="s">
         <v>355</v>
       </c>
-      <c r="J17" s="282" t="s">
+      <c r="J17" s="288" t="s">
         <v>354</v>
       </c>
-      <c r="K17" s="291"/>
-      <c r="L17" s="283"/>
+      <c r="K17" s="290"/>
+      <c r="L17" s="289"/>
       <c r="M17" s="154"/>
       <c r="N17" s="154"/>
       <c r="O17" s="154"/>
@@ -56592,11 +56589,11 @@
       <c r="I18" s="183" t="s">
         <v>353</v>
       </c>
-      <c r="J18" s="282" t="s">
+      <c r="J18" s="288" t="s">
         <v>352</v>
       </c>
-      <c r="K18" s="291"/>
-      <c r="L18" s="283"/>
+      <c r="K18" s="290"/>
+      <c r="L18" s="289"/>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
       <c r="O18" s="154"/>
@@ -56758,11 +56755,11 @@
     </row>
     <row r="28" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="179"/>
-      <c r="B28" s="295" t="s">
+      <c r="B28" s="302" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="295"/>
-      <c r="D28" s="295"/>
+      <c r="C28" s="302"/>
+      <c r="D28" s="302"/>
       <c r="E28" s="180"/>
       <c r="F28" s="181"/>
       <c r="G28" s="180"/>
@@ -56777,12 +56774,12 @@
     </row>
     <row r="29" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="174"/>
-      <c r="B29" s="287" t="s">
+      <c r="B29" s="295" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="288"/>
-      <c r="D29" s="288"/>
-      <c r="E29" s="289"/>
+      <c r="C29" s="296"/>
+      <c r="D29" s="296"/>
+      <c r="E29" s="297"/>
       <c r="F29" s="175" t="s">
         <v>125</v>
       </c>
@@ -56874,10 +56871,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="172"/>
-      <c r="D32" s="282" t="s">
+      <c r="D32" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="283"/>
+      <c r="E32" s="289"/>
       <c r="F32" s="162" t="s">
         <v>330</v>
       </c>
@@ -56907,10 +56904,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="163"/>
-      <c r="D33" s="282" t="s">
+      <c r="D33" s="288" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="283"/>
+      <c r="E33" s="289"/>
       <c r="F33" s="162" t="s">
         <v>173</v>
       </c>
@@ -56938,12 +56935,12 @@
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="154"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="167" t="s">
+      <c r="B34" s="164"/>
+      <c r="C34" s="220" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="166"/>
-      <c r="E34" s="165"/>
+      <c r="D34" s="330"/>
+      <c r="E34" s="221"/>
       <c r="F34" s="162" t="s">
         <v>168</v>
       </c>
@@ -57260,11 +57257,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="154"/>
-      <c r="B52" s="292" t="s">
+      <c r="B52" s="299" t="s">
         <v>333</v>
       </c>
-      <c r="C52" s="292"/>
-      <c r="D52" s="292"/>
+      <c r="C52" s="299"/>
+      <c r="D52" s="299"/>
       <c r="E52" s="154"/>
       <c r="F52" s="154"/>
       <c r="G52" s="154"/>
@@ -57281,12 +57278,12 @@
     </row>
     <row r="53" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="287" t="s">
+      <c r="B53" s="295" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="288"/>
-      <c r="D53" s="288"/>
-      <c r="E53" s="289"/>
+      <c r="C53" s="296"/>
+      <c r="D53" s="296"/>
+      <c r="E53" s="297"/>
       <c r="F53" s="175" t="s">
         <v>125</v>
       </c>
@@ -57378,10 +57375,10 @@
       <c r="A56" s="154"/>
       <c r="B56" s="168"/>
       <c r="C56" s="172"/>
-      <c r="D56" s="282" t="s">
+      <c r="D56" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="283"/>
+      <c r="E56" s="289"/>
       <c r="F56" s="162" t="s">
         <v>330</v>
       </c>
@@ -57411,10 +57408,10 @@
       <c r="A57" s="154"/>
       <c r="B57" s="168"/>
       <c r="C57" s="172"/>
-      <c r="D57" s="282" t="s">
+      <c r="D57" s="288" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="283"/>
+      <c r="E57" s="289"/>
       <c r="F57" s="162" t="s">
         <v>189</v>
       </c>
@@ -57444,10 +57441,10 @@
       <c r="A58" s="154"/>
       <c r="B58" s="168"/>
       <c r="C58" s="172"/>
-      <c r="D58" s="296" t="s">
+      <c r="D58" s="303" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="283"/>
+      <c r="E58" s="289"/>
       <c r="F58" s="162" t="s">
         <v>192</v>
       </c>
@@ -57508,12 +57505,12 @@
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="154"/>
-      <c r="B60" s="168"/>
-      <c r="C60" s="167" t="s">
+      <c r="B60" s="164"/>
+      <c r="C60" s="220" t="s">
         <v>170</v>
       </c>
-      <c r="D60" s="166"/>
-      <c r="E60" s="165"/>
+      <c r="D60" s="330"/>
+      <c r="E60" s="221"/>
       <c r="F60" s="162" t="s">
         <v>168</v>
       </c>
@@ -57898,6 +57895,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
@@ -57911,11 +57913,6 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -57930,8 +57927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -58013,15 +58010,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="282" t="s">
+      <c r="C4" s="288" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="283"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="289"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -58034,15 +58031,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="282" t="s">
+      <c r="C5" s="288" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="283"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="289"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -58076,15 +58073,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="282" t="s">
+      <c r="C7" s="288" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="283"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="289"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -58118,15 +58115,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="282" t="s">
+      <c r="C9" s="288" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="283"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="289"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -58189,19 +58186,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="292" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="293"/>
+      <c r="D13" s="293"/>
+      <c r="E13" s="293"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="293"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="294"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -58230,11 +58227,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="281" t="s">
+      <c r="J14" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="281"/>
-      <c r="L14" s="281"/>
+      <c r="K14" s="291"/>
+      <c r="L14" s="291"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -58259,11 +58256,11 @@
       <c r="I15" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="298" t="s">
         <v>373</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -58425,11 +58422,11 @@
     </row>
     <row r="25" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="179"/>
-      <c r="B25" s="295" t="s">
+      <c r="B25" s="302" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="295"/>
-      <c r="D25" s="295"/>
+      <c r="C25" s="302"/>
+      <c r="D25" s="302"/>
       <c r="E25" s="180"/>
       <c r="F25" s="181"/>
       <c r="G25" s="180"/>
@@ -58444,12 +58441,12 @@
     </row>
     <row r="26" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="287" t="s">
+      <c r="B26" s="295" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="288"/>
-      <c r="D26" s="288"/>
-      <c r="E26" s="289"/>
+      <c r="C26" s="296"/>
+      <c r="D26" s="296"/>
+      <c r="E26" s="297"/>
       <c r="F26" s="175" t="s">
         <v>125</v>
       </c>
@@ -58541,10 +58538,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="172"/>
-      <c r="D29" s="282" t="s">
+      <c r="D29" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="283"/>
+      <c r="E29" s="289"/>
       <c r="F29" s="162" t="s">
         <v>330</v>
       </c>
@@ -58574,10 +58571,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="163"/>
-      <c r="D30" s="282" t="s">
+      <c r="D30" s="288" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="283"/>
+      <c r="E30" s="289"/>
       <c r="F30" s="162" t="s">
         <v>173</v>
       </c>
@@ -58640,10 +58637,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="171"/>
-      <c r="D32" s="282" t="s">
+      <c r="D32" s="288" t="s">
         <v>351</v>
       </c>
-      <c r="E32" s="283"/>
+      <c r="E32" s="289"/>
       <c r="F32" s="162" t="s">
         <v>175</v>
       </c>
@@ -58673,10 +58670,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="293" t="s">
+      <c r="D33" s="300" t="s">
         <v>348</v>
       </c>
-      <c r="E33" s="294"/>
+      <c r="E33" s="301"/>
       <c r="F33" s="162" t="s">
         <v>347</v>
       </c>
@@ -58706,10 +58703,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="172"/>
-      <c r="D34" s="282" t="s">
+      <c r="D34" s="288" t="s">
         <v>345</v>
       </c>
-      <c r="E34" s="283"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="162" t="s">
         <v>344</v>
       </c>
@@ -58813,7 +58810,7 @@
         <v>473</v>
       </c>
       <c r="G37" s="161" t="s">
-        <v>475</v>
+        <v>133</v>
       </c>
       <c r="H37" s="161" t="s">
         <v>166</v>
@@ -58824,7 +58821,7 @@
       <c r="J37" s="161"/>
       <c r="K37" s="161"/>
       <c r="L37" s="160" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M37" s="154"/>
       <c r="N37" s="154"/>
@@ -58832,28 +58829,28 @@
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="154"/>
-      <c r="B38" s="168"/>
-      <c r="C38" s="172"/>
-      <c r="D38" s="323" t="s">
+      <c r="B38" s="164"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="222" t="s">
         <v>324</v>
       </c>
-      <c r="E38" s="324"/>
-      <c r="F38" s="323" t="s">
+      <c r="E38" s="223"/>
+      <c r="F38" s="222" t="s">
         <v>325</v>
       </c>
-      <c r="G38" s="325" t="s">
-        <v>475</v>
+      <c r="G38" s="225" t="s">
+        <v>133</v>
       </c>
       <c r="H38" s="161" t="s">
         <v>166</v>
       </c>
-      <c r="I38" s="327">
+      <c r="I38" s="225">
         <v>1</v>
       </c>
-      <c r="J38" s="328"/>
-      <c r="K38" s="328"/>
-      <c r="L38" s="326" t="s">
-        <v>477</v>
+      <c r="J38" s="226"/>
+      <c r="K38" s="226"/>
+      <c r="L38" s="224" t="s">
+        <v>476</v>
       </c>
       <c r="M38" s="154"/>
       <c r="N38" s="154"/>
@@ -59169,11 +59166,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="154"/>
-      <c r="B57" s="292" t="s">
+      <c r="B57" s="299" t="s">
         <v>333</v>
       </c>
-      <c r="C57" s="292"/>
-      <c r="D57" s="292"/>
+      <c r="C57" s="299"/>
+      <c r="D57" s="299"/>
       <c r="E57" s="154"/>
       <c r="F57" s="154"/>
       <c r="G57" s="154"/>
@@ -59190,12 +59187,12 @@
     </row>
     <row r="58" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="174"/>
-      <c r="B58" s="287" t="s">
+      <c r="B58" s="295" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="288"/>
-      <c r="D58" s="288"/>
-      <c r="E58" s="289"/>
+      <c r="C58" s="296"/>
+      <c r="D58" s="296"/>
+      <c r="E58" s="297"/>
       <c r="F58" s="175" t="s">
         <v>125</v>
       </c>
@@ -59287,10 +59284,10 @@
       <c r="A61" s="154"/>
       <c r="B61" s="168"/>
       <c r="C61" s="172"/>
-      <c r="D61" s="282" t="s">
+      <c r="D61" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="283"/>
+      <c r="E61" s="289"/>
       <c r="F61" s="162" t="s">
         <v>330</v>
       </c>
@@ -59320,10 +59317,10 @@
       <c r="A62" s="154"/>
       <c r="B62" s="168"/>
       <c r="C62" s="172"/>
-      <c r="D62" s="282" t="s">
+      <c r="D62" s="288" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="283"/>
+      <c r="E62" s="289"/>
       <c r="F62" s="162" t="s">
         <v>189</v>
       </c>
@@ -59353,10 +59350,10 @@
       <c r="A63" s="154"/>
       <c r="B63" s="168"/>
       <c r="C63" s="172"/>
-      <c r="D63" s="296" t="s">
+      <c r="D63" s="303" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="283"/>
+      <c r="E63" s="289"/>
       <c r="F63" s="162" t="s">
         <v>192</v>
       </c>
@@ -59450,8 +59447,8 @@
       <c r="A66" s="154"/>
       <c r="B66" s="164"/>
       <c r="C66" s="163"/>
-      <c r="D66" s="282"/>
-      <c r="E66" s="283"/>
+      <c r="D66" s="288"/>
+      <c r="E66" s="289"/>
       <c r="F66" s="162"/>
       <c r="G66" s="161"/>
       <c r="H66" s="161"/>
@@ -59841,11 +59838,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
@@ -59861,6 +59853,11 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:E58"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -59957,15 +59954,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="282" t="s">
+      <c r="C4" s="288" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="283"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="289"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -59978,15 +59975,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="282" t="s">
+      <c r="C5" s="288" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="283"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="289"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -60020,15 +60017,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="282" t="s">
+      <c r="C7" s="288" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="283"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="289"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -60062,15 +60059,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="282" t="s">
+      <c r="C9" s="288" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="283"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="289"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -60133,19 +60130,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="292" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="293"/>
+      <c r="D13" s="293"/>
+      <c r="E13" s="293"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="293"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="294"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -60174,11 +60171,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="281" t="s">
+      <c r="J14" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="281"/>
-      <c r="L14" s="281"/>
+      <c r="K14" s="291"/>
+      <c r="L14" s="291"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -60203,11 +60200,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="298" t="s">
         <v>371</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -60236,11 +60233,11 @@
       <c r="I16" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="J16" s="290" t="s">
+      <c r="J16" s="298" t="s">
         <v>378</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -60402,11 +60399,11 @@
     </row>
     <row r="26" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="179"/>
-      <c r="B26" s="295" t="s">
+      <c r="B26" s="302" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="295"/>
-      <c r="D26" s="295"/>
+      <c r="C26" s="302"/>
+      <c r="D26" s="302"/>
       <c r="E26" s="180"/>
       <c r="F26" s="181"/>
       <c r="G26" s="180"/>
@@ -60421,12 +60418,12 @@
     </row>
     <row r="27" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="287" t="s">
+      <c r="B27" s="295" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="288"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="289"/>
+      <c r="C27" s="296"/>
+      <c r="D27" s="296"/>
+      <c r="E27" s="297"/>
       <c r="F27" s="175" t="s">
         <v>125</v>
       </c>
@@ -60518,10 +60515,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="172"/>
-      <c r="D30" s="282" t="s">
+      <c r="D30" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="283"/>
+      <c r="E30" s="289"/>
       <c r="F30" s="162" t="s">
         <v>330</v>
       </c>
@@ -60551,10 +60548,10 @@
       <c r="A31" s="154"/>
       <c r="B31" s="168"/>
       <c r="C31" s="163"/>
-      <c r="D31" s="282" t="s">
+      <c r="D31" s="288" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="283"/>
+      <c r="E31" s="289"/>
       <c r="F31" s="162" t="s">
         <v>173</v>
       </c>
@@ -60617,8 +60614,8 @@
       <c r="A33" s="154"/>
       <c r="B33" s="164"/>
       <c r="C33" s="163"/>
-      <c r="D33" s="282"/>
-      <c r="E33" s="283"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="289"/>
       <c r="F33" s="162"/>
       <c r="G33" s="161"/>
       <c r="H33" s="161"/>
@@ -60940,11 +60937,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="154"/>
-      <c r="B52" s="292" t="s">
+      <c r="B52" s="299" t="s">
         <v>333</v>
       </c>
-      <c r="C52" s="292"/>
-      <c r="D52" s="292"/>
+      <c r="C52" s="299"/>
+      <c r="D52" s="299"/>
       <c r="E52" s="154"/>
       <c r="F52" s="154"/>
       <c r="G52" s="154"/>
@@ -60961,12 +60958,12 @@
     </row>
     <row r="53" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="287" t="s">
+      <c r="B53" s="295" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="288"/>
-      <c r="D53" s="288"/>
-      <c r="E53" s="289"/>
+      <c r="C53" s="296"/>
+      <c r="D53" s="296"/>
+      <c r="E53" s="297"/>
       <c r="F53" s="175" t="s">
         <v>125</v>
       </c>
@@ -61058,10 +61055,10 @@
       <c r="A56" s="154"/>
       <c r="B56" s="168"/>
       <c r="C56" s="172"/>
-      <c r="D56" s="282" t="s">
+      <c r="D56" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="283"/>
+      <c r="E56" s="289"/>
       <c r="F56" s="162" t="s">
         <v>330</v>
       </c>
@@ -61091,10 +61088,10 @@
       <c r="A57" s="154"/>
       <c r="B57" s="168"/>
       <c r="C57" s="172"/>
-      <c r="D57" s="282" t="s">
+      <c r="D57" s="288" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="283"/>
+      <c r="E57" s="289"/>
       <c r="F57" s="162" t="s">
         <v>189</v>
       </c>
@@ -61124,10 +61121,10 @@
       <c r="A58" s="154"/>
       <c r="B58" s="168"/>
       <c r="C58" s="172"/>
-      <c r="D58" s="296" t="s">
+      <c r="D58" s="303" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="283"/>
+      <c r="E58" s="289"/>
       <c r="F58" s="162" t="s">
         <v>192</v>
       </c>
@@ -61221,8 +61218,8 @@
       <c r="A61" s="154"/>
       <c r="B61" s="164"/>
       <c r="C61" s="163"/>
-      <c r="D61" s="282"/>
-      <c r="E61" s="283"/>
+      <c r="D61" s="288"/>
+      <c r="E61" s="289"/>
       <c r="F61" s="162"/>
       <c r="G61" s="161"/>
       <c r="H61" s="161"/>
@@ -61612,16 +61609,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D57:E57"/>
@@ -61631,6 +61618,16 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>

--- a/doc/API_Design/API_Spec/BLOG_API_Spec.xlsx
+++ b/doc/API_Design/API_Spec/BLOG_API_Spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="927" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="927" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -2936,44 +2936,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="411" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3005,16 +3010,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3042,21 +3037,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3069,41 +3049,62 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3135,17 +3136,14 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3162,6 +3160,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="411" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3176,13 +3177,18 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3194,16 +3200,22 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3211,17 +3223,6 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3241,7 +3242,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="412">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -23051,303 +23051,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="261" t="s">
+      <c r="B1" s="229"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262"/>
-      <c r="K1" s="266" t="s">
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="267"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="248" t="s">
+      <c r="L1" s="234"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="249"/>
-      <c r="P1" s="249"/>
-      <c r="Q1" s="249"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="249"/>
-      <c r="T1" s="249"/>
-      <c r="U1" s="250"/>
-      <c r="V1" s="269" t="s">
+      <c r="O1" s="237"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="237"/>
+      <c r="T1" s="237"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="270"/>
-      <c r="X1" s="270"/>
-      <c r="Y1" s="270"/>
-      <c r="Z1" s="270"/>
-      <c r="AA1" s="270"/>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="270"/>
-      <c r="AD1" s="271"/>
+      <c r="W1" s="240"/>
+      <c r="X1" s="240"/>
+      <c r="Y1" s="240"/>
+      <c r="Z1" s="240"/>
+      <c r="AA1" s="240"/>
+      <c r="AB1" s="240"/>
+      <c r="AC1" s="240"/>
+      <c r="AD1" s="241"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="261" t="s">
+      <c r="B2" s="229"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="231" t="s">
         <v>444</v>
       </c>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="243" t="s">
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="244"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="263" t="s">
+      <c r="L2" s="246"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="257" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="264"/>
-      <c r="P2" s="264"/>
-      <c r="Q2" s="264"/>
-      <c r="R2" s="264"/>
-      <c r="S2" s="264"/>
-      <c r="T2" s="264"/>
-      <c r="U2" s="265"/>
-      <c r="V2" s="240" t="s">
+      <c r="O2" s="258"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="258"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="242" t="s">
         <v>150</v>
       </c>
-      <c r="W2" s="241"/>
-      <c r="X2" s="242"/>
-      <c r="Y2" s="240" t="s">
+      <c r="W2" s="243"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="241"/>
-      <c r="AA2" s="242"/>
-      <c r="AB2" s="240" t="s">
+      <c r="Z2" s="243"/>
+      <c r="AA2" s="244"/>
+      <c r="AB2" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="241"/>
-      <c r="AD2" s="242"/>
+      <c r="AC2" s="243"/>
+      <c r="AD2" s="244"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="246" t="s">
+      <c r="B3" s="246"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="243" t="s">
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="244"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="248" t="s">
+      <c r="L3" s="246"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="236" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="249"/>
-      <c r="P3" s="249"/>
-      <c r="Q3" s="249"/>
-      <c r="R3" s="249"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="249"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="251" t="s">
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
+      <c r="Q3" s="237"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="238"/>
+      <c r="V3" s="250" t="s">
         <v>237</v>
       </c>
-      <c r="W3" s="252"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="254">
+      <c r="W3" s="251"/>
+      <c r="X3" s="252"/>
+      <c r="Y3" s="253">
         <v>41961</v>
       </c>
-      <c r="Z3" s="255"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="257">
+      <c r="Z3" s="254"/>
+      <c r="AA3" s="255"/>
+      <c r="AB3" s="256">
         <v>41967</v>
       </c>
-      <c r="AC3" s="255"/>
-      <c r="AD3" s="256"/>
+      <c r="AC3" s="254"/>
+      <c r="AD3" s="255"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="238" t="s">
+      <c r="B8" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238" t="s">
+      <c r="C8" s="272"/>
+      <c r="D8" s="272"/>
+      <c r="E8" s="272"/>
+      <c r="F8" s="272" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="238"/>
-      <c r="H8" s="238" t="s">
+      <c r="G8" s="272"/>
+      <c r="H8" s="272" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="238"/>
-      <c r="J8" s="238"/>
-      <c r="K8" s="238" t="s">
+      <c r="I8" s="272"/>
+      <c r="J8" s="272"/>
+      <c r="K8" s="272" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="238"/>
-      <c r="M8" s="238"/>
-      <c r="N8" s="238"/>
-      <c r="O8" s="238"/>
-      <c r="P8" s="238"/>
-      <c r="Q8" s="238"/>
-      <c r="R8" s="238"/>
-      <c r="S8" s="238"/>
-      <c r="T8" s="238"/>
-      <c r="U8" s="238"/>
-      <c r="V8" s="238"/>
-      <c r="W8" s="238"/>
-      <c r="X8" s="238" t="s">
+      <c r="L8" s="272"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="272"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="272"/>
+      <c r="Q8" s="272"/>
+      <c r="R8" s="272"/>
+      <c r="S8" s="272"/>
+      <c r="T8" s="272"/>
+      <c r="U8" s="272"/>
+      <c r="V8" s="272"/>
+      <c r="W8" s="272"/>
+      <c r="X8" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="238"/>
-      <c r="Z8" s="238"/>
-      <c r="AA8" s="238"/>
-      <c r="AB8" s="238"/>
-      <c r="AC8" s="238"/>
+      <c r="Y8" s="272"/>
+      <c r="Z8" s="272"/>
+      <c r="AA8" s="272"/>
+      <c r="AB8" s="272"/>
+      <c r="AC8" s="272"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="239">
+      <c r="B9" s="260">
         <v>41961</v>
       </c>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="230" t="s">
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="263" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="231"/>
-      <c r="H9" s="227"/>
-      <c r="I9" s="228"/>
-      <c r="J9" s="229"/>
-      <c r="K9" s="232"/>
-      <c r="L9" s="233"/>
-      <c r="M9" s="233"/>
-      <c r="N9" s="233"/>
-      <c r="O9" s="233"/>
-      <c r="P9" s="233"/>
-      <c r="Q9" s="233"/>
-      <c r="R9" s="233"/>
-      <c r="S9" s="233"/>
-      <c r="T9" s="233"/>
-      <c r="U9" s="233"/>
-      <c r="V9" s="233"/>
-      <c r="W9" s="234"/>
-      <c r="X9" s="235"/>
-      <c r="Y9" s="236"/>
-      <c r="Z9" s="236"/>
-      <c r="AA9" s="236"/>
-      <c r="AB9" s="236"/>
-      <c r="AC9" s="237"/>
+      <c r="G9" s="264"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="266"/>
+      <c r="L9" s="267"/>
+      <c r="M9" s="267"/>
+      <c r="N9" s="267"/>
+      <c r="O9" s="267"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="267"/>
+      <c r="R9" s="267"/>
+      <c r="S9" s="267"/>
+      <c r="T9" s="267"/>
+      <c r="U9" s="267"/>
+      <c r="V9" s="267"/>
+      <c r="W9" s="268"/>
+      <c r="X9" s="269"/>
+      <c r="Y9" s="270"/>
+      <c r="Z9" s="270"/>
+      <c r="AA9" s="270"/>
+      <c r="AB9" s="270"/>
+      <c r="AC9" s="271"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="227"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="228"/>
-      <c r="E10" s="229"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="228"/>
-      <c r="J10" s="229"/>
-      <c r="K10" s="232"/>
-      <c r="L10" s="233"/>
-      <c r="M10" s="233"/>
-      <c r="N10" s="233"/>
-      <c r="O10" s="233"/>
-      <c r="P10" s="233"/>
-      <c r="Q10" s="233"/>
-      <c r="R10" s="233"/>
-      <c r="S10" s="233"/>
-      <c r="T10" s="233"/>
-      <c r="U10" s="233"/>
-      <c r="V10" s="233"/>
-      <c r="W10" s="234"/>
-      <c r="X10" s="235"/>
-      <c r="Y10" s="236"/>
-      <c r="Z10" s="236"/>
-      <c r="AA10" s="236"/>
-      <c r="AB10" s="236"/>
-      <c r="AC10" s="237"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="264"/>
+      <c r="H10" s="265"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="266"/>
+      <c r="L10" s="267"/>
+      <c r="M10" s="267"/>
+      <c r="N10" s="267"/>
+      <c r="O10" s="267"/>
+      <c r="P10" s="267"/>
+      <c r="Q10" s="267"/>
+      <c r="R10" s="267"/>
+      <c r="S10" s="267"/>
+      <c r="T10" s="267"/>
+      <c r="U10" s="267"/>
+      <c r="V10" s="267"/>
+      <c r="W10" s="268"/>
+      <c r="X10" s="269"/>
+      <c r="Y10" s="270"/>
+      <c r="Z10" s="270"/>
+      <c r="AA10" s="270"/>
+      <c r="AB10" s="270"/>
+      <c r="AC10" s="271"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="227"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="229"/>
-      <c r="F11" s="230"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="227"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="229"/>
-      <c r="K11" s="232"/>
-      <c r="L11" s="233"/>
-      <c r="M11" s="233"/>
-      <c r="N11" s="233"/>
-      <c r="O11" s="233"/>
-      <c r="P11" s="233"/>
-      <c r="Q11" s="233"/>
-      <c r="R11" s="233"/>
-      <c r="S11" s="233"/>
-      <c r="T11" s="233"/>
-      <c r="U11" s="233"/>
-      <c r="V11" s="233"/>
-      <c r="W11" s="234"/>
-      <c r="X11" s="235"/>
-      <c r="Y11" s="236"/>
-      <c r="Z11" s="236"/>
-      <c r="AA11" s="236"/>
-      <c r="AB11" s="236"/>
-      <c r="AC11" s="237"/>
+      <c r="B11" s="265"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="264"/>
+      <c r="H11" s="265"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="267"/>
+      <c r="M11" s="267"/>
+      <c r="N11" s="267"/>
+      <c r="O11" s="267"/>
+      <c r="P11" s="267"/>
+      <c r="Q11" s="267"/>
+      <c r="R11" s="267"/>
+      <c r="S11" s="267"/>
+      <c r="T11" s="267"/>
+      <c r="U11" s="267"/>
+      <c r="V11" s="267"/>
+      <c r="W11" s="268"/>
+      <c r="X11" s="269"/>
+      <c r="Y11" s="270"/>
+      <c r="Z11" s="270"/>
+      <c r="AA11" s="270"/>
+      <c r="AB11" s="270"/>
+      <c r="AC11" s="271"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="227"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="229"/>
-      <c r="F12" s="230"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="227"/>
-      <c r="I12" s="228"/>
-      <c r="J12" s="229"/>
-      <c r="K12" s="232"/>
-      <c r="L12" s="233"/>
-      <c r="M12" s="233"/>
-      <c r="N12" s="233"/>
-      <c r="O12" s="233"/>
-      <c r="P12" s="233"/>
-      <c r="Q12" s="233"/>
-      <c r="R12" s="233"/>
-      <c r="S12" s="233"/>
-      <c r="T12" s="233"/>
-      <c r="U12" s="233"/>
-      <c r="V12" s="233"/>
-      <c r="W12" s="234"/>
-      <c r="X12" s="235"/>
-      <c r="Y12" s="236"/>
-      <c r="Z12" s="236"/>
-      <c r="AA12" s="236"/>
-      <c r="AB12" s="236"/>
-      <c r="AC12" s="237"/>
+      <c r="B12" s="265"/>
+      <c r="C12" s="261"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="264"/>
+      <c r="H12" s="265"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="266"/>
+      <c r="L12" s="267"/>
+      <c r="M12" s="267"/>
+      <c r="N12" s="267"/>
+      <c r="O12" s="267"/>
+      <c r="P12" s="267"/>
+      <c r="Q12" s="267"/>
+      <c r="R12" s="267"/>
+      <c r="S12" s="267"/>
+      <c r="T12" s="267"/>
+      <c r="U12" s="267"/>
+      <c r="V12" s="267"/>
+      <c r="W12" s="268"/>
+      <c r="X12" s="269"/>
+      <c r="Y12" s="270"/>
+      <c r="Z12" s="270"/>
+      <c r="AA12" s="270"/>
+      <c r="AB12" s="270"/>
+      <c r="AC12" s="271"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -23377,11 +23377,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -23396,31 +23416,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23520,15 +23520,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="288" t="s">
+      <c r="C4" s="290" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="289"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -23541,13 +23541,13 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="288"/>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="289"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -23581,15 +23581,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="288" t="s">
+      <c r="C7" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="290"/>
-      <c r="H7" s="290"/>
-      <c r="I7" s="289"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -23623,15 +23623,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="288" t="s">
+      <c r="C9" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="289"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -23735,11 +23735,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="291" t="s">
+      <c r="J14" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="291"/>
-      <c r="L14" s="291"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="289"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -23913,11 +23913,11 @@
     </row>
     <row r="24" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="179"/>
-      <c r="B24" s="302" t="s">
+      <c r="B24" s="303" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="302"/>
-      <c r="D24" s="302"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="303"/>
       <c r="E24" s="180"/>
       <c r="F24" s="181"/>
       <c r="G24" s="180"/>
@@ -24029,10 +24029,10 @@
       <c r="A28" s="154"/>
       <c r="B28" s="168"/>
       <c r="C28" s="172"/>
-      <c r="D28" s="288" t="s">
+      <c r="D28" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="E28" s="289"/>
+      <c r="E28" s="291"/>
       <c r="F28" s="162" t="s">
         <v>330</v>
       </c>
@@ -24062,10 +24062,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="163"/>
-      <c r="D29" s="288" t="s">
+      <c r="D29" s="290" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="289"/>
+      <c r="E29" s="291"/>
       <c r="F29" s="162" t="s">
         <v>173</v>
       </c>
@@ -24128,8 +24128,8 @@
       <c r="A31" s="154"/>
       <c r="B31" s="164"/>
       <c r="C31" s="163"/>
-      <c r="D31" s="288"/>
-      <c r="E31" s="289"/>
+      <c r="D31" s="290"/>
+      <c r="E31" s="291"/>
       <c r="F31" s="162"/>
       <c r="G31" s="161"/>
       <c r="H31" s="161"/>
@@ -24451,11 +24451,11 @@
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="154"/>
-      <c r="B50" s="299" t="s">
+      <c r="B50" s="300" t="s">
         <v>333</v>
       </c>
-      <c r="C50" s="299"/>
-      <c r="D50" s="299"/>
+      <c r="C50" s="300"/>
+      <c r="D50" s="300"/>
       <c r="E50" s="154"/>
       <c r="F50" s="154"/>
       <c r="G50" s="154"/>
@@ -24569,10 +24569,10 @@
       <c r="A54" s="154"/>
       <c r="B54" s="168"/>
       <c r="C54" s="172"/>
-      <c r="D54" s="288" t="s">
+      <c r="D54" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="E54" s="289"/>
+      <c r="E54" s="291"/>
       <c r="F54" s="162" t="s">
         <v>330</v>
       </c>
@@ -24602,10 +24602,10 @@
       <c r="A55" s="154"/>
       <c r="B55" s="168"/>
       <c r="C55" s="172"/>
-      <c r="D55" s="288" t="s">
+      <c r="D55" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="289"/>
+      <c r="E55" s="291"/>
       <c r="F55" s="162" t="s">
         <v>189</v>
       </c>
@@ -24635,10 +24635,10 @@
       <c r="A56" s="154"/>
       <c r="B56" s="168"/>
       <c r="C56" s="172"/>
-      <c r="D56" s="303" t="s">
+      <c r="D56" s="304" t="s">
         <v>194</v>
       </c>
-      <c r="E56" s="289"/>
+      <c r="E56" s="291"/>
       <c r="F56" s="162" t="s">
         <v>192</v>
       </c>
@@ -24732,8 +24732,8 @@
       <c r="A59" s="154"/>
       <c r="B59" s="164"/>
       <c r="C59" s="163"/>
-      <c r="D59" s="288"/>
-      <c r="E59" s="289"/>
+      <c r="D59" s="290"/>
+      <c r="E59" s="291"/>
       <c r="F59" s="162"/>
       <c r="G59" s="161"/>
       <c r="H59" s="161"/>
@@ -25123,13 +25123,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="D54:E54"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="D28:E28"/>
@@ -25141,6 +25134,13 @@
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -25237,15 +25237,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="288" t="s">
+      <c r="C4" s="290" t="s">
         <v>386</v>
       </c>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="289"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -25258,15 +25258,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="288" t="s">
+      <c r="C5" s="290" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="289"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -25300,15 +25300,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="288" t="s">
+      <c r="C7" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="290"/>
-      <c r="H7" s="290"/>
-      <c r="I7" s="289"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -25342,15 +25342,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="288" t="s">
+      <c r="C9" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="289"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -25454,11 +25454,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="291" t="s">
+      <c r="J14" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="291"/>
-      <c r="L14" s="291"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="289"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -25483,11 +25483,11 @@
       <c r="I15" s="196" t="s">
         <v>383</v>
       </c>
-      <c r="J15" s="304" t="s">
+      <c r="J15" s="305" t="s">
         <v>382</v>
       </c>
-      <c r="K15" s="304"/>
-      <c r="L15" s="304"/>
+      <c r="K15" s="305"/>
+      <c r="L15" s="305"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -25649,11 +25649,11 @@
     </row>
     <row r="25" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="179"/>
-      <c r="B25" s="302" t="s">
+      <c r="B25" s="303" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="302"/>
-      <c r="D25" s="302"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="303"/>
       <c r="E25" s="180"/>
       <c r="F25" s="181"/>
       <c r="G25" s="180"/>
@@ -25765,10 +25765,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="172"/>
-      <c r="D29" s="288" t="s">
+      <c r="D29" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="289"/>
+      <c r="E29" s="291"/>
       <c r="F29" s="162" t="s">
         <v>330</v>
       </c>
@@ -25798,10 +25798,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="163"/>
-      <c r="D30" s="288" t="s">
+      <c r="D30" s="290" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="289"/>
+      <c r="E30" s="291"/>
       <c r="F30" s="162" t="s">
         <v>173</v>
       </c>
@@ -25864,10 +25864,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="171"/>
-      <c r="D32" s="288" t="s">
+      <c r="D32" s="290" t="s">
         <v>351</v>
       </c>
-      <c r="E32" s="289"/>
+      <c r="E32" s="291"/>
       <c r="F32" s="162" t="s">
         <v>175</v>
       </c>
@@ -25897,10 +25897,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="300" t="s">
+      <c r="D33" s="301" t="s">
         <v>348</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="302"/>
       <c r="F33" s="162" t="s">
         <v>347</v>
       </c>
@@ -25930,10 +25930,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="172"/>
-      <c r="D34" s="288" t="s">
+      <c r="D34" s="290" t="s">
         <v>345</v>
       </c>
-      <c r="E34" s="289"/>
+      <c r="E34" s="291"/>
       <c r="F34" s="162" t="s">
         <v>344</v>
       </c>
@@ -26993,6 +26993,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D32:E32"/>
@@ -27002,11 +27007,6 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -27701,15 +27701,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="308" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -27722,15 +27722,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="311" t="s">
+      <c r="C5" s="308" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -27764,15 +27764,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="314" t="s">
+      <c r="C7" s="306" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="320"/>
+      <c r="E7" s="320"/>
+      <c r="F7" s="320"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="307"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -27806,15 +27806,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="314" t="s">
+      <c r="C9" s="306" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="307"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -27877,19 +27877,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="321" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="316"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="317"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="322"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="322"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322"/>
+      <c r="L13" s="323"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27918,11 +27918,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="318" t="s">
+      <c r="J14" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -27947,11 +27947,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="317" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -27980,9 +27980,9 @@
       <c r="I16" s="130" t="s">
         <v>287</v>
       </c>
-      <c r="J16" s="306"/>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="J16" s="318"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -28173,11 +28173,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="307" t="s">
+      <c r="B27" s="319" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="307"/>
-      <c r="D27" s="307"/>
+      <c r="C27" s="319"/>
+      <c r="D27" s="319"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -28192,12 +28192,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="308" t="s">
+      <c r="B28" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="309"/>
-      <c r="D28" s="309"/>
-      <c r="E28" s="310"/>
+      <c r="C28" s="313"/>
+      <c r="D28" s="313"/>
+      <c r="E28" s="314"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -28289,10 +28289,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="314" t="s">
+      <c r="D31" s="306" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="307"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -28322,10 +28322,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="314" t="s">
+      <c r="D32" s="306" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="313"/>
+      <c r="E32" s="307"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -28388,10 +28388,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="311" t="s">
+      <c r="D34" s="308" t="s">
         <v>290</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="307"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -28421,10 +28421,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="319" t="s">
+      <c r="D35" s="309" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="320"/>
+      <c r="E35" s="310"/>
       <c r="F35" s="105" t="s">
         <v>284</v>
       </c>
@@ -28814,11 +28814,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="321" t="s">
+      <c r="B56" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="321"/>
-      <c r="D56" s="321"/>
+      <c r="C56" s="311"/>
+      <c r="D56" s="311"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -28835,12 +28835,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="308" t="s">
+      <c r="B57" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="309"/>
-      <c r="D57" s="309"/>
-      <c r="E57" s="310"/>
+      <c r="C57" s="313"/>
+      <c r="D57" s="313"/>
+      <c r="E57" s="314"/>
       <c r="F57" s="115" t="s">
         <v>125</v>
       </c>
@@ -28932,10 +28932,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="311" t="s">
+      <c r="D60" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="313"/>
+      <c r="E60" s="307"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -28965,10 +28965,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="311" t="s">
+      <c r="D61" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="322"/>
+      <c r="E61" s="315"/>
       <c r="F61" s="105" t="s">
         <v>189</v>
       </c>
@@ -28998,10 +28998,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="323" t="s">
+      <c r="D62" s="316" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="322"/>
+      <c r="E62" s="315"/>
       <c r="F62" s="105" t="s">
         <v>192</v>
       </c>
@@ -29095,8 +29095,8 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="92"/>
-      <c r="D65" s="314"/>
-      <c r="E65" s="313"/>
+      <c r="D65" s="306"/>
+      <c r="E65" s="307"/>
       <c r="F65" s="74"/>
       <c r="G65" s="76"/>
       <c r="H65" s="76"/>
@@ -29486,6 +29486,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
@@ -29496,16 +29506,6 @@
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -29603,15 +29603,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="308" t="s">
         <v>293</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -29624,15 +29624,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="311" t="s">
+      <c r="C5" s="308" t="s">
         <v>294</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -29666,15 +29666,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="308" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="320"/>
+      <c r="E7" s="320"/>
+      <c r="F7" s="320"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="307"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -29708,15 +29708,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="314" t="s">
+      <c r="C9" s="306" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="307"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -29779,19 +29779,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="321" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="316"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="317"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="322"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="322"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322"/>
+      <c r="L13" s="323"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29820,11 +29820,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="318" t="s">
+      <c r="J14" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29849,11 +29849,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="317" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -29878,9 +29878,9 @@
       <c r="I16" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="305"/>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="J16" s="317"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -30042,11 +30042,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="307" t="s">
+      <c r="B26" s="319" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="307"/>
-      <c r="D26" s="307"/>
+      <c r="C26" s="319"/>
+      <c r="D26" s="319"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -30061,12 +30061,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="308" t="s">
+      <c r="B27" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="309"/>
-      <c r="D27" s="309"/>
-      <c r="E27" s="310"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="314"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -30158,10 +30158,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="314" t="s">
+      <c r="D30" s="306" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="307"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -30191,10 +30191,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="314" t="s">
+      <c r="D31" s="306" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="307"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -30257,10 +30257,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="314" t="s">
+      <c r="D33" s="306" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="313"/>
+      <c r="E33" s="307"/>
       <c r="F33" s="74" t="s">
         <v>141</v>
       </c>
@@ -30290,10 +30290,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="311" t="s">
+      <c r="D34" s="308" t="s">
         <v>296</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="307"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -30377,10 +30377,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="325" t="s">
+      <c r="D37" s="326" t="s">
         <v>305</v>
       </c>
-      <c r="E37" s="326"/>
+      <c r="E37" s="327"/>
       <c r="F37" s="139" t="s">
         <v>304</v>
       </c>
@@ -30712,11 +30712,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="321" t="s">
+      <c r="B56" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="321"/>
-      <c r="D56" s="321"/>
+      <c r="C56" s="311"/>
+      <c r="D56" s="311"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -30733,12 +30733,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="308" t="s">
+      <c r="B57" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="309"/>
-      <c r="D57" s="309"/>
-      <c r="E57" s="310"/>
+      <c r="C57" s="313"/>
+      <c r="D57" s="313"/>
+      <c r="E57" s="314"/>
       <c r="F57" s="115" t="s">
         <v>125</v>
       </c>
@@ -30830,10 +30830,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="311" t="s">
+      <c r="D60" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="313"/>
+      <c r="E60" s="307"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -30863,10 +30863,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="311" t="s">
+      <c r="D61" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="322"/>
+      <c r="E61" s="315"/>
       <c r="F61" s="105" t="s">
         <v>189</v>
       </c>
@@ -30896,10 +30896,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="323" t="s">
+      <c r="D62" s="316" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="322"/>
+      <c r="E62" s="315"/>
       <c r="F62" s="105" t="s">
         <v>192</v>
       </c>
@@ -30964,8 +30964,8 @@
       <c r="C64" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="D64" s="324"/>
-      <c r="E64" s="324"/>
+      <c r="D64" s="325"/>
+      <c r="E64" s="325"/>
       <c r="F64" s="74" t="s">
         <v>168</v>
       </c>
@@ -30993,10 +30993,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="77"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="314" t="s">
+      <c r="D65" s="306" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="313"/>
+      <c r="E65" s="307"/>
       <c r="F65" s="74" t="s">
         <v>141</v>
       </c>
@@ -31026,10 +31026,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="77"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="311" t="s">
+      <c r="D66" s="308" t="s">
         <v>296</v>
       </c>
-      <c r="E66" s="313"/>
+      <c r="E66" s="307"/>
       <c r="F66" s="105" t="s">
         <v>273</v>
       </c>
@@ -31113,10 +31113,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="77"/>
       <c r="C69" s="86"/>
-      <c r="D69" s="325" t="s">
+      <c r="D69" s="326" t="s">
         <v>305</v>
       </c>
-      <c r="E69" s="326"/>
+      <c r="E69" s="327"/>
       <c r="F69" s="139" t="s">
         <v>304</v>
       </c>
@@ -31499,6 +31499,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D69:E69"/>
@@ -31513,16 +31523,6 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B56:D56"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -31620,15 +31620,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="308" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31641,15 +31641,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="311" t="s">
+      <c r="C5" s="308" t="s">
         <v>300</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31683,15 +31683,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="308" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="320"/>
+      <c r="E7" s="320"/>
+      <c r="F7" s="320"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="307"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31725,15 +31725,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="314" t="s">
+      <c r="C9" s="306" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="307"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31796,19 +31796,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="321" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="316"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="317"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="322"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="322"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322"/>
+      <c r="L13" s="323"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31837,11 +31837,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="318" t="s">
+      <c r="J14" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31866,11 +31866,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="317" t="s">
         <v>302</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31895,9 +31895,9 @@
       <c r="I16" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="305"/>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="J16" s="317"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -32059,11 +32059,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="307" t="s">
+      <c r="B26" s="319" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="307"/>
-      <c r="D26" s="307"/>
+      <c r="C26" s="319"/>
+      <c r="D26" s="319"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -32078,12 +32078,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="308" t="s">
+      <c r="B27" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="309"/>
-      <c r="D27" s="309"/>
-      <c r="E27" s="310"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="314"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -32175,10 +32175,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="314" t="s">
+      <c r="D30" s="306" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="307"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -32208,10 +32208,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="314" t="s">
+      <c r="D31" s="306" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="307"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -32274,10 +32274,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="314" t="s">
+      <c r="D33" s="306" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="313"/>
+      <c r="E33" s="307"/>
       <c r="F33" s="74" t="s">
         <v>141</v>
       </c>
@@ -32307,10 +32307,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="311" t="s">
+      <c r="D34" s="308" t="s">
         <v>296</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="307"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -32394,10 +32394,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="325" t="s">
+      <c r="D37" s="326" t="s">
         <v>305</v>
       </c>
-      <c r="E37" s="326"/>
+      <c r="E37" s="327"/>
       <c r="F37" s="137" t="s">
         <v>304</v>
       </c>
@@ -32729,11 +32729,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="321" t="s">
+      <c r="B56" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="321"/>
-      <c r="D56" s="321"/>
+      <c r="C56" s="311"/>
+      <c r="D56" s="311"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -32750,12 +32750,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="308" t="s">
+      <c r="B57" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="309"/>
-      <c r="D57" s="309"/>
-      <c r="E57" s="310"/>
+      <c r="C57" s="313"/>
+      <c r="D57" s="313"/>
+      <c r="E57" s="314"/>
       <c r="F57" s="151" t="s">
         <v>125</v>
       </c>
@@ -32847,10 +32847,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="311" t="s">
+      <c r="D60" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="313"/>
+      <c r="E60" s="307"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -32880,10 +32880,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="311" t="s">
+      <c r="D61" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="322"/>
+      <c r="E61" s="315"/>
       <c r="F61" s="105" t="s">
         <v>189</v>
       </c>
@@ -32913,10 +32913,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="323" t="s">
+      <c r="D62" s="316" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="322"/>
+      <c r="E62" s="315"/>
       <c r="F62" s="105" t="s">
         <v>192</v>
       </c>
@@ -32981,8 +32981,8 @@
       <c r="C64" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="D64" s="324"/>
-      <c r="E64" s="324"/>
+      <c r="D64" s="325"/>
+      <c r="E64" s="325"/>
       <c r="F64" s="74" t="s">
         <v>168</v>
       </c>
@@ -33010,10 +33010,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="77"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="314" t="s">
+      <c r="D65" s="306" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="313"/>
+      <c r="E65" s="307"/>
       <c r="F65" s="74" t="s">
         <v>141</v>
       </c>
@@ -33043,10 +33043,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="77"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="311" t="s">
+      <c r="D66" s="308" t="s">
         <v>296</v>
       </c>
-      <c r="E66" s="313"/>
+      <c r="E66" s="307"/>
       <c r="F66" s="105" t="s">
         <v>273</v>
       </c>
@@ -33130,10 +33130,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="77"/>
       <c r="C69" s="86"/>
-      <c r="D69" s="325" t="s">
+      <c r="D69" s="326" t="s">
         <v>305</v>
       </c>
-      <c r="E69" s="326"/>
+      <c r="E69" s="327"/>
       <c r="F69" s="139" t="s">
         <v>304</v>
       </c>
@@ -33490,17 +33490,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D37:E37"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
@@ -33514,6 +33503,17 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -33611,15 +33611,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="308" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33632,15 +33632,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="311" t="s">
+      <c r="C5" s="308" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -33674,15 +33674,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="308" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="320"/>
+      <c r="E7" s="320"/>
+      <c r="F7" s="320"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="307"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -33716,15 +33716,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="314" t="s">
+      <c r="C9" s="306" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="307"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -33787,19 +33787,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="321" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="316"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="317"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="322"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="322"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322"/>
+      <c r="L13" s="323"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33828,11 +33828,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="318" t="s">
+      <c r="J14" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -33857,11 +33857,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="317" t="s">
         <v>318</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -33886,9 +33886,9 @@
       <c r="I16" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="306"/>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="J16" s="318"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -34106,11 +34106,11 @@
     </row>
     <row r="28" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="69"/>
-      <c r="B28" s="307" t="s">
+      <c r="B28" s="319" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="307"/>
-      <c r="D28" s="307"/>
+      <c r="C28" s="319"/>
+      <c r="D28" s="319"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="G28" s="80"/>
@@ -34125,12 +34125,12 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="83"/>
-      <c r="B29" s="308" t="s">
+      <c r="B29" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="309"/>
-      <c r="D29" s="309"/>
-      <c r="E29" s="310"/>
+      <c r="C29" s="313"/>
+      <c r="D29" s="313"/>
+      <c r="E29" s="314"/>
       <c r="F29" s="115" t="s">
         <v>125</v>
       </c>
@@ -34222,10 +34222,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="90"/>
-      <c r="D32" s="314" t="s">
+      <c r="D32" s="306" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="313"/>
+      <c r="E32" s="307"/>
       <c r="F32" s="74" t="s">
         <v>139</v>
       </c>
@@ -34255,10 +34255,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="314" t="s">
+      <c r="D33" s="306" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="313"/>
+      <c r="E33" s="307"/>
       <c r="F33" s="74" t="s">
         <v>173</v>
       </c>
@@ -34321,10 +34321,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="311" t="s">
+      <c r="D35" s="308" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="313"/>
+      <c r="E35" s="307"/>
       <c r="F35" s="105" t="s">
         <v>273</v>
       </c>
@@ -34354,10 +34354,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="319" t="s">
+      <c r="D36" s="309" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="320"/>
+      <c r="E36" s="310"/>
       <c r="F36" s="105" t="s">
         <v>284</v>
       </c>
@@ -34441,10 +34441,10 @@
       <c r="A39" s="66"/>
       <c r="B39" s="85"/>
       <c r="C39" s="95"/>
-      <c r="D39" s="325" t="s">
+      <c r="D39" s="326" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="326"/>
+      <c r="E39" s="327"/>
       <c r="F39" s="137" t="s">
         <v>286</v>
       </c>
@@ -34776,11 +34776,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="321" t="s">
+      <c r="B58" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="321"/>
-      <c r="D58" s="321"/>
+      <c r="C58" s="311"/>
+      <c r="D58" s="311"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -34797,12 +34797,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="308" t="s">
+      <c r="B59" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="309"/>
-      <c r="D59" s="309"/>
-      <c r="E59" s="310"/>
+      <c r="C59" s="313"/>
+      <c r="D59" s="313"/>
+      <c r="E59" s="314"/>
       <c r="F59" s="115" t="s">
         <v>125</v>
       </c>
@@ -34894,10 +34894,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="311" t="s">
+      <c r="D62" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="313"/>
+      <c r="E62" s="307"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -34927,10 +34927,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="311" t="s">
+      <c r="D63" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="322"/>
+      <c r="E63" s="315"/>
       <c r="F63" s="105" t="s">
         <v>189</v>
       </c>
@@ -34960,10 +34960,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="323" t="s">
+      <c r="D64" s="316" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="322"/>
+      <c r="E64" s="315"/>
       <c r="F64" s="105" t="s">
         <v>192</v>
       </c>
@@ -35057,10 +35057,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="93"/>
       <c r="C67" s="86"/>
-      <c r="D67" s="311" t="s">
+      <c r="D67" s="308" t="s">
         <v>290</v>
       </c>
-      <c r="E67" s="313"/>
+      <c r="E67" s="307"/>
       <c r="F67" s="105" t="s">
         <v>273</v>
       </c>
@@ -35090,10 +35090,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="93"/>
       <c r="C68" s="86"/>
-      <c r="D68" s="319" t="s">
+      <c r="D68" s="309" t="s">
         <v>283</v>
       </c>
-      <c r="E68" s="320"/>
+      <c r="E68" s="310"/>
       <c r="F68" s="105" t="s">
         <v>284</v>
       </c>
@@ -35177,10 +35177,10 @@
       <c r="A71" s="66"/>
       <c r="B71" s="66"/>
       <c r="C71" s="66"/>
-      <c r="D71" s="325" t="s">
+      <c r="D71" s="326" t="s">
         <v>285</v>
       </c>
-      <c r="E71" s="326"/>
+      <c r="E71" s="327"/>
       <c r="F71" s="137" t="s">
         <v>286</v>
       </c>
@@ -35208,8 +35208,8 @@
         <v>179</v>
       </c>
       <c r="C72" s="66"/>
-      <c r="D72" s="327"/>
-      <c r="E72" s="328"/>
+      <c r="D72" s="328"/>
+      <c r="E72" s="329"/>
       <c r="F72" s="75"/>
       <c r="G72" s="75"/>
       <c r="H72" s="75"/>
@@ -35512,17 +35512,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
@@ -35536,6 +35525,17 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D39:E39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -35633,15 +35633,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="308" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35654,15 +35654,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="311" t="s">
+      <c r="C5" s="308" t="s">
         <v>327</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35696,15 +35696,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="308" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="320"/>
+      <c r="E7" s="320"/>
+      <c r="F7" s="320"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="307"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -35738,15 +35738,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="314" t="s">
+      <c r="C9" s="306" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="307"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -35809,19 +35809,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="321" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="316"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="317"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="322"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="322"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322"/>
+      <c r="L13" s="323"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -35850,11 +35850,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="318" t="s">
+      <c r="J14" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -35879,11 +35879,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="317" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -35908,9 +35908,9 @@
       <c r="I16" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="305"/>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="J16" s="317"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -36072,11 +36072,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="307" t="s">
+      <c r="B26" s="319" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="307"/>
-      <c r="D26" s="307"/>
+      <c r="C26" s="319"/>
+      <c r="D26" s="319"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -36091,12 +36091,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="308" t="s">
+      <c r="B27" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="309"/>
-      <c r="D27" s="309"/>
-      <c r="E27" s="310"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="314"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -36188,10 +36188,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="314" t="s">
+      <c r="D30" s="306" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="307"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -36221,10 +36221,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="314" t="s">
+      <c r="D31" s="306" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="307"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -36287,8 +36287,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="314"/>
-      <c r="E33" s="313"/>
+      <c r="D33" s="306"/>
+      <c r="E33" s="307"/>
       <c r="F33" s="74"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -36610,11 +36610,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="321" t="s">
+      <c r="B52" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="321"/>
-      <c r="D52" s="321"/>
+      <c r="C52" s="311"/>
+      <c r="D52" s="311"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -36631,12 +36631,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="308" t="s">
+      <c r="B53" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="309"/>
-      <c r="D53" s="309"/>
-      <c r="E53" s="310"/>
+      <c r="C53" s="313"/>
+      <c r="D53" s="313"/>
+      <c r="E53" s="314"/>
       <c r="F53" s="115" t="s">
         <v>125</v>
       </c>
@@ -36728,10 +36728,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="311" t="s">
+      <c r="D56" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="313"/>
+      <c r="E56" s="307"/>
       <c r="F56" s="74" t="s">
         <v>139</v>
       </c>
@@ -36761,10 +36761,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="311" t="s">
+      <c r="D57" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="315"/>
       <c r="F57" s="105" t="s">
         <v>189</v>
       </c>
@@ -36794,10 +36794,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="323" t="s">
+      <c r="D58" s="316" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="315"/>
       <c r="F58" s="105" t="s">
         <v>192</v>
       </c>
@@ -37257,12 +37257,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -37275,6 +37269,12 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -37372,15 +37372,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="308" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -37393,15 +37393,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="311" t="s">
+      <c r="C5" s="308" t="s">
         <v>307</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -37435,15 +37435,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="308" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="320"/>
+      <c r="E7" s="320"/>
+      <c r="F7" s="320"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="307"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -37477,15 +37477,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="314" t="s">
+      <c r="C9" s="306" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="307"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -37548,19 +37548,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="321" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="316"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="317"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="322"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="322"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322"/>
+      <c r="L13" s="323"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -37589,11 +37589,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="318" t="s">
+      <c r="J14" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -37608,9 +37608,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="130"/>
-      <c r="J15" s="305"/>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="J15" s="317"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37625,9 +37625,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="306"/>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="J16" s="318"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -37806,11 +37806,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="307" t="s">
+      <c r="B27" s="319" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="307"/>
-      <c r="D27" s="307"/>
+      <c r="C27" s="319"/>
+      <c r="D27" s="319"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -37825,12 +37825,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="308" t="s">
+      <c r="B28" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="309"/>
-      <c r="D28" s="309"/>
-      <c r="E28" s="310"/>
+      <c r="C28" s="313"/>
+      <c r="D28" s="313"/>
+      <c r="E28" s="314"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -37922,10 +37922,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="314" t="s">
+      <c r="D31" s="306" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="307"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -37955,10 +37955,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="314" t="s">
+      <c r="D32" s="306" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="313"/>
+      <c r="E32" s="307"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -38021,10 +38021,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="311" t="s">
+      <c r="D34" s="308" t="s">
         <v>290</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="307"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -38054,10 +38054,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="319" t="s">
+      <c r="D35" s="309" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="320"/>
+      <c r="E35" s="310"/>
       <c r="F35" s="105" t="s">
         <v>284</v>
       </c>
@@ -38393,11 +38393,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="321" t="s">
+      <c r="B54" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="321"/>
-      <c r="D54" s="321"/>
+      <c r="C54" s="311"/>
+      <c r="D54" s="311"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -38414,12 +38414,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="308" t="s">
+      <c r="B55" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="309"/>
-      <c r="D55" s="309"/>
-      <c r="E55" s="310"/>
+      <c r="C55" s="313"/>
+      <c r="D55" s="313"/>
+      <c r="E55" s="314"/>
       <c r="F55" s="115" t="s">
         <v>125</v>
       </c>
@@ -38511,10 +38511,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="311" t="s">
+      <c r="D58" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="313"/>
+      <c r="E58" s="307"/>
       <c r="F58" s="74" t="s">
         <v>139</v>
       </c>
@@ -38544,10 +38544,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="311" t="s">
+      <c r="D59" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="322"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="105" t="s">
         <v>189</v>
       </c>
@@ -38577,10 +38577,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="323" t="s">
+      <c r="D60" s="316" t="s">
         <v>194</v>
       </c>
-      <c r="E60" s="322"/>
+      <c r="E60" s="315"/>
       <c r="F60" s="105" t="s">
         <v>192</v>
       </c>
@@ -38674,8 +38674,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="314"/>
-      <c r="E63" s="313"/>
+      <c r="D63" s="306"/>
+      <c r="E63" s="307"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -39065,14 +39065,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -39085,6 +39077,14 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39178,15 +39178,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="308" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -39199,13 +39199,13 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="311"/>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="313"/>
+      <c r="C5" s="308"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -39239,15 +39239,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="308" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="320"/>
+      <c r="E7" s="320"/>
+      <c r="F7" s="320"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="307"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -39281,15 +39281,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="314" t="s">
+      <c r="C9" s="306" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="307"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -39352,19 +39352,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="321" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="316"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="317"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="322"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="322"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322"/>
+      <c r="L13" s="323"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -39393,11 +39393,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="318" t="s">
+      <c r="J14" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -39422,11 +39422,11 @@
       <c r="I15" s="131" t="s">
         <v>274</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="317" t="s">
         <v>312</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -39441,9 +39441,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="306"/>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="J16" s="318"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -39622,11 +39622,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="307" t="s">
+      <c r="B27" s="319" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="307"/>
-      <c r="D27" s="307"/>
+      <c r="C27" s="319"/>
+      <c r="D27" s="319"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -39641,12 +39641,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="308" t="s">
+      <c r="B28" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="309"/>
-      <c r="D28" s="309"/>
-      <c r="E28" s="310"/>
+      <c r="C28" s="313"/>
+      <c r="D28" s="313"/>
+      <c r="E28" s="314"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -39738,10 +39738,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="314" t="s">
+      <c r="D31" s="306" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="307"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -39771,10 +39771,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="314" t="s">
+      <c r="D32" s="306" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="313"/>
+      <c r="E32" s="307"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -39837,10 +39837,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="311" t="s">
+      <c r="D34" s="308" t="s">
         <v>272</v>
       </c>
-      <c r="E34" s="322"/>
+      <c r="E34" s="315"/>
       <c r="F34" s="105" t="s">
         <v>175</v>
       </c>
@@ -39866,10 +39866,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="311" t="s">
+      <c r="D35" s="308" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="313"/>
+      <c r="E35" s="307"/>
       <c r="F35" s="105" t="s">
         <v>273</v>
       </c>
@@ -39899,10 +39899,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="319" t="s">
+      <c r="D36" s="309" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="320"/>
+      <c r="E36" s="310"/>
       <c r="F36" s="105" t="s">
         <v>284</v>
       </c>
@@ -40238,11 +40238,11 @@
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="321" t="s">
+      <c r="B55" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="321"/>
-      <c r="D55" s="321"/>
+      <c r="C55" s="311"/>
+      <c r="D55" s="311"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
@@ -40259,12 +40259,12 @@
     </row>
     <row r="56" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="83"/>
-      <c r="B56" s="308" t="s">
+      <c r="B56" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="309"/>
-      <c r="D56" s="309"/>
-      <c r="E56" s="310"/>
+      <c r="C56" s="313"/>
+      <c r="D56" s="313"/>
+      <c r="E56" s="314"/>
       <c r="F56" s="115" t="s">
         <v>125</v>
       </c>
@@ -40356,10 +40356,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="311" t="s">
+      <c r="D59" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="313"/>
+      <c r="E59" s="307"/>
       <c r="F59" s="74" t="s">
         <v>139</v>
       </c>
@@ -40389,10 +40389,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="311" t="s">
+      <c r="D60" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="322"/>
+      <c r="E60" s="315"/>
       <c r="F60" s="105" t="s">
         <v>189</v>
       </c>
@@ -40422,10 +40422,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="323" t="s">
+      <c r="D61" s="316" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="322"/>
+      <c r="E61" s="315"/>
       <c r="F61" s="105" t="s">
         <v>192</v>
       </c>
@@ -40519,8 +40519,8 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="92"/>
-      <c r="D64" s="314"/>
-      <c r="E64" s="313"/>
+      <c r="D64" s="306"/>
+      <c r="E64" s="307"/>
       <c r="F64" s="74"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
@@ -40910,15 +40910,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -40931,6 +40922,15 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41459,15 +41459,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="308" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -41480,15 +41480,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="311" t="s">
+      <c r="C5" s="308" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -41522,15 +41522,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="314" t="s">
+      <c r="C7" s="306" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="320"/>
+      <c r="E7" s="320"/>
+      <c r="F7" s="320"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="307"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41564,15 +41564,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="314" t="s">
+      <c r="C9" s="306" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="307"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -41635,19 +41635,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="321" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="316"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="317"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="322"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="322"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322"/>
+      <c r="L13" s="323"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -41676,11 +41676,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="318" t="s">
+      <c r="J14" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -41705,11 +41705,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="317" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -41734,9 +41734,9 @@
       <c r="I16" s="130" t="s">
         <v>392</v>
       </c>
-      <c r="J16" s="306"/>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="J16" s="318"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -41927,11 +41927,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="307" t="s">
+      <c r="B27" s="319" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="307"/>
-      <c r="D27" s="307"/>
+      <c r="C27" s="319"/>
+      <c r="D27" s="319"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -41946,12 +41946,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="308" t="s">
+      <c r="B28" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="309"/>
-      <c r="D28" s="309"/>
-      <c r="E28" s="310"/>
+      <c r="C28" s="313"/>
+      <c r="D28" s="313"/>
+      <c r="E28" s="314"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -42043,10 +42043,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="314" t="s">
+      <c r="D31" s="306" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="307"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -42076,10 +42076,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="314" t="s">
+      <c r="D32" s="306" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="313"/>
+      <c r="E32" s="307"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -42171,10 +42171,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="311" t="s">
+      <c r="D35" s="308" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="313"/>
+      <c r="E35" s="307"/>
       <c r="F35" s="105" t="s">
         <v>391</v>
       </c>
@@ -42204,10 +42204,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="319" t="s">
+      <c r="D36" s="309" t="s">
         <v>394</v>
       </c>
-      <c r="E36" s="320"/>
+      <c r="E36" s="310"/>
       <c r="F36" s="105" t="s">
         <v>273</v>
       </c>
@@ -42630,11 +42630,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="321" t="s">
+      <c r="B58" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="321"/>
-      <c r="D58" s="321"/>
+      <c r="C58" s="311"/>
+      <c r="D58" s="311"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -42651,12 +42651,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="308" t="s">
+      <c r="B59" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="309"/>
-      <c r="D59" s="309"/>
-      <c r="E59" s="310"/>
+      <c r="C59" s="313"/>
+      <c r="D59" s="313"/>
+      <c r="E59" s="314"/>
       <c r="F59" s="151" t="s">
         <v>125</v>
       </c>
@@ -42748,10 +42748,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="311" t="s">
+      <c r="D62" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="313"/>
+      <c r="E62" s="307"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -42781,10 +42781,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="311" t="s">
+      <c r="D63" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="322"/>
+      <c r="E63" s="315"/>
       <c r="F63" s="105" t="s">
         <v>189</v>
       </c>
@@ -42814,10 +42814,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="323" t="s">
+      <c r="D64" s="316" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="322"/>
+      <c r="E64" s="315"/>
       <c r="F64" s="105" t="s">
         <v>192</v>
       </c>
@@ -42911,8 +42911,8 @@
       <c r="A67" s="66"/>
       <c r="B67" s="91"/>
       <c r="C67" s="92"/>
-      <c r="D67" s="314"/>
-      <c r="E67" s="313"/>
+      <c r="D67" s="306"/>
+      <c r="E67" s="307"/>
       <c r="F67" s="74"/>
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
@@ -43302,14 +43302,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -43322,6 +43314,14 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -43419,15 +43419,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="308" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -43440,15 +43440,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="311" t="s">
+      <c r="C5" s="308" t="s">
         <v>402</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -43482,15 +43482,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="308" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="320"/>
+      <c r="E7" s="320"/>
+      <c r="F7" s="320"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="307"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -43524,15 +43524,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="314" t="s">
+      <c r="C9" s="306" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="307"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -43595,19 +43595,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="321" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="316"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="317"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="322"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="322"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322"/>
+      <c r="L13" s="323"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -43636,11 +43636,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="318" t="s">
+      <c r="J14" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -43665,11 +43665,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="317" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -43891,11 +43891,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="307" t="s">
+      <c r="B27" s="319" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="307"/>
-      <c r="D27" s="307"/>
+      <c r="C27" s="319"/>
+      <c r="D27" s="319"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -43910,12 +43910,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="308" t="s">
+      <c r="B28" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="309"/>
-      <c r="D28" s="309"/>
-      <c r="E28" s="310"/>
+      <c r="C28" s="313"/>
+      <c r="D28" s="313"/>
+      <c r="E28" s="314"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -44007,10 +44007,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="314" t="s">
+      <c r="D31" s="306" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="307"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -44040,10 +44040,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="314" t="s">
+      <c r="D32" s="306" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="313"/>
+      <c r="E32" s="307"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -44135,10 +44135,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="311" t="s">
+      <c r="D35" s="308" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="313"/>
+      <c r="E35" s="307"/>
       <c r="F35" s="105" t="s">
         <v>391</v>
       </c>
@@ -44168,10 +44168,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="319" t="s">
+      <c r="D36" s="309" t="s">
         <v>394</v>
       </c>
-      <c r="E36" s="320"/>
+      <c r="E36" s="310"/>
       <c r="F36" s="105" t="s">
         <v>273</v>
       </c>
@@ -44594,11 +44594,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="321" t="s">
+      <c r="B58" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="321"/>
-      <c r="D58" s="321"/>
+      <c r="C58" s="311"/>
+      <c r="D58" s="311"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -44615,12 +44615,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="308" t="s">
+      <c r="B59" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="309"/>
-      <c r="D59" s="309"/>
-      <c r="E59" s="310"/>
+      <c r="C59" s="313"/>
+      <c r="D59" s="313"/>
+      <c r="E59" s="314"/>
       <c r="F59" s="151" t="s">
         <v>125</v>
       </c>
@@ -44712,10 +44712,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="311" t="s">
+      <c r="D62" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="313"/>
+      <c r="E62" s="307"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -44745,10 +44745,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="311" t="s">
+      <c r="D63" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="322"/>
+      <c r="E63" s="315"/>
       <c r="F63" s="105" t="s">
         <v>189</v>
       </c>
@@ -44778,10 +44778,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="323" t="s">
+      <c r="D64" s="316" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="322"/>
+      <c r="E64" s="315"/>
       <c r="F64" s="105" t="s">
         <v>192</v>
       </c>
@@ -44904,10 +44904,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="85"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="311" t="s">
+      <c r="D68" s="308" t="s">
         <v>290</v>
       </c>
-      <c r="E68" s="313"/>
+      <c r="E68" s="307"/>
       <c r="F68" s="105" t="s">
         <v>391</v>
       </c>
@@ -44937,10 +44937,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="85"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="319" t="s">
+      <c r="D69" s="309" t="s">
         <v>394</v>
       </c>
-      <c r="E69" s="320"/>
+      <c r="E69" s="310"/>
       <c r="F69" s="105" t="s">
         <v>273</v>
       </c>
@@ -45393,15 +45393,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -45413,6 +45404,15 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -45509,15 +45509,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="308" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -45530,15 +45530,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="311" t="s">
+      <c r="C5" s="308" t="s">
         <v>407</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -45572,15 +45572,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="308" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="320"/>
+      <c r="E7" s="320"/>
+      <c r="F7" s="320"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="307"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -45614,15 +45614,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="314" t="s">
+      <c r="C9" s="306" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="307"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -45685,19 +45685,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="321" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="316"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="317"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="322"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="322"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322"/>
+      <c r="L13" s="323"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45726,11 +45726,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="318" t="s">
+      <c r="J14" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45755,11 +45755,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="317" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -45950,11 +45950,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="307" t="s">
+      <c r="B26" s="319" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="307"/>
-      <c r="D26" s="307"/>
+      <c r="C26" s="319"/>
+      <c r="D26" s="319"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -45969,12 +45969,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="308" t="s">
+      <c r="B27" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="309"/>
-      <c r="D27" s="309"/>
-      <c r="E27" s="310"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="314"/>
       <c r="F27" s="151" t="s">
         <v>125</v>
       </c>
@@ -46066,10 +46066,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="314" t="s">
+      <c r="D30" s="306" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="307"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -46099,10 +46099,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="314" t="s">
+      <c r="D31" s="306" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="307"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -46165,8 +46165,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="329"/>
-      <c r="E33" s="329"/>
+      <c r="D33" s="330"/>
+      <c r="E33" s="330"/>
       <c r="F33" s="105"/>
       <c r="G33" s="106"/>
       <c r="H33" s="76"/>
@@ -46488,11 +46488,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="321" t="s">
+      <c r="B52" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="321"/>
-      <c r="D52" s="321"/>
+      <c r="C52" s="311"/>
+      <c r="D52" s="311"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -46509,12 +46509,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="308" t="s">
+      <c r="B53" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="309"/>
-      <c r="D53" s="309"/>
-      <c r="E53" s="310"/>
+      <c r="C53" s="313"/>
+      <c r="D53" s="313"/>
+      <c r="E53" s="314"/>
       <c r="F53" s="151" t="s">
         <v>125</v>
       </c>
@@ -46606,10 +46606,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="311" t="s">
+      <c r="D56" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="313"/>
+      <c r="E56" s="307"/>
       <c r="F56" s="74" t="s">
         <v>139</v>
       </c>
@@ -46639,10 +46639,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="311" t="s">
+      <c r="D57" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="315"/>
       <c r="F57" s="105" t="s">
         <v>189</v>
       </c>
@@ -46672,10 +46672,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="323" t="s">
+      <c r="D58" s="316" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="315"/>
       <c r="F58" s="105" t="s">
         <v>192</v>
       </c>
@@ -46769,8 +46769,8 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="92"/>
-      <c r="D61" s="314"/>
-      <c r="E61" s="313"/>
+      <c r="D61" s="306"/>
+      <c r="E61" s="307"/>
       <c r="F61" s="74"/>
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
@@ -47160,6 +47160,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D33:E33"/>
@@ -47167,17 +47178,6 @@
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -47274,15 +47274,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="308" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -47295,15 +47295,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="311" t="s">
+      <c r="C5" s="308" t="s">
         <v>410</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -47337,15 +47337,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="308" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="320"/>
+      <c r="E7" s="320"/>
+      <c r="F7" s="320"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="307"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -47379,15 +47379,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="314" t="s">
+      <c r="C9" s="306" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="307"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -47450,19 +47450,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="321" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="316"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="317"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="322"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="322"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322"/>
+      <c r="L13" s="323"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -47491,11 +47491,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="318" t="s">
+      <c r="J14" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -47520,11 +47520,11 @@
       <c r="I15" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="317" t="s">
         <v>291</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -47539,9 +47539,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="306"/>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="J16" s="318"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -47720,11 +47720,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="307" t="s">
+      <c r="B27" s="319" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="307"/>
-      <c r="D27" s="307"/>
+      <c r="C27" s="319"/>
+      <c r="D27" s="319"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -47739,12 +47739,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="308" t="s">
+      <c r="B28" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="309"/>
-      <c r="D28" s="309"/>
-      <c r="E28" s="310"/>
+      <c r="C28" s="313"/>
+      <c r="D28" s="313"/>
+      <c r="E28" s="314"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -47836,10 +47836,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="314" t="s">
+      <c r="D31" s="306" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="307"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -47869,10 +47869,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="314" t="s">
+      <c r="D32" s="306" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="313"/>
+      <c r="E32" s="307"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -47935,10 +47935,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="311" t="s">
+      <c r="D34" s="308" t="s">
         <v>394</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="307"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -47968,10 +47968,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="319" t="s">
+      <c r="D35" s="309" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="320"/>
+      <c r="E35" s="310"/>
       <c r="F35" s="105" t="s">
         <v>286</v>
       </c>
@@ -48307,11 +48307,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="321" t="s">
+      <c r="B54" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="321"/>
-      <c r="D54" s="321"/>
+      <c r="C54" s="311"/>
+      <c r="D54" s="311"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -48328,12 +48328,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="308" t="s">
+      <c r="B55" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="309"/>
-      <c r="D55" s="309"/>
-      <c r="E55" s="310"/>
+      <c r="C55" s="313"/>
+      <c r="D55" s="313"/>
+      <c r="E55" s="314"/>
       <c r="F55" s="151" t="s">
         <v>125</v>
       </c>
@@ -48425,10 +48425,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="311" t="s">
+      <c r="D58" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="313"/>
+      <c r="E58" s="307"/>
       <c r="F58" s="74" t="s">
         <v>139</v>
       </c>
@@ -48458,10 +48458,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="311" t="s">
+      <c r="D59" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="322"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="105" t="s">
         <v>189</v>
       </c>
@@ -48491,10 +48491,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="323" t="s">
+      <c r="D60" s="316" t="s">
         <v>194</v>
       </c>
-      <c r="E60" s="322"/>
+      <c r="E60" s="315"/>
       <c r="F60" s="105" t="s">
         <v>192</v>
       </c>
@@ -48588,8 +48588,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="314"/>
-      <c r="E63" s="313"/>
+      <c r="D63" s="306"/>
+      <c r="E63" s="307"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -48979,14 +48979,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -48999,6 +48991,14 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -49092,15 +49092,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="308" t="s">
         <v>412</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -49113,15 +49113,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="311" t="s">
+      <c r="C5" s="308" t="s">
         <v>413</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -49155,15 +49155,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="308" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="320"/>
+      <c r="E7" s="320"/>
+      <c r="F7" s="320"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="307"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -49197,15 +49197,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="314" t="s">
+      <c r="C9" s="306" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="307"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -49268,19 +49268,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="321" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="316"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="317"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="322"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="322"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322"/>
+      <c r="L13" s="323"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -49309,11 +49309,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="318" t="s">
+      <c r="J14" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -49338,11 +49338,11 @@
       <c r="I15" s="130" t="s">
         <v>415</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="317" t="s">
         <v>416</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -49367,11 +49367,11 @@
       <c r="I16" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="305" t="s">
+      <c r="J16" s="317" t="s">
         <v>417</v>
       </c>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -49550,11 +49550,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="307" t="s">
+      <c r="B27" s="319" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="307"/>
-      <c r="D27" s="307"/>
+      <c r="C27" s="319"/>
+      <c r="D27" s="319"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -49569,12 +49569,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="308" t="s">
+      <c r="B28" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="309"/>
-      <c r="D28" s="309"/>
-      <c r="E28" s="310"/>
+      <c r="C28" s="313"/>
+      <c r="D28" s="313"/>
+      <c r="E28" s="314"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -49666,10 +49666,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="314" t="s">
+      <c r="D31" s="306" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="307"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -49699,10 +49699,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="314" t="s">
+      <c r="D32" s="306" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="313"/>
+      <c r="E32" s="307"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -49794,10 +49794,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="311" t="s">
+      <c r="D35" s="308" t="s">
         <v>394</v>
       </c>
-      <c r="E35" s="313"/>
+      <c r="E35" s="307"/>
       <c r="F35" s="105" t="s">
         <v>273</v>
       </c>
@@ -49827,10 +49827,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="319" t="s">
+      <c r="D36" s="309" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="320"/>
+      <c r="E36" s="310"/>
       <c r="F36" s="105" t="s">
         <v>286</v>
       </c>
@@ -50176,11 +50176,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="321" t="s">
+      <c r="B57" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="321"/>
-      <c r="D57" s="321"/>
+      <c r="C57" s="311"/>
+      <c r="D57" s="311"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -50197,12 +50197,12 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="308" t="s">
+      <c r="B58" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="309"/>
-      <c r="D58" s="309"/>
-      <c r="E58" s="310"/>
+      <c r="C58" s="313"/>
+      <c r="D58" s="313"/>
+      <c r="E58" s="314"/>
       <c r="F58" s="151" t="s">
         <v>125</v>
       </c>
@@ -50814,22 +50814,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -50840,7 +50840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
@@ -50874,10 +50874,10 @@
       <c r="C4" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="272" t="s">
+      <c r="D4" s="276" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="272"/>
+      <c r="E4" s="276"/>
       <c r="F4" s="111" t="s">
         <v>185</v>
       </c>
@@ -50890,10 +50890,10 @@
       <c r="C5" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="273" t="s">
+      <c r="D5" s="275" t="s">
         <v>450</v>
       </c>
-      <c r="E5" s="273"/>
+      <c r="E5" s="275"/>
       <c r="F5" s="120" t="s">
         <v>238</v>
       </c>
@@ -50907,10 +50907,10 @@
       <c r="C6" s="119" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="273" t="s">
+      <c r="D6" s="275" t="s">
         <v>289</v>
       </c>
-      <c r="E6" s="273"/>
+      <c r="E6" s="275"/>
       <c r="F6" s="120" t="s">
         <v>267</v>
       </c>
@@ -50923,10 +50923,10 @@
       <c r="C7" s="119" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="273" t="s">
+      <c r="D7" s="275" t="s">
         <v>266</v>
       </c>
-      <c r="E7" s="273"/>
+      <c r="E7" s="275"/>
       <c r="F7" s="120" t="s">
         <v>268</v>
       </c>
@@ -50939,10 +50939,10 @@
       <c r="C8" s="119" t="s">
         <v>277</v>
       </c>
-      <c r="D8" s="273" t="s">
+      <c r="D8" s="275" t="s">
         <v>279</v>
       </c>
-      <c r="E8" s="273"/>
+      <c r="E8" s="275"/>
       <c r="F8" s="120" t="s">
         <v>278</v>
       </c>
@@ -50962,10 +50962,10 @@
       <c r="C10" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="272" t="s">
+      <c r="D10" s="276" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="272"/>
+      <c r="E10" s="276"/>
       <c r="F10" s="111" t="s">
         <v>185</v>
       </c>
@@ -50977,10 +50977,10 @@
       <c r="C11" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="273" t="s">
+      <c r="D11" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="273"/>
+      <c r="E11" s="275"/>
       <c r="F11" s="100"/>
       <c r="H11" s="100"/>
     </row>
@@ -50991,10 +50991,10 @@
       <c r="C12" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="273" t="s">
+      <c r="D12" s="275" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="273"/>
+      <c r="E12" s="275"/>
       <c r="F12" s="120"/>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
@@ -51006,10 +51006,10 @@
       <c r="C13" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="273" t="s">
+      <c r="D13" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="273"/>
+      <c r="E13" s="275"/>
       <c r="F13" s="120"/>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
@@ -51021,10 +51021,10 @@
       <c r="C14" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="273" t="s">
+      <c r="D14" s="275" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="273"/>
+      <c r="E14" s="275"/>
       <c r="F14" s="120"/>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
@@ -51036,10 +51036,10 @@
       <c r="C15" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="273" t="s">
+      <c r="D15" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="273"/>
+      <c r="E15" s="275"/>
       <c r="F15" s="120"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -51058,10 +51058,10 @@
       <c r="C18" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="272" t="s">
+      <c r="D18" s="276" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="272"/>
+      <c r="E18" s="276"/>
       <c r="F18" s="111" t="s">
         <v>185</v>
       </c>
@@ -51073,10 +51073,10 @@
       <c r="C19" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="D19" s="273" t="s">
+      <c r="D19" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="273"/>
+      <c r="E19" s="275"/>
       <c r="F19" s="122"/>
       <c r="G19" s="100"/>
       <c r="H19" s="100"/>
@@ -51088,10 +51088,10 @@
       <c r="C20" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="273" t="s">
+      <c r="D20" s="275" t="s">
         <v>470</v>
       </c>
-      <c r="E20" s="273"/>
+      <c r="E20" s="275"/>
       <c r="F20" s="122"/>
       <c r="G20" s="100"/>
       <c r="H20" s="100"/>
@@ -51103,10 +51103,10 @@
       <c r="C21" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="273" t="s">
+      <c r="D21" s="275" t="s">
         <v>451</v>
       </c>
-      <c r="E21" s="273"/>
+      <c r="E21" s="275"/>
       <c r="F21" s="122"/>
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
@@ -51118,10 +51118,10 @@
       <c r="C22" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="D22" s="273" t="s">
+      <c r="D22" s="275" t="s">
         <v>446</v>
       </c>
-      <c r="E22" s="273"/>
+      <c r="E22" s="275"/>
       <c r="F22" s="122"/>
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
@@ -51133,10 +51133,10 @@
       <c r="C23" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="D23" s="273" t="s">
+      <c r="D23" s="275" t="s">
         <v>471</v>
       </c>
-      <c r="E23" s="273"/>
+      <c r="E23" s="275"/>
       <c r="F23" s="122"/>
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
@@ -51148,10 +51148,10 @@
       <c r="C24" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="273" t="s">
+      <c r="D24" s="275" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="273"/>
+      <c r="E24" s="275"/>
       <c r="F24" s="122"/>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
@@ -51170,10 +51170,10 @@
       <c r="C27" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="272" t="s">
+      <c r="D27" s="276" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="272"/>
+      <c r="E27" s="276"/>
       <c r="F27" s="111" t="s">
         <v>185</v>
       </c>
@@ -51185,10 +51185,10 @@
       <c r="C28" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="273" t="s">
+      <c r="D28" s="275" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="273"/>
+      <c r="E28" s="275"/>
       <c r="F28" s="122"/>
       <c r="G28" s="100"/>
       <c r="H28" s="100"/>
@@ -51200,10 +51200,10 @@
       <c r="C29" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="273" t="s">
+      <c r="D29" s="275" t="s">
         <v>256</v>
       </c>
-      <c r="E29" s="273"/>
+      <c r="E29" s="275"/>
       <c r="F29" s="122"/>
       <c r="G29" s="100"/>
       <c r="H29" s="100"/>
@@ -51215,10 +51215,10 @@
       <c r="C30" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="273" t="s">
+      <c r="D30" s="275" t="s">
         <v>441</v>
       </c>
-      <c r="E30" s="273"/>
+      <c r="E30" s="275"/>
       <c r="F30" s="122"/>
       <c r="G30" s="100"/>
       <c r="H30" s="100"/>
@@ -51230,10 +51230,10 @@
       <c r="C31" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="273" t="s">
+      <c r="D31" s="275" t="s">
         <v>245</v>
       </c>
-      <c r="E31" s="273"/>
+      <c r="E31" s="275"/>
       <c r="F31" s="122"/>
       <c r="G31" s="100"/>
       <c r="H31" s="100"/>
@@ -51245,10 +51245,10 @@
       <c r="C32" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="273" t="s">
+      <c r="D32" s="275" t="s">
         <v>246</v>
       </c>
-      <c r="E32" s="273"/>
+      <c r="E32" s="275"/>
       <c r="F32" s="122"/>
       <c r="G32" s="100"/>
       <c r="H32" s="100"/>
@@ -51265,10 +51265,10 @@
       <c r="C36" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="272" t="s">
+      <c r="D36" s="276" t="s">
         <v>188</v>
       </c>
-      <c r="E36" s="272"/>
+      <c r="E36" s="276"/>
       <c r="F36" s="111" t="s">
         <v>185</v>
       </c>
@@ -51280,10 +51280,10 @@
       <c r="C37" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="274" t="s">
+      <c r="D37" s="277" t="s">
         <v>249</v>
       </c>
-      <c r="E37" s="275"/>
+      <c r="E37" s="278"/>
       <c r="F37" s="126"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1">
@@ -51293,10 +51293,10 @@
       <c r="C38" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="274" t="s">
+      <c r="D38" s="277" t="s">
         <v>250</v>
       </c>
-      <c r="E38" s="275"/>
+      <c r="E38" s="278"/>
       <c r="F38" s="126"/>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1">
@@ -51306,10 +51306,10 @@
       <c r="C39" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="274" t="s">
+      <c r="D39" s="277" t="s">
         <v>251</v>
       </c>
-      <c r="E39" s="275"/>
+      <c r="E39" s="278"/>
       <c r="F39" s="126"/>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1">
@@ -51319,10 +51319,10 @@
       <c r="C40" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="274" t="s">
+      <c r="D40" s="277" t="s">
         <v>252</v>
       </c>
-      <c r="E40" s="275"/>
+      <c r="E40" s="278"/>
       <c r="F40" s="126"/>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1">
@@ -51332,10 +51332,10 @@
       <c r="C41" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="274" t="s">
+      <c r="D41" s="277" t="s">
         <v>253</v>
       </c>
-      <c r="E41" s="275"/>
+      <c r="E41" s="278"/>
       <c r="F41" s="126"/>
     </row>
     <row r="42" spans="2:6">
@@ -51345,10 +51345,10 @@
       <c r="C42" s="127">
         <v>2506</v>
       </c>
-      <c r="D42" s="276" t="s">
+      <c r="D42" s="273" t="s">
         <v>255</v>
       </c>
-      <c r="E42" s="277"/>
+      <c r="E42" s="274"/>
       <c r="F42" s="128"/>
     </row>
     <row r="43" spans="2:6">
@@ -51358,10 +51358,10 @@
       <c r="C43" s="127">
         <v>2507</v>
       </c>
-      <c r="D43" s="276" t="s">
+      <c r="D43" s="273" t="s">
         <v>314</v>
       </c>
-      <c r="E43" s="277"/>
+      <c r="E43" s="274"/>
       <c r="F43" s="129"/>
     </row>
     <row r="45" spans="2:6" ht="15.75">
@@ -51376,10 +51376,10 @@
       <c r="C46" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="272" t="s">
+      <c r="D46" s="276" t="s">
         <v>188</v>
       </c>
-      <c r="E46" s="272"/>
+      <c r="E46" s="276"/>
       <c r="F46" s="111" t="s">
         <v>185</v>
       </c>
@@ -51391,10 +51391,10 @@
       <c r="C47" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="273" t="s">
+      <c r="D47" s="275" t="s">
         <v>258</v>
       </c>
-      <c r="E47" s="273"/>
+      <c r="E47" s="275"/>
       <c r="F47" s="122"/>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51404,10 +51404,10 @@
       <c r="C48" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="273" t="s">
+      <c r="D48" s="275" t="s">
         <v>259</v>
       </c>
-      <c r="E48" s="273"/>
+      <c r="E48" s="275"/>
       <c r="F48" s="122"/>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51417,10 +51417,10 @@
       <c r="C49" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="273" t="s">
+      <c r="D49" s="275" t="s">
         <v>260</v>
       </c>
-      <c r="E49" s="273"/>
+      <c r="E49" s="275"/>
       <c r="F49" s="122"/>
     </row>
     <row r="50" spans="2:6" ht="32.25" customHeight="1">
@@ -51430,10 +51430,10 @@
       <c r="C50" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="273" t="s">
+      <c r="D50" s="275" t="s">
         <v>261</v>
       </c>
-      <c r="E50" s="273"/>
+      <c r="E50" s="275"/>
       <c r="F50" s="122" t="s">
         <v>440</v>
       </c>
@@ -51445,10 +51445,10 @@
       <c r="C51" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="273" t="s">
+      <c r="D51" s="275" t="s">
         <v>262</v>
       </c>
-      <c r="E51" s="273"/>
+      <c r="E51" s="275"/>
       <c r="F51" s="122"/>
     </row>
     <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51458,28 +51458,25 @@
       <c r="C52" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="273" t="s">
+      <c r="D52" s="275" t="s">
         <v>263</v>
       </c>
-      <c r="E52" s="273"/>
+      <c r="E52" s="275"/>
       <c r="F52" s="122"/>
     </row>
     <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -51496,16 +51493,19 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -51585,10 +51585,10 @@
       <c r="D4" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="278" t="s">
+      <c r="E4" s="279" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="279"/>
+      <c r="F4" s="280"/>
       <c r="G4" s="142" t="s">
         <v>157</v>
       </c>
@@ -51603,7 +51603,7 @@
       <c r="C5" s="118" t="s">
         <v>449</v>
       </c>
-      <c r="D5" s="280" t="s">
+      <c r="D5" s="281" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="202" t="s">
@@ -51628,7 +51628,7 @@
       <c r="C6" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="281"/>
+      <c r="D6" s="282"/>
       <c r="E6" s="203" t="s">
         <v>156</v>
       </c>
@@ -51651,7 +51651,7 @@
       <c r="C7" s="118" t="s">
         <v>432</v>
       </c>
-      <c r="D7" s="281"/>
+      <c r="D7" s="282"/>
       <c r="E7" s="202" t="s">
         <v>204</v>
       </c>
@@ -51674,7 +51674,7 @@
       <c r="C8" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="281"/>
+      <c r="D8" s="282"/>
       <c r="E8" s="202" t="s">
         <v>205</v>
       </c>
@@ -51697,7 +51697,7 @@
       <c r="C9" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="281"/>
+      <c r="D9" s="282"/>
       <c r="E9" s="202" t="s">
         <v>204</v>
       </c>
@@ -51720,7 +51720,7 @@
       <c r="C10" s="118" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="281"/>
+      <c r="D10" s="282"/>
       <c r="E10" s="202" t="s">
         <v>204</v>
       </c>
@@ -51743,7 +51743,7 @@
       <c r="C11" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="282"/>
+      <c r="D11" s="283"/>
       <c r="E11" s="202" t="s">
         <v>205</v>
       </c>
@@ -51766,7 +51766,7 @@
       <c r="C12" s="118" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="283" t="s">
+      <c r="D12" s="284" t="s">
         <v>254</v>
       </c>
       <c r="E12" s="202" t="s">
@@ -51791,7 +51791,7 @@
       <c r="C13" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="D13" s="284"/>
+      <c r="D13" s="285"/>
       <c r="E13" s="202" t="s">
         <v>204</v>
       </c>
@@ -51814,7 +51814,7 @@
       <c r="C14" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="284"/>
+      <c r="D14" s="285"/>
       <c r="E14" s="202" t="s">
         <v>204</v>
       </c>
@@ -51837,7 +51837,7 @@
       <c r="C15" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="284"/>
+      <c r="D15" s="285"/>
       <c r="E15" s="202" t="s">
         <v>204</v>
       </c>
@@ -51860,7 +51860,7 @@
       <c r="C16" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="284"/>
+      <c r="D16" s="285"/>
       <c r="E16" s="202" t="s">
         <v>223</v>
       </c>
@@ -51883,7 +51883,7 @@
       <c r="C17" s="118" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="284"/>
+      <c r="D17" s="285"/>
       <c r="E17" s="202" t="s">
         <v>205</v>
       </c>
@@ -51906,7 +51906,7 @@
       <c r="C18" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="284"/>
+      <c r="D18" s="285"/>
       <c r="E18" s="202" t="s">
         <v>205</v>
       </c>
@@ -51929,7 +51929,7 @@
       <c r="C19" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="D19" s="285" t="s">
+      <c r="D19" s="286" t="s">
         <v>155</v>
       </c>
       <c r="E19" s="202" t="s">
@@ -51954,7 +51954,7 @@
       <c r="C20" s="118" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="286"/>
+      <c r="D20" s="287"/>
       <c r="E20" s="202" t="s">
         <v>204</v>
       </c>
@@ -51977,7 +51977,7 @@
       <c r="C21" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="286"/>
+      <c r="D21" s="287"/>
       <c r="E21" s="202" t="s">
         <v>223</v>
       </c>
@@ -52000,7 +52000,7 @@
       <c r="C22" s="118" t="s">
         <v>230</v>
       </c>
-      <c r="D22" s="286"/>
+      <c r="D22" s="287"/>
       <c r="E22" s="202" t="s">
         <v>205</v>
       </c>
@@ -52023,7 +52023,7 @@
       <c r="C23" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="287"/>
+      <c r="D23" s="288"/>
       <c r="E23" s="202" t="s">
         <v>205</v>
       </c>
@@ -52177,15 +52177,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="288" t="s">
+      <c r="C4" s="290" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="289"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -52198,15 +52198,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="288" t="s">
+      <c r="C5" s="290" t="s">
         <v>365</v>
       </c>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="289"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -52240,15 +52240,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="288" t="s">
+      <c r="C7" s="290" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="290"/>
-      <c r="H7" s="290"/>
-      <c r="I7" s="289"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -52282,15 +52282,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="288" t="s">
+      <c r="C9" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="289"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -52394,11 +52394,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="291" t="s">
+      <c r="J14" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="291"/>
-      <c r="L14" s="291"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="289"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -52526,11 +52526,11 @@
       <c r="I18" s="160" t="s">
         <v>355</v>
       </c>
-      <c r="J18" s="288" t="s">
+      <c r="J18" s="290" t="s">
         <v>354</v>
       </c>
-      <c r="K18" s="290"/>
-      <c r="L18" s="289"/>
+      <c r="K18" s="299"/>
+      <c r="L18" s="291"/>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
       <c r="O18" s="154"/>
@@ -52559,11 +52559,11 @@
       <c r="I19" s="183" t="s">
         <v>353</v>
       </c>
-      <c r="J19" s="288" t="s">
+      <c r="J19" s="290" t="s">
         <v>352</v>
       </c>
-      <c r="K19" s="290"/>
-      <c r="L19" s="289"/>
+      <c r="K19" s="299"/>
+      <c r="L19" s="291"/>
       <c r="M19" s="154"/>
       <c r="N19" s="154"/>
       <c r="O19" s="154"/>
@@ -52725,11 +52725,11 @@
     </row>
     <row r="29" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="179"/>
-      <c r="B29" s="302" t="s">
+      <c r="B29" s="303" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="302"/>
-      <c r="D29" s="302"/>
+      <c r="C29" s="303"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="180"/>
       <c r="F29" s="181"/>
       <c r="G29" s="180"/>
@@ -52841,10 +52841,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="172"/>
-      <c r="D33" s="288" t="s">
+      <c r="D33" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="289"/>
+      <c r="E33" s="291"/>
       <c r="F33" s="162" t="s">
         <v>330</v>
       </c>
@@ -52874,10 +52874,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="163"/>
-      <c r="D34" s="288" t="s">
+      <c r="D34" s="290" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="289"/>
+      <c r="E34" s="291"/>
       <c r="F34" s="162" t="s">
         <v>173</v>
       </c>
@@ -52940,10 +52940,10 @@
       <c r="A36" s="154"/>
       <c r="B36" s="168"/>
       <c r="C36" s="171"/>
-      <c r="D36" s="288" t="s">
+      <c r="D36" s="290" t="s">
         <v>351</v>
       </c>
-      <c r="E36" s="289"/>
+      <c r="E36" s="291"/>
       <c r="F36" s="162" t="s">
         <v>175</v>
       </c>
@@ -52973,10 +52973,10 @@
       <c r="A37" s="154"/>
       <c r="B37" s="168"/>
       <c r="C37" s="171"/>
-      <c r="D37" s="300" t="s">
+      <c r="D37" s="301" t="s">
         <v>348</v>
       </c>
-      <c r="E37" s="301"/>
+      <c r="E37" s="302"/>
       <c r="F37" s="162" t="s">
         <v>347</v>
       </c>
@@ -53006,10 +53006,10 @@
       <c r="A38" s="154"/>
       <c r="B38" s="168"/>
       <c r="C38" s="172"/>
-      <c r="D38" s="288" t="s">
+      <c r="D38" s="290" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="289"/>
+      <c r="E38" s="291"/>
       <c r="F38" s="162" t="s">
         <v>344</v>
       </c>
@@ -53159,10 +53159,10 @@
       <c r="A43" s="154"/>
       <c r="B43" s="164"/>
       <c r="C43" s="163"/>
-      <c r="D43" s="288" t="s">
+      <c r="D43" s="290" t="s">
         <v>336</v>
       </c>
-      <c r="E43" s="289"/>
+      <c r="E43" s="291"/>
       <c r="F43" s="162" t="s">
         <v>335</v>
       </c>
@@ -53498,11 +53498,11 @@
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="154"/>
-      <c r="B62" s="299" t="s">
+      <c r="B62" s="300" t="s">
         <v>333</v>
       </c>
-      <c r="C62" s="299"/>
-      <c r="D62" s="299"/>
+      <c r="C62" s="300"/>
+      <c r="D62" s="300"/>
       <c r="E62" s="154"/>
       <c r="F62" s="154"/>
       <c r="G62" s="154"/>
@@ -53616,10 +53616,10 @@
       <c r="A66" s="154"/>
       <c r="B66" s="168"/>
       <c r="C66" s="172"/>
-      <c r="D66" s="288" t="s">
+      <c r="D66" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="E66" s="289"/>
+      <c r="E66" s="291"/>
       <c r="F66" s="162" t="s">
         <v>330</v>
       </c>
@@ -53649,10 +53649,10 @@
       <c r="A67" s="154"/>
       <c r="B67" s="168"/>
       <c r="C67" s="172"/>
-      <c r="D67" s="288" t="s">
+      <c r="D67" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="289"/>
+      <c r="E67" s="291"/>
       <c r="F67" s="162" t="s">
         <v>189</v>
       </c>
@@ -53682,10 +53682,10 @@
       <c r="A68" s="154"/>
       <c r="B68" s="168"/>
       <c r="C68" s="172"/>
-      <c r="D68" s="303" t="s">
+      <c r="D68" s="304" t="s">
         <v>194</v>
       </c>
-      <c r="E68" s="289"/>
+      <c r="E68" s="291"/>
       <c r="F68" s="162" t="s">
         <v>192</v>
       </c>
@@ -53779,8 +53779,8 @@
       <c r="A71" s="154"/>
       <c r="B71" s="164"/>
       <c r="C71" s="163"/>
-      <c r="D71" s="288"/>
-      <c r="E71" s="289"/>
+      <c r="D71" s="290"/>
+      <c r="E71" s="291"/>
       <c r="F71" s="162"/>
       <c r="G71" s="161"/>
       <c r="H71" s="161"/>
@@ -54170,6 +54170,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="B13:L13"/>
@@ -54186,14 +54194,6 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -54293,15 +54293,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="288" t="s">
+      <c r="C4" s="290" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="289"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -54314,15 +54314,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="288" t="s">
+      <c r="C5" s="290" t="s">
         <v>370</v>
       </c>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="289"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -54356,15 +54356,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="288" t="s">
+      <c r="C7" s="290" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="290"/>
-      <c r="H7" s="290"/>
-      <c r="I7" s="289"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -54398,15 +54398,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="288" t="s">
+      <c r="C9" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="289"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -54510,11 +54510,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="291" t="s">
+      <c r="J14" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="291"/>
-      <c r="L14" s="291"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="289"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -54734,11 +54734,11 @@
     </row>
     <row r="26" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="179"/>
-      <c r="B26" s="302" t="s">
+      <c r="B26" s="303" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="302"/>
-      <c r="D26" s="302"/>
+      <c r="C26" s="303"/>
+      <c r="D26" s="303"/>
       <c r="E26" s="180"/>
       <c r="F26" s="181"/>
       <c r="G26" s="180"/>
@@ -54850,10 +54850,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="172"/>
-      <c r="D30" s="288" t="s">
+      <c r="D30" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="289"/>
+      <c r="E30" s="291"/>
       <c r="F30" s="162" t="s">
         <v>330</v>
       </c>
@@ -54883,10 +54883,10 @@
       <c r="A31" s="154"/>
       <c r="B31" s="168"/>
       <c r="C31" s="163"/>
-      <c r="D31" s="288" t="s">
+      <c r="D31" s="290" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="289"/>
+      <c r="E31" s="291"/>
       <c r="F31" s="162" t="s">
         <v>173</v>
       </c>
@@ -54949,10 +54949,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="288" t="s">
+      <c r="D33" s="290" t="s">
         <v>351</v>
       </c>
-      <c r="E33" s="289"/>
+      <c r="E33" s="291"/>
       <c r="F33" s="162" t="s">
         <v>175</v>
       </c>
@@ -54982,10 +54982,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="171"/>
-      <c r="D34" s="300" t="s">
+      <c r="D34" s="301" t="s">
         <v>348</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="302"/>
       <c r="F34" s="162" t="s">
         <v>347</v>
       </c>
@@ -55015,10 +55015,10 @@
       <c r="A35" s="154"/>
       <c r="B35" s="168"/>
       <c r="C35" s="171"/>
-      <c r="D35" s="288" t="s">
+      <c r="D35" s="290" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="289"/>
+      <c r="E35" s="291"/>
       <c r="F35" s="162" t="s">
         <v>344</v>
       </c>
@@ -55114,10 +55114,10 @@
       <c r="A38" s="154"/>
       <c r="B38" s="164"/>
       <c r="C38" s="163"/>
-      <c r="D38" s="288" t="s">
+      <c r="D38" s="290" t="s">
         <v>336</v>
       </c>
-      <c r="E38" s="289"/>
+      <c r="E38" s="291"/>
       <c r="F38" s="162" t="s">
         <v>335</v>
       </c>
@@ -55453,11 +55453,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="154"/>
-      <c r="B57" s="299" t="s">
+      <c r="B57" s="300" t="s">
         <v>333</v>
       </c>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
+      <c r="C57" s="300"/>
+      <c r="D57" s="300"/>
       <c r="E57" s="154"/>
       <c r="F57" s="154"/>
       <c r="G57" s="154"/>
@@ -55571,10 +55571,10 @@
       <c r="A61" s="154"/>
       <c r="B61" s="168"/>
       <c r="C61" s="172"/>
-      <c r="D61" s="288" t="s">
+      <c r="D61" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="289"/>
+      <c r="E61" s="291"/>
       <c r="F61" s="162" t="s">
         <v>330</v>
       </c>
@@ -55604,10 +55604,10 @@
       <c r="A62" s="154"/>
       <c r="B62" s="168"/>
       <c r="C62" s="172"/>
-      <c r="D62" s="288" t="s">
+      <c r="D62" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="289"/>
+      <c r="E62" s="291"/>
       <c r="F62" s="162" t="s">
         <v>189</v>
       </c>
@@ -55637,10 +55637,10 @@
       <c r="A63" s="154"/>
       <c r="B63" s="168"/>
       <c r="C63" s="172"/>
-      <c r="D63" s="303" t="s">
+      <c r="D63" s="304" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="289"/>
+      <c r="E63" s="291"/>
       <c r="F63" s="162" t="s">
         <v>192</v>
       </c>
@@ -55734,8 +55734,8 @@
       <c r="A66" s="154"/>
       <c r="B66" s="164"/>
       <c r="C66" s="163"/>
-      <c r="D66" s="288"/>
-      <c r="E66" s="289"/>
+      <c r="D66" s="290"/>
+      <c r="E66" s="291"/>
       <c r="F66" s="162"/>
       <c r="G66" s="161"/>
       <c r="H66" s="161"/>
@@ -56125,28 +56125,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -56244,15 +56244,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="288" t="s">
+      <c r="C4" s="290" t="s">
         <v>432</v>
       </c>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="289"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -56265,15 +56265,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="288" t="s">
+      <c r="C5" s="290" t="s">
         <v>439</v>
       </c>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="289"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -56307,15 +56307,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="288" t="s">
+      <c r="C7" s="290" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="290"/>
-      <c r="H7" s="290"/>
-      <c r="I7" s="289"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -56349,15 +56349,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="288" t="s">
+      <c r="C9" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="289"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -56461,11 +56461,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="291" t="s">
+      <c r="J14" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="291"/>
-      <c r="L14" s="291"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="289"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -56556,11 +56556,11 @@
       <c r="I17" s="160" t="s">
         <v>355</v>
       </c>
-      <c r="J17" s="288" t="s">
+      <c r="J17" s="290" t="s">
         <v>354</v>
       </c>
-      <c r="K17" s="290"/>
-      <c r="L17" s="289"/>
+      <c r="K17" s="299"/>
+      <c r="L17" s="291"/>
       <c r="M17" s="154"/>
       <c r="N17" s="154"/>
       <c r="O17" s="154"/>
@@ -56589,11 +56589,11 @@
       <c r="I18" s="183" t="s">
         <v>353</v>
       </c>
-      <c r="J18" s="288" t="s">
+      <c r="J18" s="290" t="s">
         <v>352</v>
       </c>
-      <c r="K18" s="290"/>
-      <c r="L18" s="289"/>
+      <c r="K18" s="299"/>
+      <c r="L18" s="291"/>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
       <c r="O18" s="154"/>
@@ -56755,11 +56755,11 @@
     </row>
     <row r="28" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="179"/>
-      <c r="B28" s="302" t="s">
+      <c r="B28" s="303" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="302"/>
-      <c r="D28" s="302"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
       <c r="E28" s="180"/>
       <c r="F28" s="181"/>
       <c r="G28" s="180"/>
@@ -56871,10 +56871,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="172"/>
-      <c r="D32" s="288" t="s">
+      <c r="D32" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="289"/>
+      <c r="E32" s="291"/>
       <c r="F32" s="162" t="s">
         <v>330</v>
       </c>
@@ -56904,10 +56904,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="163"/>
-      <c r="D33" s="288" t="s">
+      <c r="D33" s="290" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="289"/>
+      <c r="E33" s="291"/>
       <c r="F33" s="162" t="s">
         <v>173</v>
       </c>
@@ -56939,7 +56939,7 @@
       <c r="C34" s="220" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="330"/>
+      <c r="D34" s="227"/>
       <c r="E34" s="221"/>
       <c r="F34" s="162" t="s">
         <v>168</v>
@@ -57257,11 +57257,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="154"/>
-      <c r="B52" s="299" t="s">
+      <c r="B52" s="300" t="s">
         <v>333</v>
       </c>
-      <c r="C52" s="299"/>
-      <c r="D52" s="299"/>
+      <c r="C52" s="300"/>
+      <c r="D52" s="300"/>
       <c r="E52" s="154"/>
       <c r="F52" s="154"/>
       <c r="G52" s="154"/>
@@ -57375,10 +57375,10 @@
       <c r="A56" s="154"/>
       <c r="B56" s="168"/>
       <c r="C56" s="172"/>
-      <c r="D56" s="288" t="s">
+      <c r="D56" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="289"/>
+      <c r="E56" s="291"/>
       <c r="F56" s="162" t="s">
         <v>330</v>
       </c>
@@ -57408,10 +57408,10 @@
       <c r="A57" s="154"/>
       <c r="B57" s="168"/>
       <c r="C57" s="172"/>
-      <c r="D57" s="288" t="s">
+      <c r="D57" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="289"/>
+      <c r="E57" s="291"/>
       <c r="F57" s="162" t="s">
         <v>189</v>
       </c>
@@ -57441,10 +57441,10 @@
       <c r="A58" s="154"/>
       <c r="B58" s="168"/>
       <c r="C58" s="172"/>
-      <c r="D58" s="303" t="s">
+      <c r="D58" s="304" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="289"/>
+      <c r="E58" s="291"/>
       <c r="F58" s="162" t="s">
         <v>192</v>
       </c>
@@ -57509,7 +57509,7 @@
       <c r="C60" s="220" t="s">
         <v>170</v>
       </c>
-      <c r="D60" s="330"/>
+      <c r="D60" s="227"/>
       <c r="E60" s="221"/>
       <c r="F60" s="162" t="s">
         <v>168</v>
@@ -57895,11 +57895,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
@@ -57913,6 +57908,11 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -57927,7 +57927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -58010,15 +58010,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="288" t="s">
+      <c r="C4" s="290" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="289"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -58031,15 +58031,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="288" t="s">
+      <c r="C5" s="290" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="289"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -58073,15 +58073,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="288" t="s">
+      <c r="C7" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="290"/>
-      <c r="H7" s="290"/>
-      <c r="I7" s="289"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -58115,15 +58115,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="288" t="s">
+      <c r="C9" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="289"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -58227,11 +58227,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="291" t="s">
+      <c r="J14" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="291"/>
-      <c r="L14" s="291"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="289"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -58422,11 +58422,11 @@
     </row>
     <row r="25" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="179"/>
-      <c r="B25" s="302" t="s">
+      <c r="B25" s="303" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="302"/>
-      <c r="D25" s="302"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="303"/>
       <c r="E25" s="180"/>
       <c r="F25" s="181"/>
       <c r="G25" s="180"/>
@@ -58538,10 +58538,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="172"/>
-      <c r="D29" s="288" t="s">
+      <c r="D29" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="289"/>
+      <c r="E29" s="291"/>
       <c r="F29" s="162" t="s">
         <v>330</v>
       </c>
@@ -58571,10 +58571,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="163"/>
-      <c r="D30" s="288" t="s">
+      <c r="D30" s="290" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="289"/>
+      <c r="E30" s="291"/>
       <c r="F30" s="162" t="s">
         <v>173</v>
       </c>
@@ -58637,10 +58637,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="171"/>
-      <c r="D32" s="288" t="s">
+      <c r="D32" s="290" t="s">
         <v>351</v>
       </c>
-      <c r="E32" s="289"/>
+      <c r="E32" s="291"/>
       <c r="F32" s="162" t="s">
         <v>175</v>
       </c>
@@ -58670,10 +58670,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="300" t="s">
+      <c r="D33" s="301" t="s">
         <v>348</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="302"/>
       <c r="F33" s="162" t="s">
         <v>347</v>
       </c>
@@ -58703,10 +58703,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="172"/>
-      <c r="D34" s="288" t="s">
+      <c r="D34" s="290" t="s">
         <v>345</v>
       </c>
-      <c r="E34" s="289"/>
+      <c r="E34" s="291"/>
       <c r="F34" s="162" t="s">
         <v>344</v>
       </c>
@@ -59166,11 +59166,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="154"/>
-      <c r="B57" s="299" t="s">
+      <c r="B57" s="300" t="s">
         <v>333</v>
       </c>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
+      <c r="C57" s="300"/>
+      <c r="D57" s="300"/>
       <c r="E57" s="154"/>
       <c r="F57" s="154"/>
       <c r="G57" s="154"/>
@@ -59284,10 +59284,10 @@
       <c r="A61" s="154"/>
       <c r="B61" s="168"/>
       <c r="C61" s="172"/>
-      <c r="D61" s="288" t="s">
+      <c r="D61" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="289"/>
+      <c r="E61" s="291"/>
       <c r="F61" s="162" t="s">
         <v>330</v>
       </c>
@@ -59317,10 +59317,10 @@
       <c r="A62" s="154"/>
       <c r="B62" s="168"/>
       <c r="C62" s="172"/>
-      <c r="D62" s="288" t="s">
+      <c r="D62" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="289"/>
+      <c r="E62" s="291"/>
       <c r="F62" s="162" t="s">
         <v>189</v>
       </c>
@@ -59350,10 +59350,10 @@
       <c r="A63" s="154"/>
       <c r="B63" s="168"/>
       <c r="C63" s="172"/>
-      <c r="D63" s="303" t="s">
+      <c r="D63" s="304" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="289"/>
+      <c r="E63" s="291"/>
       <c r="F63" s="162" t="s">
         <v>192</v>
       </c>
@@ -59447,8 +59447,8 @@
       <c r="A66" s="154"/>
       <c r="B66" s="164"/>
       <c r="C66" s="163"/>
-      <c r="D66" s="288"/>
-      <c r="E66" s="289"/>
+      <c r="D66" s="290"/>
+      <c r="E66" s="291"/>
       <c r="F66" s="162"/>
       <c r="G66" s="161"/>
       <c r="H66" s="161"/>
@@ -59838,6 +59838,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
@@ -59853,11 +59858,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -59871,8 +59871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:L33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -59954,15 +59954,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="288" t="s">
+      <c r="C4" s="290" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="289"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -59975,15 +59975,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="288" t="s">
+      <c r="C5" s="290" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="289"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -60017,15 +60017,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="288" t="s">
+      <c r="C7" s="290" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="290"/>
-      <c r="H7" s="290"/>
-      <c r="I7" s="289"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -60059,15 +60059,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="288" t="s">
+      <c r="C9" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="289"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -60171,11 +60171,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="291" t="s">
+      <c r="J14" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="291"/>
-      <c r="L14" s="291"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="289"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -60399,11 +60399,11 @@
     </row>
     <row r="26" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="179"/>
-      <c r="B26" s="302" t="s">
+      <c r="B26" s="303" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="302"/>
-      <c r="D26" s="302"/>
+      <c r="C26" s="303"/>
+      <c r="D26" s="303"/>
       <c r="E26" s="180"/>
       <c r="F26" s="181"/>
       <c r="G26" s="180"/>
@@ -60515,10 +60515,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="172"/>
-      <c r="D30" s="288" t="s">
+      <c r="D30" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="289"/>
+      <c r="E30" s="291"/>
       <c r="F30" s="162" t="s">
         <v>330</v>
       </c>
@@ -60548,10 +60548,10 @@
       <c r="A31" s="154"/>
       <c r="B31" s="168"/>
       <c r="C31" s="163"/>
-      <c r="D31" s="288" t="s">
+      <c r="D31" s="290" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="289"/>
+      <c r="E31" s="291"/>
       <c r="F31" s="162" t="s">
         <v>173</v>
       </c>
@@ -60614,8 +60614,8 @@
       <c r="A33" s="154"/>
       <c r="B33" s="164"/>
       <c r="C33" s="163"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="289"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="291"/>
       <c r="F33" s="162"/>
       <c r="G33" s="161"/>
       <c r="H33" s="161"/>
@@ -60937,11 +60937,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="154"/>
-      <c r="B52" s="299" t="s">
+      <c r="B52" s="300" t="s">
         <v>333</v>
       </c>
-      <c r="C52" s="299"/>
-      <c r="D52" s="299"/>
+      <c r="C52" s="300"/>
+      <c r="D52" s="300"/>
       <c r="E52" s="154"/>
       <c r="F52" s="154"/>
       <c r="G52" s="154"/>
@@ -61055,10 +61055,10 @@
       <c r="A56" s="154"/>
       <c r="B56" s="168"/>
       <c r="C56" s="172"/>
-      <c r="D56" s="288" t="s">
+      <c r="D56" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="289"/>
+      <c r="E56" s="291"/>
       <c r="F56" s="162" t="s">
         <v>330</v>
       </c>
@@ -61088,10 +61088,10 @@
       <c r="A57" s="154"/>
       <c r="B57" s="168"/>
       <c r="C57" s="172"/>
-      <c r="D57" s="288" t="s">
+      <c r="D57" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="289"/>
+      <c r="E57" s="291"/>
       <c r="F57" s="162" t="s">
         <v>189</v>
       </c>
@@ -61121,10 +61121,10 @@
       <c r="A58" s="154"/>
       <c r="B58" s="168"/>
       <c r="C58" s="172"/>
-      <c r="D58" s="303" t="s">
+      <c r="D58" s="304" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="289"/>
+      <c r="E58" s="291"/>
       <c r="F58" s="162" t="s">
         <v>192</v>
       </c>
@@ -61218,8 +61218,8 @@
       <c r="A61" s="154"/>
       <c r="B61" s="164"/>
       <c r="C61" s="163"/>
-      <c r="D61" s="288"/>
-      <c r="E61" s="289"/>
+      <c r="D61" s="290"/>
+      <c r="E61" s="291"/>
       <c r="F61" s="162"/>
       <c r="G61" s="161"/>
       <c r="H61" s="161"/>
@@ -61609,6 +61609,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D57:E57"/>
@@ -61618,16 +61628,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>

--- a/doc/API_Design/API_Spec/BLOG_API_Spec.xlsx
+++ b/doc/API_Design/API_Spec/BLOG_API_Spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="927" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="927" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="481">
   <si>
     <t>Description</t>
   </si>
@@ -1541,6 +1541,18 @@
   <si>
     <t>Date time account modified</t>
   </si>
+  <si>
+    <t>Old password</t>
+  </si>
+  <si>
+    <t>old_password</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Check old password correct before update new password</t>
+  </si>
 </sst>
 </file>
 
@@ -2937,48 +2949,44 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="411" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3010,6 +3018,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3037,6 +3055,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3049,62 +3082,41 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3136,14 +3148,17 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3160,9 +3175,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="411" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3177,18 +3189,13 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3200,22 +3207,16 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3223,6 +3224,17 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -19593,13 +19605,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>154668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1442811</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>86632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19709,7 +19721,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>token=xxxxxxxxx&amp;password=12345</a:t>
+            <a:t>token=xxxxxxxxx&amp;password=12345&amp;old_password=123456</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -19724,13 +19736,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>61686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1445079</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19921,13 +19933,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1762124</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20294,6 +20306,202 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>  },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>  "data":null</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1428749</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838199" y="21050250"/>
+          <a:ext cx="9572625" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>HTTP/1.1 200</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Content-Type: application/json</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>{ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>  "meta":</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "code": 2003,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "description": "The old password incorrect",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "messages" : "Can't change password</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>  }</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -23051,303 +23259,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="259" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="231" t="s">
+      <c r="B1" s="260"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="262" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="233" t="s">
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="267" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="234"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="236" t="s">
+      <c r="L1" s="268"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="249" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="239" t="s">
+      <c r="O1" s="250"/>
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="250"/>
+      <c r="S1" s="250"/>
+      <c r="T1" s="250"/>
+      <c r="U1" s="251"/>
+      <c r="V1" s="270" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="240"/>
-      <c r="X1" s="240"/>
-      <c r="Y1" s="240"/>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="240"/>
-      <c r="AB1" s="240"/>
-      <c r="AC1" s="240"/>
-      <c r="AD1" s="241"/>
+      <c r="W1" s="271"/>
+      <c r="X1" s="271"/>
+      <c r="Y1" s="271"/>
+      <c r="Z1" s="271"/>
+      <c r="AA1" s="271"/>
+      <c r="AB1" s="271"/>
+      <c r="AC1" s="271"/>
+      <c r="AD1" s="272"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="259" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="231" t="s">
+      <c r="B2" s="260"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="262" t="s">
         <v>444</v>
       </c>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="245" t="s">
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="244" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="246"/>
-      <c r="M2" s="247"/>
-      <c r="N2" s="257" t="s">
+      <c r="L2" s="245"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="264" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="258"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="258"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="258"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="242" t="s">
+      <c r="O2" s="265"/>
+      <c r="P2" s="265"/>
+      <c r="Q2" s="265"/>
+      <c r="R2" s="265"/>
+      <c r="S2" s="265"/>
+      <c r="T2" s="265"/>
+      <c r="U2" s="266"/>
+      <c r="V2" s="241" t="s">
         <v>150</v>
       </c>
-      <c r="W2" s="243"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="242" t="s">
+      <c r="W2" s="242"/>
+      <c r="X2" s="243"/>
+      <c r="Y2" s="241" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="244"/>
-      <c r="AB2" s="242" t="s">
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="243"/>
+      <c r="AB2" s="241" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="243"/>
-      <c r="AD2" s="244"/>
+      <c r="AC2" s="242"/>
+      <c r="AD2" s="243"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="244" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="248" t="s">
+      <c r="B3" s="245"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="247" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="245" t="s">
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="248"/>
+      <c r="I3" s="248"/>
+      <c r="J3" s="248"/>
+      <c r="K3" s="244" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="246"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="236" t="s">
+      <c r="L3" s="245"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="249" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="237"/>
-      <c r="P3" s="237"/>
-      <c r="Q3" s="237"/>
-      <c r="R3" s="237"/>
-      <c r="S3" s="237"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="238"/>
-      <c r="V3" s="250" t="s">
+      <c r="O3" s="250"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="250"/>
+      <c r="S3" s="250"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="251"/>
+      <c r="V3" s="252" t="s">
         <v>237</v>
       </c>
-      <c r="W3" s="251"/>
-      <c r="X3" s="252"/>
-      <c r="Y3" s="253">
+      <c r="W3" s="253"/>
+      <c r="X3" s="254"/>
+      <c r="Y3" s="255">
         <v>41961</v>
       </c>
-      <c r="Z3" s="254"/>
-      <c r="AA3" s="255"/>
-      <c r="AB3" s="256">
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="257"/>
+      <c r="AB3" s="258">
         <v>41967</v>
       </c>
-      <c r="AC3" s="254"/>
-      <c r="AD3" s="255"/>
+      <c r="AC3" s="256"/>
+      <c r="AD3" s="257"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="272" t="s">
+      <c r="B8" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="272"/>
-      <c r="D8" s="272"/>
-      <c r="E8" s="272"/>
-      <c r="F8" s="272" t="s">
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="272"/>
-      <c r="H8" s="272" t="s">
+      <c r="G8" s="239"/>
+      <c r="H8" s="239" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="272"/>
-      <c r="J8" s="272"/>
-      <c r="K8" s="272" t="s">
+      <c r="I8" s="239"/>
+      <c r="J8" s="239"/>
+      <c r="K8" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="272"/>
-      <c r="M8" s="272"/>
-      <c r="N8" s="272"/>
-      <c r="O8" s="272"/>
-      <c r="P8" s="272"/>
-      <c r="Q8" s="272"/>
-      <c r="R8" s="272"/>
-      <c r="S8" s="272"/>
-      <c r="T8" s="272"/>
-      <c r="U8" s="272"/>
-      <c r="V8" s="272"/>
-      <c r="W8" s="272"/>
-      <c r="X8" s="272" t="s">
+      <c r="L8" s="239"/>
+      <c r="M8" s="239"/>
+      <c r="N8" s="239"/>
+      <c r="O8" s="239"/>
+      <c r="P8" s="239"/>
+      <c r="Q8" s="239"/>
+      <c r="R8" s="239"/>
+      <c r="S8" s="239"/>
+      <c r="T8" s="239"/>
+      <c r="U8" s="239"/>
+      <c r="V8" s="239"/>
+      <c r="W8" s="239"/>
+      <c r="X8" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="272"/>
-      <c r="Z8" s="272"/>
-      <c r="AA8" s="272"/>
-      <c r="AB8" s="272"/>
-      <c r="AC8" s="272"/>
+      <c r="Y8" s="239"/>
+      <c r="Z8" s="239"/>
+      <c r="AA8" s="239"/>
+      <c r="AB8" s="239"/>
+      <c r="AC8" s="239"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="260">
+      <c r="B9" s="240">
         <v>41961</v>
       </c>
-      <c r="C9" s="261"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="263" t="s">
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="231" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="264"/>
-      <c r="H9" s="265"/>
-      <c r="I9" s="261"/>
-      <c r="J9" s="262"/>
-      <c r="K9" s="266"/>
-      <c r="L9" s="267"/>
-      <c r="M9" s="267"/>
-      <c r="N9" s="267"/>
-      <c r="O9" s="267"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="267"/>
-      <c r="R9" s="267"/>
-      <c r="S9" s="267"/>
-      <c r="T9" s="267"/>
-      <c r="U9" s="267"/>
-      <c r="V9" s="267"/>
-      <c r="W9" s="268"/>
-      <c r="X9" s="269"/>
-      <c r="Y9" s="270"/>
-      <c r="Z9" s="270"/>
-      <c r="AA9" s="270"/>
-      <c r="AB9" s="270"/>
-      <c r="AC9" s="271"/>
+      <c r="G9" s="232"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="229"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="233"/>
+      <c r="L9" s="234"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="234"/>
+      <c r="O9" s="234"/>
+      <c r="P9" s="234"/>
+      <c r="Q9" s="234"/>
+      <c r="R9" s="234"/>
+      <c r="S9" s="234"/>
+      <c r="T9" s="234"/>
+      <c r="U9" s="234"/>
+      <c r="V9" s="234"/>
+      <c r="W9" s="235"/>
+      <c r="X9" s="236"/>
+      <c r="Y9" s="237"/>
+      <c r="Z9" s="237"/>
+      <c r="AA9" s="237"/>
+      <c r="AB9" s="237"/>
+      <c r="AC9" s="238"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="265"/>
-      <c r="C10" s="261"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="264"/>
-      <c r="H10" s="265"/>
-      <c r="I10" s="261"/>
-      <c r="J10" s="262"/>
-      <c r="K10" s="266"/>
-      <c r="L10" s="267"/>
-      <c r="M10" s="267"/>
-      <c r="N10" s="267"/>
-      <c r="O10" s="267"/>
-      <c r="P10" s="267"/>
-      <c r="Q10" s="267"/>
-      <c r="R10" s="267"/>
-      <c r="S10" s="267"/>
-      <c r="T10" s="267"/>
-      <c r="U10" s="267"/>
-      <c r="V10" s="267"/>
-      <c r="W10" s="268"/>
-      <c r="X10" s="269"/>
-      <c r="Y10" s="270"/>
-      <c r="Z10" s="270"/>
-      <c r="AA10" s="270"/>
-      <c r="AB10" s="270"/>
-      <c r="AC10" s="271"/>
+      <c r="B10" s="228"/>
+      <c r="C10" s="229"/>
+      <c r="D10" s="229"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="232"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="230"/>
+      <c r="K10" s="233"/>
+      <c r="L10" s="234"/>
+      <c r="M10" s="234"/>
+      <c r="N10" s="234"/>
+      <c r="O10" s="234"/>
+      <c r="P10" s="234"/>
+      <c r="Q10" s="234"/>
+      <c r="R10" s="234"/>
+      <c r="S10" s="234"/>
+      <c r="T10" s="234"/>
+      <c r="U10" s="234"/>
+      <c r="V10" s="234"/>
+      <c r="W10" s="235"/>
+      <c r="X10" s="236"/>
+      <c r="Y10" s="237"/>
+      <c r="Z10" s="237"/>
+      <c r="AA10" s="237"/>
+      <c r="AB10" s="237"/>
+      <c r="AC10" s="238"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="265"/>
-      <c r="C11" s="261"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="264"/>
-      <c r="H11" s="265"/>
-      <c r="I11" s="261"/>
-      <c r="J11" s="262"/>
-      <c r="K11" s="266"/>
-      <c r="L11" s="267"/>
-      <c r="M11" s="267"/>
-      <c r="N11" s="267"/>
-      <c r="O11" s="267"/>
-      <c r="P11" s="267"/>
-      <c r="Q11" s="267"/>
-      <c r="R11" s="267"/>
-      <c r="S11" s="267"/>
-      <c r="T11" s="267"/>
-      <c r="U11" s="267"/>
-      <c r="V11" s="267"/>
-      <c r="W11" s="268"/>
-      <c r="X11" s="269"/>
-      <c r="Y11" s="270"/>
-      <c r="Z11" s="270"/>
-      <c r="AA11" s="270"/>
-      <c r="AB11" s="270"/>
-      <c r="AC11" s="271"/>
+      <c r="B11" s="228"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="231"/>
+      <c r="G11" s="232"/>
+      <c r="H11" s="228"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="230"/>
+      <c r="K11" s="233"/>
+      <c r="L11" s="234"/>
+      <c r="M11" s="234"/>
+      <c r="N11" s="234"/>
+      <c r="O11" s="234"/>
+      <c r="P11" s="234"/>
+      <c r="Q11" s="234"/>
+      <c r="R11" s="234"/>
+      <c r="S11" s="234"/>
+      <c r="T11" s="234"/>
+      <c r="U11" s="234"/>
+      <c r="V11" s="234"/>
+      <c r="W11" s="235"/>
+      <c r="X11" s="236"/>
+      <c r="Y11" s="237"/>
+      <c r="Z11" s="237"/>
+      <c r="AA11" s="237"/>
+      <c r="AB11" s="237"/>
+      <c r="AC11" s="238"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="265"/>
-      <c r="C12" s="261"/>
-      <c r="D12" s="261"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="263"/>
-      <c r="G12" s="264"/>
-      <c r="H12" s="265"/>
-      <c r="I12" s="261"/>
-      <c r="J12" s="262"/>
-      <c r="K12" s="266"/>
-      <c r="L12" s="267"/>
-      <c r="M12" s="267"/>
-      <c r="N12" s="267"/>
-      <c r="O12" s="267"/>
-      <c r="P12" s="267"/>
-      <c r="Q12" s="267"/>
-      <c r="R12" s="267"/>
-      <c r="S12" s="267"/>
-      <c r="T12" s="267"/>
-      <c r="U12" s="267"/>
-      <c r="V12" s="267"/>
-      <c r="W12" s="268"/>
-      <c r="X12" s="269"/>
-      <c r="Y12" s="270"/>
-      <c r="Z12" s="270"/>
-      <c r="AA12" s="270"/>
-      <c r="AB12" s="270"/>
-      <c r="AC12" s="271"/>
+      <c r="B12" s="228"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="230"/>
+      <c r="F12" s="231"/>
+      <c r="G12" s="232"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="229"/>
+      <c r="J12" s="230"/>
+      <c r="K12" s="233"/>
+      <c r="L12" s="234"/>
+      <c r="M12" s="234"/>
+      <c r="N12" s="234"/>
+      <c r="O12" s="234"/>
+      <c r="P12" s="234"/>
+      <c r="Q12" s="234"/>
+      <c r="R12" s="234"/>
+      <c r="S12" s="234"/>
+      <c r="T12" s="234"/>
+      <c r="U12" s="234"/>
+      <c r="V12" s="234"/>
+      <c r="W12" s="235"/>
+      <c r="X12" s="236"/>
+      <c r="Y12" s="237"/>
+      <c r="Z12" s="237"/>
+      <c r="AA12" s="237"/>
+      <c r="AB12" s="237"/>
+      <c r="AC12" s="238"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -23377,31 +23585,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -23416,11 +23604,31 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23520,15 +23728,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="289" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -23541,13 +23749,13 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="291"/>
+      <c r="C5" s="289"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -23581,15 +23789,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="289" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -23623,15 +23831,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="289" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="291"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -23694,19 +23902,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="292" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="293"/>
-      <c r="D13" s="293"/>
-      <c r="E13" s="293"/>
-      <c r="F13" s="293"/>
-      <c r="G13" s="293"/>
-      <c r="H13" s="293"/>
-      <c r="I13" s="293"/>
-      <c r="J13" s="293"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="294"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -23735,11 +23943,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="292" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="292"/>
+      <c r="L14" s="292"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -23764,11 +23972,11 @@
       <c r="I15" s="130" t="s">
         <v>445</v>
       </c>
-      <c r="J15" s="298" t="s">
+      <c r="J15" s="299" t="s">
         <v>371</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -23932,12 +24140,12 @@
     </row>
     <row r="25" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="174"/>
-      <c r="B25" s="295" t="s">
+      <c r="B25" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="296"/>
-      <c r="D25" s="296"/>
-      <c r="E25" s="297"/>
+      <c r="C25" s="297"/>
+      <c r="D25" s="297"/>
+      <c r="E25" s="298"/>
       <c r="F25" s="175" t="s">
         <v>125</v>
       </c>
@@ -24029,10 +24237,10 @@
       <c r="A28" s="154"/>
       <c r="B28" s="168"/>
       <c r="C28" s="172"/>
-      <c r="D28" s="290" t="s">
+      <c r="D28" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="E28" s="291"/>
+      <c r="E28" s="290"/>
       <c r="F28" s="162" t="s">
         <v>330</v>
       </c>
@@ -24062,10 +24270,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="163"/>
-      <c r="D29" s="290" t="s">
+      <c r="D29" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="291"/>
+      <c r="E29" s="290"/>
       <c r="F29" s="162" t="s">
         <v>173</v>
       </c>
@@ -24128,8 +24336,8 @@
       <c r="A31" s="154"/>
       <c r="B31" s="164"/>
       <c r="C31" s="163"/>
-      <c r="D31" s="290"/>
-      <c r="E31" s="291"/>
+      <c r="D31" s="289"/>
+      <c r="E31" s="290"/>
       <c r="F31" s="162"/>
       <c r="G31" s="161"/>
       <c r="H31" s="161"/>
@@ -24472,12 +24680,12 @@
     </row>
     <row r="51" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="174"/>
-      <c r="B51" s="295" t="s">
+      <c r="B51" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="296"/>
-      <c r="D51" s="296"/>
-      <c r="E51" s="297"/>
+      <c r="C51" s="297"/>
+      <c r="D51" s="297"/>
+      <c r="E51" s="298"/>
       <c r="F51" s="175" t="s">
         <v>125</v>
       </c>
@@ -24569,10 +24777,10 @@
       <c r="A54" s="154"/>
       <c r="B54" s="168"/>
       <c r="C54" s="172"/>
-      <c r="D54" s="290" t="s">
+      <c r="D54" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="E54" s="291"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="162" t="s">
         <v>330</v>
       </c>
@@ -24602,10 +24810,10 @@
       <c r="A55" s="154"/>
       <c r="B55" s="168"/>
       <c r="C55" s="172"/>
-      <c r="D55" s="290" t="s">
+      <c r="D55" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="291"/>
+      <c r="E55" s="290"/>
       <c r="F55" s="162" t="s">
         <v>189</v>
       </c>
@@ -24638,7 +24846,7 @@
       <c r="D56" s="304" t="s">
         <v>194</v>
       </c>
-      <c r="E56" s="291"/>
+      <c r="E56" s="290"/>
       <c r="F56" s="162" t="s">
         <v>192</v>
       </c>
@@ -24732,8 +24940,8 @@
       <c r="A59" s="154"/>
       <c r="B59" s="164"/>
       <c r="C59" s="163"/>
-      <c r="D59" s="290"/>
-      <c r="E59" s="291"/>
+      <c r="D59" s="289"/>
+      <c r="E59" s="290"/>
       <c r="F59" s="162"/>
       <c r="G59" s="161"/>
       <c r="H59" s="161"/>
@@ -25123,6 +25331,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="D28:E28"/>
@@ -25134,13 +25349,6 @@
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -25237,15 +25445,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="289" t="s">
         <v>386</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -25258,15 +25466,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="289" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -25300,15 +25508,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="289" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -25342,15 +25550,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="289" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="291"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -25413,19 +25621,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="292" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="293"/>
-      <c r="D13" s="293"/>
-      <c r="E13" s="293"/>
-      <c r="F13" s="293"/>
-      <c r="G13" s="293"/>
-      <c r="H13" s="293"/>
-      <c r="I13" s="293"/>
-      <c r="J13" s="293"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="294"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -25454,11 +25662,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="292" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="292"/>
+      <c r="L14" s="292"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -25668,12 +25876,12 @@
     </row>
     <row r="26" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="295" t="s">
+      <c r="B26" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="296"/>
-      <c r="D26" s="296"/>
-      <c r="E26" s="297"/>
+      <c r="C26" s="297"/>
+      <c r="D26" s="297"/>
+      <c r="E26" s="298"/>
       <c r="F26" s="175" t="s">
         <v>125</v>
       </c>
@@ -25765,10 +25973,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="172"/>
-      <c r="D29" s="290" t="s">
+      <c r="D29" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="291"/>
+      <c r="E29" s="290"/>
       <c r="F29" s="162" t="s">
         <v>330</v>
       </c>
@@ -25798,10 +26006,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="163"/>
-      <c r="D30" s="290" t="s">
+      <c r="D30" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="291"/>
+      <c r="E30" s="290"/>
       <c r="F30" s="162" t="s">
         <v>173</v>
       </c>
@@ -25864,10 +26072,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="171"/>
-      <c r="D32" s="290" t="s">
+      <c r="D32" s="289" t="s">
         <v>351</v>
       </c>
-      <c r="E32" s="291"/>
+      <c r="E32" s="290"/>
       <c r="F32" s="162" t="s">
         <v>175</v>
       </c>
@@ -25930,10 +26138,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="172"/>
-      <c r="D34" s="290" t="s">
+      <c r="D34" s="289" t="s">
         <v>345</v>
       </c>
-      <c r="E34" s="291"/>
+      <c r="E34" s="290"/>
       <c r="F34" s="162" t="s">
         <v>344</v>
       </c>
@@ -26993,11 +27201,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D32:E32"/>
@@ -27007,6 +27210,11 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -27701,15 +27909,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="312" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="307"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -27722,15 +27930,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="308" t="s">
+      <c r="C5" s="312" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="307"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -27764,15 +27972,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="306" t="s">
+      <c r="C7" s="315" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="320"/>
-      <c r="E7" s="320"/>
-      <c r="F7" s="320"/>
-      <c r="G7" s="320"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="307"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="314"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -27806,15 +28014,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="307"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="313"/>
+      <c r="H9" s="313"/>
+      <c r="I9" s="314"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -27877,19 +28085,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="322"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="322"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="323"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27918,11 +28126,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="324" t="s">
+      <c r="J14" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="324"/>
-      <c r="L14" s="324"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -27947,11 +28155,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="317" t="s">
+      <c r="J15" s="306" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="307"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -27980,9 +28188,9 @@
       <c r="I16" s="130" t="s">
         <v>287</v>
       </c>
-      <c r="J16" s="318"/>
-      <c r="K16" s="318"/>
-      <c r="L16" s="318"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="307"/>
+      <c r="L16" s="307"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -28173,11 +28381,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="319" t="s">
+      <c r="B27" s="308" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="319"/>
-      <c r="D27" s="319"/>
+      <c r="C27" s="308"/>
+      <c r="D27" s="308"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -28192,12 +28400,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="312" t="s">
+      <c r="B28" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313"/>
-      <c r="E28" s="314"/>
+      <c r="C28" s="310"/>
+      <c r="D28" s="310"/>
+      <c r="E28" s="311"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -28289,10 +28497,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="315" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="307"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -28322,10 +28530,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="315" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="307"/>
+      <c r="E32" s="314"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -28388,10 +28596,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="308" t="s">
+      <c r="D34" s="312" t="s">
         <v>290</v>
       </c>
-      <c r="E34" s="307"/>
+      <c r="E34" s="314"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -28421,10 +28629,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="309" t="s">
+      <c r="D35" s="320" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="310"/>
+      <c r="E35" s="321"/>
       <c r="F35" s="105" t="s">
         <v>284</v>
       </c>
@@ -28814,11 +29022,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="311" t="s">
+      <c r="B56" s="322" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="311"/>
-      <c r="D56" s="311"/>
+      <c r="C56" s="322"/>
+      <c r="D56" s="322"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -28835,12 +29043,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="312" t="s">
+      <c r="B57" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="313"/>
-      <c r="D57" s="313"/>
-      <c r="E57" s="314"/>
+      <c r="C57" s="310"/>
+      <c r="D57" s="310"/>
+      <c r="E57" s="311"/>
       <c r="F57" s="115" t="s">
         <v>125</v>
       </c>
@@ -28932,10 +29140,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="308" t="s">
+      <c r="D60" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="307"/>
+      <c r="E60" s="314"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -28965,10 +29173,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="308" t="s">
+      <c r="D61" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="315"/>
+      <c r="E61" s="323"/>
       <c r="F61" s="105" t="s">
         <v>189</v>
       </c>
@@ -28998,10 +29206,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="316" t="s">
+      <c r="D62" s="324" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="315"/>
+      <c r="E62" s="323"/>
       <c r="F62" s="105" t="s">
         <v>192</v>
       </c>
@@ -29095,8 +29303,8 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="92"/>
-      <c r="D65" s="306"/>
-      <c r="E65" s="307"/>
+      <c r="D65" s="315"/>
+      <c r="E65" s="314"/>
       <c r="F65" s="74"/>
       <c r="G65" s="76"/>
       <c r="H65" s="76"/>
@@ -29486,6 +29694,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B27:D27"/>
@@ -29496,16 +29714,6 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -29603,15 +29811,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="312" t="s">
         <v>293</v>
       </c>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="307"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -29624,15 +29832,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="308" t="s">
+      <c r="C5" s="312" t="s">
         <v>294</v>
       </c>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="307"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -29666,15 +29874,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="312" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="320"/>
-      <c r="E7" s="320"/>
-      <c r="F7" s="320"/>
-      <c r="G7" s="320"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="307"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="314"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -29708,15 +29916,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="307"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="313"/>
+      <c r="H9" s="313"/>
+      <c r="I9" s="314"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -29779,19 +29987,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="322"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="322"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="323"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29820,11 +30028,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="324" t="s">
+      <c r="J14" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="324"/>
-      <c r="L14" s="324"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29849,11 +30057,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="317" t="s">
+      <c r="J15" s="306" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="307"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -29878,9 +30086,9 @@
       <c r="I16" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="317"/>
-      <c r="K16" s="318"/>
-      <c r="L16" s="318"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="307"/>
+      <c r="L16" s="307"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -30042,11 +30250,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="319" t="s">
+      <c r="B26" s="308" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="319"/>
-      <c r="D26" s="319"/>
+      <c r="C26" s="308"/>
+      <c r="D26" s="308"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -30061,12 +30269,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
+      <c r="C27" s="310"/>
+      <c r="D27" s="310"/>
+      <c r="E27" s="311"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -30158,10 +30366,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="306" t="s">
+      <c r="D30" s="315" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="307"/>
+      <c r="E30" s="314"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -30191,10 +30399,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="315" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="307"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -30257,10 +30465,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="306" t="s">
+      <c r="D33" s="315" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="307"/>
+      <c r="E33" s="314"/>
       <c r="F33" s="74" t="s">
         <v>141</v>
       </c>
@@ -30290,10 +30498,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="308" t="s">
+      <c r="D34" s="312" t="s">
         <v>296</v>
       </c>
-      <c r="E34" s="307"/>
+      <c r="E34" s="314"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -30712,11 +30920,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="311" t="s">
+      <c r="B56" s="322" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="311"/>
-      <c r="D56" s="311"/>
+      <c r="C56" s="322"/>
+      <c r="D56" s="322"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -30733,12 +30941,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="312" t="s">
+      <c r="B57" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="313"/>
-      <c r="D57" s="313"/>
-      <c r="E57" s="314"/>
+      <c r="C57" s="310"/>
+      <c r="D57" s="310"/>
+      <c r="E57" s="311"/>
       <c r="F57" s="115" t="s">
         <v>125</v>
       </c>
@@ -30830,10 +31038,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="308" t="s">
+      <c r="D60" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="307"/>
+      <c r="E60" s="314"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -30863,10 +31071,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="308" t="s">
+      <c r="D61" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="315"/>
+      <c r="E61" s="323"/>
       <c r="F61" s="105" t="s">
         <v>189</v>
       </c>
@@ -30896,10 +31104,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="316" t="s">
+      <c r="D62" s="324" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="315"/>
+      <c r="E62" s="323"/>
       <c r="F62" s="105" t="s">
         <v>192</v>
       </c>
@@ -30993,10 +31201,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="77"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="306" t="s">
+      <c r="D65" s="315" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="307"/>
+      <c r="E65" s="314"/>
       <c r="F65" s="74" t="s">
         <v>141</v>
       </c>
@@ -31026,10 +31234,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="77"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="308" t="s">
+      <c r="D66" s="312" t="s">
         <v>296</v>
       </c>
-      <c r="E66" s="307"/>
+      <c r="E66" s="314"/>
       <c r="F66" s="105" t="s">
         <v>273</v>
       </c>
@@ -31499,16 +31707,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D69:E69"/>
@@ -31523,6 +31721,16 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B56:D56"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -31620,15 +31828,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="312" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="307"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31641,15 +31849,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="308" t="s">
+      <c r="C5" s="312" t="s">
         <v>300</v>
       </c>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="307"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31683,15 +31891,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="312" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="320"/>
-      <c r="E7" s="320"/>
-      <c r="F7" s="320"/>
-      <c r="G7" s="320"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="307"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="314"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31725,15 +31933,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="307"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="313"/>
+      <c r="H9" s="313"/>
+      <c r="I9" s="314"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31796,19 +32004,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="322"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="322"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="323"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31837,11 +32045,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="324" t="s">
+      <c r="J14" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="324"/>
-      <c r="L14" s="324"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31866,11 +32074,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="317" t="s">
+      <c r="J15" s="306" t="s">
         <v>302</v>
       </c>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="307"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31895,9 +32103,9 @@
       <c r="I16" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="317"/>
-      <c r="K16" s="318"/>
-      <c r="L16" s="318"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="307"/>
+      <c r="L16" s="307"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -32059,11 +32267,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="319" t="s">
+      <c r="B26" s="308" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="319"/>
-      <c r="D26" s="319"/>
+      <c r="C26" s="308"/>
+      <c r="D26" s="308"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -32078,12 +32286,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
+      <c r="C27" s="310"/>
+      <c r="D27" s="310"/>
+      <c r="E27" s="311"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -32175,10 +32383,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="306" t="s">
+      <c r="D30" s="315" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="307"/>
+      <c r="E30" s="314"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -32208,10 +32416,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="315" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="307"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -32274,10 +32482,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="306" t="s">
+      <c r="D33" s="315" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="307"/>
+      <c r="E33" s="314"/>
       <c r="F33" s="74" t="s">
         <v>141</v>
       </c>
@@ -32307,10 +32515,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="308" t="s">
+      <c r="D34" s="312" t="s">
         <v>296</v>
       </c>
-      <c r="E34" s="307"/>
+      <c r="E34" s="314"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -32729,11 +32937,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="311" t="s">
+      <c r="B56" s="322" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="311"/>
-      <c r="D56" s="311"/>
+      <c r="C56" s="322"/>
+      <c r="D56" s="322"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -32750,12 +32958,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="312" t="s">
+      <c r="B57" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="313"/>
-      <c r="D57" s="313"/>
-      <c r="E57" s="314"/>
+      <c r="C57" s="310"/>
+      <c r="D57" s="310"/>
+      <c r="E57" s="311"/>
       <c r="F57" s="151" t="s">
         <v>125</v>
       </c>
@@ -32847,10 +33055,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="308" t="s">
+      <c r="D60" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="307"/>
+      <c r="E60" s="314"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -32880,10 +33088,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="308" t="s">
+      <c r="D61" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="315"/>
+      <c r="E61" s="323"/>
       <c r="F61" s="105" t="s">
         <v>189</v>
       </c>
@@ -32913,10 +33121,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="316" t="s">
+      <c r="D62" s="324" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="315"/>
+      <c r="E62" s="323"/>
       <c r="F62" s="105" t="s">
         <v>192</v>
       </c>
@@ -33010,10 +33218,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="77"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="306" t="s">
+      <c r="D65" s="315" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="307"/>
+      <c r="E65" s="314"/>
       <c r="F65" s="74" t="s">
         <v>141</v>
       </c>
@@ -33043,10 +33251,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="77"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="308" t="s">
+      <c r="D66" s="312" t="s">
         <v>296</v>
       </c>
-      <c r="E66" s="307"/>
+      <c r="E66" s="314"/>
       <c r="F66" s="105" t="s">
         <v>273</v>
       </c>
@@ -33490,6 +33698,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
@@ -33503,17 +33722,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -33611,15 +33819,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="312" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="307"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33632,15 +33840,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="308" t="s">
+      <c r="C5" s="312" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="307"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -33674,15 +33882,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="312" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="320"/>
-      <c r="E7" s="320"/>
-      <c r="F7" s="320"/>
-      <c r="G7" s="320"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="307"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="314"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -33716,15 +33924,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="307"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="313"/>
+      <c r="H9" s="313"/>
+      <c r="I9" s="314"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -33787,19 +33995,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="322"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="322"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="323"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33828,11 +34036,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="324" t="s">
+      <c r="J14" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="324"/>
-      <c r="L14" s="324"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -33857,11 +34065,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="317" t="s">
+      <c r="J15" s="306" t="s">
         <v>318</v>
       </c>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="307"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -33886,9 +34094,9 @@
       <c r="I16" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="318"/>
-      <c r="K16" s="318"/>
-      <c r="L16" s="318"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="307"/>
+      <c r="L16" s="307"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -34106,11 +34314,11 @@
     </row>
     <row r="28" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="69"/>
-      <c r="B28" s="319" t="s">
+      <c r="B28" s="308" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="319"/>
-      <c r="D28" s="319"/>
+      <c r="C28" s="308"/>
+      <c r="D28" s="308"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="G28" s="80"/>
@@ -34125,12 +34333,12 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="83"/>
-      <c r="B29" s="312" t="s">
+      <c r="B29" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="313"/>
-      <c r="D29" s="313"/>
-      <c r="E29" s="314"/>
+      <c r="C29" s="310"/>
+      <c r="D29" s="310"/>
+      <c r="E29" s="311"/>
       <c r="F29" s="115" t="s">
         <v>125</v>
       </c>
@@ -34222,10 +34430,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="90"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="315" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="307"/>
+      <c r="E32" s="314"/>
       <c r="F32" s="74" t="s">
         <v>139</v>
       </c>
@@ -34255,10 +34463,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="306" t="s">
+      <c r="D33" s="315" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="307"/>
+      <c r="E33" s="314"/>
       <c r="F33" s="74" t="s">
         <v>173</v>
       </c>
@@ -34321,10 +34529,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="308" t="s">
+      <c r="D35" s="312" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="307"/>
+      <c r="E35" s="314"/>
       <c r="F35" s="105" t="s">
         <v>273</v>
       </c>
@@ -34354,10 +34562,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="309" t="s">
+      <c r="D36" s="320" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="310"/>
+      <c r="E36" s="321"/>
       <c r="F36" s="105" t="s">
         <v>284</v>
       </c>
@@ -34776,11 +34984,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="311" t="s">
+      <c r="B58" s="322" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="311"/>
-      <c r="D58" s="311"/>
+      <c r="C58" s="322"/>
+      <c r="D58" s="322"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -34797,12 +35005,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="312" t="s">
+      <c r="B59" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="313"/>
-      <c r="D59" s="313"/>
-      <c r="E59" s="314"/>
+      <c r="C59" s="310"/>
+      <c r="D59" s="310"/>
+      <c r="E59" s="311"/>
       <c r="F59" s="115" t="s">
         <v>125</v>
       </c>
@@ -34894,10 +35102,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="308" t="s">
+      <c r="D62" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="307"/>
+      <c r="E62" s="314"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -34927,10 +35135,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="308" t="s">
+      <c r="D63" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="315"/>
+      <c r="E63" s="323"/>
       <c r="F63" s="105" t="s">
         <v>189</v>
       </c>
@@ -34960,10 +35168,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="316" t="s">
+      <c r="D64" s="324" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="315"/>
+      <c r="E64" s="323"/>
       <c r="F64" s="105" t="s">
         <v>192</v>
       </c>
@@ -35057,10 +35265,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="93"/>
       <c r="C67" s="86"/>
-      <c r="D67" s="308" t="s">
+      <c r="D67" s="312" t="s">
         <v>290</v>
       </c>
-      <c r="E67" s="307"/>
+      <c r="E67" s="314"/>
       <c r="F67" s="105" t="s">
         <v>273</v>
       </c>
@@ -35090,10 +35298,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="93"/>
       <c r="C68" s="86"/>
-      <c r="D68" s="309" t="s">
+      <c r="D68" s="320" t="s">
         <v>283</v>
       </c>
-      <c r="E68" s="310"/>
+      <c r="E68" s="321"/>
       <c r="F68" s="105" t="s">
         <v>284</v>
       </c>
@@ -35512,6 +35720,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
@@ -35525,17 +35744,6 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D39:E39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -35633,15 +35841,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="312" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="307"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35654,15 +35862,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="308" t="s">
+      <c r="C5" s="312" t="s">
         <v>327</v>
       </c>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="307"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35696,15 +35904,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="312" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="320"/>
-      <c r="E7" s="320"/>
-      <c r="F7" s="320"/>
-      <c r="G7" s="320"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="307"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="314"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -35738,15 +35946,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="307"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="313"/>
+      <c r="H9" s="313"/>
+      <c r="I9" s="314"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -35809,19 +36017,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="322"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="322"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="323"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -35850,11 +36058,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="324" t="s">
+      <c r="J14" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="324"/>
-      <c r="L14" s="324"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -35879,11 +36087,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="317" t="s">
+      <c r="J15" s="306" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="307"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -35908,9 +36116,9 @@
       <c r="I16" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="317"/>
-      <c r="K16" s="318"/>
-      <c r="L16" s="318"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="307"/>
+      <c r="L16" s="307"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -36072,11 +36280,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="319" t="s">
+      <c r="B26" s="308" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="319"/>
-      <c r="D26" s="319"/>
+      <c r="C26" s="308"/>
+      <c r="D26" s="308"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -36091,12 +36299,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
+      <c r="C27" s="310"/>
+      <c r="D27" s="310"/>
+      <c r="E27" s="311"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -36188,10 +36396,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="306" t="s">
+      <c r="D30" s="315" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="307"/>
+      <c r="E30" s="314"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -36221,10 +36429,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="315" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="307"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -36287,8 +36495,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="306"/>
-      <c r="E33" s="307"/>
+      <c r="D33" s="315"/>
+      <c r="E33" s="314"/>
       <c r="F33" s="74"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -36610,11 +36818,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="311" t="s">
+      <c r="B52" s="322" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="311"/>
-      <c r="D52" s="311"/>
+      <c r="C52" s="322"/>
+      <c r="D52" s="322"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -36631,12 +36839,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="312" t="s">
+      <c r="B53" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="313"/>
-      <c r="D53" s="313"/>
-      <c r="E53" s="314"/>
+      <c r="C53" s="310"/>
+      <c r="D53" s="310"/>
+      <c r="E53" s="311"/>
       <c r="F53" s="115" t="s">
         <v>125</v>
       </c>
@@ -36728,10 +36936,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="308" t="s">
+      <c r="D56" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="307"/>
+      <c r="E56" s="314"/>
       <c r="F56" s="74" t="s">
         <v>139</v>
       </c>
@@ -36761,10 +36969,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="308" t="s">
+      <c r="D57" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="315"/>
+      <c r="E57" s="323"/>
       <c r="F57" s="105" t="s">
         <v>189</v>
       </c>
@@ -36794,10 +37002,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="316" t="s">
+      <c r="D58" s="324" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="315"/>
+      <c r="E58" s="323"/>
       <c r="F58" s="105" t="s">
         <v>192</v>
       </c>
@@ -37257,6 +37465,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -37269,12 +37483,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -37372,15 +37580,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="312" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="307"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -37393,15 +37601,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="308" t="s">
+      <c r="C5" s="312" t="s">
         <v>307</v>
       </c>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="307"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -37435,15 +37643,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="320"/>
-      <c r="E7" s="320"/>
-      <c r="F7" s="320"/>
-      <c r="G7" s="320"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="307"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="314"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -37477,15 +37685,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="307"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="313"/>
+      <c r="H9" s="313"/>
+      <c r="I9" s="314"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -37548,19 +37756,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="322"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="322"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="323"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -37589,11 +37797,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="324" t="s">
+      <c r="J14" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="324"/>
-      <c r="L14" s="324"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -37608,9 +37816,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="130"/>
-      <c r="J15" s="317"/>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
+      <c r="J15" s="306"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="307"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37625,9 +37833,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="318"/>
-      <c r="K16" s="318"/>
-      <c r="L16" s="318"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="307"/>
+      <c r="L16" s="307"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -37806,11 +38014,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="319" t="s">
+      <c r="B27" s="308" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="319"/>
-      <c r="D27" s="319"/>
+      <c r="C27" s="308"/>
+      <c r="D27" s="308"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -37825,12 +38033,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="312" t="s">
+      <c r="B28" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313"/>
-      <c r="E28" s="314"/>
+      <c r="C28" s="310"/>
+      <c r="D28" s="310"/>
+      <c r="E28" s="311"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -37922,10 +38130,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="315" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="307"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -37955,10 +38163,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="315" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="307"/>
+      <c r="E32" s="314"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -38021,10 +38229,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="308" t="s">
+      <c r="D34" s="312" t="s">
         <v>290</v>
       </c>
-      <c r="E34" s="307"/>
+      <c r="E34" s="314"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -38054,10 +38262,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="309" t="s">
+      <c r="D35" s="320" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="310"/>
+      <c r="E35" s="321"/>
       <c r="F35" s="105" t="s">
         <v>284</v>
       </c>
@@ -38393,11 +38601,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="311" t="s">
+      <c r="B54" s="322" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="311"/>
-      <c r="D54" s="311"/>
+      <c r="C54" s="322"/>
+      <c r="D54" s="322"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -38414,12 +38622,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="312" t="s">
+      <c r="B55" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="313"/>
-      <c r="D55" s="313"/>
-      <c r="E55" s="314"/>
+      <c r="C55" s="310"/>
+      <c r="D55" s="310"/>
+      <c r="E55" s="311"/>
       <c r="F55" s="115" t="s">
         <v>125</v>
       </c>
@@ -38511,10 +38719,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="308" t="s">
+      <c r="D58" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="307"/>
+      <c r="E58" s="314"/>
       <c r="F58" s="74" t="s">
         <v>139</v>
       </c>
@@ -38544,10 +38752,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="308" t="s">
+      <c r="D59" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="315"/>
+      <c r="E59" s="323"/>
       <c r="F59" s="105" t="s">
         <v>189</v>
       </c>
@@ -38577,10 +38785,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="316" t="s">
+      <c r="D60" s="324" t="s">
         <v>194</v>
       </c>
-      <c r="E60" s="315"/>
+      <c r="E60" s="323"/>
       <c r="F60" s="105" t="s">
         <v>192</v>
       </c>
@@ -38674,8 +38882,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="306"/>
-      <c r="E63" s="307"/>
+      <c r="D63" s="315"/>
+      <c r="E63" s="314"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -39065,6 +39273,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -39077,14 +39293,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39178,15 +39386,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="312" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="307"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -39199,13 +39407,13 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="308"/>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="307"/>
+      <c r="C5" s="312"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -39239,15 +39447,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="320"/>
-      <c r="E7" s="320"/>
-      <c r="F7" s="320"/>
-      <c r="G7" s="320"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="307"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="314"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -39281,15 +39489,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="307"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="313"/>
+      <c r="H9" s="313"/>
+      <c r="I9" s="314"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -39352,19 +39560,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="322"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="322"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="323"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -39393,11 +39601,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="324" t="s">
+      <c r="J14" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="324"/>
-      <c r="L14" s="324"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -39422,11 +39630,11 @@
       <c r="I15" s="131" t="s">
         <v>274</v>
       </c>
-      <c r="J15" s="317" t="s">
+      <c r="J15" s="306" t="s">
         <v>312</v>
       </c>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="307"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -39441,9 +39649,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="318"/>
-      <c r="K16" s="318"/>
-      <c r="L16" s="318"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="307"/>
+      <c r="L16" s="307"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -39622,11 +39830,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="319" t="s">
+      <c r="B27" s="308" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="319"/>
-      <c r="D27" s="319"/>
+      <c r="C27" s="308"/>
+      <c r="D27" s="308"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -39641,12 +39849,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="312" t="s">
+      <c r="B28" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313"/>
-      <c r="E28" s="314"/>
+      <c r="C28" s="310"/>
+      <c r="D28" s="310"/>
+      <c r="E28" s="311"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -39738,10 +39946,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="315" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="307"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -39771,10 +39979,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="315" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="307"/>
+      <c r="E32" s="314"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -39837,10 +40045,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="308" t="s">
+      <c r="D34" s="312" t="s">
         <v>272</v>
       </c>
-      <c r="E34" s="315"/>
+      <c r="E34" s="323"/>
       <c r="F34" s="105" t="s">
         <v>175</v>
       </c>
@@ -39866,10 +40074,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="308" t="s">
+      <c r="D35" s="312" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="307"/>
+      <c r="E35" s="314"/>
       <c r="F35" s="105" t="s">
         <v>273</v>
       </c>
@@ -39899,10 +40107,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="309" t="s">
+      <c r="D36" s="320" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="310"/>
+      <c r="E36" s="321"/>
       <c r="F36" s="105" t="s">
         <v>284</v>
       </c>
@@ -40238,11 +40446,11 @@
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="311" t="s">
+      <c r="B55" s="322" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="311"/>
-      <c r="D55" s="311"/>
+      <c r="C55" s="322"/>
+      <c r="D55" s="322"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
@@ -40259,12 +40467,12 @@
     </row>
     <row r="56" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="83"/>
-      <c r="B56" s="312" t="s">
+      <c r="B56" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="313"/>
-      <c r="D56" s="313"/>
-      <c r="E56" s="314"/>
+      <c r="C56" s="310"/>
+      <c r="D56" s="310"/>
+      <c r="E56" s="311"/>
       <c r="F56" s="115" t="s">
         <v>125</v>
       </c>
@@ -40356,10 +40564,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="308" t="s">
+      <c r="D59" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="307"/>
+      <c r="E59" s="314"/>
       <c r="F59" s="74" t="s">
         <v>139</v>
       </c>
@@ -40389,10 +40597,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="308" t="s">
+      <c r="D60" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="315"/>
+      <c r="E60" s="323"/>
       <c r="F60" s="105" t="s">
         <v>189</v>
       </c>
@@ -40422,10 +40630,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="316" t="s">
+      <c r="D61" s="324" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="315"/>
+      <c r="E61" s="323"/>
       <c r="F61" s="105" t="s">
         <v>192</v>
       </c>
@@ -40519,8 +40727,8 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="92"/>
-      <c r="D64" s="306"/>
-      <c r="E64" s="307"/>
+      <c r="D64" s="315"/>
+      <c r="E64" s="314"/>
       <c r="F64" s="74"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
@@ -40910,6 +41118,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -40922,15 +41139,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41459,15 +41667,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="312" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="307"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -41480,15 +41688,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="308" t="s">
+      <c r="C5" s="312" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="307"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -41522,15 +41730,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="306" t="s">
+      <c r="C7" s="315" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="320"/>
-      <c r="E7" s="320"/>
-      <c r="F7" s="320"/>
-      <c r="G7" s="320"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="307"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="314"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41564,15 +41772,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="307"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="313"/>
+      <c r="H9" s="313"/>
+      <c r="I9" s="314"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -41635,19 +41843,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="322"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="322"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="323"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -41676,11 +41884,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="324" t="s">
+      <c r="J14" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="324"/>
-      <c r="L14" s="324"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -41705,11 +41913,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="317" t="s">
+      <c r="J15" s="306" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="307"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -41734,9 +41942,9 @@
       <c r="I16" s="130" t="s">
         <v>392</v>
       </c>
-      <c r="J16" s="318"/>
-      <c r="K16" s="318"/>
-      <c r="L16" s="318"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="307"/>
+      <c r="L16" s="307"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -41927,11 +42135,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="319" t="s">
+      <c r="B27" s="308" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="319"/>
-      <c r="D27" s="319"/>
+      <c r="C27" s="308"/>
+      <c r="D27" s="308"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -41946,12 +42154,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="312" t="s">
+      <c r="B28" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313"/>
-      <c r="E28" s="314"/>
+      <c r="C28" s="310"/>
+      <c r="D28" s="310"/>
+      <c r="E28" s="311"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -42043,10 +42251,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="315" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="307"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -42076,10 +42284,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="315" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="307"/>
+      <c r="E32" s="314"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -42171,10 +42379,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="308" t="s">
+      <c r="D35" s="312" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="307"/>
+      <c r="E35" s="314"/>
       <c r="F35" s="105" t="s">
         <v>391</v>
       </c>
@@ -42204,10 +42412,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="309" t="s">
+      <c r="D36" s="320" t="s">
         <v>394</v>
       </c>
-      <c r="E36" s="310"/>
+      <c r="E36" s="321"/>
       <c r="F36" s="105" t="s">
         <v>273</v>
       </c>
@@ -42630,11 +42838,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="311" t="s">
+      <c r="B58" s="322" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="311"/>
-      <c r="D58" s="311"/>
+      <c r="C58" s="322"/>
+      <c r="D58" s="322"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -42651,12 +42859,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="312" t="s">
+      <c r="B59" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="313"/>
-      <c r="D59" s="313"/>
-      <c r="E59" s="314"/>
+      <c r="C59" s="310"/>
+      <c r="D59" s="310"/>
+      <c r="E59" s="311"/>
       <c r="F59" s="151" t="s">
         <v>125</v>
       </c>
@@ -42748,10 +42956,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="308" t="s">
+      <c r="D62" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="307"/>
+      <c r="E62" s="314"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -42781,10 +42989,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="308" t="s">
+      <c r="D63" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="315"/>
+      <c r="E63" s="323"/>
       <c r="F63" s="105" t="s">
         <v>189</v>
       </c>
@@ -42814,10 +43022,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="316" t="s">
+      <c r="D64" s="324" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="315"/>
+      <c r="E64" s="323"/>
       <c r="F64" s="105" t="s">
         <v>192</v>
       </c>
@@ -42911,8 +43119,8 @@
       <c r="A67" s="66"/>
       <c r="B67" s="91"/>
       <c r="C67" s="92"/>
-      <c r="D67" s="306"/>
-      <c r="E67" s="307"/>
+      <c r="D67" s="315"/>
+      <c r="E67" s="314"/>
       <c r="F67" s="74"/>
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
@@ -43302,6 +43510,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -43314,14 +43530,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -43419,15 +43627,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="312" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="307"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -43440,15 +43648,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="308" t="s">
+      <c r="C5" s="312" t="s">
         <v>402</v>
       </c>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="307"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -43482,15 +43690,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="312" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="320"/>
-      <c r="E7" s="320"/>
-      <c r="F7" s="320"/>
-      <c r="G7" s="320"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="307"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="314"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -43524,15 +43732,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="307"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="313"/>
+      <c r="H9" s="313"/>
+      <c r="I9" s="314"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -43595,19 +43803,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="322"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="322"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="323"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -43636,11 +43844,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="324" t="s">
+      <c r="J14" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="324"/>
-      <c r="L14" s="324"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -43665,11 +43873,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="317" t="s">
+      <c r="J15" s="306" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="307"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -43891,11 +44099,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="319" t="s">
+      <c r="B27" s="308" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="319"/>
-      <c r="D27" s="319"/>
+      <c r="C27" s="308"/>
+      <c r="D27" s="308"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -43910,12 +44118,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="312" t="s">
+      <c r="B28" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313"/>
-      <c r="E28" s="314"/>
+      <c r="C28" s="310"/>
+      <c r="D28" s="310"/>
+      <c r="E28" s="311"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -44007,10 +44215,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="315" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="307"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -44040,10 +44248,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="315" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="307"/>
+      <c r="E32" s="314"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -44135,10 +44343,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="308" t="s">
+      <c r="D35" s="312" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="307"/>
+      <c r="E35" s="314"/>
       <c r="F35" s="105" t="s">
         <v>391</v>
       </c>
@@ -44168,10 +44376,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="309" t="s">
+      <c r="D36" s="320" t="s">
         <v>394</v>
       </c>
-      <c r="E36" s="310"/>
+      <c r="E36" s="321"/>
       <c r="F36" s="105" t="s">
         <v>273</v>
       </c>
@@ -44594,11 +44802,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="311" t="s">
+      <c r="B58" s="322" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="311"/>
-      <c r="D58" s="311"/>
+      <c r="C58" s="322"/>
+      <c r="D58" s="322"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -44615,12 +44823,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="312" t="s">
+      <c r="B59" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="313"/>
-      <c r="D59" s="313"/>
-      <c r="E59" s="314"/>
+      <c r="C59" s="310"/>
+      <c r="D59" s="310"/>
+      <c r="E59" s="311"/>
       <c r="F59" s="151" t="s">
         <v>125</v>
       </c>
@@ -44712,10 +44920,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="308" t="s">
+      <c r="D62" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="307"/>
+      <c r="E62" s="314"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -44745,10 +44953,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="308" t="s">
+      <c r="D63" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="315"/>
+      <c r="E63" s="323"/>
       <c r="F63" s="105" t="s">
         <v>189</v>
       </c>
@@ -44778,10 +44986,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="316" t="s">
+      <c r="D64" s="324" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="315"/>
+      <c r="E64" s="323"/>
       <c r="F64" s="105" t="s">
         <v>192</v>
       </c>
@@ -44904,10 +45112,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="85"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="308" t="s">
+      <c r="D68" s="312" t="s">
         <v>290</v>
       </c>
-      <c r="E68" s="307"/>
+      <c r="E68" s="314"/>
       <c r="F68" s="105" t="s">
         <v>391</v>
       </c>
@@ -44937,10 +45145,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="85"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="309" t="s">
+      <c r="D69" s="320" t="s">
         <v>394</v>
       </c>
-      <c r="E69" s="310"/>
+      <c r="E69" s="321"/>
       <c r="F69" s="105" t="s">
         <v>273</v>
       </c>
@@ -45393,6 +45601,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -45404,15 +45621,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -45509,15 +45717,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="312" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="307"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -45530,15 +45738,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="308" t="s">
+      <c r="C5" s="312" t="s">
         <v>407</v>
       </c>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="307"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -45572,15 +45780,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="312" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="320"/>
-      <c r="E7" s="320"/>
-      <c r="F7" s="320"/>
-      <c r="G7" s="320"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="307"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="314"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -45614,15 +45822,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="307"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="313"/>
+      <c r="H9" s="313"/>
+      <c r="I9" s="314"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -45685,19 +45893,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="322"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="322"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="323"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45726,11 +45934,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="324" t="s">
+      <c r="J14" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="324"/>
-      <c r="L14" s="324"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45755,11 +45963,11 @@
       <c r="I15" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="317" t="s">
+      <c r="J15" s="306" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="307"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -45950,11 +46158,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="319" t="s">
+      <c r="B26" s="308" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="319"/>
-      <c r="D26" s="319"/>
+      <c r="C26" s="308"/>
+      <c r="D26" s="308"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -45969,12 +46177,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
+      <c r="C27" s="310"/>
+      <c r="D27" s="310"/>
+      <c r="E27" s="311"/>
       <c r="F27" s="151" t="s">
         <v>125</v>
       </c>
@@ -46066,10 +46274,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="306" t="s">
+      <c r="D30" s="315" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="307"/>
+      <c r="E30" s="314"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -46099,10 +46307,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="315" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="307"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="74" t="s">
         <v>173</v>
       </c>
@@ -46488,11 +46696,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="311" t="s">
+      <c r="B52" s="322" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="311"/>
-      <c r="D52" s="311"/>
+      <c r="C52" s="322"/>
+      <c r="D52" s="322"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -46509,12 +46717,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="312" t="s">
+      <c r="B53" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="313"/>
-      <c r="D53" s="313"/>
-      <c r="E53" s="314"/>
+      <c r="C53" s="310"/>
+      <c r="D53" s="310"/>
+      <c r="E53" s="311"/>
       <c r="F53" s="151" t="s">
         <v>125</v>
       </c>
@@ -46606,10 +46814,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="308" t="s">
+      <c r="D56" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="307"/>
+      <c r="E56" s="314"/>
       <c r="F56" s="74" t="s">
         <v>139</v>
       </c>
@@ -46639,10 +46847,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="308" t="s">
+      <c r="D57" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="315"/>
+      <c r="E57" s="323"/>
       <c r="F57" s="105" t="s">
         <v>189</v>
       </c>
@@ -46672,10 +46880,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="316" t="s">
+      <c r="D58" s="324" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="315"/>
+      <c r="E58" s="323"/>
       <c r="F58" s="105" t="s">
         <v>192</v>
       </c>
@@ -46769,8 +46977,8 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="92"/>
-      <c r="D61" s="306"/>
-      <c r="E61" s="307"/>
+      <c r="D61" s="315"/>
+      <c r="E61" s="314"/>
       <c r="F61" s="74"/>
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
@@ -47160,17 +47368,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D33:E33"/>
@@ -47178,6 +47375,17 @@
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -47274,15 +47482,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="312" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="307"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -47295,15 +47503,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="308" t="s">
+      <c r="C5" s="312" t="s">
         <v>410</v>
       </c>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="307"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -47337,15 +47545,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="320"/>
-      <c r="E7" s="320"/>
-      <c r="F7" s="320"/>
-      <c r="G7" s="320"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="307"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="314"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -47379,15 +47587,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="307"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="313"/>
+      <c r="H9" s="313"/>
+      <c r="I9" s="314"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -47450,19 +47658,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="322"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="322"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="323"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -47491,11 +47699,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="324" t="s">
+      <c r="J14" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="324"/>
-      <c r="L14" s="324"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -47520,11 +47728,11 @@
       <c r="I15" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="J15" s="317" t="s">
+      <c r="J15" s="306" t="s">
         <v>291</v>
       </c>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="307"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -47539,9 +47747,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="318"/>
-      <c r="K16" s="318"/>
-      <c r="L16" s="318"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="307"/>
+      <c r="L16" s="307"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -47720,11 +47928,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="319" t="s">
+      <c r="B27" s="308" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="319"/>
-      <c r="D27" s="319"/>
+      <c r="C27" s="308"/>
+      <c r="D27" s="308"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -47739,12 +47947,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="312" t="s">
+      <c r="B28" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313"/>
-      <c r="E28" s="314"/>
+      <c r="C28" s="310"/>
+      <c r="D28" s="310"/>
+      <c r="E28" s="311"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -47836,10 +48044,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="315" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="307"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -47869,10 +48077,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="315" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="307"/>
+      <c r="E32" s="314"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -47935,10 +48143,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="308" t="s">
+      <c r="D34" s="312" t="s">
         <v>394</v>
       </c>
-      <c r="E34" s="307"/>
+      <c r="E34" s="314"/>
       <c r="F34" s="105" t="s">
         <v>273</v>
       </c>
@@ -47968,10 +48176,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="309" t="s">
+      <c r="D35" s="320" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="310"/>
+      <c r="E35" s="321"/>
       <c r="F35" s="105" t="s">
         <v>286</v>
       </c>
@@ -48307,11 +48515,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="311" t="s">
+      <c r="B54" s="322" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="311"/>
-      <c r="D54" s="311"/>
+      <c r="C54" s="322"/>
+      <c r="D54" s="322"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -48328,12 +48536,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="312" t="s">
+      <c r="B55" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="313"/>
-      <c r="D55" s="313"/>
-      <c r="E55" s="314"/>
+      <c r="C55" s="310"/>
+      <c r="D55" s="310"/>
+      <c r="E55" s="311"/>
       <c r="F55" s="151" t="s">
         <v>125</v>
       </c>
@@ -48425,10 +48633,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="308" t="s">
+      <c r="D58" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="307"/>
+      <c r="E58" s="314"/>
       <c r="F58" s="74" t="s">
         <v>139</v>
       </c>
@@ -48458,10 +48666,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="308" t="s">
+      <c r="D59" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="315"/>
+      <c r="E59" s="323"/>
       <c r="F59" s="105" t="s">
         <v>189</v>
       </c>
@@ -48491,10 +48699,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="316" t="s">
+      <c r="D60" s="324" t="s">
         <v>194</v>
       </c>
-      <c r="E60" s="315"/>
+      <c r="E60" s="323"/>
       <c r="F60" s="105" t="s">
         <v>192</v>
       </c>
@@ -48588,8 +48796,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="306"/>
-      <c r="E63" s="307"/>
+      <c r="D63" s="315"/>
+      <c r="E63" s="314"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -48979,6 +49187,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -48991,14 +49207,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -49092,15 +49300,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="312" t="s">
         <v>412</v>
       </c>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="307"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -49113,15 +49321,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="308" t="s">
+      <c r="C5" s="312" t="s">
         <v>413</v>
       </c>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="307"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -49155,15 +49363,15 @@
       <c r="B7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="320"/>
-      <c r="E7" s="320"/>
-      <c r="F7" s="320"/>
-      <c r="G7" s="320"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="307"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="314"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -49197,15 +49405,15 @@
       <c r="B9" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="307"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="313"/>
+      <c r="H9" s="313"/>
+      <c r="I9" s="314"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -49268,19 +49476,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="322"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="322"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="323"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -49309,11 +49517,11 @@
       <c r="I14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="324" t="s">
+      <c r="J14" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="324"/>
-      <c r="L14" s="324"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -49338,11 +49546,11 @@
       <c r="I15" s="130" t="s">
         <v>415</v>
       </c>
-      <c r="J15" s="317" t="s">
+      <c r="J15" s="306" t="s">
         <v>416</v>
       </c>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="307"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -49367,11 +49575,11 @@
       <c r="I16" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="J16" s="317" t="s">
+      <c r="J16" s="306" t="s">
         <v>417</v>
       </c>
-      <c r="K16" s="318"/>
-      <c r="L16" s="318"/>
+      <c r="K16" s="307"/>
+      <c r="L16" s="307"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -49550,11 +49758,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="319" t="s">
+      <c r="B27" s="308" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="319"/>
-      <c r="D27" s="319"/>
+      <c r="C27" s="308"/>
+      <c r="D27" s="308"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -49569,12 +49777,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="312" t="s">
+      <c r="B28" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313"/>
-      <c r="E28" s="314"/>
+      <c r="C28" s="310"/>
+      <c r="D28" s="310"/>
+      <c r="E28" s="311"/>
       <c r="F28" s="151" t="s">
         <v>125</v>
       </c>
@@ -49666,10 +49874,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="306" t="s">
+      <c r="D31" s="315" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="307"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -49699,10 +49907,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="306" t="s">
+      <c r="D32" s="315" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="307"/>
+      <c r="E32" s="314"/>
       <c r="F32" s="74" t="s">
         <v>173</v>
       </c>
@@ -49794,10 +50002,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="308" t="s">
+      <c r="D35" s="312" t="s">
         <v>394</v>
       </c>
-      <c r="E35" s="307"/>
+      <c r="E35" s="314"/>
       <c r="F35" s="105" t="s">
         <v>273</v>
       </c>
@@ -49827,10 +50035,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="309" t="s">
+      <c r="D36" s="320" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="310"/>
+      <c r="E36" s="321"/>
       <c r="F36" s="105" t="s">
         <v>286</v>
       </c>
@@ -50176,11 +50384,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="311" t="s">
+      <c r="B57" s="322" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="311"/>
-      <c r="D57" s="311"/>
+      <c r="C57" s="322"/>
+      <c r="D57" s="322"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -50197,12 +50405,12 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="312" t="s">
+      <c r="B58" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="313"/>
-      <c r="D58" s="313"/>
-      <c r="E58" s="314"/>
+      <c r="C58" s="310"/>
+      <c r="D58" s="310"/>
+      <c r="E58" s="311"/>
       <c r="F58" s="151" t="s">
         <v>125</v>
       </c>
@@ -50814,22 +51022,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -50840,8 +51048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E22"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -50874,10 +51082,10 @@
       <c r="C4" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="276" t="s">
+      <c r="D4" s="273" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="276"/>
+      <c r="E4" s="273"/>
       <c r="F4" s="111" t="s">
         <v>185</v>
       </c>
@@ -50890,10 +51098,10 @@
       <c r="C5" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="275" t="s">
+      <c r="D5" s="274" t="s">
         <v>450</v>
       </c>
-      <c r="E5" s="275"/>
+      <c r="E5" s="274"/>
       <c r="F5" s="120" t="s">
         <v>238</v>
       </c>
@@ -50907,10 +51115,10 @@
       <c r="C6" s="119" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="275" t="s">
+      <c r="D6" s="274" t="s">
         <v>289</v>
       </c>
-      <c r="E6" s="275"/>
+      <c r="E6" s="274"/>
       <c r="F6" s="120" t="s">
         <v>267</v>
       </c>
@@ -50923,10 +51131,10 @@
       <c r="C7" s="119" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="275" t="s">
+      <c r="D7" s="274" t="s">
         <v>266</v>
       </c>
-      <c r="E7" s="275"/>
+      <c r="E7" s="274"/>
       <c r="F7" s="120" t="s">
         <v>268</v>
       </c>
@@ -50939,10 +51147,10 @@
       <c r="C8" s="119" t="s">
         <v>277</v>
       </c>
-      <c r="D8" s="275" t="s">
+      <c r="D8" s="274" t="s">
         <v>279</v>
       </c>
-      <c r="E8" s="275"/>
+      <c r="E8" s="274"/>
       <c r="F8" s="120" t="s">
         <v>278</v>
       </c>
@@ -50962,10 +51170,10 @@
       <c r="C10" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="276" t="s">
+      <c r="D10" s="273" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="276"/>
+      <c r="E10" s="273"/>
       <c r="F10" s="111" t="s">
         <v>185</v>
       </c>
@@ -50977,10 +51185,10 @@
       <c r="C11" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="275" t="s">
+      <c r="D11" s="274" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="275"/>
+      <c r="E11" s="274"/>
       <c r="F11" s="100"/>
       <c r="H11" s="100"/>
     </row>
@@ -50991,10 +51199,10 @@
       <c r="C12" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="275" t="s">
+      <c r="D12" s="274" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="275"/>
+      <c r="E12" s="274"/>
       <c r="F12" s="120"/>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
@@ -51006,10 +51214,10 @@
       <c r="C13" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="275" t="s">
+      <c r="D13" s="274" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="275"/>
+      <c r="E13" s="274"/>
       <c r="F13" s="120"/>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
@@ -51021,10 +51229,10 @@
       <c r="C14" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="275" t="s">
+      <c r="D14" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="275"/>
+      <c r="E14" s="274"/>
       <c r="F14" s="120"/>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
@@ -51036,10 +51244,10 @@
       <c r="C15" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="275" t="s">
+      <c r="D15" s="274" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="275"/>
+      <c r="E15" s="274"/>
       <c r="F15" s="120"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -51058,10 +51266,10 @@
       <c r="C18" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="276" t="s">
+      <c r="D18" s="273" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="276"/>
+      <c r="E18" s="273"/>
       <c r="F18" s="111" t="s">
         <v>185</v>
       </c>
@@ -51073,10 +51281,10 @@
       <c r="C19" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="D19" s="275" t="s">
+      <c r="D19" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="275"/>
+      <c r="E19" s="274"/>
       <c r="F19" s="122"/>
       <c r="G19" s="100"/>
       <c r="H19" s="100"/>
@@ -51088,10 +51296,10 @@
       <c r="C20" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="275" t="s">
+      <c r="D20" s="274" t="s">
         <v>470</v>
       </c>
-      <c r="E20" s="275"/>
+      <c r="E20" s="274"/>
       <c r="F20" s="122"/>
       <c r="G20" s="100"/>
       <c r="H20" s="100"/>
@@ -51103,10 +51311,10 @@
       <c r="C21" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="275" t="s">
+      <c r="D21" s="274" t="s">
         <v>451</v>
       </c>
-      <c r="E21" s="275"/>
+      <c r="E21" s="274"/>
       <c r="F21" s="122"/>
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
@@ -51118,10 +51326,10 @@
       <c r="C22" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="D22" s="275" t="s">
+      <c r="D22" s="274" t="s">
         <v>446</v>
       </c>
-      <c r="E22" s="275"/>
+      <c r="E22" s="274"/>
       <c r="F22" s="122"/>
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
@@ -51133,10 +51341,10 @@
       <c r="C23" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="D23" s="275" t="s">
+      <c r="D23" s="274" t="s">
         <v>471</v>
       </c>
-      <c r="E23" s="275"/>
+      <c r="E23" s="274"/>
       <c r="F23" s="122"/>
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
@@ -51148,10 +51356,10 @@
       <c r="C24" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="275" t="s">
+      <c r="D24" s="274" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="275"/>
+      <c r="E24" s="274"/>
       <c r="F24" s="122"/>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
@@ -51170,10 +51378,10 @@
       <c r="C27" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="276" t="s">
+      <c r="D27" s="273" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="276"/>
+      <c r="E27" s="273"/>
       <c r="F27" s="111" t="s">
         <v>185</v>
       </c>
@@ -51185,10 +51393,10 @@
       <c r="C28" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="275" t="s">
+      <c r="D28" s="274" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="275"/>
+      <c r="E28" s="274"/>
       <c r="F28" s="122"/>
       <c r="G28" s="100"/>
       <c r="H28" s="100"/>
@@ -51200,10 +51408,10 @@
       <c r="C29" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="275" t="s">
+      <c r="D29" s="274" t="s">
         <v>256</v>
       </c>
-      <c r="E29" s="275"/>
+      <c r="E29" s="274"/>
       <c r="F29" s="122"/>
       <c r="G29" s="100"/>
       <c r="H29" s="100"/>
@@ -51215,10 +51423,10 @@
       <c r="C30" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="275" t="s">
+      <c r="D30" s="274" t="s">
         <v>441</v>
       </c>
-      <c r="E30" s="275"/>
+      <c r="E30" s="274"/>
       <c r="F30" s="122"/>
       <c r="G30" s="100"/>
       <c r="H30" s="100"/>
@@ -51230,10 +51438,10 @@
       <c r="C31" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="275" t="s">
+      <c r="D31" s="274" t="s">
         <v>245</v>
       </c>
-      <c r="E31" s="275"/>
+      <c r="E31" s="274"/>
       <c r="F31" s="122"/>
       <c r="G31" s="100"/>
       <c r="H31" s="100"/>
@@ -51245,10 +51453,10 @@
       <c r="C32" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="275" t="s">
+      <c r="D32" s="274" t="s">
         <v>246</v>
       </c>
-      <c r="E32" s="275"/>
+      <c r="E32" s="274"/>
       <c r="F32" s="122"/>
       <c r="G32" s="100"/>
       <c r="H32" s="100"/>
@@ -51265,10 +51473,10 @@
       <c r="C36" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="276" t="s">
+      <c r="D36" s="273" t="s">
         <v>188</v>
       </c>
-      <c r="E36" s="276"/>
+      <c r="E36" s="273"/>
       <c r="F36" s="111" t="s">
         <v>185</v>
       </c>
@@ -51280,10 +51488,10 @@
       <c r="C37" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="277" t="s">
+      <c r="D37" s="275" t="s">
         <v>249</v>
       </c>
-      <c r="E37" s="278"/>
+      <c r="E37" s="276"/>
       <c r="F37" s="126"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1">
@@ -51293,10 +51501,10 @@
       <c r="C38" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="277" t="s">
+      <c r="D38" s="275" t="s">
         <v>250</v>
       </c>
-      <c r="E38" s="278"/>
+      <c r="E38" s="276"/>
       <c r="F38" s="126"/>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1">
@@ -51306,10 +51514,10 @@
       <c r="C39" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="277" t="s">
+      <c r="D39" s="275" t="s">
         <v>251</v>
       </c>
-      <c r="E39" s="278"/>
+      <c r="E39" s="276"/>
       <c r="F39" s="126"/>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1">
@@ -51319,10 +51527,10 @@
       <c r="C40" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="277" t="s">
+      <c r="D40" s="275" t="s">
         <v>252</v>
       </c>
-      <c r="E40" s="278"/>
+      <c r="E40" s="276"/>
       <c r="F40" s="126"/>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1">
@@ -51332,10 +51540,10 @@
       <c r="C41" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="277" t="s">
+      <c r="D41" s="275" t="s">
         <v>253</v>
       </c>
-      <c r="E41" s="278"/>
+      <c r="E41" s="276"/>
       <c r="F41" s="126"/>
     </row>
     <row r="42" spans="2:6">
@@ -51345,10 +51553,10 @@
       <c r="C42" s="127">
         <v>2506</v>
       </c>
-      <c r="D42" s="273" t="s">
+      <c r="D42" s="277" t="s">
         <v>255</v>
       </c>
-      <c r="E42" s="274"/>
+      <c r="E42" s="278"/>
       <c r="F42" s="128"/>
     </row>
     <row r="43" spans="2:6">
@@ -51358,10 +51566,10 @@
       <c r="C43" s="127">
         <v>2507</v>
       </c>
-      <c r="D43" s="273" t="s">
+      <c r="D43" s="277" t="s">
         <v>314</v>
       </c>
-      <c r="E43" s="274"/>
+      <c r="E43" s="278"/>
       <c r="F43" s="129"/>
     </row>
     <row r="45" spans="2:6" ht="15.75">
@@ -51376,10 +51584,10 @@
       <c r="C46" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="276" t="s">
+      <c r="D46" s="273" t="s">
         <v>188</v>
       </c>
-      <c r="E46" s="276"/>
+      <c r="E46" s="273"/>
       <c r="F46" s="111" t="s">
         <v>185</v>
       </c>
@@ -51391,10 +51599,10 @@
       <c r="C47" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="275" t="s">
+      <c r="D47" s="274" t="s">
         <v>258</v>
       </c>
-      <c r="E47" s="275"/>
+      <c r="E47" s="274"/>
       <c r="F47" s="122"/>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51404,10 +51612,10 @@
       <c r="C48" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="275" t="s">
+      <c r="D48" s="274" t="s">
         <v>259</v>
       </c>
-      <c r="E48" s="275"/>
+      <c r="E48" s="274"/>
       <c r="F48" s="122"/>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51417,10 +51625,10 @@
       <c r="C49" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="275" t="s">
+      <c r="D49" s="274" t="s">
         <v>260</v>
       </c>
-      <c r="E49" s="275"/>
+      <c r="E49" s="274"/>
       <c r="F49" s="122"/>
     </row>
     <row r="50" spans="2:6" ht="32.25" customHeight="1">
@@ -51430,10 +51638,10 @@
       <c r="C50" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="275" t="s">
+      <c r="D50" s="274" t="s">
         <v>261</v>
       </c>
-      <c r="E50" s="275"/>
+      <c r="E50" s="274"/>
       <c r="F50" s="122" t="s">
         <v>440</v>
       </c>
@@ -51445,10 +51653,10 @@
       <c r="C51" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="275" t="s">
+      <c r="D51" s="274" t="s">
         <v>262</v>
       </c>
-      <c r="E51" s="275"/>
+      <c r="E51" s="274"/>
       <c r="F51" s="122"/>
     </row>
     <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51458,25 +51666,28 @@
       <c r="C52" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="275" t="s">
+      <c r="D52" s="274" t="s">
         <v>263</v>
       </c>
-      <c r="E52" s="275"/>
+      <c r="E52" s="274"/>
       <c r="F52" s="122"/>
     </row>
     <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -51493,19 +51704,16 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -52177,15 +52385,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="289" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -52198,15 +52406,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="289" t="s">
         <v>365</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -52240,15 +52448,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="289" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -52282,15 +52490,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="289" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="291"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -52353,19 +52561,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="292" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="293"/>
-      <c r="D13" s="293"/>
-      <c r="E13" s="293"/>
-      <c r="F13" s="293"/>
-      <c r="G13" s="293"/>
-      <c r="H13" s="293"/>
-      <c r="I13" s="293"/>
-      <c r="J13" s="293"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="294"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -52394,11 +52602,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="292" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="292"/>
+      <c r="L14" s="292"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -52427,11 +52635,11 @@
       <c r="I15" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="J15" s="298" t="s">
+      <c r="J15" s="299" t="s">
         <v>362</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -52460,11 +52668,11 @@
       <c r="I16" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="J16" s="298" t="s">
+      <c r="J16" s="299" t="s">
         <v>358</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -52526,11 +52734,11 @@
       <c r="I18" s="160" t="s">
         <v>355</v>
       </c>
-      <c r="J18" s="290" t="s">
+      <c r="J18" s="289" t="s">
         <v>354</v>
       </c>
-      <c r="K18" s="299"/>
-      <c r="L18" s="291"/>
+      <c r="K18" s="291"/>
+      <c r="L18" s="290"/>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
       <c r="O18" s="154"/>
@@ -52559,11 +52767,11 @@
       <c r="I19" s="183" t="s">
         <v>353</v>
       </c>
-      <c r="J19" s="290" t="s">
+      <c r="J19" s="289" t="s">
         <v>352</v>
       </c>
-      <c r="K19" s="299"/>
-      <c r="L19" s="291"/>
+      <c r="K19" s="291"/>
+      <c r="L19" s="290"/>
       <c r="M19" s="154"/>
       <c r="N19" s="154"/>
       <c r="O19" s="154"/>
@@ -52744,12 +52952,12 @@
     </row>
     <row r="30" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="174"/>
-      <c r="B30" s="295" t="s">
+      <c r="B30" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="296"/>
-      <c r="D30" s="296"/>
-      <c r="E30" s="297"/>
+      <c r="C30" s="297"/>
+      <c r="D30" s="297"/>
+      <c r="E30" s="298"/>
       <c r="F30" s="175" t="s">
         <v>125</v>
       </c>
@@ -52841,10 +53049,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="172"/>
-      <c r="D33" s="290" t="s">
+      <c r="D33" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="291"/>
+      <c r="E33" s="290"/>
       <c r="F33" s="162" t="s">
         <v>330</v>
       </c>
@@ -52874,10 +53082,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="163"/>
-      <c r="D34" s="290" t="s">
+      <c r="D34" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="291"/>
+      <c r="E34" s="290"/>
       <c r="F34" s="162" t="s">
         <v>173</v>
       </c>
@@ -52940,10 +53148,10 @@
       <c r="A36" s="154"/>
       <c r="B36" s="168"/>
       <c r="C36" s="171"/>
-      <c r="D36" s="290" t="s">
+      <c r="D36" s="289" t="s">
         <v>351</v>
       </c>
-      <c r="E36" s="291"/>
+      <c r="E36" s="290"/>
       <c r="F36" s="162" t="s">
         <v>175</v>
       </c>
@@ -53006,10 +53214,10 @@
       <c r="A38" s="154"/>
       <c r="B38" s="168"/>
       <c r="C38" s="172"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="289" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="291"/>
+      <c r="E38" s="290"/>
       <c r="F38" s="162" t="s">
         <v>344</v>
       </c>
@@ -53159,10 +53367,10 @@
       <c r="A43" s="154"/>
       <c r="B43" s="164"/>
       <c r="C43" s="163"/>
-      <c r="D43" s="290" t="s">
+      <c r="D43" s="289" t="s">
         <v>336</v>
       </c>
-      <c r="E43" s="291"/>
+      <c r="E43" s="290"/>
       <c r="F43" s="162" t="s">
         <v>335</v>
       </c>
@@ -53519,12 +53727,12 @@
     </row>
     <row r="63" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="174"/>
-      <c r="B63" s="295" t="s">
+      <c r="B63" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="296"/>
-      <c r="D63" s="296"/>
-      <c r="E63" s="297"/>
+      <c r="C63" s="297"/>
+      <c r="D63" s="297"/>
+      <c r="E63" s="298"/>
       <c r="F63" s="175" t="s">
         <v>125</v>
       </c>
@@ -53616,10 +53824,10 @@
       <c r="A66" s="154"/>
       <c r="B66" s="168"/>
       <c r="C66" s="172"/>
-      <c r="D66" s="290" t="s">
+      <c r="D66" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="E66" s="291"/>
+      <c r="E66" s="290"/>
       <c r="F66" s="162" t="s">
         <v>330</v>
       </c>
@@ -53649,10 +53857,10 @@
       <c r="A67" s="154"/>
       <c r="B67" s="168"/>
       <c r="C67" s="172"/>
-      <c r="D67" s="290" t="s">
+      <c r="D67" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="291"/>
+      <c r="E67" s="290"/>
       <c r="F67" s="162" t="s">
         <v>189</v>
       </c>
@@ -53685,7 +53893,7 @@
       <c r="D68" s="304" t="s">
         <v>194</v>
       </c>
-      <c r="E68" s="291"/>
+      <c r="E68" s="290"/>
       <c r="F68" s="162" t="s">
         <v>192</v>
       </c>
@@ -53779,8 +53987,8 @@
       <c r="A71" s="154"/>
       <c r="B71" s="164"/>
       <c r="C71" s="163"/>
-      <c r="D71" s="290"/>
-      <c r="E71" s="291"/>
+      <c r="D71" s="289"/>
+      <c r="E71" s="290"/>
       <c r="F71" s="162"/>
       <c r="G71" s="161"/>
       <c r="H71" s="161"/>
@@ -54170,14 +54378,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="B13:L13"/>
@@ -54194,6 +54394,14 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -54293,15 +54501,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="289" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -54314,15 +54522,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="289" t="s">
         <v>370</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -54356,15 +54564,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="289" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -54398,15 +54606,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="289" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="291"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -54469,19 +54677,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="292" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="293"/>
-      <c r="D13" s="293"/>
-      <c r="E13" s="293"/>
-      <c r="F13" s="293"/>
-      <c r="G13" s="293"/>
-      <c r="H13" s="293"/>
-      <c r="I13" s="293"/>
-      <c r="J13" s="293"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="294"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -54510,11 +54718,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="292" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="292"/>
+      <c r="L14" s="292"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -54539,11 +54747,11 @@
       <c r="I15" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="J15" s="298" t="s">
+      <c r="J15" s="299" t="s">
         <v>362</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -54568,11 +54776,11 @@
       <c r="I16" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="J16" s="298" t="s">
+      <c r="J16" s="299" t="s">
         <v>368</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -54753,12 +54961,12 @@
     </row>
     <row r="27" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="295" t="s">
+      <c r="B27" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="296"/>
-      <c r="D27" s="296"/>
-      <c r="E27" s="297"/>
+      <c r="C27" s="297"/>
+      <c r="D27" s="297"/>
+      <c r="E27" s="298"/>
       <c r="F27" s="175" t="s">
         <v>125</v>
       </c>
@@ -54850,10 +55058,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="172"/>
-      <c r="D30" s="290" t="s">
+      <c r="D30" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="291"/>
+      <c r="E30" s="290"/>
       <c r="F30" s="162" t="s">
         <v>330</v>
       </c>
@@ -54883,10 +55091,10 @@
       <c r="A31" s="154"/>
       <c r="B31" s="168"/>
       <c r="C31" s="163"/>
-      <c r="D31" s="290" t="s">
+      <c r="D31" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="291"/>
+      <c r="E31" s="290"/>
       <c r="F31" s="162" t="s">
         <v>173</v>
       </c>
@@ -54949,10 +55157,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="290" t="s">
+      <c r="D33" s="289" t="s">
         <v>351</v>
       </c>
-      <c r="E33" s="291"/>
+      <c r="E33" s="290"/>
       <c r="F33" s="162" t="s">
         <v>175</v>
       </c>
@@ -55015,10 +55223,10 @@
       <c r="A35" s="154"/>
       <c r="B35" s="168"/>
       <c r="C35" s="171"/>
-      <c r="D35" s="290" t="s">
+      <c r="D35" s="289" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="291"/>
+      <c r="E35" s="290"/>
       <c r="F35" s="162" t="s">
         <v>344</v>
       </c>
@@ -55114,10 +55322,10 @@
       <c r="A38" s="154"/>
       <c r="B38" s="164"/>
       <c r="C38" s="163"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="289" t="s">
         <v>336</v>
       </c>
-      <c r="E38" s="291"/>
+      <c r="E38" s="290"/>
       <c r="F38" s="162" t="s">
         <v>335</v>
       </c>
@@ -55474,12 +55682,12 @@
     </row>
     <row r="58" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="174"/>
-      <c r="B58" s="295" t="s">
+      <c r="B58" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="296"/>
-      <c r="D58" s="296"/>
-      <c r="E58" s="297"/>
+      <c r="C58" s="297"/>
+      <c r="D58" s="297"/>
+      <c r="E58" s="298"/>
       <c r="F58" s="175" t="s">
         <v>125</v>
       </c>
@@ -55571,10 +55779,10 @@
       <c r="A61" s="154"/>
       <c r="B61" s="168"/>
       <c r="C61" s="172"/>
-      <c r="D61" s="290" t="s">
+      <c r="D61" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="291"/>
+      <c r="E61" s="290"/>
       <c r="F61" s="162" t="s">
         <v>330</v>
       </c>
@@ -55604,10 +55812,10 @@
       <c r="A62" s="154"/>
       <c r="B62" s="168"/>
       <c r="C62" s="172"/>
-      <c r="D62" s="290" t="s">
+      <c r="D62" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="291"/>
+      <c r="E62" s="290"/>
       <c r="F62" s="162" t="s">
         <v>189</v>
       </c>
@@ -55640,7 +55848,7 @@
       <c r="D63" s="304" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="291"/>
+      <c r="E63" s="290"/>
       <c r="F63" s="162" t="s">
         <v>192</v>
       </c>
@@ -55734,8 +55942,8 @@
       <c r="A66" s="154"/>
       <c r="B66" s="164"/>
       <c r="C66" s="163"/>
-      <c r="D66" s="290"/>
-      <c r="E66" s="291"/>
+      <c r="D66" s="289"/>
+      <c r="E66" s="290"/>
       <c r="F66" s="162"/>
       <c r="G66" s="161"/>
       <c r="H66" s="161"/>
@@ -56125,28 +56333,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -56244,15 +56452,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="289" t="s">
         <v>432</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -56265,15 +56473,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="289" t="s">
         <v>439</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -56307,15 +56515,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="289" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -56349,15 +56557,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="289" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="291"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -56420,19 +56628,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="292" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="293"/>
-      <c r="D13" s="293"/>
-      <c r="E13" s="293"/>
-      <c r="F13" s="293"/>
-      <c r="G13" s="293"/>
-      <c r="H13" s="293"/>
-      <c r="I13" s="293"/>
-      <c r="J13" s="293"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="294"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -56461,11 +56669,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="292" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="292"/>
+      <c r="L14" s="292"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -56490,11 +56698,11 @@
       <c r="I15" s="130" t="s">
         <v>445</v>
       </c>
-      <c r="J15" s="298" t="s">
+      <c r="J15" s="299" t="s">
         <v>371</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -56556,11 +56764,11 @@
       <c r="I17" s="160" t="s">
         <v>355</v>
       </c>
-      <c r="J17" s="290" t="s">
+      <c r="J17" s="289" t="s">
         <v>354</v>
       </c>
-      <c r="K17" s="299"/>
-      <c r="L17" s="291"/>
+      <c r="K17" s="291"/>
+      <c r="L17" s="290"/>
       <c r="M17" s="154"/>
       <c r="N17" s="154"/>
       <c r="O17" s="154"/>
@@ -56589,11 +56797,11 @@
       <c r="I18" s="183" t="s">
         <v>353</v>
       </c>
-      <c r="J18" s="290" t="s">
+      <c r="J18" s="289" t="s">
         <v>352</v>
       </c>
-      <c r="K18" s="299"/>
-      <c r="L18" s="291"/>
+      <c r="K18" s="291"/>
+      <c r="L18" s="290"/>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
       <c r="O18" s="154"/>
@@ -56774,12 +56982,12 @@
     </row>
     <row r="29" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="174"/>
-      <c r="B29" s="295" t="s">
+      <c r="B29" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="296"/>
-      <c r="D29" s="296"/>
-      <c r="E29" s="297"/>
+      <c r="C29" s="297"/>
+      <c r="D29" s="297"/>
+      <c r="E29" s="298"/>
       <c r="F29" s="175" t="s">
         <v>125</v>
       </c>
@@ -56871,10 +57079,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="172"/>
-      <c r="D32" s="290" t="s">
+      <c r="D32" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="291"/>
+      <c r="E32" s="290"/>
       <c r="F32" s="162" t="s">
         <v>330</v>
       </c>
@@ -56904,10 +57112,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="163"/>
-      <c r="D33" s="290" t="s">
+      <c r="D33" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="291"/>
+      <c r="E33" s="290"/>
       <c r="F33" s="162" t="s">
         <v>173</v>
       </c>
@@ -57278,12 +57486,12 @@
     </row>
     <row r="53" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="295" t="s">
+      <c r="B53" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="296"/>
-      <c r="D53" s="296"/>
-      <c r="E53" s="297"/>
+      <c r="C53" s="297"/>
+      <c r="D53" s="297"/>
+      <c r="E53" s="298"/>
       <c r="F53" s="175" t="s">
         <v>125</v>
       </c>
@@ -57375,10 +57583,10 @@
       <c r="A56" s="154"/>
       <c r="B56" s="168"/>
       <c r="C56" s="172"/>
-      <c r="D56" s="290" t="s">
+      <c r="D56" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="291"/>
+      <c r="E56" s="290"/>
       <c r="F56" s="162" t="s">
         <v>330</v>
       </c>
@@ -57408,10 +57616,10 @@
       <c r="A57" s="154"/>
       <c r="B57" s="168"/>
       <c r="C57" s="172"/>
-      <c r="D57" s="290" t="s">
+      <c r="D57" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="291"/>
+      <c r="E57" s="290"/>
       <c r="F57" s="162" t="s">
         <v>189</v>
       </c>
@@ -57444,7 +57652,7 @@
       <c r="D58" s="304" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="291"/>
+      <c r="E58" s="290"/>
       <c r="F58" s="162" t="s">
         <v>192</v>
       </c>
@@ -57895,6 +58103,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
@@ -57908,11 +58121,6 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -58010,15 +58218,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="289" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -58031,15 +58239,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="289" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -58073,15 +58281,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="289" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -58115,15 +58323,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="289" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="291"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -58186,19 +58394,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="292" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="293"/>
-      <c r="D13" s="293"/>
-      <c r="E13" s="293"/>
-      <c r="F13" s="293"/>
-      <c r="G13" s="293"/>
-      <c r="H13" s="293"/>
-      <c r="I13" s="293"/>
-      <c r="J13" s="293"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="294"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -58227,11 +58435,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="292" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="292"/>
+      <c r="L14" s="292"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -58256,11 +58464,11 @@
       <c r="I15" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="J15" s="298" t="s">
+      <c r="J15" s="299" t="s">
         <v>373</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -58441,12 +58649,12 @@
     </row>
     <row r="26" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="295" t="s">
+      <c r="B26" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="296"/>
-      <c r="D26" s="296"/>
-      <c r="E26" s="297"/>
+      <c r="C26" s="297"/>
+      <c r="D26" s="297"/>
+      <c r="E26" s="298"/>
       <c r="F26" s="175" t="s">
         <v>125</v>
       </c>
@@ -58538,10 +58746,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="172"/>
-      <c r="D29" s="290" t="s">
+      <c r="D29" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="291"/>
+      <c r="E29" s="290"/>
       <c r="F29" s="162" t="s">
         <v>330</v>
       </c>
@@ -58571,10 +58779,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="163"/>
-      <c r="D30" s="290" t="s">
+      <c r="D30" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="291"/>
+      <c r="E30" s="290"/>
       <c r="F30" s="162" t="s">
         <v>173</v>
       </c>
@@ -58637,10 +58845,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="171"/>
-      <c r="D32" s="290" t="s">
+      <c r="D32" s="289" t="s">
         <v>351</v>
       </c>
-      <c r="E32" s="291"/>
+      <c r="E32" s="290"/>
       <c r="F32" s="162" t="s">
         <v>175</v>
       </c>
@@ -58703,10 +58911,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="172"/>
-      <c r="D34" s="290" t="s">
+      <c r="D34" s="289" t="s">
         <v>345</v>
       </c>
-      <c r="E34" s="291"/>
+      <c r="E34" s="290"/>
       <c r="F34" s="162" t="s">
         <v>344</v>
       </c>
@@ -59187,12 +59395,12 @@
     </row>
     <row r="58" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="174"/>
-      <c r="B58" s="295" t="s">
+      <c r="B58" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="296"/>
-      <c r="D58" s="296"/>
-      <c r="E58" s="297"/>
+      <c r="C58" s="297"/>
+      <c r="D58" s="297"/>
+      <c r="E58" s="298"/>
       <c r="F58" s="175" t="s">
         <v>125</v>
       </c>
@@ -59284,10 +59492,10 @@
       <c r="A61" s="154"/>
       <c r="B61" s="168"/>
       <c r="C61" s="172"/>
-      <c r="D61" s="290" t="s">
+      <c r="D61" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="291"/>
+      <c r="E61" s="290"/>
       <c r="F61" s="162" t="s">
         <v>330</v>
       </c>
@@ -59317,10 +59525,10 @@
       <c r="A62" s="154"/>
       <c r="B62" s="168"/>
       <c r="C62" s="172"/>
-      <c r="D62" s="290" t="s">
+      <c r="D62" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="291"/>
+      <c r="E62" s="290"/>
       <c r="F62" s="162" t="s">
         <v>189</v>
       </c>
@@ -59353,7 +59561,7 @@
       <c r="D63" s="304" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="291"/>
+      <c r="E63" s="290"/>
       <c r="F63" s="162" t="s">
         <v>192</v>
       </c>
@@ -59447,8 +59655,8 @@
       <c r="A66" s="154"/>
       <c r="B66" s="164"/>
       <c r="C66" s="163"/>
-      <c r="D66" s="290"/>
-      <c r="E66" s="291"/>
+      <c r="D66" s="289"/>
+      <c r="E66" s="290"/>
       <c r="F66" s="162"/>
       <c r="G66" s="161"/>
       <c r="H66" s="161"/>
@@ -59838,11 +60046,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
@@ -59858,6 +60061,11 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:E58"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -59869,10 +60077,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -59954,15 +60162,15 @@
       <c r="B4" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="289" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -59975,15 +60183,15 @@
       <c r="B5" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="289" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -60017,15 +60225,15 @@
       <c r="B7" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="289" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -60059,15 +60267,15 @@
       <c r="B9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="289" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="291"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -60130,19 +60338,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="292" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="293"/>
-      <c r="D13" s="293"/>
-      <c r="E13" s="293"/>
-      <c r="F13" s="293"/>
-      <c r="G13" s="293"/>
-      <c r="H13" s="293"/>
-      <c r="I13" s="293"/>
-      <c r="J13" s="293"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="294"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -60171,11 +60379,11 @@
       <c r="I14" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="292" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="292"/>
+      <c r="L14" s="292"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -60200,11 +60408,11 @@
       <c r="I15" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="298" t="s">
+      <c r="J15" s="299" t="s">
         <v>371</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -60213,59 +60421,69 @@
       <c r="A16" s="154"/>
       <c r="B16" s="185"/>
       <c r="C16" s="162" t="s">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="D16" s="160" t="s">
-        <v>360</v>
+        <v>478</v>
       </c>
       <c r="E16" s="161" t="s">
-        <v>334</v>
+        <v>161</v>
       </c>
       <c r="F16" s="161" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="161">
-        <v>5</v>
-      </c>
-      <c r="H16" s="161">
-        <v>50</v>
-      </c>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
       <c r="I16" s="130" t="s">
-        <v>359</v>
-      </c>
-      <c r="J16" s="298" t="s">
-        <v>378</v>
-      </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+        <v>479</v>
+      </c>
+      <c r="J16" s="289" t="s">
+        <v>480</v>
+      </c>
+      <c r="K16" s="291"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="154"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="162" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="160" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17" s="161" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="161">
+        <v>5</v>
+      </c>
+      <c r="H17" s="161">
+        <v>50</v>
+      </c>
+      <c r="I17" s="130" t="s">
+        <v>359</v>
+      </c>
+      <c r="J17" s="299" t="s">
+        <v>378</v>
+      </c>
+      <c r="K17" s="299"/>
+      <c r="L17" s="299"/>
       <c r="M17" s="154"/>
       <c r="N17" s="154"/>
       <c r="O17" s="154"/>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="154"/>
-      <c r="B18" s="155" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
       <c r="E18" s="156"/>
       <c r="F18" s="156"/>
       <c r="G18" s="156"/>
@@ -60280,7 +60498,9 @@
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="154"/>
-      <c r="B19" s="156"/>
+      <c r="B19" s="155" t="s">
+        <v>178</v>
+      </c>
       <c r="C19" s="156"/>
       <c r="D19" s="156"/>
       <c r="E19" s="156"/>
@@ -60397,108 +60617,94 @@
       <c r="N25" s="154"/>
       <c r="O25" s="154"/>
     </row>
-    <row r="26" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="179"/>
-      <c r="B26" s="303" t="s">
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="154"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+    </row>
+    <row r="27" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="179"/>
+      <c r="B27" s="303" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="303"/>
-      <c r="D26" s="303"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="180"/>
-      <c r="J26" s="180"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="179"/>
-      <c r="N26" s="179"/>
-      <c r="O26" s="179"/>
-    </row>
-    <row r="27" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="174"/>
-      <c r="B27" s="295" t="s">
+      <c r="C27" s="303"/>
+      <c r="D27" s="303"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="180"/>
+      <c r="L27" s="179"/>
+      <c r="M27" s="179"/>
+      <c r="N27" s="179"/>
+      <c r="O27" s="179"/>
+    </row>
+    <row r="28" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="174"/>
+      <c r="B28" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="296"/>
-      <c r="D27" s="296"/>
-      <c r="E27" s="297"/>
-      <c r="F27" s="175" t="s">
+      <c r="C28" s="297"/>
+      <c r="D28" s="297"/>
+      <c r="E28" s="298"/>
+      <c r="F28" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="175" t="s">
+      <c r="G28" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="175" t="s">
+      <c r="H28" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="I27" s="175" t="s">
+      <c r="I28" s="175" t="s">
         <v>332</v>
       </c>
-      <c r="J27" s="175" t="s">
+      <c r="J28" s="175" t="s">
         <v>129</v>
       </c>
-      <c r="K27" s="175" t="s">
+      <c r="K28" s="175" t="s">
         <v>130</v>
       </c>
-      <c r="L27" s="175" t="s">
+      <c r="L28" s="175" t="s">
         <v>182</v>
       </c>
-      <c r="M27" s="174"/>
-      <c r="N27" s="174"/>
-      <c r="O27" s="174"/>
-    </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="154"/>
-      <c r="B28" s="168" t="s">
-        <v>331</v>
-      </c>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="G28" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="H28" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="I28" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="J28" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="K28" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="L28" s="160"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="154"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="174"/>
+      <c r="O28" s="174"/>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="154"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="166"/>
+      <c r="B29" s="168" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
       <c r="E29" s="165"/>
-      <c r="F29" s="162" t="s">
-        <v>167</v>
+      <c r="F29" s="161" t="s">
+        <v>329</v>
       </c>
       <c r="G29" s="161" t="s">
         <v>329</v>
       </c>
       <c r="H29" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="I29" s="161">
-        <v>1</v>
+        <v>329</v>
+      </c>
+      <c r="I29" s="161" t="s">
+        <v>329</v>
       </c>
       <c r="J29" s="161" t="s">
         <v>329</v>
@@ -60514,16 +60720,16 @@
     <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="290" t="s">
-        <v>171</v>
-      </c>
-      <c r="E30" s="291"/>
+      <c r="C30" s="167" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="166"/>
+      <c r="E30" s="165"/>
       <c r="F30" s="162" t="s">
-        <v>330</v>
+        <v>167</v>
       </c>
       <c r="G30" s="161" t="s">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="H30" s="161" t="s">
         <v>166</v>
@@ -60537,9 +60743,7 @@
       <c r="K30" s="161" t="s">
         <v>329</v>
       </c>
-      <c r="L30" s="169">
-        <v>200</v>
-      </c>
+      <c r="L30" s="160"/>
       <c r="M30" s="154"/>
       <c r="N30" s="154"/>
       <c r="O30" s="154"/>
@@ -60547,19 +60751,19 @@
     <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="154"/>
       <c r="B31" s="168"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="290" t="s">
-        <v>172</v>
-      </c>
-      <c r="E31" s="291"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="289" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="290"/>
       <c r="F31" s="162" t="s">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="G31" s="161" t="s">
-        <v>334</v>
+        <v>133</v>
       </c>
       <c r="H31" s="161" t="s">
-        <v>329</v>
+        <v>166</v>
       </c>
       <c r="I31" s="161">
         <v>1</v>
@@ -60568,10 +60772,10 @@
         <v>329</v>
       </c>
       <c r="K31" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="L31" s="160" t="s">
-        <v>174</v>
+        <v>329</v>
+      </c>
+      <c r="L31" s="169">
+        <v>200</v>
       </c>
       <c r="M31" s="154"/>
       <c r="N31" s="154"/>
@@ -60580,19 +60784,19 @@
     <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
-      <c r="C32" s="167" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="166"/>
-      <c r="E32" s="165"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="289" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="290"/>
       <c r="F32" s="162" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G32" s="161" t="s">
+        <v>334</v>
+      </c>
+      <c r="H32" s="161" t="s">
         <v>329</v>
-      </c>
-      <c r="H32" s="161" t="s">
-        <v>166</v>
       </c>
       <c r="I32" s="161">
         <v>1</v>
@@ -60601,10 +60805,10 @@
         <v>329</v>
       </c>
       <c r="K32" s="161" t="s">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="L32" s="160" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M32" s="154"/>
       <c r="N32" s="154"/>
@@ -60612,43 +60816,57 @@
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="154"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="291"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="160"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="167" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="166"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="162" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="161" t="s">
+        <v>329</v>
+      </c>
+      <c r="H33" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="161">
+        <v>1</v>
+      </c>
+      <c r="J33" s="161" t="s">
+        <v>329</v>
+      </c>
+      <c r="K33" s="161" t="s">
+        <v>329</v>
+      </c>
+      <c r="L33" s="160" t="s">
+        <v>177</v>
+      </c>
       <c r="M33" s="154"/>
       <c r="N33" s="154"/>
       <c r="O33" s="154"/>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="154"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="157"/>
-      <c r="K34" s="157"/>
-      <c r="L34" s="156"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="289"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="160"/>
       <c r="M34" s="154"/>
       <c r="N34" s="154"/>
       <c r="O34" s="154"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="154"/>
-      <c r="B35" s="155" t="s">
-        <v>183</v>
-      </c>
+      <c r="B35" s="156"/>
       <c r="C35" s="159"/>
       <c r="D35" s="158"/>
       <c r="E35" s="158"/>
@@ -60665,7 +60883,9 @@
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="154"/>
-      <c r="B36" s="156"/>
+      <c r="B36" s="155" t="s">
+        <v>183</v>
+      </c>
       <c r="C36" s="159"/>
       <c r="D36" s="158"/>
       <c r="E36" s="158"/>
@@ -60920,125 +61140,111 @@
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="154"/>
-      <c r="B51" s="154"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="154"/>
-      <c r="K51" s="154"/>
-      <c r="L51" s="154"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="158"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="157"/>
+      <c r="K51" s="157"/>
+      <c r="L51" s="156"/>
       <c r="M51" s="154"/>
       <c r="N51" s="154"/>
       <c r="O51" s="154"/>
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="154"/>
-      <c r="B52" s="300" t="s">
-        <v>333</v>
-      </c>
-      <c r="C52" s="300"/>
-      <c r="D52" s="300"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="154"/>
       <c r="E52" s="154"/>
       <c r="F52" s="154"/>
       <c r="G52" s="154"/>
       <c r="H52" s="154"/>
       <c r="I52" s="154"/>
-      <c r="J52" s="154" t="s">
-        <v>329</v>
-      </c>
+      <c r="J52" s="154"/>
       <c r="K52" s="154"/>
       <c r="L52" s="154"/>
       <c r="M52" s="154"/>
       <c r="N52" s="154"/>
       <c r="O52" s="154"/>
     </row>
-    <row r="53" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="174"/>
-      <c r="B53" s="295" t="s">
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="154"/>
+      <c r="B53" s="300" t="s">
+        <v>333</v>
+      </c>
+      <c r="C53" s="300"/>
+      <c r="D53" s="300"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="154"/>
+      <c r="G53" s="154"/>
+      <c r="H53" s="154"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="154" t="s">
+        <v>329</v>
+      </c>
+      <c r="K53" s="154"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
+      <c r="N53" s="154"/>
+      <c r="O53" s="154"/>
+    </row>
+    <row r="54" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="174"/>
+      <c r="B54" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="296"/>
-      <c r="D53" s="296"/>
-      <c r="E53" s="297"/>
-      <c r="F53" s="175" t="s">
+      <c r="C54" s="297"/>
+      <c r="D54" s="297"/>
+      <c r="E54" s="298"/>
+      <c r="F54" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="G53" s="175" t="s">
+      <c r="G54" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="H53" s="175" t="s">
+      <c r="H54" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="I53" s="175" t="s">
+      <c r="I54" s="175" t="s">
         <v>332</v>
       </c>
-      <c r="J53" s="175" t="s">
+      <c r="J54" s="175" t="s">
         <v>129</v>
       </c>
-      <c r="K53" s="175" t="s">
+      <c r="K54" s="175" t="s">
         <v>130</v>
       </c>
-      <c r="L53" s="175" t="s">
+      <c r="L54" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="M53" s="174"/>
-      <c r="N53" s="174"/>
-      <c r="O53" s="174"/>
-    </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="154"/>
-      <c r="B54" s="168" t="s">
-        <v>331</v>
-      </c>
-      <c r="C54" s="159"/>
-      <c r="D54" s="159"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="G54" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="H54" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="I54" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="J54" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="K54" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="L54" s="160"/>
-      <c r="M54" s="154"/>
-      <c r="N54" s="154"/>
-      <c r="O54" s="154"/>
+      <c r="M54" s="174"/>
+      <c r="N54" s="174"/>
+      <c r="O54" s="174"/>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="154"/>
-      <c r="B55" s="168"/>
-      <c r="C55" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" s="166"/>
+      <c r="B55" s="168" t="s">
+        <v>331</v>
+      </c>
+      <c r="C55" s="159"/>
+      <c r="D55" s="159"/>
       <c r="E55" s="165"/>
-      <c r="F55" s="162" t="s">
-        <v>167</v>
+      <c r="F55" s="161" t="s">
+        <v>329</v>
       </c>
       <c r="G55" s="161" t="s">
         <v>329</v>
       </c>
       <c r="H55" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="I55" s="161">
-        <v>1</v>
+        <v>329</v>
+      </c>
+      <c r="I55" s="161" t="s">
+        <v>329</v>
       </c>
       <c r="J55" s="161" t="s">
         <v>329</v>
@@ -61054,16 +61260,16 @@
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="154"/>
       <c r="B56" s="168"/>
-      <c r="C56" s="172"/>
-      <c r="D56" s="290" t="s">
-        <v>171</v>
-      </c>
-      <c r="E56" s="291"/>
+      <c r="C56" s="167" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="166"/>
+      <c r="E56" s="165"/>
       <c r="F56" s="162" t="s">
-        <v>330</v>
+        <v>167</v>
       </c>
       <c r="G56" s="161" t="s">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="H56" s="161" t="s">
         <v>166</v>
@@ -61077,9 +61283,7 @@
       <c r="K56" s="161" t="s">
         <v>329</v>
       </c>
-      <c r="L56" s="160" t="s">
-        <v>191</v>
-      </c>
+      <c r="L56" s="160"/>
       <c r="M56" s="154"/>
       <c r="N56" s="154"/>
       <c r="O56" s="154"/>
@@ -61088,15 +61292,15 @@
       <c r="A57" s="154"/>
       <c r="B57" s="168"/>
       <c r="C57" s="172"/>
-      <c r="D57" s="290" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="291"/>
+      <c r="D57" s="289" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="290"/>
       <c r="F57" s="162" t="s">
-        <v>189</v>
+        <v>330</v>
       </c>
       <c r="G57" s="161" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="H57" s="161" t="s">
         <v>166</v>
@@ -61105,13 +61309,13 @@
         <v>1</v>
       </c>
       <c r="J57" s="161" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="K57" s="161" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="L57" s="160" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M57" s="154"/>
       <c r="N57" s="154"/>
@@ -61121,15 +61325,15 @@
       <c r="A58" s="154"/>
       <c r="B58" s="168"/>
       <c r="C58" s="172"/>
-      <c r="D58" s="304" t="s">
-        <v>194</v>
-      </c>
-      <c r="E58" s="291"/>
+      <c r="D58" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="290"/>
       <c r="F58" s="162" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G58" s="161" t="s">
-        <v>329</v>
+        <v>161</v>
       </c>
       <c r="H58" s="161" t="s">
         <v>166</v>
@@ -61138,13 +61342,13 @@
         <v>1</v>
       </c>
       <c r="J58" s="161" t="s">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="K58" s="161" t="s">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="L58" s="160" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M58" s="154"/>
       <c r="N58" s="154"/>
@@ -61153,31 +61357,31 @@
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="154"/>
       <c r="B59" s="168"/>
-      <c r="C59" s="171"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="169" t="s">
-        <v>195</v>
-      </c>
+      <c r="C59" s="172"/>
+      <c r="D59" s="304" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" s="290"/>
       <c r="F59" s="162" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G59" s="161" t="s">
-        <v>161</v>
+        <v>329</v>
       </c>
       <c r="H59" s="161" t="s">
         <v>166</v>
       </c>
-      <c r="I59" s="161" t="s">
-        <v>193</v>
+      <c r="I59" s="161">
+        <v>1</v>
       </c>
       <c r="J59" s="161" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="K59" s="161" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="L59" s="160" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M59" s="154"/>
       <c r="N59" s="154"/>
@@ -61186,46 +61390,62 @@
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="154"/>
       <c r="B60" s="168"/>
-      <c r="C60" s="167" t="s">
-        <v>170</v>
-      </c>
-      <c r="D60" s="166"/>
-      <c r="E60" s="165"/>
+      <c r="C60" s="171"/>
+      <c r="D60" s="170"/>
+      <c r="E60" s="169" t="s">
+        <v>195</v>
+      </c>
       <c r="F60" s="162" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G60" s="161" t="s">
-        <v>329</v>
+        <v>161</v>
       </c>
       <c r="H60" s="161" t="s">
         <v>166</v>
       </c>
-      <c r="I60" s="161">
-        <v>1</v>
+      <c r="I60" s="161" t="s">
+        <v>193</v>
       </c>
       <c r="J60" s="161" t="s">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="K60" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="L60" s="160"/>
+        <v>132</v>
+      </c>
+      <c r="L60" s="160" t="s">
+        <v>196</v>
+      </c>
       <c r="M60" s="154"/>
       <c r="N60" s="154"/>
       <c r="O60" s="154"/>
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="154"/>
-      <c r="B61" s="164"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="290"/>
-      <c r="E61" s="291"/>
-      <c r="F61" s="162"/>
-      <c r="G61" s="161"/>
-      <c r="H61" s="161"/>
-      <c r="I61" s="161"/>
-      <c r="J61" s="161"/>
-      <c r="K61" s="161"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="167" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="166"/>
+      <c r="E61" s="165"/>
+      <c r="F61" s="162" t="s">
+        <v>168</v>
+      </c>
+      <c r="G61" s="161" t="s">
+        <v>329</v>
+      </c>
+      <c r="H61" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" s="161">
+        <v>1</v>
+      </c>
+      <c r="J61" s="161" t="s">
+        <v>329</v>
+      </c>
+      <c r="K61" s="161" t="s">
+        <v>329</v>
+      </c>
       <c r="L61" s="160"/>
       <c r="M61" s="154"/>
       <c r="N61" s="154"/>
@@ -61233,43 +61453,43 @@
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="154"/>
-      <c r="B62" s="156"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="158"/>
-      <c r="F62" s="156"/>
-      <c r="G62" s="157"/>
-      <c r="H62" s="157"/>
-      <c r="I62" s="157"/>
-      <c r="J62" s="157"/>
-      <c r="K62" s="157"/>
-      <c r="L62" s="156"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="289"/>
+      <c r="E62" s="290"/>
+      <c r="F62" s="162"/>
+      <c r="G62" s="161"/>
+      <c r="H62" s="161"/>
+      <c r="I62" s="161"/>
+      <c r="J62" s="161"/>
+      <c r="K62" s="161"/>
+      <c r="L62" s="160"/>
       <c r="M62" s="154"/>
       <c r="N62" s="154"/>
       <c r="O62" s="154"/>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="154"/>
-      <c r="B63" s="155" t="s">
-        <v>179</v>
-      </c>
-      <c r="C63" s="154"/>
-      <c r="D63" s="154"/>
-      <c r="E63" s="154"/>
-      <c r="F63" s="154"/>
-      <c r="G63" s="154"/>
-      <c r="H63" s="154"/>
-      <c r="I63" s="154"/>
-      <c r="J63" s="154"/>
-      <c r="K63" s="154"/>
-      <c r="L63" s="154"/>
+      <c r="B63" s="156"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="158"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="157"/>
+      <c r="I63" s="157"/>
+      <c r="J63" s="157"/>
+      <c r="K63" s="157"/>
+      <c r="L63" s="156"/>
       <c r="M63" s="154"/>
       <c r="N63" s="154"/>
       <c r="O63" s="154"/>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="154"/>
-      <c r="B64" s="154"/>
+      <c r="B64" s="155" t="s">
+        <v>179</v>
+      </c>
       <c r="C64" s="154"/>
       <c r="D64" s="154"/>
       <c r="E64" s="154"/>
@@ -61591,47 +61811,65 @@
       <c r="O82" s="154"/>
     </row>
     <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="153"/>
-      <c r="B83" s="153"/>
-      <c r="C83" s="153"/>
-      <c r="D83" s="153"/>
-      <c r="E83" s="153"/>
-      <c r="F83" s="153"/>
-      <c r="G83" s="153"/>
-      <c r="H83" s="153"/>
-      <c r="I83" s="153"/>
-      <c r="J83" s="153"/>
-      <c r="K83" s="153"/>
-      <c r="L83" s="153"/>
-      <c r="M83" s="153"/>
-      <c r="N83" s="153"/>
-      <c r="O83" s="153"/>
+      <c r="A83" s="154"/>
+      <c r="B83" s="154"/>
+      <c r="C83" s="154"/>
+      <c r="D83" s="154"/>
+      <c r="E83" s="154"/>
+      <c r="F83" s="154"/>
+      <c r="G83" s="154"/>
+      <c r="H83" s="154"/>
+      <c r="I83" s="154"/>
+      <c r="J83" s="154"/>
+      <c r="K83" s="154"/>
+      <c r="L83" s="154"/>
+      <c r="M83" s="154"/>
+      <c r="N83" s="154"/>
+      <c r="O83" s="154"/>
+    </row>
+    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="153"/>
+      <c r="B84" s="153"/>
+      <c r="C84" s="153"/>
+      <c r="D84" s="153"/>
+      <c r="E84" s="153"/>
+      <c r="F84" s="153"/>
+      <c r="G84" s="153"/>
+      <c r="H84" s="153"/>
+      <c r="I84" s="153"/>
+      <c r="J84" s="153"/>
+      <c r="K84" s="153"/>
+      <c r="L84" s="153"/>
+      <c r="M84" s="153"/>
+      <c r="N84" s="153"/>
+      <c r="O84" s="153"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
+  <mergeCells count="20">
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="D57:E57"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="J16:L16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
-    <hyperlink ref="I16" r:id="rId2" display="foo@mulodo.com"/>
+    <hyperlink ref="I17" r:id="rId2" display="foo@mulodo.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>

--- a/doc/API_Design/API_Spec/BLOG_API_Spec.xlsx
+++ b/doc/API_Design/API_Spec/BLOG_API_Spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="927" firstSheet="4" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="927" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -2442,7 +2442,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2950,6 +2950,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3249,8 +3252,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="412">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -7255,15 +7256,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>123370</xdr:rowOff>
+      <xdr:rowOff>123371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7272,8 +7273,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="752475" y="16468270"/>
-          <a:ext cx="9715500" cy="4315279"/>
+          <a:off x="771525" y="15477671"/>
+          <a:ext cx="9696450" cy="3229430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7401,14 +7402,14 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "description":"Can't</a:t>
+            <a:t>      "description":"The post not</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t> delete it</a:t>
+            <a:t> exist or access is denied</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
@@ -22922,303 +22923,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="263" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="263" t="s">
+      <c r="B1" s="264"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
-      <c r="K1" s="268" t="s">
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="269"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="250" t="s">
+      <c r="L1" s="272"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="253" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="251"/>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="251"/>
-      <c r="T1" s="251"/>
-      <c r="U1" s="252"/>
-      <c r="V1" s="271" t="s">
+      <c r="O1" s="254"/>
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="254"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="254"/>
+      <c r="U1" s="255"/>
+      <c r="V1" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="272"/>
-      <c r="X1" s="272"/>
-      <c r="Y1" s="272"/>
-      <c r="Z1" s="272"/>
-      <c r="AA1" s="272"/>
-      <c r="AB1" s="272"/>
-      <c r="AC1" s="272"/>
-      <c r="AD1" s="273"/>
+      <c r="W1" s="275"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="275"/>
+      <c r="Z1" s="275"/>
+      <c r="AA1" s="275"/>
+      <c r="AB1" s="275"/>
+      <c r="AC1" s="275"/>
+      <c r="AD1" s="276"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="263" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="263" t="s">
+      <c r="B2" s="264"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="266" t="s">
         <v>438</v>
       </c>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="245" t="s">
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="248" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="246"/>
-      <c r="M2" s="247"/>
-      <c r="N2" s="265" t="s">
+      <c r="L2" s="249"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="268" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="266"/>
-      <c r="P2" s="266"/>
-      <c r="Q2" s="266"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="266"/>
-      <c r="T2" s="266"/>
-      <c r="U2" s="267"/>
-      <c r="V2" s="242" t="s">
+      <c r="O2" s="269"/>
+      <c r="P2" s="269"/>
+      <c r="Q2" s="269"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="269"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="270"/>
+      <c r="V2" s="245" t="s">
         <v>148</v>
       </c>
-      <c r="W2" s="243"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="242" t="s">
+      <c r="W2" s="246"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="244"/>
-      <c r="AB2" s="242" t="s">
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="247"/>
+      <c r="AB2" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="243"/>
-      <c r="AD2" s="244"/>
+      <c r="AC2" s="246"/>
+      <c r="AD2" s="247"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="248" t="s">
+      <c r="B3" s="249"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="245" t="s">
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="246"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="250" t="s">
+      <c r="L3" s="249"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="253" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="251"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="251"/>
-      <c r="U3" s="252"/>
-      <c r="V3" s="253" t="s">
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="256" t="s">
         <v>235</v>
       </c>
-      <c r="W3" s="254"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="256">
+      <c r="W3" s="257"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="259">
         <v>41961</v>
       </c>
-      <c r="Z3" s="257"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="259">
+      <c r="Z3" s="260"/>
+      <c r="AA3" s="261"/>
+      <c r="AB3" s="262">
         <v>41967</v>
       </c>
-      <c r="AC3" s="257"/>
-      <c r="AD3" s="258"/>
+      <c r="AC3" s="260"/>
+      <c r="AD3" s="261"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240" t="s">
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="240"/>
-      <c r="H8" s="240" t="s">
+      <c r="G8" s="243"/>
+      <c r="H8" s="243" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="240"/>
-      <c r="J8" s="240"/>
-      <c r="K8" s="240" t="s">
+      <c r="I8" s="243"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="240"/>
-      <c r="M8" s="240"/>
-      <c r="N8" s="240"/>
-      <c r="O8" s="240"/>
-      <c r="P8" s="240"/>
-      <c r="Q8" s="240"/>
-      <c r="R8" s="240"/>
-      <c r="S8" s="240"/>
-      <c r="T8" s="240"/>
-      <c r="U8" s="240"/>
-      <c r="V8" s="240"/>
-      <c r="W8" s="240"/>
-      <c r="X8" s="240" t="s">
+      <c r="L8" s="243"/>
+      <c r="M8" s="243"/>
+      <c r="N8" s="243"/>
+      <c r="O8" s="243"/>
+      <c r="P8" s="243"/>
+      <c r="Q8" s="243"/>
+      <c r="R8" s="243"/>
+      <c r="S8" s="243"/>
+      <c r="T8" s="243"/>
+      <c r="U8" s="243"/>
+      <c r="V8" s="243"/>
+      <c r="W8" s="243"/>
+      <c r="X8" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="240"/>
-      <c r="Z8" s="240"/>
-      <c r="AA8" s="240"/>
-      <c r="AB8" s="240"/>
-      <c r="AC8" s="240"/>
+      <c r="Y8" s="243"/>
+      <c r="Z8" s="243"/>
+      <c r="AA8" s="243"/>
+      <c r="AB8" s="243"/>
+      <c r="AC8" s="243"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="241">
+      <c r="B9" s="244">
         <v>41961</v>
       </c>
-      <c r="C9" s="230"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="232" t="s">
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="235" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="233"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="231"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="235"/>
-      <c r="M9" s="235"/>
-      <c r="N9" s="235"/>
-      <c r="O9" s="235"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="235"/>
-      <c r="R9" s="235"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="235"/>
-      <c r="U9" s="235"/>
-      <c r="V9" s="235"/>
-      <c r="W9" s="236"/>
-      <c r="X9" s="237"/>
-      <c r="Y9" s="238"/>
-      <c r="Z9" s="238"/>
-      <c r="AA9" s="238"/>
-      <c r="AB9" s="238"/>
-      <c r="AC9" s="239"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="232"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="238"/>
+      <c r="M9" s="238"/>
+      <c r="N9" s="238"/>
+      <c r="O9" s="238"/>
+      <c r="P9" s="238"/>
+      <c r="Q9" s="238"/>
+      <c r="R9" s="238"/>
+      <c r="S9" s="238"/>
+      <c r="T9" s="238"/>
+      <c r="U9" s="238"/>
+      <c r="V9" s="238"/>
+      <c r="W9" s="239"/>
+      <c r="X9" s="240"/>
+      <c r="Y9" s="241"/>
+      <c r="Z9" s="241"/>
+      <c r="AA9" s="241"/>
+      <c r="AB9" s="241"/>
+      <c r="AC9" s="242"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="229"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="232"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="229"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="231"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="235"/>
-      <c r="M10" s="235"/>
-      <c r="N10" s="235"/>
-      <c r="O10" s="235"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="235"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="235"/>
-      <c r="T10" s="235"/>
-      <c r="U10" s="235"/>
-      <c r="V10" s="235"/>
-      <c r="W10" s="236"/>
-      <c r="X10" s="237"/>
-      <c r="Y10" s="238"/>
-      <c r="Z10" s="238"/>
-      <c r="AA10" s="238"/>
-      <c r="AB10" s="238"/>
-      <c r="AC10" s="239"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="232"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="238"/>
+      <c r="O10" s="238"/>
+      <c r="P10" s="238"/>
+      <c r="Q10" s="238"/>
+      <c r="R10" s="238"/>
+      <c r="S10" s="238"/>
+      <c r="T10" s="238"/>
+      <c r="U10" s="238"/>
+      <c r="V10" s="238"/>
+      <c r="W10" s="239"/>
+      <c r="X10" s="240"/>
+      <c r="Y10" s="241"/>
+      <c r="Z10" s="241"/>
+      <c r="AA10" s="241"/>
+      <c r="AB10" s="241"/>
+      <c r="AC10" s="242"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="229"/>
-      <c r="C11" s="230"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="232"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="229"/>
-      <c r="I11" s="230"/>
-      <c r="J11" s="231"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
-      <c r="M11" s="235"/>
-      <c r="N11" s="235"/>
-      <c r="O11" s="235"/>
-      <c r="P11" s="235"/>
-      <c r="Q11" s="235"/>
-      <c r="R11" s="235"/>
-      <c r="S11" s="235"/>
-      <c r="T11" s="235"/>
-      <c r="U11" s="235"/>
-      <c r="V11" s="235"/>
-      <c r="W11" s="236"/>
-      <c r="X11" s="237"/>
-      <c r="Y11" s="238"/>
-      <c r="Z11" s="238"/>
-      <c r="AA11" s="238"/>
-      <c r="AB11" s="238"/>
-      <c r="AC11" s="239"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="232"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="238"/>
+      <c r="Q11" s="238"/>
+      <c r="R11" s="238"/>
+      <c r="S11" s="238"/>
+      <c r="T11" s="238"/>
+      <c r="U11" s="238"/>
+      <c r="V11" s="238"/>
+      <c r="W11" s="239"/>
+      <c r="X11" s="240"/>
+      <c r="Y11" s="241"/>
+      <c r="Z11" s="241"/>
+      <c r="AA11" s="241"/>
+      <c r="AB11" s="241"/>
+      <c r="AC11" s="242"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="229"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="230"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="233"/>
-      <c r="H12" s="229"/>
-      <c r="I12" s="230"/>
-      <c r="J12" s="231"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="235"/>
-      <c r="M12" s="235"/>
-      <c r="N12" s="235"/>
-      <c r="O12" s="235"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="235"/>
-      <c r="R12" s="235"/>
-      <c r="S12" s="235"/>
-      <c r="T12" s="235"/>
-      <c r="U12" s="235"/>
-      <c r="V12" s="235"/>
-      <c r="W12" s="236"/>
-      <c r="X12" s="237"/>
-      <c r="Y12" s="238"/>
-      <c r="Z12" s="238"/>
-      <c r="AA12" s="238"/>
-      <c r="AB12" s="238"/>
-      <c r="AC12" s="239"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="236"/>
+      <c r="H12" s="232"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="238"/>
+      <c r="P12" s="238"/>
+      <c r="Q12" s="238"/>
+      <c r="R12" s="238"/>
+      <c r="S12" s="238"/>
+      <c r="T12" s="238"/>
+      <c r="U12" s="238"/>
+      <c r="V12" s="238"/>
+      <c r="W12" s="239"/>
+      <c r="X12" s="240"/>
+      <c r="Y12" s="241"/>
+      <c r="Z12" s="241"/>
+      <c r="AA12" s="241"/>
+      <c r="AB12" s="241"/>
+      <c r="AC12" s="242"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -23391,15 +23392,15 @@
       <c r="B4" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="293" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="291"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295"/>
+      <c r="G4" s="295"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="294"/>
       <c r="J4" s="153"/>
       <c r="K4" s="153"/>
       <c r="L4" s="153"/>
@@ -23412,13 +23413,13 @@
       <c r="B5" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="291"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="295"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="294"/>
       <c r="J5" s="153"/>
       <c r="K5" s="153"/>
       <c r="L5" s="153"/>
@@ -23452,15 +23453,15 @@
       <c r="B7" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="293" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
+      <c r="G7" s="295"/>
+      <c r="H7" s="295"/>
+      <c r="I7" s="294"/>
       <c r="J7" s="153"/>
       <c r="K7" s="153"/>
       <c r="L7" s="153"/>
@@ -23494,15 +23495,15 @@
       <c r="B9" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="293" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="291"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="294"/>
       <c r="J9" s="153"/>
       <c r="K9" s="153"/>
       <c r="L9" s="153"/>
@@ -23565,19 +23566,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="153"/>
-      <c r="B13" s="294" t="s">
+      <c r="B13" s="297" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="295"/>
-      <c r="J13" s="295"/>
-      <c r="K13" s="295"/>
-      <c r="L13" s="296"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="153"/>
       <c r="N13" s="153"/>
       <c r="O13" s="153"/>
@@ -23606,11 +23607,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="293" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="293"/>
-      <c r="L14" s="293"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="153"/>
       <c r="N14" s="153"/>
       <c r="O14" s="153"/>
@@ -23635,11 +23636,11 @@
       <c r="I15" s="130" t="s">
         <v>439</v>
       </c>
-      <c r="J15" s="300" t="s">
+      <c r="J15" s="303" t="s">
         <v>367</v>
       </c>
-      <c r="K15" s="300"/>
-      <c r="L15" s="300"/>
+      <c r="K15" s="303"/>
+      <c r="L15" s="303"/>
       <c r="M15" s="153"/>
       <c r="N15" s="153"/>
       <c r="O15" s="153"/>
@@ -23784,11 +23785,11 @@
     </row>
     <row r="24" spans="1:15" s="177" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="178"/>
-      <c r="B24" s="304" t="s">
+      <c r="B24" s="307" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="304"/>
-      <c r="D24" s="304"/>
+      <c r="C24" s="307"/>
+      <c r="D24" s="307"/>
       <c r="E24" s="179"/>
       <c r="F24" s="180"/>
       <c r="G24" s="179"/>
@@ -23803,12 +23804,12 @@
     </row>
     <row r="25" spans="1:15" s="172" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="173"/>
-      <c r="B25" s="297" t="s">
+      <c r="B25" s="300" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="298"/>
-      <c r="D25" s="298"/>
-      <c r="E25" s="299"/>
+      <c r="C25" s="301"/>
+      <c r="D25" s="301"/>
+      <c r="E25" s="302"/>
       <c r="F25" s="174" t="s">
         <v>125</v>
       </c>
@@ -23900,10 +23901,10 @@
       <c r="A28" s="153"/>
       <c r="B28" s="167"/>
       <c r="C28" s="171"/>
-      <c r="D28" s="290" t="s">
+      <c r="D28" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="E28" s="291"/>
+      <c r="E28" s="294"/>
       <c r="F28" s="161" t="s">
         <v>326</v>
       </c>
@@ -23933,10 +23934,10 @@
       <c r="A29" s="153"/>
       <c r="B29" s="167"/>
       <c r="C29" s="162"/>
-      <c r="D29" s="290" t="s">
+      <c r="D29" s="293" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="291"/>
+      <c r="E29" s="294"/>
       <c r="F29" s="161" t="s">
         <v>171</v>
       </c>
@@ -23999,8 +24000,8 @@
       <c r="A31" s="153"/>
       <c r="B31" s="163"/>
       <c r="C31" s="162"/>
-      <c r="D31" s="290"/>
-      <c r="E31" s="291"/>
+      <c r="D31" s="293"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="161"/>
       <c r="G31" s="160"/>
       <c r="H31" s="160"/>
@@ -24322,11 +24323,11 @@
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="153"/>
-      <c r="B50" s="301" t="s">
+      <c r="B50" s="304" t="s">
         <v>329</v>
       </c>
-      <c r="C50" s="301"/>
-      <c r="D50" s="301"/>
+      <c r="C50" s="304"/>
+      <c r="D50" s="304"/>
       <c r="E50" s="153"/>
       <c r="F50" s="153"/>
       <c r="G50" s="153"/>
@@ -24343,12 +24344,12 @@
     </row>
     <row r="51" spans="1:15" s="172" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="173"/>
-      <c r="B51" s="297" t="s">
+      <c r="B51" s="300" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="298"/>
-      <c r="D51" s="298"/>
-      <c r="E51" s="299"/>
+      <c r="C51" s="301"/>
+      <c r="D51" s="301"/>
+      <c r="E51" s="302"/>
       <c r="F51" s="174" t="s">
         <v>125</v>
       </c>
@@ -24440,10 +24441,10 @@
       <c r="A54" s="153"/>
       <c r="B54" s="167"/>
       <c r="C54" s="171"/>
-      <c r="D54" s="290" t="s">
+      <c r="D54" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="E54" s="291"/>
+      <c r="E54" s="294"/>
       <c r="F54" s="161" t="s">
         <v>326</v>
       </c>
@@ -24473,10 +24474,10 @@
       <c r="A55" s="153"/>
       <c r="B55" s="167"/>
       <c r="C55" s="171"/>
-      <c r="D55" s="290" t="s">
+      <c r="D55" s="293" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="291"/>
+      <c r="E55" s="294"/>
       <c r="F55" s="161" t="s">
         <v>187</v>
       </c>
@@ -24506,10 +24507,10 @@
       <c r="A56" s="153"/>
       <c r="B56" s="167"/>
       <c r="C56" s="171"/>
-      <c r="D56" s="305" t="s">
+      <c r="D56" s="308" t="s">
         <v>192</v>
       </c>
-      <c r="E56" s="291"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="161" t="s">
         <v>190</v>
       </c>
@@ -24603,8 +24604,8 @@
       <c r="A59" s="153"/>
       <c r="B59" s="163"/>
       <c r="C59" s="162"/>
-      <c r="D59" s="290"/>
-      <c r="E59" s="291"/>
+      <c r="D59" s="293"/>
+      <c r="E59" s="294"/>
       <c r="F59" s="161"/>
       <c r="G59" s="160"/>
       <c r="H59" s="160"/>
@@ -25025,7 +25026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
@@ -25108,15 +25109,15 @@
       <c r="B4" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="293" t="s">
         <v>382</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="291"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295"/>
+      <c r="G4" s="295"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="294"/>
       <c r="J4" s="153"/>
       <c r="K4" s="153"/>
       <c r="L4" s="153"/>
@@ -25129,15 +25130,15 @@
       <c r="B5" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="293" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="291"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="295"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="294"/>
       <c r="J5" s="153"/>
       <c r="K5" s="153"/>
       <c r="L5" s="153"/>
@@ -25171,15 +25172,15 @@
       <c r="B7" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="293" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
+      <c r="G7" s="295"/>
+      <c r="H7" s="295"/>
+      <c r="I7" s="294"/>
       <c r="J7" s="153"/>
       <c r="K7" s="153"/>
       <c r="L7" s="153"/>
@@ -25213,15 +25214,15 @@
       <c r="B9" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="293" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="291"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="294"/>
       <c r="J9" s="153"/>
       <c r="K9" s="153"/>
       <c r="L9" s="153"/>
@@ -25284,19 +25285,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="153"/>
-      <c r="B13" s="294" t="s">
+      <c r="B13" s="297" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="295"/>
-      <c r="J13" s="295"/>
-      <c r="K13" s="295"/>
-      <c r="L13" s="296"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="153"/>
       <c r="N13" s="153"/>
       <c r="O13" s="153"/>
@@ -25325,11 +25326,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="293" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="293"/>
-      <c r="L14" s="293"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="153"/>
       <c r="N14" s="153"/>
       <c r="O14" s="153"/>
@@ -25354,11 +25355,11 @@
       <c r="I15" s="195" t="s">
         <v>379</v>
       </c>
-      <c r="J15" s="306" t="s">
+      <c r="J15" s="309" t="s">
         <v>378</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="306"/>
+      <c r="K15" s="309"/>
+      <c r="L15" s="309"/>
       <c r="M15" s="153"/>
       <c r="N15" s="153"/>
       <c r="O15" s="153"/>
@@ -25520,11 +25521,11 @@
     </row>
     <row r="25" spans="1:15" s="177" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="178"/>
-      <c r="B25" s="304" t="s">
+      <c r="B25" s="307" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="304"/>
-      <c r="D25" s="304"/>
+      <c r="C25" s="307"/>
+      <c r="D25" s="307"/>
       <c r="E25" s="179"/>
       <c r="F25" s="180"/>
       <c r="G25" s="179"/>
@@ -25539,12 +25540,12 @@
     </row>
     <row r="26" spans="1:15" s="172" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="173"/>
-      <c r="B26" s="297" t="s">
+      <c r="B26" s="300" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="298"/>
-      <c r="D26" s="298"/>
-      <c r="E26" s="299"/>
+      <c r="C26" s="301"/>
+      <c r="D26" s="301"/>
+      <c r="E26" s="302"/>
       <c r="F26" s="174" t="s">
         <v>125</v>
       </c>
@@ -25636,10 +25637,10 @@
       <c r="A29" s="153"/>
       <c r="B29" s="167"/>
       <c r="C29" s="171"/>
-      <c r="D29" s="290" t="s">
+      <c r="D29" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="291"/>
+      <c r="E29" s="294"/>
       <c r="F29" s="161" t="s">
         <v>326</v>
       </c>
@@ -25669,10 +25670,10 @@
       <c r="A30" s="153"/>
       <c r="B30" s="167"/>
       <c r="C30" s="162"/>
-      <c r="D30" s="290" t="s">
+      <c r="D30" s="293" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="291"/>
+      <c r="E30" s="294"/>
       <c r="F30" s="161" t="s">
         <v>171</v>
       </c>
@@ -25735,10 +25736,10 @@
       <c r="A32" s="153"/>
       <c r="B32" s="167"/>
       <c r="C32" s="170"/>
-      <c r="D32" s="290" t="s">
+      <c r="D32" s="293" t="s">
         <v>347</v>
       </c>
-      <c r="E32" s="291"/>
+      <c r="E32" s="294"/>
       <c r="F32" s="161" t="s">
         <v>173</v>
       </c>
@@ -25768,10 +25769,10 @@
       <c r="A33" s="153"/>
       <c r="B33" s="167"/>
       <c r="C33" s="170"/>
-      <c r="D33" s="302" t="s">
+      <c r="D33" s="305" t="s">
         <v>344</v>
       </c>
-      <c r="E33" s="303"/>
+      <c r="E33" s="306"/>
       <c r="F33" s="161" t="s">
         <v>343</v>
       </c>
@@ -25801,10 +25802,10 @@
       <c r="A34" s="153"/>
       <c r="B34" s="167"/>
       <c r="C34" s="171"/>
-      <c r="D34" s="290" t="s">
+      <c r="D34" s="293" t="s">
         <v>341</v>
       </c>
-      <c r="E34" s="291"/>
+      <c r="E34" s="294"/>
       <c r="F34" s="161" t="s">
         <v>340</v>
       </c>
@@ -27489,7 +27490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A88" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
@@ -27572,15 +27573,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="316" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="315"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="318"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -27593,15 +27594,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="316" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="315"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="318"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -27635,15 +27636,15 @@
       <c r="B7" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="316" t="s">
+      <c r="C7" s="319" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="315"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="318"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -27677,15 +27678,15 @@
       <c r="B9" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="319" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="318"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -27748,19 +27749,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="319"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27789,11 +27790,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="320" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="320"/>
-      <c r="L14" s="320"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -27818,11 +27819,11 @@
       <c r="I15" s="130" t="s">
         <v>279</v>
       </c>
-      <c r="J15" s="307" t="s">
+      <c r="J15" s="310" t="s">
         <v>280</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -27851,9 +27852,9 @@
       <c r="I16" s="130" t="s">
         <v>285</v>
       </c>
-      <c r="J16" s="308"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
+      <c r="J16" s="311"/>
+      <c r="K16" s="311"/>
+      <c r="L16" s="311"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -28044,11 +28045,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="309" t="s">
+      <c r="B27" s="312" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="309"/>
-      <c r="D27" s="309"/>
+      <c r="C27" s="312"/>
+      <c r="D27" s="312"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -28063,12 +28064,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="310" t="s">
+      <c r="B28" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="311"/>
-      <c r="D28" s="311"/>
-      <c r="E28" s="312"/>
+      <c r="C28" s="314"/>
+      <c r="D28" s="314"/>
+      <c r="E28" s="315"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -28160,10 +28161,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="315"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -28193,10 +28194,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="315"/>
+      <c r="E32" s="318"/>
       <c r="F32" s="74" t="s">
         <v>171</v>
       </c>
@@ -28259,10 +28260,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="313" t="s">
+      <c r="D34" s="316" t="s">
         <v>288</v>
       </c>
-      <c r="E34" s="315"/>
+      <c r="E34" s="318"/>
       <c r="F34" s="105" t="s">
         <v>271</v>
       </c>
@@ -28292,10 +28293,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="321" t="s">
+      <c r="D35" s="324" t="s">
         <v>281</v>
       </c>
-      <c r="E35" s="322"/>
+      <c r="E35" s="325"/>
       <c r="F35" s="105" t="s">
         <v>282</v>
       </c>
@@ -28685,11 +28686,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="323" t="s">
+      <c r="B56" s="326" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="323"/>
-      <c r="D56" s="323"/>
+      <c r="C56" s="326"/>
+      <c r="D56" s="326"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -28706,12 +28707,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="310" t="s">
+      <c r="B57" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="311"/>
-      <c r="D57" s="311"/>
-      <c r="E57" s="312"/>
+      <c r="C57" s="314"/>
+      <c r="D57" s="314"/>
+      <c r="E57" s="315"/>
       <c r="F57" s="115" t="s">
         <v>125</v>
       </c>
@@ -28803,10 +28804,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="313" t="s">
+      <c r="D60" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="E60" s="315"/>
+      <c r="E60" s="318"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -28836,10 +28837,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="313" t="s">
+      <c r="D61" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="324"/>
+      <c r="E61" s="327"/>
       <c r="F61" s="105" t="s">
         <v>187</v>
       </c>
@@ -28869,10 +28870,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="325" t="s">
+      <c r="D62" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="324"/>
+      <c r="E62" s="327"/>
       <c r="F62" s="105" t="s">
         <v>190</v>
       </c>
@@ -28966,8 +28967,8 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="92"/>
-      <c r="D65" s="316"/>
-      <c r="E65" s="315"/>
+      <c r="D65" s="319"/>
+      <c r="E65" s="318"/>
       <c r="F65" s="74"/>
       <c r="G65" s="76"/>
       <c r="H65" s="76"/>
@@ -29391,7 +29392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -29474,15 +29475,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="316" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="315"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="318"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -29495,15 +29496,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="316" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="315"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="318"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -29537,15 +29538,15 @@
       <c r="B7" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="313" t="s">
+      <c r="C7" s="316" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="315"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="318"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -29579,15 +29580,15 @@
       <c r="B9" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="319" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="318"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -29650,19 +29651,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="319"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29691,11 +29692,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="320" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="320"/>
-      <c r="L14" s="320"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29720,11 +29721,11 @@
       <c r="I15" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="J15" s="307" t="s">
+      <c r="J15" s="310" t="s">
         <v>295</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -29749,9 +29750,9 @@
       <c r="I16" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="J16" s="307"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
+      <c r="J16" s="310"/>
+      <c r="K16" s="311"/>
+      <c r="L16" s="311"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -29913,11 +29914,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="309" t="s">
+      <c r="B26" s="312" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="309"/>
-      <c r="D26" s="309"/>
+      <c r="C26" s="312"/>
+      <c r="D26" s="312"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -29932,12 +29933,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="310" t="s">
+      <c r="B27" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="311"/>
-      <c r="D27" s="311"/>
-      <c r="E27" s="312"/>
+      <c r="C27" s="314"/>
+      <c r="D27" s="314"/>
+      <c r="E27" s="315"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -30029,10 +30030,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="316" t="s">
+      <c r="D30" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="315"/>
+      <c r="E30" s="318"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -30062,10 +30063,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="315"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="74" t="s">
         <v>171</v>
       </c>
@@ -30128,10 +30129,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="313" t="s">
+      <c r="D33" s="316" t="s">
         <v>281</v>
       </c>
-      <c r="E33" s="315"/>
+      <c r="E33" s="318"/>
       <c r="F33" s="105" t="s">
         <v>282</v>
       </c>
@@ -30161,10 +30162,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="313" t="s">
+      <c r="D34" s="316" t="s">
         <v>294</v>
       </c>
-      <c r="E34" s="315"/>
+      <c r="E34" s="318"/>
       <c r="F34" s="105" t="s">
         <v>271</v>
       </c>
@@ -30248,10 +30249,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="327" t="s">
+      <c r="D37" s="330" t="s">
         <v>476</v>
       </c>
-      <c r="E37" s="328"/>
+      <c r="E37" s="331"/>
       <c r="F37" s="139" t="s">
         <v>302</v>
       </c>
@@ -30583,11 +30584,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="323" t="s">
+      <c r="B56" s="326" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="323"/>
-      <c r="D56" s="323"/>
+      <c r="C56" s="326"/>
+      <c r="D56" s="326"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -30604,12 +30605,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="310" t="s">
+      <c r="B57" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="311"/>
-      <c r="D57" s="311"/>
-      <c r="E57" s="312"/>
+      <c r="C57" s="314"/>
+      <c r="D57" s="314"/>
+      <c r="E57" s="315"/>
       <c r="F57" s="115" t="s">
         <v>125</v>
       </c>
@@ -30701,10 +30702,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="313" t="s">
+      <c r="D60" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="E60" s="315"/>
+      <c r="E60" s="318"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -30734,10 +30735,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="313" t="s">
+      <c r="D61" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="324"/>
+      <c r="E61" s="327"/>
       <c r="F61" s="105" t="s">
         <v>187</v>
       </c>
@@ -30767,10 +30768,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="325" t="s">
+      <c r="D62" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="324"/>
+      <c r="E62" s="327"/>
       <c r="F62" s="105" t="s">
         <v>190</v>
       </c>
@@ -30835,8 +30836,8 @@
       <c r="C64" s="225" t="s">
         <v>168</v>
       </c>
-      <c r="D64" s="326"/>
-      <c r="E64" s="326"/>
+      <c r="D64" s="329"/>
+      <c r="E64" s="329"/>
       <c r="F64" s="74" t="s">
         <v>166</v>
       </c>
@@ -31339,15 +31340,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="316" t="s">
         <v>297</v>
       </c>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="315"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="318"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31360,15 +31361,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="316" t="s">
         <v>298</v>
       </c>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="315"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="318"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31402,15 +31403,15 @@
       <c r="B7" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="313" t="s">
+      <c r="C7" s="316" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="315"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="318"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31444,15 +31445,15 @@
       <c r="B9" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="319" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="318"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31515,19 +31516,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="319"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31556,11 +31557,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="320" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="320"/>
-      <c r="L14" s="320"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31585,11 +31586,11 @@
       <c r="I15" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="J15" s="307" t="s">
+      <c r="J15" s="310" t="s">
         <v>300</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31614,9 +31615,9 @@
       <c r="I16" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="J16" s="307"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
+      <c r="J16" s="310"/>
+      <c r="K16" s="311"/>
+      <c r="L16" s="311"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -31778,11 +31779,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="309" t="s">
+      <c r="B26" s="312" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="309"/>
-      <c r="D26" s="309"/>
+      <c r="C26" s="312"/>
+      <c r="D26" s="312"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -31797,12 +31798,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="310" t="s">
+      <c r="B27" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="311"/>
-      <c r="D27" s="311"/>
-      <c r="E27" s="312"/>
+      <c r="C27" s="314"/>
+      <c r="D27" s="314"/>
+      <c r="E27" s="315"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -31894,10 +31895,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="316" t="s">
+      <c r="D30" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="315"/>
+      <c r="E30" s="318"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -31927,10 +31928,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="315"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="74" t="s">
         <v>171</v>
       </c>
@@ -31993,10 +31994,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="313" t="s">
+      <c r="D33" s="316" t="s">
         <v>281</v>
       </c>
-      <c r="E33" s="315"/>
+      <c r="E33" s="318"/>
       <c r="F33" s="105" t="s">
         <v>282</v>
       </c>
@@ -32026,10 +32027,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="313" t="s">
+      <c r="D34" s="316" t="s">
         <v>294</v>
       </c>
-      <c r="E34" s="315"/>
+      <c r="E34" s="318"/>
       <c r="F34" s="105" t="s">
         <v>271</v>
       </c>
@@ -32113,10 +32114,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="327" t="s">
+      <c r="D37" s="330" t="s">
         <v>476</v>
       </c>
-      <c r="E37" s="328"/>
+      <c r="E37" s="331"/>
       <c r="F37" s="137" t="s">
         <v>302</v>
       </c>
@@ -32448,11 +32449,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="323" t="s">
+      <c r="B56" s="326" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="323"/>
-      <c r="D56" s="323"/>
+      <c r="C56" s="326"/>
+      <c r="D56" s="326"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -32469,12 +32470,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="310" t="s">
+      <c r="B57" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="311"/>
-      <c r="D57" s="311"/>
-      <c r="E57" s="312"/>
+      <c r="C57" s="314"/>
+      <c r="D57" s="314"/>
+      <c r="E57" s="315"/>
       <c r="F57" s="150" t="s">
         <v>125</v>
       </c>
@@ -32566,10 +32567,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="313" t="s">
+      <c r="D60" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="E60" s="315"/>
+      <c r="E60" s="318"/>
       <c r="F60" s="74" t="s">
         <v>139</v>
       </c>
@@ -32599,10 +32600,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="313" t="s">
+      <c r="D61" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="324"/>
+      <c r="E61" s="327"/>
       <c r="F61" s="105" t="s">
         <v>187</v>
       </c>
@@ -32632,10 +32633,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="325" t="s">
+      <c r="D62" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="324"/>
+      <c r="E62" s="327"/>
       <c r="F62" s="105" t="s">
         <v>190</v>
       </c>
@@ -32700,8 +32701,8 @@
       <c r="C64" s="225" t="s">
         <v>168</v>
       </c>
-      <c r="D64" s="326"/>
-      <c r="E64" s="326"/>
+      <c r="D64" s="329"/>
+      <c r="E64" s="329"/>
       <c r="F64" s="74" t="s">
         <v>166</v>
       </c>
@@ -33095,7 +33096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -33178,15 +33179,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="316" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="315"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="318"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33199,15 +33200,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="316" t="s">
         <v>312</v>
       </c>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="315"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="318"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -33241,15 +33242,15 @@
       <c r="B7" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="313" t="s">
+      <c r="C7" s="316" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="315"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="318"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -33283,15 +33284,15 @@
       <c r="B9" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="319" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="318"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -33354,19 +33355,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="319"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33395,11 +33396,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="320" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="320"/>
-      <c r="L14" s="320"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -33424,11 +33425,11 @@
       <c r="I15" s="130" t="s">
         <v>279</v>
       </c>
-      <c r="J15" s="307" t="s">
+      <c r="J15" s="310" t="s">
         <v>314</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -33453,9 +33454,9 @@
       <c r="I16" s="130" t="s">
         <v>273</v>
       </c>
-      <c r="J16" s="308"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
+      <c r="J16" s="311"/>
+      <c r="K16" s="311"/>
+      <c r="L16" s="311"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -33491,7 +33492,7 @@
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="66"/>
-      <c r="B18" s="331"/>
+      <c r="B18" s="231"/>
       <c r="C18" s="105" t="s">
         <v>283</v>
       </c>
@@ -33673,11 +33674,11 @@
     </row>
     <row r="28" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="69"/>
-      <c r="B28" s="309" t="s">
+      <c r="B28" s="312" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="309"/>
-      <c r="D28" s="309"/>
+      <c r="C28" s="312"/>
+      <c r="D28" s="312"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="G28" s="80"/>
@@ -33692,12 +33693,12 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="83"/>
-      <c r="B29" s="310" t="s">
+      <c r="B29" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="311"/>
-      <c r="D29" s="311"/>
-      <c r="E29" s="312"/>
+      <c r="C29" s="314"/>
+      <c r="D29" s="314"/>
+      <c r="E29" s="315"/>
       <c r="F29" s="115" t="s">
         <v>125</v>
       </c>
@@ -33789,10 +33790,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="90"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="315"/>
+      <c r="E32" s="318"/>
       <c r="F32" s="74" t="s">
         <v>139</v>
       </c>
@@ -33822,10 +33823,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="316" t="s">
+      <c r="D33" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="315"/>
+      <c r="E33" s="318"/>
       <c r="F33" s="74" t="s">
         <v>171</v>
       </c>
@@ -33888,10 +33889,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="313" t="s">
+      <c r="D35" s="316" t="s">
         <v>288</v>
       </c>
-      <c r="E35" s="315"/>
+      <c r="E35" s="318"/>
       <c r="F35" s="105" t="s">
         <v>271</v>
       </c>
@@ -33921,10 +33922,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="321" t="s">
+      <c r="D36" s="324" t="s">
         <v>281</v>
       </c>
-      <c r="E36" s="322"/>
+      <c r="E36" s="325"/>
       <c r="F36" s="105" t="s">
         <v>282</v>
       </c>
@@ -34012,10 +34013,10 @@
       <c r="A39" s="66"/>
       <c r="B39" s="91"/>
       <c r="C39" s="92"/>
-      <c r="D39" s="327" t="s">
+      <c r="D39" s="330" t="s">
         <v>283</v>
       </c>
-      <c r="E39" s="328"/>
+      <c r="E39" s="331"/>
       <c r="F39" s="137" t="s">
         <v>284</v>
       </c>
@@ -34347,11 +34348,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="323" t="s">
+      <c r="B58" s="326" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="323"/>
-      <c r="D58" s="323"/>
+      <c r="C58" s="326"/>
+      <c r="D58" s="326"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -34368,12 +34369,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="310" t="s">
+      <c r="B59" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="311"/>
-      <c r="D59" s="311"/>
-      <c r="E59" s="312"/>
+      <c r="C59" s="314"/>
+      <c r="D59" s="314"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="115" t="s">
         <v>125</v>
       </c>
@@ -34465,10 +34466,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="313" t="s">
+      <c r="D62" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="E62" s="315"/>
+      <c r="E62" s="318"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -34498,10 +34499,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="313" t="s">
+      <c r="D63" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="324"/>
+      <c r="E63" s="327"/>
       <c r="F63" s="105" t="s">
         <v>187</v>
       </c>
@@ -34531,10 +34532,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="325" t="s">
+      <c r="D64" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="E64" s="324"/>
+      <c r="E64" s="327"/>
       <c r="F64" s="105" t="s">
         <v>190</v>
       </c>
@@ -34596,10 +34597,10 @@
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="66"/>
       <c r="B66" s="76"/>
-      <c r="C66" s="330" t="s">
+      <c r="C66" s="230" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="330"/>
+      <c r="D66" s="230"/>
       <c r="E66" s="228"/>
       <c r="F66" s="74" t="s">
         <v>166</v>
@@ -34949,8 +34950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:L33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -35032,15 +35033,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="316" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="315"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="318"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35053,15 +35054,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="316" t="s">
         <v>323</v>
       </c>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="315"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="318"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35095,15 +35096,15 @@
       <c r="B7" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="313" t="s">
+      <c r="C7" s="316" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="315"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="318"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -35137,15 +35138,15 @@
       <c r="B9" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="319" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="318"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -35208,19 +35209,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="319"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -35249,11 +35250,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="320" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="320"/>
-      <c r="L14" s="320"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -35278,18 +35279,18 @@
       <c r="I15" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="J15" s="307" t="s">
+      <c r="J15" s="310" t="s">
         <v>324</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="66"/>
-      <c r="B16" s="73"/>
+      <c r="B16" s="231"/>
       <c r="C16" s="105" t="s">
         <v>294</v>
       </c>
@@ -35307,9 +35308,9 @@
       <c r="I16" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="J16" s="307"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
+      <c r="J16" s="310"/>
+      <c r="K16" s="311"/>
+      <c r="L16" s="311"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -35471,11 +35472,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="309" t="s">
+      <c r="B26" s="312" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="309"/>
-      <c r="D26" s="309"/>
+      <c r="C26" s="312"/>
+      <c r="D26" s="312"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -35490,12 +35491,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="310" t="s">
+      <c r="B27" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="311"/>
-      <c r="D27" s="311"/>
-      <c r="E27" s="312"/>
+      <c r="C27" s="314"/>
+      <c r="D27" s="314"/>
+      <c r="E27" s="315"/>
       <c r="F27" s="115" t="s">
         <v>125</v>
       </c>
@@ -35587,10 +35588,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="316" t="s">
+      <c r="D30" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="315"/>
+      <c r="E30" s="318"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -35620,10 +35621,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="315"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="74" t="s">
         <v>171</v>
       </c>
@@ -35684,10 +35685,10 @@
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="66"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="316"/>
-      <c r="E33" s="315"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="319"/>
+      <c r="E33" s="318"/>
       <c r="F33" s="74"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -36009,11 +36010,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="323" t="s">
+      <c r="B52" s="326" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="323"/>
-      <c r="D52" s="323"/>
+      <c r="C52" s="326"/>
+      <c r="D52" s="326"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -36030,12 +36031,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="310" t="s">
+      <c r="B53" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="311"/>
-      <c r="D53" s="311"/>
-      <c r="E53" s="312"/>
+      <c r="C53" s="314"/>
+      <c r="D53" s="314"/>
+      <c r="E53" s="315"/>
       <c r="F53" s="115" t="s">
         <v>125</v>
       </c>
@@ -36127,10 +36128,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="313" t="s">
+      <c r="D56" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="315"/>
+      <c r="E56" s="318"/>
       <c r="F56" s="74" t="s">
         <v>139</v>
       </c>
@@ -36160,10 +36161,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="313" t="s">
+      <c r="D57" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="324"/>
+      <c r="E57" s="327"/>
       <c r="F57" s="105" t="s">
         <v>187</v>
       </c>
@@ -36193,10 +36194,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="325" t="s">
+      <c r="D58" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="E58" s="324"/>
+      <c r="E58" s="327"/>
       <c r="F58" s="105" t="s">
         <v>190</v>
       </c>
@@ -36257,12 +36258,12 @@
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="88" t="s">
+      <c r="B60" s="91"/>
+      <c r="C60" s="225" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="89"/>
-      <c r="E60" s="87"/>
+      <c r="D60" s="230"/>
+      <c r="E60" s="229"/>
       <c r="F60" s="74" t="s">
         <v>166</v>
       </c>
@@ -36771,15 +36772,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="316" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="315"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="318"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -36792,15 +36793,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="316" t="s">
         <v>303</v>
       </c>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="315"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="318"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -36834,15 +36835,15 @@
       <c r="B7" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="313" t="s">
+      <c r="C7" s="316" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="315"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="318"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -36876,15 +36877,15 @@
       <c r="B9" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="319" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="318"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -36947,19 +36948,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="319"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -36988,11 +36989,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="320" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="320"/>
-      <c r="L14" s="320"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -37007,9 +37008,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="130"/>
-      <c r="J15" s="307"/>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="J15" s="310"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37024,9 +37025,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="308"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
+      <c r="J16" s="311"/>
+      <c r="K16" s="311"/>
+      <c r="L16" s="311"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -37205,11 +37206,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="309" t="s">
+      <c r="B27" s="312" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="309"/>
-      <c r="D27" s="309"/>
+      <c r="C27" s="312"/>
+      <c r="D27" s="312"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -37224,12 +37225,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="310" t="s">
+      <c r="B28" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="311"/>
-      <c r="D28" s="311"/>
-      <c r="E28" s="312"/>
+      <c r="C28" s="314"/>
+      <c r="D28" s="314"/>
+      <c r="E28" s="315"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -37321,10 +37322,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="315"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -37354,10 +37355,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="315"/>
+      <c r="E32" s="318"/>
       <c r="F32" s="74" t="s">
         <v>171</v>
       </c>
@@ -37420,10 +37421,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="313" t="s">
+      <c r="D34" s="316" t="s">
         <v>288</v>
       </c>
-      <c r="E34" s="315"/>
+      <c r="E34" s="318"/>
       <c r="F34" s="105" t="s">
         <v>271</v>
       </c>
@@ -37453,10 +37454,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="321" t="s">
+      <c r="D35" s="324" t="s">
         <v>281</v>
       </c>
-      <c r="E35" s="322"/>
+      <c r="E35" s="325"/>
       <c r="F35" s="105" t="s">
         <v>282</v>
       </c>
@@ -37792,11 +37793,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="323" t="s">
+      <c r="B54" s="326" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="323"/>
-      <c r="D54" s="323"/>
+      <c r="C54" s="326"/>
+      <c r="D54" s="326"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -37813,12 +37814,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="310" t="s">
+      <c r="B55" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="311"/>
-      <c r="D55" s="311"/>
-      <c r="E55" s="312"/>
+      <c r="C55" s="314"/>
+      <c r="D55" s="314"/>
+      <c r="E55" s="315"/>
       <c r="F55" s="115" t="s">
         <v>125</v>
       </c>
@@ -37910,10 +37911,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="313" t="s">
+      <c r="D58" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="E58" s="315"/>
+      <c r="E58" s="318"/>
       <c r="F58" s="74" t="s">
         <v>139</v>
       </c>
@@ -37943,10 +37944,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="313" t="s">
+      <c r="D59" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="324"/>
+      <c r="E59" s="327"/>
       <c r="F59" s="105" t="s">
         <v>187</v>
       </c>
@@ -37976,10 +37977,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="325" t="s">
+      <c r="D60" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="E60" s="324"/>
+      <c r="E60" s="327"/>
       <c r="F60" s="105" t="s">
         <v>190</v>
       </c>
@@ -38073,8 +38074,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="316"/>
-      <c r="E63" s="315"/>
+      <c r="D63" s="319"/>
+      <c r="E63" s="318"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -38577,15 +38578,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="316" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="315"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="318"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -38598,13 +38599,13 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="313"/>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="315"/>
+      <c r="C5" s="316"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="318"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -38638,15 +38639,15 @@
       <c r="B7" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="313" t="s">
+      <c r="C7" s="316" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="315"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="318"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -38680,15 +38681,15 @@
       <c r="B9" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="319" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="318"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -38751,19 +38752,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="319"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -38792,11 +38793,11 @@
       <c r="I14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="320" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="320"/>
-      <c r="L14" s="320"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -38821,11 +38822,11 @@
       <c r="I15" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="J15" s="307" t="s">
+      <c r="J15" s="310" t="s">
         <v>308</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -38840,9 +38841,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="308"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
+      <c r="J16" s="311"/>
+      <c r="K16" s="311"/>
+      <c r="L16" s="311"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -39021,11 +39022,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="309" t="s">
+      <c r="B27" s="312" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="309"/>
-      <c r="D27" s="309"/>
+      <c r="C27" s="312"/>
+      <c r="D27" s="312"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -39040,12 +39041,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="310" t="s">
+      <c r="B28" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="311"/>
-      <c r="D28" s="311"/>
-      <c r="E28" s="312"/>
+      <c r="C28" s="314"/>
+      <c r="D28" s="314"/>
+      <c r="E28" s="315"/>
       <c r="F28" s="115" t="s">
         <v>125</v>
       </c>
@@ -39137,10 +39138,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="315"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -39170,10 +39171,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="315"/>
+      <c r="E32" s="318"/>
       <c r="F32" s="74" t="s">
         <v>171</v>
       </c>
@@ -39236,10 +39237,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="313" t="s">
+      <c r="D34" s="316" t="s">
         <v>270</v>
       </c>
-      <c r="E34" s="324"/>
+      <c r="E34" s="327"/>
       <c r="F34" s="105" t="s">
         <v>173</v>
       </c>
@@ -39265,10 +39266,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="313" t="s">
+      <c r="D35" s="316" t="s">
         <v>288</v>
       </c>
-      <c r="E35" s="315"/>
+      <c r="E35" s="318"/>
       <c r="F35" s="105" t="s">
         <v>271</v>
       </c>
@@ -39298,10 +39299,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="321" t="s">
+      <c r="D36" s="324" t="s">
         <v>281</v>
       </c>
-      <c r="E36" s="322"/>
+      <c r="E36" s="325"/>
       <c r="F36" s="105" t="s">
         <v>282</v>
       </c>
@@ -39637,11 +39638,11 @@
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="323" t="s">
+      <c r="B55" s="326" t="s">
         <v>140</v>
       </c>
-      <c r="C55" s="323"/>
-      <c r="D55" s="323"/>
+      <c r="C55" s="326"/>
+      <c r="D55" s="326"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
@@ -39658,12 +39659,12 @@
     </row>
     <row r="56" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="83"/>
-      <c r="B56" s="310" t="s">
+      <c r="B56" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="311"/>
-      <c r="D56" s="311"/>
-      <c r="E56" s="312"/>
+      <c r="C56" s="314"/>
+      <c r="D56" s="314"/>
+      <c r="E56" s="315"/>
       <c r="F56" s="115" t="s">
         <v>125</v>
       </c>
@@ -39755,10 +39756,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="313" t="s">
+      <c r="D59" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="E59" s="315"/>
+      <c r="E59" s="318"/>
       <c r="F59" s="74" t="s">
         <v>139</v>
       </c>
@@ -39788,10 +39789,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="313" t="s">
+      <c r="D60" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="324"/>
+      <c r="E60" s="327"/>
       <c r="F60" s="105" t="s">
         <v>187</v>
       </c>
@@ -39821,10 +39822,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="325" t="s">
+      <c r="D61" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="E61" s="324"/>
+      <c r="E61" s="327"/>
       <c r="F61" s="105" t="s">
         <v>190</v>
       </c>
@@ -39918,8 +39919,8 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="92"/>
-      <c r="D64" s="316"/>
-      <c r="E64" s="315"/>
+      <c r="D64" s="319"/>
+      <c r="E64" s="318"/>
       <c r="F64" s="74"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
@@ -40858,15 +40859,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="316" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="315"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="318"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -40879,15 +40880,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="316" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="315"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="318"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -40921,15 +40922,15 @@
       <c r="B7" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="316" t="s">
+      <c r="C7" s="319" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="315"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="318"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -40963,15 +40964,15 @@
       <c r="B9" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="319" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="318"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -41034,19 +41035,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="319"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -41075,11 +41076,11 @@
       <c r="I14" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="320" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="320"/>
-      <c r="L14" s="320"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -41104,11 +41105,11 @@
       <c r="I15" s="130" t="s">
         <v>279</v>
       </c>
-      <c r="J15" s="307" t="s">
+      <c r="J15" s="310" t="s">
         <v>280</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -41133,9 +41134,9 @@
       <c r="I16" s="130" t="s">
         <v>388</v>
       </c>
-      <c r="J16" s="308"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
+      <c r="J16" s="311"/>
+      <c r="K16" s="311"/>
+      <c r="L16" s="311"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -41326,11 +41327,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="309" t="s">
+      <c r="B27" s="312" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="309"/>
-      <c r="D27" s="309"/>
+      <c r="C27" s="312"/>
+      <c r="D27" s="312"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -41345,12 +41346,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="310" t="s">
+      <c r="B28" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="311"/>
-      <c r="D28" s="311"/>
-      <c r="E28" s="312"/>
+      <c r="C28" s="314"/>
+      <c r="D28" s="314"/>
+      <c r="E28" s="315"/>
       <c r="F28" s="150" t="s">
         <v>125</v>
       </c>
@@ -41442,10 +41443,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="315"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -41475,10 +41476,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="315"/>
+      <c r="E32" s="318"/>
       <c r="F32" s="74" t="s">
         <v>171</v>
       </c>
@@ -41570,10 +41571,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="313" t="s">
+      <c r="D35" s="316" t="s">
         <v>288</v>
       </c>
-      <c r="E35" s="315"/>
+      <c r="E35" s="318"/>
       <c r="F35" s="105" t="s">
         <v>387</v>
       </c>
@@ -41603,10 +41604,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="321" t="s">
+      <c r="D36" s="324" t="s">
         <v>390</v>
       </c>
-      <c r="E36" s="322"/>
+      <c r="E36" s="325"/>
       <c r="F36" s="105" t="s">
         <v>271</v>
       </c>
@@ -42029,11 +42030,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="323" t="s">
+      <c r="B58" s="326" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="323"/>
-      <c r="D58" s="323"/>
+      <c r="C58" s="326"/>
+      <c r="D58" s="326"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -42050,12 +42051,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="310" t="s">
+      <c r="B59" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="311"/>
-      <c r="D59" s="311"/>
-      <c r="E59" s="312"/>
+      <c r="C59" s="314"/>
+      <c r="D59" s="314"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="150" t="s">
         <v>125</v>
       </c>
@@ -42147,10 +42148,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="313" t="s">
+      <c r="D62" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="E62" s="315"/>
+      <c r="E62" s="318"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -42180,10 +42181,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="313" t="s">
+      <c r="D63" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="324"/>
+      <c r="E63" s="327"/>
       <c r="F63" s="105" t="s">
         <v>187</v>
       </c>
@@ -42213,10 +42214,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="325" t="s">
+      <c r="D64" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="E64" s="324"/>
+      <c r="E64" s="327"/>
       <c r="F64" s="105" t="s">
         <v>190</v>
       </c>
@@ -42310,8 +42311,8 @@
       <c r="A67" s="66"/>
       <c r="B67" s="91"/>
       <c r="C67" s="92"/>
-      <c r="D67" s="316"/>
-      <c r="E67" s="315"/>
+      <c r="D67" s="319"/>
+      <c r="E67" s="318"/>
       <c r="F67" s="74"/>
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
@@ -42818,15 +42819,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="316" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="315"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="318"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -42839,15 +42840,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="316" t="s">
         <v>398</v>
       </c>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="315"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="318"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -42881,15 +42882,15 @@
       <c r="B7" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="313" t="s">
+      <c r="C7" s="316" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="315"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="318"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -42923,15 +42924,15 @@
       <c r="B9" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="319" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="318"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -42994,19 +42995,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="319"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -43035,11 +43036,11 @@
       <c r="I14" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="320" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="320"/>
-      <c r="L14" s="320"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -43064,11 +43065,11 @@
       <c r="I15" s="130" t="s">
         <v>279</v>
       </c>
-      <c r="J15" s="307" t="s">
+      <c r="J15" s="310" t="s">
         <v>280</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -43290,11 +43291,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="309" t="s">
+      <c r="B27" s="312" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="309"/>
-      <c r="D27" s="309"/>
+      <c r="C27" s="312"/>
+      <c r="D27" s="312"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -43309,12 +43310,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="310" t="s">
+      <c r="B28" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="311"/>
-      <c r="D28" s="311"/>
-      <c r="E28" s="312"/>
+      <c r="C28" s="314"/>
+      <c r="D28" s="314"/>
+      <c r="E28" s="315"/>
       <c r="F28" s="150" t="s">
         <v>125</v>
       </c>
@@ -43406,10 +43407,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="315"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -43439,10 +43440,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="315"/>
+      <c r="E32" s="318"/>
       <c r="F32" s="74" t="s">
         <v>171</v>
       </c>
@@ -43534,10 +43535,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="313" t="s">
+      <c r="D35" s="316" t="s">
         <v>288</v>
       </c>
-      <c r="E35" s="315"/>
+      <c r="E35" s="318"/>
       <c r="F35" s="105" t="s">
         <v>387</v>
       </c>
@@ -43567,10 +43568,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="321" t="s">
+      <c r="D36" s="324" t="s">
         <v>390</v>
       </c>
-      <c r="E36" s="322"/>
+      <c r="E36" s="325"/>
       <c r="F36" s="105" t="s">
         <v>271</v>
       </c>
@@ -43993,11 +43994,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="323" t="s">
+      <c r="B58" s="326" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="323"/>
-      <c r="D58" s="323"/>
+      <c r="C58" s="326"/>
+      <c r="D58" s="326"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -44014,12 +44015,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="310" t="s">
+      <c r="B59" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="311"/>
-      <c r="D59" s="311"/>
-      <c r="E59" s="312"/>
+      <c r="C59" s="314"/>
+      <c r="D59" s="314"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="150" t="s">
         <v>125</v>
       </c>
@@ -44111,10 +44112,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="313" t="s">
+      <c r="D62" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="E62" s="315"/>
+      <c r="E62" s="318"/>
       <c r="F62" s="74" t="s">
         <v>139</v>
       </c>
@@ -44144,10 +44145,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="313" t="s">
+      <c r="D63" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="324"/>
+      <c r="E63" s="327"/>
       <c r="F63" s="105" t="s">
         <v>187</v>
       </c>
@@ -44177,10 +44178,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="325" t="s">
+      <c r="D64" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="E64" s="324"/>
+      <c r="E64" s="327"/>
       <c r="F64" s="105" t="s">
         <v>190</v>
       </c>
@@ -44303,10 +44304,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="85"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="313" t="s">
+      <c r="D68" s="316" t="s">
         <v>288</v>
       </c>
-      <c r="E68" s="315"/>
+      <c r="E68" s="318"/>
       <c r="F68" s="105" t="s">
         <v>387</v>
       </c>
@@ -44336,10 +44337,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="85"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="321" t="s">
+      <c r="D69" s="324" t="s">
         <v>390</v>
       </c>
-      <c r="E69" s="322"/>
+      <c r="E69" s="325"/>
       <c r="F69" s="105" t="s">
         <v>271</v>
       </c>
@@ -44908,15 +44909,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="316" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="315"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="318"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -44929,15 +44930,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="316" t="s">
         <v>403</v>
       </c>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="315"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="318"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -44971,15 +44972,15 @@
       <c r="B7" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="313" t="s">
+      <c r="C7" s="316" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="315"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="318"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -45013,15 +45014,15 @@
       <c r="B9" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="319" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="318"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -45084,19 +45085,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="319"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45125,11 +45126,11 @@
       <c r="I14" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="320" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="320"/>
-      <c r="L14" s="320"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45154,11 +45155,11 @@
       <c r="I15" s="130" t="s">
         <v>279</v>
       </c>
-      <c r="J15" s="307" t="s">
+      <c r="J15" s="310" t="s">
         <v>280</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -45349,11 +45350,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="309" t="s">
+      <c r="B26" s="312" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="309"/>
-      <c r="D26" s="309"/>
+      <c r="C26" s="312"/>
+      <c r="D26" s="312"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -45368,12 +45369,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="310" t="s">
+      <c r="B27" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="311"/>
-      <c r="D27" s="311"/>
-      <c r="E27" s="312"/>
+      <c r="C27" s="314"/>
+      <c r="D27" s="314"/>
+      <c r="E27" s="315"/>
       <c r="F27" s="150" t="s">
         <v>125</v>
       </c>
@@ -45465,10 +45466,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="316" t="s">
+      <c r="D30" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="315"/>
+      <c r="E30" s="318"/>
       <c r="F30" s="74" t="s">
         <v>139</v>
       </c>
@@ -45498,10 +45499,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="315"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="74" t="s">
         <v>171</v>
       </c>
@@ -45564,8 +45565,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="329"/>
-      <c r="E33" s="329"/>
+      <c r="D33" s="332"/>
+      <c r="E33" s="332"/>
       <c r="F33" s="105"/>
       <c r="G33" s="106"/>
       <c r="H33" s="76"/>
@@ -45887,11 +45888,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="323" t="s">
+      <c r="B52" s="326" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="323"/>
-      <c r="D52" s="323"/>
+      <c r="C52" s="326"/>
+      <c r="D52" s="326"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -45908,12 +45909,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="310" t="s">
+      <c r="B53" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="311"/>
-      <c r="D53" s="311"/>
-      <c r="E53" s="312"/>
+      <c r="C53" s="314"/>
+      <c r="D53" s="314"/>
+      <c r="E53" s="315"/>
       <c r="F53" s="150" t="s">
         <v>125</v>
       </c>
@@ -46005,10 +46006,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="313" t="s">
+      <c r="D56" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="315"/>
+      <c r="E56" s="318"/>
       <c r="F56" s="74" t="s">
         <v>139</v>
       </c>
@@ -46038,10 +46039,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="313" t="s">
+      <c r="D57" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="324"/>
+      <c r="E57" s="327"/>
       <c r="F57" s="105" t="s">
         <v>187</v>
       </c>
@@ -46071,10 +46072,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="325" t="s">
+      <c r="D58" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="E58" s="324"/>
+      <c r="E58" s="327"/>
       <c r="F58" s="105" t="s">
         <v>190</v>
       </c>
@@ -46168,8 +46169,8 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="92"/>
-      <c r="D61" s="316"/>
-      <c r="E61" s="315"/>
+      <c r="D61" s="319"/>
+      <c r="E61" s="318"/>
       <c r="F61" s="74"/>
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
@@ -46673,15 +46674,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="316" t="s">
         <v>405</v>
       </c>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="315"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="318"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -46694,15 +46695,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="316" t="s">
         <v>406</v>
       </c>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="315"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="318"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -46736,15 +46737,15 @@
       <c r="B7" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="313" t="s">
+      <c r="C7" s="316" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="315"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="318"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -46778,15 +46779,15 @@
       <c r="B9" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="319" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="318"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -46849,19 +46850,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="319"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -46890,11 +46891,11 @@
       <c r="I14" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="320" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="320"/>
-      <c r="L14" s="320"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -46919,11 +46920,11 @@
       <c r="I15" s="130" t="s">
         <v>273</v>
       </c>
-      <c r="J15" s="307" t="s">
+      <c r="J15" s="310" t="s">
         <v>289</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -46938,9 +46939,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="308"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
+      <c r="J16" s="311"/>
+      <c r="K16" s="311"/>
+      <c r="L16" s="311"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -47119,11 +47120,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="309" t="s">
+      <c r="B27" s="312" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="309"/>
-      <c r="D27" s="309"/>
+      <c r="C27" s="312"/>
+      <c r="D27" s="312"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -47138,12 +47139,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="310" t="s">
+      <c r="B28" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="311"/>
-      <c r="D28" s="311"/>
-      <c r="E28" s="312"/>
+      <c r="C28" s="314"/>
+      <c r="D28" s="314"/>
+      <c r="E28" s="315"/>
       <c r="F28" s="150" t="s">
         <v>125</v>
       </c>
@@ -47235,10 +47236,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="315"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -47268,10 +47269,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="315"/>
+      <c r="E32" s="318"/>
       <c r="F32" s="74" t="s">
         <v>171</v>
       </c>
@@ -47334,10 +47335,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="313" t="s">
+      <c r="D34" s="316" t="s">
         <v>390</v>
       </c>
-      <c r="E34" s="315"/>
+      <c r="E34" s="318"/>
       <c r="F34" s="105" t="s">
         <v>271</v>
       </c>
@@ -47367,10 +47368,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="321" t="s">
+      <c r="D35" s="324" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="322"/>
+      <c r="E35" s="325"/>
       <c r="F35" s="105" t="s">
         <v>284</v>
       </c>
@@ -47706,11 +47707,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="323" t="s">
+      <c r="B54" s="326" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="323"/>
-      <c r="D54" s="323"/>
+      <c r="C54" s="326"/>
+      <c r="D54" s="326"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -47727,12 +47728,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="310" t="s">
+      <c r="B55" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="311"/>
-      <c r="D55" s="311"/>
-      <c r="E55" s="312"/>
+      <c r="C55" s="314"/>
+      <c r="D55" s="314"/>
+      <c r="E55" s="315"/>
       <c r="F55" s="150" t="s">
         <v>125</v>
       </c>
@@ -47824,10 +47825,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="313" t="s">
+      <c r="D58" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="E58" s="315"/>
+      <c r="E58" s="318"/>
       <c r="F58" s="74" t="s">
         <v>139</v>
       </c>
@@ -47857,10 +47858,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="313" t="s">
+      <c r="D59" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="324"/>
+      <c r="E59" s="327"/>
       <c r="F59" s="105" t="s">
         <v>187</v>
       </c>
@@ -47890,10 +47891,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="325" t="s">
+      <c r="D60" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="E60" s="324"/>
+      <c r="E60" s="327"/>
       <c r="F60" s="105" t="s">
         <v>190</v>
       </c>
@@ -47987,8 +47988,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="316"/>
-      <c r="E63" s="315"/>
+      <c r="D63" s="319"/>
+      <c r="E63" s="318"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -48491,15 +48492,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="316" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="315"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="318"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -48512,15 +48513,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="316" t="s">
         <v>409</v>
       </c>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="315"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="318"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -48554,15 +48555,15 @@
       <c r="B7" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="313" t="s">
+      <c r="C7" s="316" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="315"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="318"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -48596,15 +48597,15 @@
       <c r="B9" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="319" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="318"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -48667,19 +48668,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="319"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -48708,11 +48709,11 @@
       <c r="I14" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="320" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="320"/>
-      <c r="L14" s="320"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -48737,11 +48738,11 @@
       <c r="I15" s="130" t="s">
         <v>411</v>
       </c>
-      <c r="J15" s="307" t="s">
+      <c r="J15" s="310" t="s">
         <v>412</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -48766,11 +48767,11 @@
       <c r="I16" s="130" t="s">
         <v>273</v>
       </c>
-      <c r="J16" s="307" t="s">
+      <c r="J16" s="310" t="s">
         <v>413</v>
       </c>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
+      <c r="K16" s="311"/>
+      <c r="L16" s="311"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -48949,11 +48950,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="309" t="s">
+      <c r="B27" s="312" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="309"/>
-      <c r="D27" s="309"/>
+      <c r="C27" s="312"/>
+      <c r="D27" s="312"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -48968,12 +48969,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="310" t="s">
+      <c r="B28" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="311"/>
-      <c r="D28" s="311"/>
-      <c r="E28" s="312"/>
+      <c r="C28" s="314"/>
+      <c r="D28" s="314"/>
+      <c r="E28" s="315"/>
       <c r="F28" s="150" t="s">
         <v>125</v>
       </c>
@@ -49065,10 +49066,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="315"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="74" t="s">
         <v>139</v>
       </c>
@@ -49098,10 +49099,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="315"/>
+      <c r="E32" s="318"/>
       <c r="F32" s="74" t="s">
         <v>171</v>
       </c>
@@ -49193,10 +49194,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="313" t="s">
+      <c r="D35" s="316" t="s">
         <v>390</v>
       </c>
-      <c r="E35" s="315"/>
+      <c r="E35" s="318"/>
       <c r="F35" s="105" t="s">
         <v>271</v>
       </c>
@@ -49226,10 +49227,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="321" t="s">
+      <c r="D36" s="324" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="322"/>
+      <c r="E36" s="325"/>
       <c r="F36" s="105" t="s">
         <v>284</v>
       </c>
@@ -49575,11 +49576,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="323" t="s">
+      <c r="B57" s="326" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="323"/>
-      <c r="D57" s="323"/>
+      <c r="C57" s="326"/>
+      <c r="D57" s="326"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -49596,12 +49597,12 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="310" t="s">
+      <c r="B58" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="311"/>
-      <c r="D58" s="311"/>
-      <c r="E58" s="312"/>
+      <c r="C58" s="314"/>
+      <c r="D58" s="314"/>
+      <c r="E58" s="315"/>
       <c r="F58" s="150" t="s">
         <v>125</v>
       </c>
@@ -50239,7 +50240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -50273,10 +50274,10 @@
       <c r="C4" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="274" t="s">
+      <c r="D4" s="277" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="274"/>
+      <c r="E4" s="277"/>
       <c r="F4" s="111" t="s">
         <v>183</v>
       </c>
@@ -50289,10 +50290,10 @@
       <c r="C5" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="275" t="s">
+      <c r="D5" s="278" t="s">
         <v>444</v>
       </c>
-      <c r="E5" s="275"/>
+      <c r="E5" s="278"/>
       <c r="F5" s="120" t="s">
         <v>236</v>
       </c>
@@ -50306,10 +50307,10 @@
       <c r="C6" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="275" t="s">
+      <c r="D6" s="278" t="s">
         <v>287</v>
       </c>
-      <c r="E6" s="275"/>
+      <c r="E6" s="278"/>
       <c r="F6" s="120" t="s">
         <v>265</v>
       </c>
@@ -50322,10 +50323,10 @@
       <c r="C7" s="119" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="275" t="s">
+      <c r="D7" s="278" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="275"/>
+      <c r="E7" s="278"/>
       <c r="F7" s="120" t="s">
         <v>266</v>
       </c>
@@ -50338,10 +50339,10 @@
       <c r="C8" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="D8" s="275" t="s">
+      <c r="D8" s="278" t="s">
         <v>277</v>
       </c>
-      <c r="E8" s="275"/>
+      <c r="E8" s="278"/>
       <c r="F8" s="120" t="s">
         <v>276</v>
       </c>
@@ -50361,10 +50362,10 @@
       <c r="C10" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="274" t="s">
+      <c r="D10" s="277" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="274"/>
+      <c r="E10" s="277"/>
       <c r="F10" s="111" t="s">
         <v>183</v>
       </c>
@@ -50376,10 +50377,10 @@
       <c r="C11" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="275" t="s">
+      <c r="D11" s="278" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="275"/>
+      <c r="E11" s="278"/>
       <c r="F11" s="100"/>
       <c r="H11" s="100"/>
     </row>
@@ -50390,10 +50391,10 @@
       <c r="C12" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="275" t="s">
+      <c r="D12" s="278" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="275"/>
+      <c r="E12" s="278"/>
       <c r="F12" s="120"/>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
@@ -50405,10 +50406,10 @@
       <c r="C13" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="275" t="s">
+      <c r="D13" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="275"/>
+      <c r="E13" s="278"/>
       <c r="F13" s="120"/>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
@@ -50420,10 +50421,10 @@
       <c r="C14" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="275" t="s">
+      <c r="D14" s="278" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="275"/>
+      <c r="E14" s="278"/>
       <c r="F14" s="120"/>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
@@ -50435,10 +50436,10 @@
       <c r="C15" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="275" t="s">
+      <c r="D15" s="278" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="275"/>
+      <c r="E15" s="278"/>
       <c r="F15" s="120"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -50457,10 +50458,10 @@
       <c r="C18" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="274" t="s">
+      <c r="D18" s="277" t="s">
         <v>186</v>
       </c>
-      <c r="E18" s="274"/>
+      <c r="E18" s="277"/>
       <c r="F18" s="111" t="s">
         <v>183</v>
       </c>
@@ -50472,10 +50473,10 @@
       <c r="C19" s="119" t="s">
         <v>237</v>
       </c>
-      <c r="D19" s="275" t="s">
+      <c r="D19" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="275"/>
+      <c r="E19" s="278"/>
       <c r="F19" s="122"/>
       <c r="G19" s="100"/>
       <c r="H19" s="100"/>
@@ -50487,10 +50488,10 @@
       <c r="C20" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="D20" s="275" t="s">
+      <c r="D20" s="278" t="s">
         <v>464</v>
       </c>
-      <c r="E20" s="275"/>
+      <c r="E20" s="278"/>
       <c r="F20" s="122"/>
       <c r="G20" s="100"/>
       <c r="H20" s="100"/>
@@ -50502,10 +50503,10 @@
       <c r="C21" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="D21" s="275" t="s">
+      <c r="D21" s="278" t="s">
         <v>445</v>
       </c>
-      <c r="E21" s="275"/>
+      <c r="E21" s="278"/>
       <c r="F21" s="122"/>
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
@@ -50517,10 +50518,10 @@
       <c r="C22" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="D22" s="275" t="s">
+      <c r="D22" s="278" t="s">
         <v>440</v>
       </c>
-      <c r="E22" s="275"/>
+      <c r="E22" s="278"/>
       <c r="F22" s="122"/>
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
@@ -50532,10 +50533,10 @@
       <c r="C23" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="D23" s="275" t="s">
+      <c r="D23" s="278" t="s">
         <v>465</v>
       </c>
-      <c r="E23" s="275"/>
+      <c r="E23" s="278"/>
       <c r="F23" s="122"/>
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
@@ -50547,10 +50548,10 @@
       <c r="C24" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="D24" s="275" t="s">
+      <c r="D24" s="278" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="275"/>
+      <c r="E24" s="278"/>
       <c r="F24" s="122"/>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
@@ -50569,10 +50570,10 @@
       <c r="C27" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="274" t="s">
+      <c r="D27" s="277" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="274"/>
+      <c r="E27" s="277"/>
       <c r="F27" s="111" t="s">
         <v>183</v>
       </c>
@@ -50584,10 +50585,10 @@
       <c r="C28" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="275" t="s">
+      <c r="D28" s="278" t="s">
         <v>185</v>
       </c>
-      <c r="E28" s="275"/>
+      <c r="E28" s="278"/>
       <c r="F28" s="122"/>
       <c r="G28" s="100"/>
       <c r="H28" s="100"/>
@@ -50599,10 +50600,10 @@
       <c r="C29" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="275" t="s">
+      <c r="D29" s="278" t="s">
         <v>254</v>
       </c>
-      <c r="E29" s="275"/>
+      <c r="E29" s="278"/>
       <c r="F29" s="122"/>
       <c r="G29" s="100"/>
       <c r="H29" s="100"/>
@@ -50614,10 +50615,10 @@
       <c r="C30" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="275" t="s">
+      <c r="D30" s="278" t="s">
         <v>435</v>
       </c>
-      <c r="E30" s="275"/>
+      <c r="E30" s="278"/>
       <c r="F30" s="122"/>
       <c r="G30" s="100"/>
       <c r="H30" s="100"/>
@@ -50629,10 +50630,10 @@
       <c r="C31" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="275" t="s">
+      <c r="D31" s="278" t="s">
         <v>243</v>
       </c>
-      <c r="E31" s="275"/>
+      <c r="E31" s="278"/>
       <c r="F31" s="122"/>
       <c r="G31" s="100"/>
       <c r="H31" s="100"/>
@@ -50644,10 +50645,10 @@
       <c r="C32" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="275" t="s">
+      <c r="D32" s="278" t="s">
         <v>244</v>
       </c>
-      <c r="E32" s="275"/>
+      <c r="E32" s="278"/>
       <c r="F32" s="122"/>
       <c r="G32" s="100"/>
       <c r="H32" s="100"/>
@@ -50664,10 +50665,10 @@
       <c r="C36" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="D36" s="274" t="s">
+      <c r="D36" s="277" t="s">
         <v>186</v>
       </c>
-      <c r="E36" s="274"/>
+      <c r="E36" s="277"/>
       <c r="F36" s="111" t="s">
         <v>183</v>
       </c>
@@ -50679,10 +50680,10 @@
       <c r="C37" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="276" t="s">
+      <c r="D37" s="279" t="s">
         <v>247</v>
       </c>
-      <c r="E37" s="277"/>
+      <c r="E37" s="280"/>
       <c r="F37" s="126"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1">
@@ -50692,10 +50693,10 @@
       <c r="C38" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="276" t="s">
+      <c r="D38" s="279" t="s">
         <v>248</v>
       </c>
-      <c r="E38" s="277"/>
+      <c r="E38" s="280"/>
       <c r="F38" s="126"/>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1">
@@ -50705,10 +50706,10 @@
       <c r="C39" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="276" t="s">
+      <c r="D39" s="279" t="s">
         <v>249</v>
       </c>
-      <c r="E39" s="277"/>
+      <c r="E39" s="280"/>
       <c r="F39" s="126"/>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1">
@@ -50718,10 +50719,10 @@
       <c r="C40" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="276" t="s">
+      <c r="D40" s="279" t="s">
         <v>250</v>
       </c>
-      <c r="E40" s="277"/>
+      <c r="E40" s="280"/>
       <c r="F40" s="126"/>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1">
@@ -50731,10 +50732,10 @@
       <c r="C41" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="276" t="s">
+      <c r="D41" s="279" t="s">
         <v>251</v>
       </c>
-      <c r="E41" s="277"/>
+      <c r="E41" s="280"/>
       <c r="F41" s="126"/>
     </row>
     <row r="42" spans="2:6">
@@ -50744,10 +50745,10 @@
       <c r="C42" s="127">
         <v>2506</v>
       </c>
-      <c r="D42" s="278" t="s">
+      <c r="D42" s="281" t="s">
         <v>253</v>
       </c>
-      <c r="E42" s="279"/>
+      <c r="E42" s="282"/>
       <c r="F42" s="128"/>
     </row>
     <row r="43" spans="2:6">
@@ -50757,10 +50758,10 @@
       <c r="C43" s="127">
         <v>2507</v>
       </c>
-      <c r="D43" s="278" t="s">
+      <c r="D43" s="281" t="s">
         <v>310</v>
       </c>
-      <c r="E43" s="279"/>
+      <c r="E43" s="282"/>
       <c r="F43" s="129"/>
     </row>
     <row r="45" spans="2:6" ht="15.75">
@@ -50775,10 +50776,10 @@
       <c r="C46" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="274" t="s">
+      <c r="D46" s="277" t="s">
         <v>186</v>
       </c>
-      <c r="E46" s="274"/>
+      <c r="E46" s="277"/>
       <c r="F46" s="111" t="s">
         <v>183</v>
       </c>
@@ -50790,10 +50791,10 @@
       <c r="C47" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="275" t="s">
+      <c r="D47" s="278" t="s">
         <v>256</v>
       </c>
-      <c r="E47" s="275"/>
+      <c r="E47" s="278"/>
       <c r="F47" s="122"/>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -50803,10 +50804,10 @@
       <c r="C48" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="275" t="s">
+      <c r="D48" s="278" t="s">
         <v>257</v>
       </c>
-      <c r="E48" s="275"/>
+      <c r="E48" s="278"/>
       <c r="F48" s="122"/>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -50816,10 +50817,10 @@
       <c r="C49" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="275" t="s">
+      <c r="D49" s="278" t="s">
         <v>258</v>
       </c>
-      <c r="E49" s="275"/>
+      <c r="E49" s="278"/>
       <c r="F49" s="122"/>
     </row>
     <row r="50" spans="2:6" ht="32.25" customHeight="1">
@@ -50829,10 +50830,10 @@
       <c r="C50" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="275" t="s">
+      <c r="D50" s="278" t="s">
         <v>259</v>
       </c>
-      <c r="E50" s="275"/>
+      <c r="E50" s="278"/>
       <c r="F50" s="122" t="s">
         <v>434</v>
       </c>
@@ -50844,10 +50845,10 @@
       <c r="C51" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="275" t="s">
+      <c r="D51" s="278" t="s">
         <v>260</v>
       </c>
-      <c r="E51" s="275"/>
+      <c r="E51" s="278"/>
       <c r="F51" s="122"/>
     </row>
     <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -50857,10 +50858,10 @@
       <c r="C52" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="275" t="s">
+      <c r="D52" s="278" t="s">
         <v>261</v>
       </c>
-      <c r="E52" s="275"/>
+      <c r="E52" s="278"/>
       <c r="F52" s="122"/>
     </row>
     <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1"/>
@@ -50984,10 +50985,10 @@
       <c r="D4" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="280" t="s">
+      <c r="E4" s="283" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="281"/>
+      <c r="F4" s="284"/>
       <c r="G4" s="141" t="s">
         <v>155</v>
       </c>
@@ -51002,7 +51003,7 @@
       <c r="C5" s="118" t="s">
         <v>443</v>
       </c>
-      <c r="D5" s="282" t="s">
+      <c r="D5" s="285" t="s">
         <v>152</v>
       </c>
       <c r="E5" s="199" t="s">
@@ -51027,7 +51028,7 @@
       <c r="C6" s="118" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="283"/>
+      <c r="D6" s="286"/>
       <c r="E6" s="200" t="s">
         <v>154</v>
       </c>
@@ -51050,7 +51051,7 @@
       <c r="C7" s="118" t="s">
         <v>426</v>
       </c>
-      <c r="D7" s="283"/>
+      <c r="D7" s="286"/>
       <c r="E7" s="199" t="s">
         <v>202</v>
       </c>
@@ -51073,7 +51074,7 @@
       <c r="C8" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="283"/>
+      <c r="D8" s="286"/>
       <c r="E8" s="199" t="s">
         <v>203</v>
       </c>
@@ -51096,7 +51097,7 @@
       <c r="C9" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="283"/>
+      <c r="D9" s="286"/>
       <c r="E9" s="199" t="s">
         <v>202</v>
       </c>
@@ -51119,7 +51120,7 @@
       <c r="C10" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="283"/>
+      <c r="D10" s="286"/>
       <c r="E10" s="199" t="s">
         <v>202</v>
       </c>
@@ -51142,7 +51143,7 @@
       <c r="C11" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="284"/>
+      <c r="D11" s="287"/>
       <c r="E11" s="199" t="s">
         <v>203</v>
       </c>
@@ -51165,7 +51166,7 @@
       <c r="C12" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="D12" s="285" t="s">
+      <c r="D12" s="288" t="s">
         <v>252</v>
       </c>
       <c r="E12" s="199" t="s">
@@ -51190,7 +51191,7 @@
       <c r="C13" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="D13" s="286"/>
+      <c r="D13" s="289"/>
       <c r="E13" s="199" t="s">
         <v>202</v>
       </c>
@@ -51213,7 +51214,7 @@
       <c r="C14" s="118" t="s">
         <v>212</v>
       </c>
-      <c r="D14" s="286"/>
+      <c r="D14" s="289"/>
       <c r="E14" s="199" t="s">
         <v>202</v>
       </c>
@@ -51236,7 +51237,7 @@
       <c r="C15" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="D15" s="286"/>
+      <c r="D15" s="289"/>
       <c r="E15" s="199" t="s">
         <v>202</v>
       </c>
@@ -51259,7 +51260,7 @@
       <c r="C16" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="D16" s="286"/>
+      <c r="D16" s="289"/>
       <c r="E16" s="199" t="s">
         <v>221</v>
       </c>
@@ -51282,7 +51283,7 @@
       <c r="C17" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="286"/>
+      <c r="D17" s="289"/>
       <c r="E17" s="199" t="s">
         <v>203</v>
       </c>
@@ -51305,7 +51306,7 @@
       <c r="C18" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="286"/>
+      <c r="D18" s="289"/>
       <c r="E18" s="199" t="s">
         <v>203</v>
       </c>
@@ -51328,7 +51329,7 @@
       <c r="C19" s="118" t="s">
         <v>225</v>
       </c>
-      <c r="D19" s="287" t="s">
+      <c r="D19" s="290" t="s">
         <v>153</v>
       </c>
       <c r="E19" s="199" t="s">
@@ -51353,7 +51354,7 @@
       <c r="C20" s="118" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="288"/>
+      <c r="D20" s="291"/>
       <c r="E20" s="199" t="s">
         <v>202</v>
       </c>
@@ -51376,7 +51377,7 @@
       <c r="C21" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="D21" s="288"/>
+      <c r="D21" s="291"/>
       <c r="E21" s="199" t="s">
         <v>221</v>
       </c>
@@ -51399,7 +51400,7 @@
       <c r="C22" s="118" t="s">
         <v>228</v>
       </c>
-      <c r="D22" s="288"/>
+      <c r="D22" s="291"/>
       <c r="E22" s="199" t="s">
         <v>203</v>
       </c>
@@ -51422,7 +51423,7 @@
       <c r="C23" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="D23" s="289"/>
+      <c r="D23" s="292"/>
       <c r="E23" s="199" t="s">
         <v>203</v>
       </c>
@@ -51576,15 +51577,15 @@
       <c r="B4" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="293" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="291"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295"/>
+      <c r="G4" s="295"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="294"/>
       <c r="J4" s="153"/>
       <c r="K4" s="153"/>
       <c r="L4" s="153"/>
@@ -51597,15 +51598,15 @@
       <c r="B5" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="293" t="s">
         <v>361</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="291"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="295"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="294"/>
       <c r="J5" s="153"/>
       <c r="K5" s="153"/>
       <c r="L5" s="153"/>
@@ -51639,15 +51640,15 @@
       <c r="B7" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="293" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
+      <c r="G7" s="295"/>
+      <c r="H7" s="295"/>
+      <c r="I7" s="294"/>
       <c r="J7" s="153"/>
       <c r="K7" s="153"/>
       <c r="L7" s="153"/>
@@ -51681,15 +51682,15 @@
       <c r="B9" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="293" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="291"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="294"/>
       <c r="J9" s="153"/>
       <c r="K9" s="153"/>
       <c r="L9" s="153"/>
@@ -51752,19 +51753,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="153"/>
-      <c r="B13" s="294" t="s">
+      <c r="B13" s="297" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="295"/>
-      <c r="J13" s="295"/>
-      <c r="K13" s="295"/>
-      <c r="L13" s="296"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="153"/>
       <c r="N13" s="153"/>
       <c r="O13" s="153"/>
@@ -51793,11 +51794,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="293" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="293"/>
-      <c r="L14" s="293"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="153"/>
       <c r="N14" s="153"/>
       <c r="O14" s="153"/>
@@ -51826,11 +51827,11 @@
       <c r="I15" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="J15" s="300" t="s">
+      <c r="J15" s="303" t="s">
         <v>358</v>
       </c>
-      <c r="K15" s="300"/>
-      <c r="L15" s="300"/>
+      <c r="K15" s="303"/>
+      <c r="L15" s="303"/>
       <c r="M15" s="153"/>
       <c r="N15" s="153"/>
       <c r="O15" s="153"/>
@@ -51859,11 +51860,11 @@
       <c r="I16" s="130" t="s">
         <v>355</v>
       </c>
-      <c r="J16" s="300" t="s">
+      <c r="J16" s="303" t="s">
         <v>354</v>
       </c>
-      <c r="K16" s="300"/>
-      <c r="L16" s="300"/>
+      <c r="K16" s="303"/>
+      <c r="L16" s="303"/>
       <c r="M16" s="153"/>
       <c r="N16" s="153"/>
       <c r="O16" s="153"/>
@@ -51925,11 +51926,11 @@
       <c r="I18" s="159" t="s">
         <v>351</v>
       </c>
-      <c r="J18" s="290" t="s">
+      <c r="J18" s="293" t="s">
         <v>350</v>
       </c>
-      <c r="K18" s="292"/>
-      <c r="L18" s="291"/>
+      <c r="K18" s="295"/>
+      <c r="L18" s="294"/>
       <c r="M18" s="153"/>
       <c r="N18" s="153"/>
       <c r="O18" s="153"/>
@@ -51958,11 +51959,11 @@
       <c r="I19" s="182" t="s">
         <v>349</v>
       </c>
-      <c r="J19" s="290" t="s">
+      <c r="J19" s="293" t="s">
         <v>348</v>
       </c>
-      <c r="K19" s="292"/>
-      <c r="L19" s="291"/>
+      <c r="K19" s="295"/>
+      <c r="L19" s="294"/>
       <c r="M19" s="153"/>
       <c r="N19" s="153"/>
       <c r="O19" s="153"/>
@@ -52124,11 +52125,11 @@
     </row>
     <row r="29" spans="1:15" s="177" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="178"/>
-      <c r="B29" s="304" t="s">
+      <c r="B29" s="307" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="304"/>
-      <c r="D29" s="304"/>
+      <c r="C29" s="307"/>
+      <c r="D29" s="307"/>
       <c r="E29" s="179"/>
       <c r="F29" s="180"/>
       <c r="G29" s="179"/>
@@ -52143,12 +52144,12 @@
     </row>
     <row r="30" spans="1:15" s="172" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="173"/>
-      <c r="B30" s="297" t="s">
+      <c r="B30" s="300" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="298"/>
-      <c r="D30" s="298"/>
-      <c r="E30" s="299"/>
+      <c r="C30" s="301"/>
+      <c r="D30" s="301"/>
+      <c r="E30" s="302"/>
       <c r="F30" s="174" t="s">
         <v>125</v>
       </c>
@@ -52240,10 +52241,10 @@
       <c r="A33" s="153"/>
       <c r="B33" s="167"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="290" t="s">
+      <c r="D33" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="E33" s="291"/>
+      <c r="E33" s="294"/>
       <c r="F33" s="161" t="s">
         <v>326</v>
       </c>
@@ -52273,10 +52274,10 @@
       <c r="A34" s="153"/>
       <c r="B34" s="167"/>
       <c r="C34" s="162"/>
-      <c r="D34" s="290" t="s">
+      <c r="D34" s="293" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="291"/>
+      <c r="E34" s="294"/>
       <c r="F34" s="161" t="s">
         <v>171</v>
       </c>
@@ -52339,10 +52340,10 @@
       <c r="A36" s="153"/>
       <c r="B36" s="167"/>
       <c r="C36" s="170"/>
-      <c r="D36" s="290" t="s">
+      <c r="D36" s="293" t="s">
         <v>347</v>
       </c>
-      <c r="E36" s="291"/>
+      <c r="E36" s="294"/>
       <c r="F36" s="161" t="s">
         <v>173</v>
       </c>
@@ -52372,10 +52373,10 @@
       <c r="A37" s="153"/>
       <c r="B37" s="167"/>
       <c r="C37" s="170"/>
-      <c r="D37" s="302" t="s">
+      <c r="D37" s="305" t="s">
         <v>344</v>
       </c>
-      <c r="E37" s="303"/>
+      <c r="E37" s="306"/>
       <c r="F37" s="161" t="s">
         <v>343</v>
       </c>
@@ -52405,10 +52406,10 @@
       <c r="A38" s="153"/>
       <c r="B38" s="167"/>
       <c r="C38" s="171"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="293" t="s">
         <v>341</v>
       </c>
-      <c r="E38" s="291"/>
+      <c r="E38" s="294"/>
       <c r="F38" s="161" t="s">
         <v>340</v>
       </c>
@@ -52558,10 +52559,10 @@
       <c r="A43" s="153"/>
       <c r="B43" s="163"/>
       <c r="C43" s="162"/>
-      <c r="D43" s="290" t="s">
+      <c r="D43" s="293" t="s">
         <v>332</v>
       </c>
-      <c r="E43" s="291"/>
+      <c r="E43" s="294"/>
       <c r="F43" s="161" t="s">
         <v>331</v>
       </c>
@@ -52897,11 +52898,11 @@
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="153"/>
-      <c r="B62" s="301" t="s">
+      <c r="B62" s="304" t="s">
         <v>329</v>
       </c>
-      <c r="C62" s="301"/>
-      <c r="D62" s="301"/>
+      <c r="C62" s="304"/>
+      <c r="D62" s="304"/>
       <c r="E62" s="153"/>
       <c r="F62" s="153"/>
       <c r="G62" s="153"/>
@@ -52918,12 +52919,12 @@
     </row>
     <row r="63" spans="1:15" s="172" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="173"/>
-      <c r="B63" s="297" t="s">
+      <c r="B63" s="300" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="298"/>
-      <c r="D63" s="298"/>
-      <c r="E63" s="299"/>
+      <c r="C63" s="301"/>
+      <c r="D63" s="301"/>
+      <c r="E63" s="302"/>
       <c r="F63" s="174" t="s">
         <v>125</v>
       </c>
@@ -53015,10 +53016,10 @@
       <c r="A66" s="153"/>
       <c r="B66" s="167"/>
       <c r="C66" s="171"/>
-      <c r="D66" s="290" t="s">
+      <c r="D66" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="E66" s="291"/>
+      <c r="E66" s="294"/>
       <c r="F66" s="161" t="s">
         <v>326</v>
       </c>
@@ -53048,10 +53049,10 @@
       <c r="A67" s="153"/>
       <c r="B67" s="167"/>
       <c r="C67" s="171"/>
-      <c r="D67" s="290" t="s">
+      <c r="D67" s="293" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="291"/>
+      <c r="E67" s="294"/>
       <c r="F67" s="161" t="s">
         <v>187</v>
       </c>
@@ -53081,10 +53082,10 @@
       <c r="A68" s="153"/>
       <c r="B68" s="167"/>
       <c r="C68" s="171"/>
-      <c r="D68" s="305" t="s">
+      <c r="D68" s="308" t="s">
         <v>192</v>
       </c>
-      <c r="E68" s="291"/>
+      <c r="E68" s="294"/>
       <c r="F68" s="161" t="s">
         <v>190</v>
       </c>
@@ -53178,8 +53179,8 @@
       <c r="A71" s="153"/>
       <c r="B71" s="163"/>
       <c r="C71" s="162"/>
-      <c r="D71" s="290"/>
-      <c r="E71" s="291"/>
+      <c r="D71" s="293"/>
+      <c r="E71" s="294"/>
       <c r="F71" s="161"/>
       <c r="G71" s="160"/>
       <c r="H71" s="160"/>
@@ -53609,7 +53610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A79" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="J16" sqref="J16:L16"/>
     </sheetView>
   </sheetViews>
@@ -53692,15 +53693,15 @@
       <c r="B4" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="293" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="291"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295"/>
+      <c r="G4" s="295"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="294"/>
       <c r="J4" s="153"/>
       <c r="K4" s="153"/>
       <c r="L4" s="153"/>
@@ -53713,15 +53714,15 @@
       <c r="B5" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="293" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="291"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="295"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="294"/>
       <c r="J5" s="153"/>
       <c r="K5" s="153"/>
       <c r="L5" s="153"/>
@@ -53755,15 +53756,15 @@
       <c r="B7" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="293" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
+      <c r="G7" s="295"/>
+      <c r="H7" s="295"/>
+      <c r="I7" s="294"/>
       <c r="J7" s="153"/>
       <c r="K7" s="153"/>
       <c r="L7" s="153"/>
@@ -53797,15 +53798,15 @@
       <c r="B9" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="293" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="291"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="294"/>
       <c r="J9" s="153"/>
       <c r="K9" s="153"/>
       <c r="L9" s="153"/>
@@ -53868,19 +53869,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="153"/>
-      <c r="B13" s="294" t="s">
+      <c r="B13" s="297" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="295"/>
-      <c r="J13" s="295"/>
-      <c r="K13" s="295"/>
-      <c r="L13" s="296"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="153"/>
       <c r="N13" s="153"/>
       <c r="O13" s="153"/>
@@ -53909,11 +53910,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="293" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="293"/>
-      <c r="L14" s="293"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="153"/>
       <c r="N14" s="153"/>
       <c r="O14" s="153"/>
@@ -53938,11 +53939,11 @@
       <c r="I15" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="J15" s="300" t="s">
+      <c r="J15" s="303" t="s">
         <v>358</v>
       </c>
-      <c r="K15" s="300"/>
-      <c r="L15" s="300"/>
+      <c r="K15" s="303"/>
+      <c r="L15" s="303"/>
       <c r="M15" s="153"/>
       <c r="N15" s="153"/>
       <c r="O15" s="153"/>
@@ -53967,11 +53968,11 @@
       <c r="I16" s="130" t="s">
         <v>355</v>
       </c>
-      <c r="J16" s="300" t="s">
+      <c r="J16" s="303" t="s">
         <v>364</v>
       </c>
-      <c r="K16" s="300"/>
-      <c r="L16" s="300"/>
+      <c r="K16" s="303"/>
+      <c r="L16" s="303"/>
       <c r="M16" s="153"/>
       <c r="N16" s="153"/>
       <c r="O16" s="153"/>
@@ -54133,11 +54134,11 @@
     </row>
     <row r="26" spans="1:15" s="177" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="178"/>
-      <c r="B26" s="304" t="s">
+      <c r="B26" s="307" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="304"/>
-      <c r="D26" s="304"/>
+      <c r="C26" s="307"/>
+      <c r="D26" s="307"/>
       <c r="E26" s="179"/>
       <c r="F26" s="180"/>
       <c r="G26" s="179"/>
@@ -54152,12 +54153,12 @@
     </row>
     <row r="27" spans="1:15" s="172" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="173"/>
-      <c r="B27" s="297" t="s">
+      <c r="B27" s="300" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="298"/>
-      <c r="E27" s="299"/>
+      <c r="C27" s="301"/>
+      <c r="D27" s="301"/>
+      <c r="E27" s="302"/>
       <c r="F27" s="174" t="s">
         <v>125</v>
       </c>
@@ -54249,10 +54250,10 @@
       <c r="A30" s="153"/>
       <c r="B30" s="167"/>
       <c r="C30" s="171"/>
-      <c r="D30" s="290" t="s">
+      <c r="D30" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="291"/>
+      <c r="E30" s="294"/>
       <c r="F30" s="161" t="s">
         <v>326</v>
       </c>
@@ -54282,10 +54283,10 @@
       <c r="A31" s="153"/>
       <c r="B31" s="167"/>
       <c r="C31" s="162"/>
-      <c r="D31" s="290" t="s">
+      <c r="D31" s="293" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="291"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="161" t="s">
         <v>171</v>
       </c>
@@ -54348,10 +54349,10 @@
       <c r="A33" s="153"/>
       <c r="B33" s="167"/>
       <c r="C33" s="170"/>
-      <c r="D33" s="290" t="s">
+      <c r="D33" s="293" t="s">
         <v>347</v>
       </c>
-      <c r="E33" s="291"/>
+      <c r="E33" s="294"/>
       <c r="F33" s="161" t="s">
         <v>173</v>
       </c>
@@ -54381,10 +54382,10 @@
       <c r="A34" s="153"/>
       <c r="B34" s="167"/>
       <c r="C34" s="170"/>
-      <c r="D34" s="302" t="s">
+      <c r="D34" s="305" t="s">
         <v>344</v>
       </c>
-      <c r="E34" s="303"/>
+      <c r="E34" s="306"/>
       <c r="F34" s="161" t="s">
         <v>343</v>
       </c>
@@ -54414,10 +54415,10 @@
       <c r="A35" s="153"/>
       <c r="B35" s="167"/>
       <c r="C35" s="170"/>
-      <c r="D35" s="290" t="s">
+      <c r="D35" s="293" t="s">
         <v>341</v>
       </c>
-      <c r="E35" s="291"/>
+      <c r="E35" s="294"/>
       <c r="F35" s="161" t="s">
         <v>340</v>
       </c>
@@ -54513,10 +54514,10 @@
       <c r="A38" s="153"/>
       <c r="B38" s="163"/>
       <c r="C38" s="162"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="293" t="s">
         <v>332</v>
       </c>
-      <c r="E38" s="291"/>
+      <c r="E38" s="294"/>
       <c r="F38" s="161" t="s">
         <v>331</v>
       </c>
@@ -54852,11 +54853,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="153"/>
-      <c r="B57" s="301" t="s">
+      <c r="B57" s="304" t="s">
         <v>329</v>
       </c>
-      <c r="C57" s="301"/>
-      <c r="D57" s="301"/>
+      <c r="C57" s="304"/>
+      <c r="D57" s="304"/>
       <c r="E57" s="153"/>
       <c r="F57" s="153"/>
       <c r="G57" s="153"/>
@@ -54873,12 +54874,12 @@
     </row>
     <row r="58" spans="1:15" s="172" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="173"/>
-      <c r="B58" s="297" t="s">
+      <c r="B58" s="300" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="298"/>
-      <c r="D58" s="298"/>
-      <c r="E58" s="299"/>
+      <c r="C58" s="301"/>
+      <c r="D58" s="301"/>
+      <c r="E58" s="302"/>
       <c r="F58" s="174" t="s">
         <v>125</v>
       </c>
@@ -54970,10 +54971,10 @@
       <c r="A61" s="153"/>
       <c r="B61" s="167"/>
       <c r="C61" s="171"/>
-      <c r="D61" s="290" t="s">
+      <c r="D61" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="E61" s="291"/>
+      <c r="E61" s="294"/>
       <c r="F61" s="161" t="s">
         <v>326</v>
       </c>
@@ -55003,10 +55004,10 @@
       <c r="A62" s="153"/>
       <c r="B62" s="167"/>
       <c r="C62" s="171"/>
-      <c r="D62" s="290" t="s">
+      <c r="D62" s="293" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="291"/>
+      <c r="E62" s="294"/>
       <c r="F62" s="161" t="s">
         <v>187</v>
       </c>
@@ -55036,10 +55037,10 @@
       <c r="A63" s="153"/>
       <c r="B63" s="167"/>
       <c r="C63" s="171"/>
-      <c r="D63" s="305" t="s">
+      <c r="D63" s="308" t="s">
         <v>192</v>
       </c>
-      <c r="E63" s="291"/>
+      <c r="E63" s="294"/>
       <c r="F63" s="161" t="s">
         <v>190</v>
       </c>
@@ -55133,8 +55134,8 @@
       <c r="A66" s="153"/>
       <c r="B66" s="163"/>
       <c r="C66" s="162"/>
-      <c r="D66" s="290"/>
-      <c r="E66" s="291"/>
+      <c r="D66" s="293"/>
+      <c r="E66" s="294"/>
       <c r="F66" s="161"/>
       <c r="G66" s="160"/>
       <c r="H66" s="160"/>
@@ -55560,7 +55561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:E34"/>
     </sheetView>
   </sheetViews>
@@ -55643,15 +55644,15 @@
       <c r="B4" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="293" t="s">
         <v>426</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="291"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295"/>
+      <c r="G4" s="295"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="294"/>
       <c r="J4" s="153"/>
       <c r="K4" s="153"/>
       <c r="L4" s="153"/>
@@ -55664,15 +55665,15 @@
       <c r="B5" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="293" t="s">
         <v>433</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="291"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="295"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="294"/>
       <c r="J5" s="153"/>
       <c r="K5" s="153"/>
       <c r="L5" s="153"/>
@@ -55706,15 +55707,15 @@
       <c r="B7" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="293" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
+      <c r="G7" s="295"/>
+      <c r="H7" s="295"/>
+      <c r="I7" s="294"/>
       <c r="J7" s="153"/>
       <c r="K7" s="153"/>
       <c r="L7" s="153"/>
@@ -55748,15 +55749,15 @@
       <c r="B9" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="293" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="291"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="294"/>
       <c r="J9" s="153"/>
       <c r="K9" s="153"/>
       <c r="L9" s="153"/>
@@ -55819,19 +55820,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="153"/>
-      <c r="B13" s="294" t="s">
+      <c r="B13" s="297" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="295"/>
-      <c r="J13" s="295"/>
-      <c r="K13" s="295"/>
-      <c r="L13" s="296"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="153"/>
       <c r="N13" s="153"/>
       <c r="O13" s="153"/>
@@ -55860,11 +55861,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="293" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="293"/>
-      <c r="L14" s="293"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="153"/>
       <c r="N14" s="153"/>
       <c r="O14" s="153"/>
@@ -55889,11 +55890,11 @@
       <c r="I15" s="130" t="s">
         <v>439</v>
       </c>
-      <c r="J15" s="300" t="s">
+      <c r="J15" s="303" t="s">
         <v>367</v>
       </c>
-      <c r="K15" s="300"/>
-      <c r="L15" s="300"/>
+      <c r="K15" s="303"/>
+      <c r="L15" s="303"/>
       <c r="M15" s="153"/>
       <c r="N15" s="153"/>
       <c r="O15" s="153"/>
@@ -55955,11 +55956,11 @@
       <c r="I17" s="159" t="s">
         <v>351</v>
       </c>
-      <c r="J17" s="290" t="s">
+      <c r="J17" s="293" t="s">
         <v>350</v>
       </c>
-      <c r="K17" s="292"/>
-      <c r="L17" s="291"/>
+      <c r="K17" s="295"/>
+      <c r="L17" s="294"/>
       <c r="M17" s="153"/>
       <c r="N17" s="153"/>
       <c r="O17" s="153"/>
@@ -55988,11 +55989,11 @@
       <c r="I18" s="182" t="s">
         <v>349</v>
       </c>
-      <c r="J18" s="290" t="s">
+      <c r="J18" s="293" t="s">
         <v>348</v>
       </c>
-      <c r="K18" s="292"/>
-      <c r="L18" s="291"/>
+      <c r="K18" s="295"/>
+      <c r="L18" s="294"/>
       <c r="M18" s="153"/>
       <c r="N18" s="153"/>
       <c r="O18" s="153"/>
@@ -56154,11 +56155,11 @@
     </row>
     <row r="28" spans="1:15" s="177" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="178"/>
-      <c r="B28" s="304" t="s">
+      <c r="B28" s="307" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="304"/>
-      <c r="D28" s="304"/>
+      <c r="C28" s="307"/>
+      <c r="D28" s="307"/>
       <c r="E28" s="179"/>
       <c r="F28" s="180"/>
       <c r="G28" s="179"/>
@@ -56173,12 +56174,12 @@
     </row>
     <row r="29" spans="1:15" s="172" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="173"/>
-      <c r="B29" s="297" t="s">
+      <c r="B29" s="300" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="298"/>
-      <c r="D29" s="298"/>
-      <c r="E29" s="299"/>
+      <c r="C29" s="301"/>
+      <c r="D29" s="301"/>
+      <c r="E29" s="302"/>
       <c r="F29" s="174" t="s">
         <v>125</v>
       </c>
@@ -56270,10 +56271,10 @@
       <c r="A32" s="153"/>
       <c r="B32" s="167"/>
       <c r="C32" s="171"/>
-      <c r="D32" s="290" t="s">
+      <c r="D32" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="291"/>
+      <c r="E32" s="294"/>
       <c r="F32" s="161" t="s">
         <v>326</v>
       </c>
@@ -56303,10 +56304,10 @@
       <c r="A33" s="153"/>
       <c r="B33" s="167"/>
       <c r="C33" s="162"/>
-      <c r="D33" s="290" t="s">
+      <c r="D33" s="293" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="291"/>
+      <c r="E33" s="294"/>
       <c r="F33" s="161" t="s">
         <v>171</v>
       </c>
@@ -56656,11 +56657,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="153"/>
-      <c r="B52" s="301" t="s">
+      <c r="B52" s="304" t="s">
         <v>329</v>
       </c>
-      <c r="C52" s="301"/>
-      <c r="D52" s="301"/>
+      <c r="C52" s="304"/>
+      <c r="D52" s="304"/>
       <c r="E52" s="153"/>
       <c r="F52" s="153"/>
       <c r="G52" s="153"/>
@@ -56677,12 +56678,12 @@
     </row>
     <row r="53" spans="1:15" s="172" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="173"/>
-      <c r="B53" s="297" t="s">
+      <c r="B53" s="300" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="298"/>
-      <c r="D53" s="298"/>
-      <c r="E53" s="299"/>
+      <c r="C53" s="301"/>
+      <c r="D53" s="301"/>
+      <c r="E53" s="302"/>
       <c r="F53" s="174" t="s">
         <v>125</v>
       </c>
@@ -56774,10 +56775,10 @@
       <c r="A56" s="153"/>
       <c r="B56" s="167"/>
       <c r="C56" s="171"/>
-      <c r="D56" s="290" t="s">
+      <c r="D56" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="291"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="161" t="s">
         <v>326</v>
       </c>
@@ -56807,10 +56808,10 @@
       <c r="A57" s="153"/>
       <c r="B57" s="167"/>
       <c r="C57" s="171"/>
-      <c r="D57" s="290" t="s">
+      <c r="D57" s="293" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="291"/>
+      <c r="E57" s="294"/>
       <c r="F57" s="161" t="s">
         <v>187</v>
       </c>
@@ -56840,10 +56841,10 @@
       <c r="A58" s="153"/>
       <c r="B58" s="167"/>
       <c r="C58" s="171"/>
-      <c r="D58" s="305" t="s">
+      <c r="D58" s="308" t="s">
         <v>192</v>
       </c>
-      <c r="E58" s="291"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="161" t="s">
         <v>190</v>
       </c>
@@ -57326,7 +57327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -57409,15 +57410,15 @@
       <c r="B4" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="293" t="s">
         <v>372</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="291"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295"/>
+      <c r="G4" s="295"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="294"/>
       <c r="J4" s="153"/>
       <c r="K4" s="153"/>
       <c r="L4" s="153"/>
@@ -57430,15 +57431,15 @@
       <c r="B5" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="293" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="291"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="295"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="294"/>
       <c r="J5" s="153"/>
       <c r="K5" s="153"/>
       <c r="L5" s="153"/>
@@ -57472,15 +57473,15 @@
       <c r="B7" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="293" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
+      <c r="G7" s="295"/>
+      <c r="H7" s="295"/>
+      <c r="I7" s="294"/>
       <c r="J7" s="153"/>
       <c r="K7" s="153"/>
       <c r="L7" s="153"/>
@@ -57514,15 +57515,15 @@
       <c r="B9" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="293" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="291"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="294"/>
       <c r="J9" s="153"/>
       <c r="K9" s="153"/>
       <c r="L9" s="153"/>
@@ -57585,19 +57586,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="153"/>
-      <c r="B13" s="294" t="s">
+      <c r="B13" s="297" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="295"/>
-      <c r="J13" s="295"/>
-      <c r="K13" s="295"/>
-      <c r="L13" s="296"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="153"/>
       <c r="N13" s="153"/>
       <c r="O13" s="153"/>
@@ -57626,11 +57627,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="293" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="293"/>
-      <c r="L14" s="293"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="153"/>
       <c r="N14" s="153"/>
       <c r="O14" s="153"/>
@@ -57655,11 +57656,11 @@
       <c r="I15" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="J15" s="300" t="s">
+      <c r="J15" s="303" t="s">
         <v>369</v>
       </c>
-      <c r="K15" s="300"/>
-      <c r="L15" s="300"/>
+      <c r="K15" s="303"/>
+      <c r="L15" s="303"/>
       <c r="M15" s="153"/>
       <c r="N15" s="153"/>
       <c r="O15" s="153"/>
@@ -57821,11 +57822,11 @@
     </row>
     <row r="25" spans="1:15" s="177" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="178"/>
-      <c r="B25" s="304" t="s">
+      <c r="B25" s="307" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="304"/>
-      <c r="D25" s="304"/>
+      <c r="C25" s="307"/>
+      <c r="D25" s="307"/>
       <c r="E25" s="179"/>
       <c r="F25" s="180"/>
       <c r="G25" s="179"/>
@@ -57840,12 +57841,12 @@
     </row>
     <row r="26" spans="1:15" s="172" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="173"/>
-      <c r="B26" s="297" t="s">
+      <c r="B26" s="300" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="298"/>
-      <c r="D26" s="298"/>
-      <c r="E26" s="299"/>
+      <c r="C26" s="301"/>
+      <c r="D26" s="301"/>
+      <c r="E26" s="302"/>
       <c r="F26" s="174" t="s">
         <v>125</v>
       </c>
@@ -57937,10 +57938,10 @@
       <c r="A29" s="153"/>
       <c r="B29" s="167"/>
       <c r="C29" s="171"/>
-      <c r="D29" s="290" t="s">
+      <c r="D29" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="291"/>
+      <c r="E29" s="294"/>
       <c r="F29" s="161" t="s">
         <v>326</v>
       </c>
@@ -57970,10 +57971,10 @@
       <c r="A30" s="153"/>
       <c r="B30" s="167"/>
       <c r="C30" s="162"/>
-      <c r="D30" s="290" t="s">
+      <c r="D30" s="293" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="291"/>
+      <c r="E30" s="294"/>
       <c r="F30" s="161" t="s">
         <v>171</v>
       </c>
@@ -58036,10 +58037,10 @@
       <c r="A32" s="153"/>
       <c r="B32" s="167"/>
       <c r="C32" s="170"/>
-      <c r="D32" s="290" t="s">
+      <c r="D32" s="293" t="s">
         <v>347</v>
       </c>
-      <c r="E32" s="291"/>
+      <c r="E32" s="294"/>
       <c r="F32" s="161" t="s">
         <v>173</v>
       </c>
@@ -58069,10 +58070,10 @@
       <c r="A33" s="153"/>
       <c r="B33" s="167"/>
       <c r="C33" s="170"/>
-      <c r="D33" s="302" t="s">
+      <c r="D33" s="305" t="s">
         <v>344</v>
       </c>
-      <c r="E33" s="303"/>
+      <c r="E33" s="306"/>
       <c r="F33" s="161" t="s">
         <v>343</v>
       </c>
@@ -58102,10 +58103,10 @@
       <c r="A34" s="153"/>
       <c r="B34" s="167"/>
       <c r="C34" s="171"/>
-      <c r="D34" s="290" t="s">
+      <c r="D34" s="293" t="s">
         <v>341</v>
       </c>
-      <c r="E34" s="291"/>
+      <c r="E34" s="294"/>
       <c r="F34" s="161" t="s">
         <v>340</v>
       </c>
@@ -58565,11 +58566,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="153"/>
-      <c r="B57" s="301" t="s">
+      <c r="B57" s="304" t="s">
         <v>329</v>
       </c>
-      <c r="C57" s="301"/>
-      <c r="D57" s="301"/>
+      <c r="C57" s="304"/>
+      <c r="D57" s="304"/>
       <c r="E57" s="153"/>
       <c r="F57" s="153"/>
       <c r="G57" s="153"/>
@@ -58586,12 +58587,12 @@
     </row>
     <row r="58" spans="1:15" s="172" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="173"/>
-      <c r="B58" s="297" t="s">
+      <c r="B58" s="300" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="298"/>
-      <c r="D58" s="298"/>
-      <c r="E58" s="299"/>
+      <c r="C58" s="301"/>
+      <c r="D58" s="301"/>
+      <c r="E58" s="302"/>
       <c r="F58" s="174" t="s">
         <v>125</v>
       </c>
@@ -58683,10 +58684,10 @@
       <c r="A61" s="153"/>
       <c r="B61" s="167"/>
       <c r="C61" s="171"/>
-      <c r="D61" s="290" t="s">
+      <c r="D61" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="E61" s="291"/>
+      <c r="E61" s="294"/>
       <c r="F61" s="161" t="s">
         <v>326</v>
       </c>
@@ -58716,10 +58717,10 @@
       <c r="A62" s="153"/>
       <c r="B62" s="167"/>
       <c r="C62" s="171"/>
-      <c r="D62" s="290" t="s">
+      <c r="D62" s="293" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="291"/>
+      <c r="E62" s="294"/>
       <c r="F62" s="161" t="s">
         <v>187</v>
       </c>
@@ -58749,10 +58750,10 @@
       <c r="A63" s="153"/>
       <c r="B63" s="167"/>
       <c r="C63" s="171"/>
-      <c r="D63" s="305" t="s">
+      <c r="D63" s="308" t="s">
         <v>192</v>
       </c>
-      <c r="E63" s="291"/>
+      <c r="E63" s="294"/>
       <c r="F63" s="161" t="s">
         <v>190</v>
       </c>
@@ -58846,8 +58847,8 @@
       <c r="A66" s="153"/>
       <c r="B66" s="163"/>
       <c r="C66" s="162"/>
-      <c r="D66" s="290"/>
-      <c r="E66" s="291"/>
+      <c r="D66" s="293"/>
+      <c r="E66" s="294"/>
       <c r="F66" s="161"/>
       <c r="G66" s="160"/>
       <c r="H66" s="160"/>
@@ -59270,7 +59271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
@@ -59353,15 +59354,15 @@
       <c r="B4" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="293" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="291"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295"/>
+      <c r="G4" s="295"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="294"/>
       <c r="J4" s="153"/>
       <c r="K4" s="153"/>
       <c r="L4" s="153"/>
@@ -59374,15 +59375,15 @@
       <c r="B5" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="293" t="s">
         <v>376</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="291"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="295"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="294"/>
       <c r="J5" s="153"/>
       <c r="K5" s="153"/>
       <c r="L5" s="153"/>
@@ -59416,15 +59417,15 @@
       <c r="B7" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="293" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
+      <c r="G7" s="295"/>
+      <c r="H7" s="295"/>
+      <c r="I7" s="294"/>
       <c r="J7" s="153"/>
       <c r="K7" s="153"/>
       <c r="L7" s="153"/>
@@ -59458,15 +59459,15 @@
       <c r="B9" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="293" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="291"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="294"/>
       <c r="J9" s="153"/>
       <c r="K9" s="153"/>
       <c r="L9" s="153"/>
@@ -59529,19 +59530,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="153"/>
-      <c r="B13" s="294" t="s">
+      <c r="B13" s="297" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="295"/>
-      <c r="J13" s="295"/>
-      <c r="K13" s="295"/>
-      <c r="L13" s="296"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="153"/>
       <c r="N13" s="153"/>
       <c r="O13" s="153"/>
@@ -59570,11 +59571,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="293" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="293"/>
-      <c r="L14" s="293"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="153"/>
       <c r="N14" s="153"/>
       <c r="O14" s="153"/>
@@ -59599,11 +59600,11 @@
       <c r="I15" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="J15" s="300" t="s">
+      <c r="J15" s="303" t="s">
         <v>367</v>
       </c>
-      <c r="K15" s="300"/>
-      <c r="L15" s="300"/>
+      <c r="K15" s="303"/>
+      <c r="L15" s="303"/>
       <c r="M15" s="153"/>
       <c r="N15" s="153"/>
       <c r="O15" s="153"/>
@@ -59628,11 +59629,11 @@
       <c r="I16" s="130" t="s">
         <v>473</v>
       </c>
-      <c r="J16" s="290" t="s">
+      <c r="J16" s="293" t="s">
         <v>474</v>
       </c>
-      <c r="K16" s="292"/>
-      <c r="L16" s="291"/>
+      <c r="K16" s="295"/>
+      <c r="L16" s="294"/>
       <c r="M16" s="153"/>
       <c r="N16" s="153"/>
       <c r="O16" s="153"/>
@@ -59661,11 +59662,11 @@
       <c r="I17" s="130" t="s">
         <v>355</v>
       </c>
-      <c r="J17" s="300" t="s">
+      <c r="J17" s="303" t="s">
         <v>374</v>
       </c>
-      <c r="K17" s="300"/>
-      <c r="L17" s="300"/>
+      <c r="K17" s="303"/>
+      <c r="L17" s="303"/>
       <c r="M17" s="153"/>
       <c r="N17" s="153"/>
       <c r="O17" s="153"/>
@@ -59827,11 +59828,11 @@
     </row>
     <row r="27" spans="1:15" s="177" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="178"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="307" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
+      <c r="C27" s="307"/>
+      <c r="D27" s="307"/>
       <c r="E27" s="179"/>
       <c r="F27" s="180"/>
       <c r="G27" s="179"/>
@@ -59846,12 +59847,12 @@
     </row>
     <row r="28" spans="1:15" s="172" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="173"/>
-      <c r="B28" s="297" t="s">
+      <c r="B28" s="300" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="298"/>
-      <c r="D28" s="298"/>
-      <c r="E28" s="299"/>
+      <c r="C28" s="301"/>
+      <c r="D28" s="301"/>
+      <c r="E28" s="302"/>
       <c r="F28" s="174" t="s">
         <v>125</v>
       </c>
@@ -59943,10 +59944,10 @@
       <c r="A31" s="153"/>
       <c r="B31" s="167"/>
       <c r="C31" s="171"/>
-      <c r="D31" s="290" t="s">
+      <c r="D31" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="291"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="161" t="s">
         <v>326</v>
       </c>
@@ -59976,10 +59977,10 @@
       <c r="A32" s="153"/>
       <c r="B32" s="167"/>
       <c r="C32" s="162"/>
-      <c r="D32" s="290" t="s">
+      <c r="D32" s="293" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="291"/>
+      <c r="E32" s="294"/>
       <c r="F32" s="161" t="s">
         <v>171</v>
       </c>
@@ -60042,8 +60043,8 @@
       <c r="A34" s="153"/>
       <c r="B34" s="163"/>
       <c r="C34" s="162"/>
-      <c r="D34" s="290"/>
-      <c r="E34" s="291"/>
+      <c r="D34" s="293"/>
+      <c r="E34" s="294"/>
       <c r="F34" s="161"/>
       <c r="G34" s="160"/>
       <c r="H34" s="160"/>
@@ -60365,11 +60366,11 @@
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="153"/>
-      <c r="B53" s="301" t="s">
+      <c r="B53" s="304" t="s">
         <v>329</v>
       </c>
-      <c r="C53" s="301"/>
-      <c r="D53" s="301"/>
+      <c r="C53" s="304"/>
+      <c r="D53" s="304"/>
       <c r="E53" s="153"/>
       <c r="F53" s="153"/>
       <c r="G53" s="153"/>
@@ -60386,12 +60387,12 @@
     </row>
     <row r="54" spans="1:15" s="172" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="173"/>
-      <c r="B54" s="297" t="s">
+      <c r="B54" s="300" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="298"/>
-      <c r="D54" s="298"/>
-      <c r="E54" s="299"/>
+      <c r="C54" s="301"/>
+      <c r="D54" s="301"/>
+      <c r="E54" s="302"/>
       <c r="F54" s="174" t="s">
         <v>125</v>
       </c>
@@ -60483,10 +60484,10 @@
       <c r="A57" s="153"/>
       <c r="B57" s="167"/>
       <c r="C57" s="171"/>
-      <c r="D57" s="290" t="s">
+      <c r="D57" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="E57" s="291"/>
+      <c r="E57" s="294"/>
       <c r="F57" s="161" t="s">
         <v>326</v>
       </c>
@@ -60516,10 +60517,10 @@
       <c r="A58" s="153"/>
       <c r="B58" s="167"/>
       <c r="C58" s="171"/>
-      <c r="D58" s="290" t="s">
+      <c r="D58" s="293" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="291"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="161" t="s">
         <v>187</v>
       </c>
@@ -60549,10 +60550,10 @@
       <c r="A59" s="153"/>
       <c r="B59" s="167"/>
       <c r="C59" s="171"/>
-      <c r="D59" s="305" t="s">
+      <c r="D59" s="308" t="s">
         <v>192</v>
       </c>
-      <c r="E59" s="291"/>
+      <c r="E59" s="294"/>
       <c r="F59" s="161" t="s">
         <v>190</v>
       </c>
@@ -60646,8 +60647,8 @@
       <c r="A62" s="153"/>
       <c r="B62" s="163"/>
       <c r="C62" s="162"/>
-      <c r="D62" s="290"/>
-      <c r="E62" s="291"/>
+      <c r="D62" s="293"/>
+      <c r="E62" s="294"/>
       <c r="F62" s="161"/>
       <c r="G62" s="160"/>
       <c r="H62" s="160"/>
